--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBAE45D-4EEC-42E8-BF8D-A35C392A7EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C150820D-225B-4233-95FE-B0940463FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1485" windowWidth="21795" windowHeight="13065" activeTab="1" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
+    <workbookView xWindow="210" yWindow="300" windowWidth="23460" windowHeight="14625" activeTab="1" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
   <sheets>
     <sheet name="遷移図" sheetId="1" r:id="rId1"/>
-    <sheet name="DB定義" sheetId="3" r:id="rId2"/>
-    <sheet name="部品" sheetId="2" r:id="rId3"/>
+    <sheet name="URL一覧" sheetId="4" r:id="rId2"/>
+    <sheet name="DB定義" sheetId="3" r:id="rId3"/>
+    <sheet name="部品" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">URL一覧!$A$1:$F$24</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -170,9 +174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>COMPANY_CODE</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -257,9 +258,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WORK_START_HOUR</t>
-  </si>
-  <si>
     <t>始業時間(分)</t>
     <rPh sb="0" eb="2">
       <t>シギョウ</t>
@@ -273,9 +271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WORK_START_MINUTE</t>
-  </si>
-  <si>
     <t>終業時間(時)</t>
     <rPh sb="0" eb="2">
       <t>シュウギョウ</t>
@@ -286,9 +281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WORK_END_HOUR</t>
-  </si>
-  <si>
     <t>終業時間(分)</t>
     <rPh sb="0" eb="2">
       <t>シュウギョウ</t>
@@ -299,9 +291,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WORK_END_MINUTE</t>
-  </si>
-  <si>
     <t>DATETIME</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -335,10 +324,6 @@
   </si>
   <si>
     <t>64</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>COMPANY_CODE</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -414,15 +399,291 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>COMPANY_CODE</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>REG_DATE</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UPDATE_DATE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>View関数</t>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>host=</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/login</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パス名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/user/create</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/user/list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_create</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/admin/login</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理サイトログイン画面</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勤怠管理ログイン画面</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイカンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勤怠管理メニュー画面</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイカンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勤怠管理ユーザ作成画面</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勤怠管理ユーザ一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>企業マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>COMPANY_MT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>企業名</t>
+    <rPh sb="0" eb="3">
+      <t>キギョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>COMPANY_CD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ONTIME_MT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>START_HOUR</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>START_MINUTE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>END_HOUR</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>END_MINUTE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勤怠管理ユーザ編集画面</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイカンリ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>勤怠管理ユーザ削除画面</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイカンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>企業マスタ登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>企業マスタ編集画面</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>企業マスタ一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>企業マスタ削除画面</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/user/edit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/user/delete</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/cp/list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/cp/create</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/cp/edit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/cp/delete</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -430,7 +691,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +737,23 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -500,12 +778,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,11 +814,155 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -740,22 +1165,16 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
         <name val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -777,6 +1196,48 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -794,16 +1255,80 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>195263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0190085-7270-4D21-B4E7-681F21CBAE96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1438275" y="995363"/>
+          <a:ext cx="2609850" cy="385761"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8759"/>
+            <a:gd name="adj2" fmla="val 159260"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -818,7 +1343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="619124"/>
+          <a:off x="733425" y="609599"/>
           <a:ext cx="1409700" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -878,13 +1403,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -900,7 +1425,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772025" y="619124"/>
+          <a:off x="4772025" y="2019299"/>
           <a:ext cx="1409700" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -960,13 +1485,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -982,7 +1507,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2628900" y="619124"/>
+          <a:off x="2628900" y="2019299"/>
           <a:ext cx="1409700" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1042,14 +1567,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>195263</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1062,13 +1587,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
+          <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2143125" y="1004887"/>
-          <a:ext cx="485775" cy="0"/>
+          <a:off x="2143125" y="995362"/>
+          <a:ext cx="495300" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1108,13 +1633,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1130,7 +1655,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4781550" y="1819274"/>
+          <a:off x="4781550" y="3219449"/>
           <a:ext cx="1409700" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1190,13 +1715,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1215,7 +1740,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4038600" y="1004887"/>
+          <a:off x="4038600" y="2405062"/>
           <a:ext cx="742950" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1258,13 +1783,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1280,7 +1805,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4781550" y="3019424"/>
+          <a:off x="4781550" y="4419599"/>
           <a:ext cx="1409700" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1340,13 +1865,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1365,7 +1890,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4038600" y="1004887"/>
+          <a:off x="4038600" y="2405062"/>
           <a:ext cx="742950" cy="2400300"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1408,13 +1933,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1433,11 +1958,161 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4038600" y="1004887"/>
+          <a:off x="4038600" y="2405062"/>
           <a:ext cx="733425" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15AEC07B-345B-42BA-A7A0-FD0BA620CA61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="609600"/>
+          <a:ext cx="1409700" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザ作成画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="コネクタ: カギ線 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CF1867-01DF-4F48-86D9-84EFEED5FAA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="995362"/>
+          <a:ext cx="485775" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
@@ -1788,19 +2463,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:J41" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}" name="テーブル2" displayName="テーブル2" ref="A2:F24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A2:F24" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3CBF7F5E-BEF0-4E65-BC8F-31B8865676BE}" name="No" dataDxfId="3">
+      <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{065AB81F-C392-46FF-A4D3-D2576D993354}" name="画面名" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D6728220-743D-4FA6-8EE8-1BC6E5B4769E}" name="パス名" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{D4F97791-1B66-40A7-878A-EA346B3FE47E}" name="URL" dataDxfId="1">
+      <calculatedColumnFormula>$C$1&amp;テーブル2[[#This Row],[パス名]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{43C6DEDE-73FA-4A00-ACD2-CDCA758836EE}" name="View関数" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{84092C46-EF3D-4000-95FD-C05C4BA4FFE0}" name="備考" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:J41" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:J41" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="No" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{1957689B-E225-49BB-B9C6-E7FD96BEFAF8}" name="テーブル名（物理名）" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{59B3D7F6-7F01-4CC9-A3E4-6F9A1CE9A7ED}" name="カラム名（論理名）" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{B344ED27-C9AF-40C5-804E-DE744CF55CF6}" name="カラム名（物理名）" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{A1AFAE0B-B8B7-4F06-9E79-A973996E7D17}" name="Pキー" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{CE544C9E-ABCD-4010-8985-2C9F62BDA4D1}" name="必須" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{E8A272B1-E29C-469E-9A35-AE83F24373DA}" name="型" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{33CEA65A-379F-49DF-A0D1-3E54DF4C627F}" name="サイズ" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{B17BCC14-EBDF-42B5-93C8-71C562D92537}" name="備考" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="No" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{1957689B-E225-49BB-B9C6-E7FD96BEFAF8}" name="テーブル名（物理名）" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{59B3D7F6-7F01-4CC9-A3E4-6F9A1CE9A7ED}" name="カラム名（論理名）" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{B344ED27-C9AF-40C5-804E-DE744CF55CF6}" name="カラム名（物理名）" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{A1AFAE0B-B8B7-4F06-9E79-A973996E7D17}" name="Pキー" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{CE544C9E-ABCD-4010-8985-2C9F62BDA4D1}" name="必須" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{E8A272B1-E29C-469E-9A35-AE83F24373DA}" name="型" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{33CEA65A-379F-49DF-A0D1-3E54DF4C627F}" name="サイズ" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{B17BCC14-EBDF-42B5-93C8-71C562D92537}" name="備考" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2103,11 +2797,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D49027F-2E49-4BC7-A696-FDA97A770343}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2129,12 +2827,596 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E8AFD-E3AB-47CF-B8C6-4E8F0193DEF6}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="45" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="12">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/admin/login</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="13">
+        <f t="shared" ref="A4:A24" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/login</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/user/list</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/user/create</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/user/edit</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/user/delete</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/cp/list</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/cp/create</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/cp/edit</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/cp/delete</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="13">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11" t="str">
+        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{AA3746E6-C604-4BB2-B39F-85765C5115A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8945B9-C266-46C4-8FDD-78B5133F2EA9}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2144,8 +3426,8 @@
     <col min="3" max="3" width="24.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.875" style="2" customWidth="1"/>
@@ -2172,7 +3454,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>6</v>
@@ -2208,14 +3490,14 @@
         <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
-        <f t="shared" ref="A3:A22" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A41" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2228,7 +3510,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8">
@@ -2238,7 +3520,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J3" s="8"/>
     </row>
@@ -2257,7 +3539,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8">
@@ -2267,7 +3549,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J4" s="8"/>
     </row>
@@ -2286,14 +3568,14 @@
         <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -2313,14 +3595,14 @@
         <v>15</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8">
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -2334,13 +3616,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -2349,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -2376,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2396,7 +3678,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8">
@@ -2406,7 +3688,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J9" s="8"/>
     </row>
@@ -2422,17 +3704,17 @@
         <v>17</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8">
         <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -2449,23 +3731,23 @@
         <v>17</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8">
         <v>1</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -2480,10 +3762,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
@@ -2493,10 +3775,10 @@
         <v>18</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -2511,10 +3793,10 @@
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8">
@@ -2524,10 +3806,10 @@
         <v>18</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -2542,17 +3824,17 @@
         <v>17</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8">
         <v>1</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -2569,17 +3851,17 @@
         <v>17</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8">
         <v>1</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -2590,19 +3872,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -2611,7 +3893,7 @@
         <v>18</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="8"/>
     </row>
@@ -2621,23 +3903,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8">
         <v>1</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -2648,23 +3930,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8">
         <v>1</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -2675,23 +3957,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8">
         <v>1</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -2702,23 +3984,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8">
         <v>1</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -2729,23 +4011,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8">
         <v>1</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -2756,77 +4038,146 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8">
         <v>1</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="A23" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="A24" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="A26" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2838,7 +4189,10 @@
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="7"/>
+      <c r="A28" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2850,7 +4204,10 @@
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="7"/>
+      <c r="A29" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -2862,7 +4219,10 @@
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="7"/>
+      <c r="A30" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2874,7 +4234,10 @@
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2886,7 +4249,10 @@
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="7"/>
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2898,7 +4264,10 @@
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="7"/>
+      <c r="A33" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2910,7 +4279,10 @@
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2922,7 +4294,10 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="7"/>
+      <c r="A35" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2934,7 +4309,10 @@
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="7"/>
+      <c r="A36" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2946,7 +4324,10 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="7"/>
+      <c r="A37" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2958,7 +4339,10 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="7"/>
+      <c r="A38" s="7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2970,7 +4354,10 @@
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="7"/>
+      <c r="A39" s="7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2982,7 +4369,10 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="7"/>
+      <c r="A40" s="7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2994,7 +4384,10 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="7"/>
+      <c r="A41" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -3008,18 +4401,25 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="4" manualBreakCount="4">
+    <brk id="6" max="16383" man="1"/>
+    <brk id="15" max="16383" man="1"/>
+    <brk id="22" max="16383" man="1"/>
+    <brk id="26" max="16383" man="1"/>
+  </rowBreaks>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318F5ACB-8B67-4E43-8C03-9DB021B5E5D3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C150820D-225B-4233-95FE-B0940463FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E00DF91-5B76-41DE-8C13-7C3EC95B7ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="300" windowWidth="23460" windowHeight="14625" activeTab="1" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
+    <workbookView xWindow="-105" yWindow="15" windowWidth="26625" windowHeight="15330" activeTab="2" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
   <sheets>
     <sheet name="遷移図" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="部品" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">URL一覧!$A$1:$F$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">URL一覧!$A$1:$H$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -684,6 +684,182 @@
   </si>
   <si>
     <t>/kintai/cp/delete</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>遷移</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>redirect</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>部署マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>部署マスタコード</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DIVISION_MT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DIVISION_CD</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>部署名</t>
+    <rPh sb="0" eb="3">
+      <t>ブショメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>定時情報マスタID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SEQ_ONTIME_MT_ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シーケンス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン
+要求</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>部署マスタ登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理サイト
+提供</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/dv/create</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>部署マスタ編集画面</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>部署マスタ削除画面</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>部署マスタ一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/dv/list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/dv/edit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/dv/delete</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>定時マスタ一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>テイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>定時マスタ登録画面</t>
+    <rPh sb="5" eb="9">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>定時マスタ編集画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>定時マスタ削除画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/ot/list</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/ot/create</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/ot/edit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/ot/delete</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_edit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_delete</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -755,7 +931,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,6 +941,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,11 +1002,8 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -832,15 +1011,79 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -901,67 +1144,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -1165,16 +1348,22 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <name val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1238,6 +1427,80 @@
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1257,13 +1520,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>195263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1321,13 +1584,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1344,6 +1607,88 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="733425" y="609599"/>
+          <a:ext cx="1409700" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E6D789-7944-48BD-A19F-BC4CF6585CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="2219324"/>
           <a:ext cx="1409700" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1392,88 +1737,6 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ログイン画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E6D789-7944-48BD-A19F-BC4CF6585CEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4772025" y="2019299"/>
-          <a:ext cx="1409700" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
             <a:t>勤怠登録画面</a:t>
           </a:r>
         </a:p>
@@ -1485,13 +1748,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1567,13 +1830,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>195263</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1633,13 +1896,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1715,13 +1978,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1783,13 +2046,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1865,13 +2128,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1933,13 +2196,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1958,8 +2221,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4038600" y="2405062"/>
-          <a:ext cx="733425" cy="0"/>
+          <a:off x="4038600" y="2605087"/>
+          <a:ext cx="714375" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1999,13 +2262,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2022,6 +2285,238 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2638425" y="609600"/>
+          <a:ext cx="1409700" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザ作成画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="コネクタ: カギ線 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CF1867-01DF-4F48-86D9-84EFEED5FAA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="1195387"/>
+          <a:ext cx="485775" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DAA6E84-F4FC-4536-BF09-F6F364714E4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12144375" y="1400175"/>
+          <a:ext cx="1409700" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>非ログイン要求機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC160A1-3848-41A3-933C-FA0CE3F93A22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12172950" y="2371725"/>
           <a:ext cx="1409700" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2070,7 +2565,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ユーザ作成画面</a:t>
+            <a:t>ログイン要求機能</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2079,40 +2574,176 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E3B7CD-6609-4ECF-8E42-28D7BB98B036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12172950" y="3390900"/>
+          <a:ext cx="1409700" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>管理サイト機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="コネクタ: カギ線 37">
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CF1867-01DF-4F48-86D9-84EFEED5FAA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B2F09E-9426-4189-8639-2432EDE6CA29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
+          <a:cxnSpLocks/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2143125" y="995362"/>
-          <a:ext cx="485775" cy="1409700"/>
+          <a:off x="12620625" y="5124450"/>
+          <a:ext cx="781050" cy="4762"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4323FA11-B04B-423B-B3A4-3193CA249631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12563475" y="4724400"/>
+          <a:ext cx="733425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
@@ -2143,6 +2774,236 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116C22F3-FAEA-4355-BB6B-6C1D1EBE9FD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="7219950"/>
+          <a:ext cx="1409700" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8926439-80B3-44AC-86AC-244C6948AA93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="7605713"/>
+          <a:ext cx="504825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA381991-E195-4A94-A064-70DB82D47168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="7219950"/>
+          <a:ext cx="1409700" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マスタ系登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2463,18 +3324,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}" name="テーブル2" displayName="テーブル2" ref="A2:F24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A2:F24" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3CBF7F5E-BEF0-4E65-BC8F-31B8865676BE}" name="No" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}" name="テーブル2" displayName="テーブル2" ref="A2:H24" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A2:H24" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3CBF7F5E-BEF0-4E65-BC8F-31B8865676BE}" name="#" dataDxfId="21">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{065AB81F-C392-46FF-A4D3-D2576D993354}" name="画面名" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D6728220-743D-4FA6-8EE8-1BC6E5B4769E}" name="パス名" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{D4F97791-1B66-40A7-878A-EA346B3FE47E}" name="URL" dataDxfId="1">
-      <calculatedColumnFormula>$C$1&amp;テーブル2[[#This Row],[パス名]]</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{065AB81F-C392-46FF-A4D3-D2576D993354}" name="画面名" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{2B2D10AB-3258-4A14-8A79-8FC53048B627}" name="管理サイト_x000a_提供" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D6728220-743D-4FA6-8EE8-1BC6E5B4769E}" name="パス名" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{D4F97791-1B66-40A7-878A-EA346B3FE47E}" name="URL" dataDxfId="4">
+      <calculatedColumnFormula>$D$1&amp;テーブル2[[#This Row],[パス名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{43C6DEDE-73FA-4A00-ACD2-CDCA758836EE}" name="View関数" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{803D1913-A85D-4B55-9B0F-279B6A77FB14}" name="ログイン_x000a_要求" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{43C6DEDE-73FA-4A00-ACD2-CDCA758836EE}" name="View関数" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{84092C46-EF3D-4000-95FD-C05C4BA4FFE0}" name="備考" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2482,14 +3345,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:J41" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:J41" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K43" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:K43" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="No" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{1957689B-E225-49BB-B9C6-E7FD96BEFAF8}" name="テーブル名（物理名）" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{59B3D7F6-7F01-4CC9-A3E4-6F9A1CE9A7ED}" name="カラム名（論理名）" dataDxfId="12"/>
     <tableColumn id="5" xr3:uid="{B344ED27-C9AF-40C5-804E-DE744CF55CF6}" name="カラム名（物理名）" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{B8D62AAD-9CA8-4C97-A164-779DE4FB09D0}" name="シーケンス" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{A1AFAE0B-B8B7-4F06-9E79-A973996E7D17}" name="Pキー" dataDxfId="10"/>
     <tableColumn id="10" xr3:uid="{CE544C9E-ABCD-4010-8985-2C9F62BDA4D1}" name="必須" dataDxfId="9"/>
     <tableColumn id="7" xr3:uid="{E8A272B1-E29C-469E-9A35-AE83F24373DA}" name="型" dataDxfId="8"/>
@@ -2800,12 +3664,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:BG26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="AH17" sqref="AH17"/>
+      <selection pane="bottomLeft" activeCell="AD40" sqref="AD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2817,6 +3681,16 @@
       <c r="A1" s="3" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,99)</f>
         <v>遷移図</v>
+      </c>
+    </row>
+    <row r="24" spans="59:59" x14ac:dyDescent="0.4">
+      <c r="BG24" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="59:59" x14ac:dyDescent="0.4">
+      <c r="BG26" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2831,56 +3705,66 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10:C13"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="45" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="45" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="9"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="31.5" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <f>ROW()-2</f>
         <v>1</v>
@@ -2888,516 +3772,691 @@
       <c r="B3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="E3" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/admin/login</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="13">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="12">
         <f t="shared" ref="A4:A24" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="E4" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/login</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="13">
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="E5" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="13">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="E6" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/user/list</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="13">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="E7" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/user/create</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="13">
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="E8" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/user/edit</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="13">
+      <c r="F8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="E9" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/user/delete</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="13">
+      <c r="F9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="E10" s="16" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/cp/list</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="13">
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="E11" s="16" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/cp/create</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="13">
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="E12" s="16" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/cp/edit</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="13">
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="E13" s="16" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/cp/delete</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="13">
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="B14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="16" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/dv/list</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="16" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/dv/create</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="16" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/dv/edit</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="16" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/dv/delete</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="16" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/ot/list</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="16" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/ot/create</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="16" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/ot/edit</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="12">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="16" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000/kintai/ot/delete</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="13">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="13">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="13">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="13">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="13">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="13">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="13">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="13">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11" t="str">
-        <f>$C$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="C3 C10:C24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"◯"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{AA3746E6-C604-4BB2-B39F-85765C5115A1}"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{AA3746E6-C604-4BB2-B39F-85765C5115A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3412,11 +4471,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -3426,15 +4485,16 @@
     <col min="3" max="3" width="24.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="16.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3451,22 +4511,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <f>ROW()-1</f>
         <v>1</v>
@@ -3489,15 +4552,18 @@
       <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
-        <f t="shared" ref="A3:A41" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A43" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -3513,18 +4579,19 @@
         <v>39</v>
       </c>
       <c r="F3" s="8"/>
-      <c r="G3" s="8">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3542,18 +4609,19 @@
         <v>81</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="8">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3571,16 +4639,17 @@
         <v>55</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="8">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3598,16 +4667,17 @@
         <v>56</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="8">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3630,13 +4700,16 @@
       <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3654,16 +4727,17 @@
         <v>11</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="8">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3681,18 +4755,19 @@
         <v>81</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="8">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
         <v>1</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3710,16 +4785,17 @@
         <v>43</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="8">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8">
         <v>1</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3737,20 +4813,21 @@
         <v>44</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="8">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3768,20 +4845,21 @@
         <v>45</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="8">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
         <v>1</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3799,20 +4877,21 @@
         <v>46</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="8">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
         <v>1</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="K13" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3830,16 +4909,17 @@
         <v>24</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="8">
+      <c r="G14" s="8"/>
+      <c r="H14" s="8">
         <v>1</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3857,16 +4937,17 @@
         <v>26</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="8">
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
         <v>1</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3878,26 +4959,25 @@
         <v>84</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="8">
+        <v>109</v>
+      </c>
+      <c r="F16" s="8">
         <v>1</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>18</v>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8">
+        <v>1</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3906,25 +4986,30 @@
         <v>27</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8">
         <v>1</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3936,22 +5021,27 @@
         <v>28</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3963,22 +5053,23 @@
         <v>28</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="8">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
         <v>1</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3990,22 +5081,23 @@
         <v>28</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="8">
+      <c r="G20" s="8"/>
+      <c r="H20" s="8">
         <v>1</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4017,22 +5109,23 @@
         <v>28</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="8">
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
         <v>1</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4044,82 +5137,79 @@
         <v>28</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
         <v>1</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4131,22 +5221,27 @@
         <v>79</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="8">
+      <c r="G25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="8">
         <v>1</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4158,112 +5253,195 @@
         <v>79</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8">
-        <v>1</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="7">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4277,8 +5455,9 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4292,8 +5471,9 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4307,8 +5487,9 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4322,8 +5503,9 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4337,8 +5519,9 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4352,8 +5535,9 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4367,8 +5551,9 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4382,8 +5567,9 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4397,16 +5583,50 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="4" manualBreakCount="4">
+  <rowBreaks count="5" manualBreakCount="5">
     <brk id="6" max="16383" man="1"/>
     <brk id="15" max="16383" man="1"/>
-    <brk id="22" max="16383" man="1"/>
-    <brk id="26" max="16383" man="1"/>
+    <brk id="24" max="16383" man="1"/>
+    <brk id="28" max="16383" man="1"/>
+    <brk id="32" max="16383" man="1"/>
   </rowBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E00DF91-5B76-41DE-8C13-7C3EC95B7ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0255AB2-FD60-4340-8B8A-5D3258891309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="15" windowWidth="26625" windowHeight="15330" activeTab="2" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
   <sheets>
     <sheet name="遷移図" sheetId="1" r:id="rId1"/>
     <sheet name="URL一覧" sheetId="4" r:id="rId2"/>
-    <sheet name="DB定義" sheetId="3" r:id="rId3"/>
-    <sheet name="部品" sheetId="2" r:id="rId4"/>
+    <sheet name="2" sheetId="5" r:id="rId3"/>
+    <sheet name="3" sheetId="6" r:id="rId4"/>
+    <sheet name="5" sheetId="7" r:id="rId5"/>
+    <sheet name="6" sheetId="8" r:id="rId6"/>
+    <sheet name="DB定義" sheetId="3" r:id="rId7"/>
+    <sheet name="部品" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">URL一覧!$A$1:$H$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">URL一覧!$A$1:$H$36</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="132">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -457,10 +461,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>user_list</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>user_create</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -507,38 +507,6 @@
       <t>キンタイカンリ</t>
     </rPh>
     <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>勤怠管理ユーザ作成画面</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>勤怠管理ユーザ一覧画面</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -594,29 +562,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>勤怠管理ユーザ編集画面</t>
-    <rPh sb="0" eb="4">
-      <t>キンタイカンリ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ヘンシュウガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>勤怠管理ユーザ削除画面</t>
-    <rPh sb="0" eb="4">
-      <t>キンタイカンリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>企業マスタ登録画面</t>
     <rPh sb="0" eb="2">
       <t>キギョウ</t>
@@ -660,10 +605,6 @@
     <rPh sb="7" eb="9">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>/kintai/user/edit</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -859,7 +800,44 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>user_delete</t>
+    <t>ユーザ一覧画面</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ作成画面</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ編集画面</t>
+    <rPh sb="3" eb="7">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ削除画面</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/user/edit/{$seq_user_id}</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -867,7 +845,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,8 +908,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,13 +936,99 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -968,7 +1040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,12 +1095,45 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1046,85 +1151,33 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
+        <color rgb="FFFF0000"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1445,6 +1498,88 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1503,6 +1638,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3578E5"/>
+      <color rgb="FF51D1DF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3013,6 +3154,623 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C13358-7BCD-44FE-84E5-774FC8592441}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="1276350"/>
+          <a:ext cx="3343275" cy="3914775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>148721</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>203705</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE640B4-0055-D6F3-6DDA-DB1A1CA7EC6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4434971" y="2228850"/>
+          <a:ext cx="2436234" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>148721</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>203705</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEDBFF6-3BC0-415F-BD5A-67BD3E315E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4434971" y="2714625"/>
+          <a:ext cx="2436234" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095FC7B7-3A3B-745D-BCB6-A8DBDBAA1532}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="3419475"/>
+          <a:ext cx="2400300" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3578E5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3578E5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458C7BDB-AE45-944D-FA4E-F1912BF5BA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="4171950"/>
+          <a:ext cx="1762125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA30058-5EF9-99EE-7B0A-BF1D53D93479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="4371975"/>
+          <a:ext cx="2095500" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワードを忘れた場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E04525B-EE72-49C2-85AA-6985C76E5F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048124" y="5476875"/>
+          <a:ext cx="3228975" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アカウントをお持ちでないですか？ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>登録する</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1050" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD5B70A-76AD-41A3-909B-63FBF189212F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="5314950"/>
+          <a:ext cx="3343275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -3324,41 +4082,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}" name="テーブル2" displayName="テーブル2" ref="A2:H24" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A2:H24" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}" name="テーブル2" displayName="テーブル2" ref="A2:H36" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A2:H36" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3CBF7F5E-BEF0-4E65-BC8F-31B8865676BE}" name="#" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{3CBF7F5E-BEF0-4E65-BC8F-31B8865676BE}" name="#" dataDxfId="23">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{065AB81F-C392-46FF-A4D3-D2576D993354}" name="画面名" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{2B2D10AB-3258-4A14-8A79-8FC53048B627}" name="管理サイト_x000a_提供" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{D6728220-743D-4FA6-8EE8-1BC6E5B4769E}" name="パス名" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{D4F97791-1B66-40A7-878A-EA346B3FE47E}" name="URL" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{065AB81F-C392-46FF-A4D3-D2576D993354}" name="画面名" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{2B2D10AB-3258-4A14-8A79-8FC53048B627}" name="管理サイト_x000a_提供" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{D6728220-743D-4FA6-8EE8-1BC6E5B4769E}" name="パス名" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{D4F97791-1B66-40A7-878A-EA346B3FE47E}" name="URL" dataDxfId="19">
       <calculatedColumnFormula>$D$1&amp;テーブル2[[#This Row],[パス名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{803D1913-A85D-4B55-9B0F-279B6A77FB14}" name="ログイン_x000a_要求" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{43C6DEDE-73FA-4A00-ACD2-CDCA758836EE}" name="View関数" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{84092C46-EF3D-4000-95FD-C05C4BA4FFE0}" name="備考" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{803D1913-A85D-4B55-9B0F-279B6A77FB14}" name="ログイン_x000a_要求" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{43C6DEDE-73FA-4A00-ACD2-CDCA758836EE}" name="View関数" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{84092C46-EF3D-4000-95FD-C05C4BA4FFE0}" name="備考" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K43" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K43" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:K43" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="No" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{1957689B-E225-49BB-B9C6-E7FD96BEFAF8}" name="テーブル名（物理名）" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{59B3D7F6-7F01-4CC9-A3E4-6F9A1CE9A7ED}" name="カラム名（論理名）" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{B344ED27-C9AF-40C5-804E-DE744CF55CF6}" name="カラム名（物理名）" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{B8D62AAD-9CA8-4C97-A164-779DE4FB09D0}" name="シーケンス" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{A1AFAE0B-B8B7-4F06-9E79-A973996E7D17}" name="Pキー" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{CE544C9E-ABCD-4010-8985-2C9F62BDA4D1}" name="必須" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{E8A272B1-E29C-469E-9A35-AE83F24373DA}" name="型" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{33CEA65A-379F-49DF-A0D1-3E54DF4C627F}" name="サイズ" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{B17BCC14-EBDF-42B5-93C8-71C562D92537}" name="備考" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="No" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{1957689B-E225-49BB-B9C6-E7FD96BEFAF8}" name="テーブル名（物理名）" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{59B3D7F6-7F01-4CC9-A3E4-6F9A1CE9A7ED}" name="カラム名（論理名）" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B344ED27-C9AF-40C5-804E-DE744CF55CF6}" name="カラム名（物理名）" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{B8D62AAD-9CA8-4C97-A164-779DE4FB09D0}" name="シーケンス" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{A1AFAE0B-B8B7-4F06-9E79-A973996E7D17}" name="Pキー" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{CE544C9E-ABCD-4010-8985-2C9F62BDA4D1}" name="必須" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{E8A272B1-E29C-469E-9A35-AE83F24373DA}" name="型" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{33CEA65A-379F-49DF-A0D1-3E54DF4C627F}" name="サイズ" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{B17BCC14-EBDF-42B5-93C8-71C562D92537}" name="備考" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3667,9 +4425,9 @@
   <dimension ref="A1:BG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="AD40" sqref="AD40"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -3685,12 +4443,12 @@
     </row>
     <row r="24" spans="59:59" x14ac:dyDescent="0.4">
       <c r="BG24" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="59:59" x14ac:dyDescent="0.4">
       <c r="BG26" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3705,23 +4463,23 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -3740,13 +4498,13 @@
     </row>
     <row r="2" spans="1:8" ht="31.5" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -3755,7 +4513,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>58</v>
@@ -3770,36 +4528,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="11" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/admin/login</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
-        <f t="shared" ref="A4:A24" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>61</v>
@@ -3809,7 +4567,7 @@
         <v>http://127.0.0.1:8000/kintai/login</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>66</v>
@@ -3822,10 +4580,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>63</v>
@@ -3835,7 +4593,7 @@
         <v>http://127.0.0.1:8000/kintai</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>67</v>
@@ -3848,25 +4606,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="11" t="str">
+      <c r="E6" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/user/list</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="10"/>
+      <c r="F6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
@@ -3874,10 +4630,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>64</v>
@@ -3887,10 +4643,10 @@
         <v>http://127.0.0.1:8000/kintai/user/create</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -3900,23 +4656,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="E8" s="11" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/user/edit</v>
+        <v>http://127.0.0.1:8000/kintai/user/edit/{$seq_user_id}</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -3926,25 +4682,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/user/delete</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="10"/>
+      <c r="F9" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
@@ -3952,13 +4706,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -3974,13 +4728,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E11" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -3996,13 +4750,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E12" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -4018,13 +4772,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="E13" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -4040,13 +4794,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E14" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -4062,13 +4816,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E15" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -4084,13 +4838,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E16" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -4106,13 +4860,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E17" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -4128,13 +4882,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E18" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -4150,13 +4904,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E19" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -4172,13 +4926,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E20" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -4194,13 +4948,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E21" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -4212,7 +4966,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A22:A33" si="1">ROW()-2</f>
         <v>20</v>
       </c>
       <c r="B22" s="11"/>
@@ -4228,7 +4982,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="11"/>
@@ -4244,7 +4998,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="11"/>
@@ -4259,124 +5013,196 @@
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="A25" s="12">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="A26" s="12">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="A27" s="12">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="A28" s="12">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="A29" s="12">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="A30" s="12">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="12">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="A32" s="12">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="A33" s="12">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="A34" s="12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="A35" s="12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="A36" s="12">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11" t="str">
+        <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
+        <v>http://127.0.0.1:8000</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
@@ -4448,9 +5274,139 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="C3 C10:C24">
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"◯"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"◯"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C36">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
@@ -4467,13 +5423,6662 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEF12AF-01AF-4F3F-B4D2-20CBEEA8A563}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AY35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ21" sqref="AJ21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="3.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="3.125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="str">
+        <f>VLOOKUP(2,テーブル2[['#]:[画面名]],2,FALSE)</f>
+        <v>勤怠管理ログイン画面</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="21"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="22"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C5" s="23"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="24"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C6" s="23"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="24"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C7" s="23"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="24"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C8" s="23"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="24"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C9" s="23"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="24"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C10" s="23"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="24"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C11" s="23"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="24"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C12" s="23"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="24"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C13" s="23"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="24"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C14" s="23"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="24"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C15" s="23"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="24"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C16" s="23"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="24"/>
+    </row>
+    <row r="17" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C17" s="23"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="24"/>
+    </row>
+    <row r="18" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C18" s="23"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="24"/>
+    </row>
+    <row r="19" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C19" s="23"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="24"/>
+    </row>
+    <row r="20" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C20" s="23"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="24"/>
+    </row>
+    <row r="21" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C21" s="23"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="24"/>
+    </row>
+    <row r="22" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C22" s="23"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="24"/>
+    </row>
+    <row r="23" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C23" s="23"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="24"/>
+    </row>
+    <row r="24" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C24" s="23"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="24"/>
+    </row>
+    <row r="25" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C25" s="23"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="24"/>
+    </row>
+    <row r="26" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C26" s="23"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="24"/>
+    </row>
+    <row r="27" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C27" s="23"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="24"/>
+    </row>
+    <row r="28" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C28" s="23"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="24"/>
+    </row>
+    <row r="29" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C29" s="23"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="24"/>
+    </row>
+    <row r="30" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C30" s="23"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="19"/>
+      <c r="AS30" s="19"/>
+      <c r="AT30" s="19"/>
+      <c r="AU30" s="19"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="19"/>
+      <c r="AY30" s="24"/>
+    </row>
+    <row r="31" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C31" s="23"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="19"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="19"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="24"/>
+    </row>
+    <row r="32" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C32" s="23"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="24"/>
+    </row>
+    <row r="33" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C33" s="23"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="19"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="AU33" s="19"/>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="24"/>
+    </row>
+    <row r="34" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C34" s="23"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="24"/>
+    </row>
+    <row r="35" spans="3:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDF3785-7350-46DA-98D6-8287D9DD3FB6}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AY35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="3.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="3.125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="str">
+        <f>VLOOKUP(3,テーブル2[['#]:[画面名]],2,FALSE)</f>
+        <v>勤怠管理メニュー画面</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="21"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="22"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C5" s="23"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="24"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C6" s="23"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="24"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C7" s="23"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="24"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C8" s="23"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="24"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C9" s="23"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="24"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C10" s="23"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="24"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C11" s="23"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="24"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C12" s="23"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="24"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C13" s="23"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="24"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C14" s="23"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="24"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C15" s="23"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="24"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C16" s="23"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="24"/>
+    </row>
+    <row r="17" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C17" s="23"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="24"/>
+    </row>
+    <row r="18" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C18" s="23"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="24"/>
+    </row>
+    <row r="19" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C19" s="23"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="24"/>
+    </row>
+    <row r="20" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C20" s="23"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="24"/>
+    </row>
+    <row r="21" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C21" s="23"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="24"/>
+    </row>
+    <row r="22" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C22" s="23"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="24"/>
+    </row>
+    <row r="23" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C23" s="23"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="24"/>
+    </row>
+    <row r="24" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C24" s="23"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="24"/>
+    </row>
+    <row r="25" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C25" s="23"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="24"/>
+    </row>
+    <row r="26" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C26" s="23"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="24"/>
+    </row>
+    <row r="27" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C27" s="23"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="24"/>
+    </row>
+    <row r="28" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C28" s="23"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="24"/>
+    </row>
+    <row r="29" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C29" s="23"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="24"/>
+    </row>
+    <row r="30" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C30" s="23"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="19"/>
+      <c r="AS30" s="19"/>
+      <c r="AT30" s="19"/>
+      <c r="AU30" s="19"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="19"/>
+      <c r="AY30" s="24"/>
+    </row>
+    <row r="31" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C31" s="23"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="19"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="19"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="24"/>
+    </row>
+    <row r="32" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C32" s="23"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="24"/>
+    </row>
+    <row r="33" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C33" s="23"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="19"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="AU33" s="19"/>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="24"/>
+    </row>
+    <row r="34" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C34" s="23"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="24"/>
+    </row>
+    <row r="35" spans="3:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B402A3E3-507B-4401-9172-9C3E9B0B4204}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AY35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="3.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="3.125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="str">
+        <f>VLOOKUP(5,テーブル2[['#]:[画面名]],2,FALSE)</f>
+        <v>ユーザ作成画面</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="21"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="22"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C5" s="23"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="24"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C6" s="23"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="24"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C7" s="23"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="24"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C8" s="23"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="24"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C9" s="23"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="24"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C10" s="23"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="24"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C11" s="23"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="24"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C12" s="23"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="24"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C13" s="23"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="24"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C14" s="23"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="24"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C15" s="23"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="24"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C16" s="23"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="24"/>
+    </row>
+    <row r="17" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C17" s="23"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="24"/>
+    </row>
+    <row r="18" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C18" s="23"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="24"/>
+    </row>
+    <row r="19" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C19" s="23"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="24"/>
+    </row>
+    <row r="20" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C20" s="23"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="24"/>
+    </row>
+    <row r="21" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C21" s="23"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="24"/>
+    </row>
+    <row r="22" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C22" s="23"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="24"/>
+    </row>
+    <row r="23" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C23" s="23"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="24"/>
+    </row>
+    <row r="24" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C24" s="23"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="24"/>
+    </row>
+    <row r="25" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C25" s="23"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="24"/>
+    </row>
+    <row r="26" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C26" s="23"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="24"/>
+    </row>
+    <row r="27" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C27" s="23"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="24"/>
+    </row>
+    <row r="28" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C28" s="23"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="24"/>
+    </row>
+    <row r="29" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C29" s="23"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="24"/>
+    </row>
+    <row r="30" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C30" s="23"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="19"/>
+      <c r="AS30" s="19"/>
+      <c r="AT30" s="19"/>
+      <c r="AU30" s="19"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="19"/>
+      <c r="AY30" s="24"/>
+    </row>
+    <row r="31" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C31" s="23"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="19"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="19"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="24"/>
+    </row>
+    <row r="32" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C32" s="23"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="24"/>
+    </row>
+    <row r="33" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C33" s="23"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="19"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="AU33" s="19"/>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="24"/>
+    </row>
+    <row r="34" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C34" s="23"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="24"/>
+    </row>
+    <row r="35" spans="3:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3854C4-2364-4D09-B96D-B55BD14B2924}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:AY35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="3.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="3.125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="str">
+        <f>VLOOKUP(6,テーブル2[['#]:[画面名]],2,FALSE)</f>
+        <v>ユーザ編集画面</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="21"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="22"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C5" s="23"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="24"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C6" s="23"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="24"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C7" s="23"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="24"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C8" s="23"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="24"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C9" s="23"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="24"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C10" s="23"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="24"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C11" s="23"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="24"/>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C12" s="23"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="24"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C13" s="23"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="24"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C14" s="23"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="24"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C15" s="23"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="24"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="C16" s="23"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="24"/>
+    </row>
+    <row r="17" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C17" s="23"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="24"/>
+    </row>
+    <row r="18" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C18" s="23"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="24"/>
+    </row>
+    <row r="19" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C19" s="23"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="24"/>
+    </row>
+    <row r="20" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C20" s="23"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="24"/>
+    </row>
+    <row r="21" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C21" s="23"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="24"/>
+    </row>
+    <row r="22" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C22" s="23"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="24"/>
+    </row>
+    <row r="23" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C23" s="23"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="24"/>
+    </row>
+    <row r="24" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C24" s="23"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="24"/>
+    </row>
+    <row r="25" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C25" s="23"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="24"/>
+    </row>
+    <row r="26" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C26" s="23"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="24"/>
+    </row>
+    <row r="27" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C27" s="23"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="24"/>
+    </row>
+    <row r="28" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C28" s="23"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="24"/>
+    </row>
+    <row r="29" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C29" s="23"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="24"/>
+    </row>
+    <row r="30" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C30" s="23"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="19"/>
+      <c r="AS30" s="19"/>
+      <c r="AT30" s="19"/>
+      <c r="AU30" s="19"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="19"/>
+      <c r="AY30" s="24"/>
+    </row>
+    <row r="31" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C31" s="23"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="19"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="19"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="24"/>
+    </row>
+    <row r="32" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C32" s="23"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="24"/>
+    </row>
+    <row r="33" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C33" s="23"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="19"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="AU33" s="19"/>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="24"/>
+    </row>
+    <row r="34" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C34" s="23"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19"/>
+      <c r="AQ34" s="19"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="24"/>
+    </row>
+    <row r="35" spans="3:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8945B9-C266-46C4-8FDD-78B5133F2EA9}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
@@ -4511,7 +12116,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -4606,7 +12211,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -4752,7 +12357,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -4956,13 +12561,13 @@
         <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F16" s="8">
         <v>1</v>
@@ -4986,13 +12591,13 @@
         <v>27</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8">
@@ -5021,10 +12626,10 @@
         <v>28</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8">
@@ -5056,7 +12661,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -5084,7 +12689,7 @@
         <v>31</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -5112,7 +12717,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -5140,7 +12745,7 @@
         <v>33</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -5215,16 +12820,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
@@ -5247,16 +12852,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -5265,7 +12870,7 @@
         <v>18</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K26" s="8"/>
     </row>
@@ -5275,10 +12880,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>23</v>
@@ -5303,10 +12908,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>25</v>
@@ -5331,16 +12936,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
@@ -5363,16 +12968,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -5391,10 +12996,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>23</v>
@@ -5419,10 +13024,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>25</v>
@@ -5634,7 +13239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318F5ACB-8B67-4E43-8C03-9DB021B5E5D3}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2123BCB7-E64C-4E38-AE75-C203E5800E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A2973A-2E50-421C-9C7A-549C266BE0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="840" windowWidth="21120" windowHeight="14010" activeTab="3" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
+    <workbookView xWindow="7680" yWindow="690" windowWidth="21120" windowHeight="14010" activeTab="1" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
   <sheets>
     <sheet name="遷移図" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="部品" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">URL一覧!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">URL一覧!$A$1:$I$36</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="158">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -940,12 +940,37 @@
   <si>
     <t>https://www.membersedge.co.jp/blog/completely-guide-for-django-class-based-views/</t>
   </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TemplateView</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,6 +1046,12 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFAF00DB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1282,7 +1313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1409,9 +1440,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1439,13 +1467,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1453,7 +1481,27 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -7098,6 +7146,173 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>48868</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6D06AB-E80D-C079-C531-42564A667A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="6438900"/>
+          <a:ext cx="8907118" cy="609685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="70000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581482</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85794</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD11307-6DFF-31CE-3855-3D70D6BD8407}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="7448550"/>
+          <a:ext cx="3277057" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="70000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19620</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9281EAF9-4311-3736-3CB1-C31C7B155753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="8420100"/>
+          <a:ext cx="4086795" cy="1971950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="70000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -7411,41 +7626,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}" name="テーブル2" displayName="テーブル2" ref="A2:H36" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A2:H36" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3CBF7F5E-BEF0-4E65-BC8F-31B8865676BE}" name="#" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}" name="テーブル2" displayName="テーブル2" ref="A2:I36" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A2:I36" xr:uid="{83018023-F897-4649-A1BC-4C05B4839EF0}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3CBF7F5E-BEF0-4E65-BC8F-31B8865676BE}" name="#" dataDxfId="24">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{065AB81F-C392-46FF-A4D3-D2576D993354}" name="画面名" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{2B2D10AB-3258-4A14-8A79-8FC53048B627}" name="管理サイト_x000a_提供" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{D6728220-743D-4FA6-8EE8-1BC6E5B4769E}" name="パス名" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{D4F97791-1B66-40A7-878A-EA346B3FE47E}" name="URL" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{065AB81F-C392-46FF-A4D3-D2576D993354}" name="画面名" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{2B2D10AB-3258-4A14-8A79-8FC53048B627}" name="管理サイト_x000a_提供" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{D6728220-743D-4FA6-8EE8-1BC6E5B4769E}" name="パス名" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{D4F97791-1B66-40A7-878A-EA346B3FE47E}" name="URL" dataDxfId="20">
       <calculatedColumnFormula>$D$1&amp;テーブル2[[#This Row],[パス名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{803D1913-A85D-4B55-9B0F-279B6A77FB14}" name="ログイン_x000a_要求" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{43C6DEDE-73FA-4A00-ACD2-CDCA758836EE}" name="View関数" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{84092C46-EF3D-4000-95FD-C05C4BA4FFE0}" name="備考" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{803D1913-A85D-4B55-9B0F-279B6A77FB14}" name="ログイン_x000a_要求" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{B4E4CA48-4926-4106-8863-A09A4C260153}" name="TemplateView" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{43C6DEDE-73FA-4A00-ACD2-CDCA758836EE}" name="View関数" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{84092C46-EF3D-4000-95FD-C05C4BA4FFE0}" name="備考" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K43" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K43" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:K43" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="No" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{1957689B-E225-49BB-B9C6-E7FD96BEFAF8}" name="テーブル名（物理名）" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{59B3D7F6-7F01-4CC9-A3E4-6F9A1CE9A7ED}" name="カラム名（論理名）" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{B344ED27-C9AF-40C5-804E-DE744CF55CF6}" name="カラム名（物理名）" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{B8D62AAD-9CA8-4C97-A164-779DE4FB09D0}" name="シーケンス" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{A1AFAE0B-B8B7-4F06-9E79-A973996E7D17}" name="Pキー" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{CE544C9E-ABCD-4010-8985-2C9F62BDA4D1}" name="必須" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{E8A272B1-E29C-469E-9A35-AE83F24373DA}" name="型" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{33CEA65A-379F-49DF-A0D1-3E54DF4C627F}" name="サイズ" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{B17BCC14-EBDF-42B5-93C8-71C562D92537}" name="備考" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="No" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{1957689B-E225-49BB-B9C6-E7FD96BEFAF8}" name="テーブル名（物理名）" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{59B3D7F6-7F01-4CC9-A3E4-6F9A1CE9A7ED}" name="カラム名（論理名）" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{B344ED27-C9AF-40C5-804E-DE744CF55CF6}" name="カラム名（物理名）" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{B8D62AAD-9CA8-4C97-A164-779DE4FB09D0}" name="シーケンス" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{A1AFAE0B-B8B7-4F06-9E79-A973996E7D17}" name="Pキー" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{CE544C9E-ABCD-4010-8985-2C9F62BDA4D1}" name="必須" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{E8A272B1-E29C-469E-9A35-AE83F24373DA}" name="型" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{33CEA65A-379F-49DF-A0D1-3E54DF4C627F}" name="サイズ" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{B17BCC14-EBDF-42B5-93C8-71C562D92537}" name="備考" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7792,12 +8008,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -7808,12 +8024,13 @@
     <col min="4" max="4" width="29.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -7824,8 +8041,9 @@
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.5" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="31.5" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>117</v>
       </c>
@@ -7844,14 +8062,17 @@
       <c r="F2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <f>ROW()-2</f>
         <v>1</v>
@@ -7872,12 +8093,13 @@
       <c r="F3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <f t="shared" ref="A4:A36" si="0">ROW()-2</f>
         <v>2</v>
@@ -7898,12 +8120,13 @@
       <c r="F4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7924,12 +8147,13 @@
       <c r="F5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7950,10 +8174,11 @@
       <c r="F6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7974,12 +8199,13 @@
       <c r="F7" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8000,12 +8226,13 @@
       <c r="F8" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8026,10 +8253,11 @@
       <c r="F9" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8048,10 +8276,11 @@
         <v>http://127.0.0.1:8000/kintai/cp/list</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8070,10 +8299,11 @@
         <v>http://127.0.0.1:8000/kintai/cp/create</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="15"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8092,10 +8322,11 @@
         <v>http://127.0.0.1:8000/kintai/cp/edit</v>
       </c>
       <c r="F12" s="17"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8114,10 +8345,11 @@
         <v>http://127.0.0.1:8000/kintai/cp/delete</v>
       </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="15"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8136,10 +8368,11 @@
         <v>http://127.0.0.1:8000/kintai/dv/list</v>
       </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="15"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8158,10 +8391,11 @@
         <v>http://127.0.0.1:8000/kintai/dv/create</v>
       </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8180,10 +8414,11 @@
         <v>http://127.0.0.1:8000/kintai/dv/edit</v>
       </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8202,10 +8437,11 @@
         <v>http://127.0.0.1:8000/kintai/dv/delete</v>
       </c>
       <c r="F17" s="17"/>
-      <c r="G17" s="15"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8224,10 +8460,11 @@
         <v>http://127.0.0.1:8000/kintai/ot/list</v>
       </c>
       <c r="F18" s="17"/>
-      <c r="G18" s="15"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8246,10 +8483,11 @@
         <v>http://127.0.0.1:8000/kintai/ot/create</v>
       </c>
       <c r="F19" s="17"/>
-      <c r="G19" s="15"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8268,10 +8506,11 @@
         <v>http://127.0.0.1:8000/kintai/ot/edit</v>
       </c>
       <c r="F20" s="17"/>
-      <c r="G20" s="15"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8290,10 +8529,11 @@
         <v>http://127.0.0.1:8000/kintai/ot/delete</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="G21" s="15"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <f t="shared" ref="A22:A33" si="1">ROW()-2</f>
         <v>20</v>
@@ -8306,10 +8546,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -8322,10 +8563,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -8338,10 +8580,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -8354,10 +8597,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -8370,10 +8614,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -8386,10 +8631,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -8402,10 +8648,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F28" s="12"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -8418,10 +8665,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -8434,10 +8682,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -8450,10 +8699,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F31" s="12"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -8466,10 +8716,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F32" s="12"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -8482,10 +8733,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F33" s="12"/>
-      <c r="G33" s="10"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8498,10 +8750,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="10"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -8514,10 +8767,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -8530,10 +8784,11 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -8542,8 +8797,9 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -8552,8 +8808,9 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -8562,8 +8819,9 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -8572,8 +8830,9 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -8582,8 +8841,9 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -8592,8 +8852,9 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -8602,8 +8863,9 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -8612,8 +8874,9 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -8622,8 +8885,9 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -8632,8 +8896,9 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -8642,8 +8907,9 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -8652,8 +8918,9 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -8662,8 +8929,9 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -8672,8 +8940,9 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -8682,8 +8951,9 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -8692,8 +8962,9 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -8702,8 +8973,9 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -8712,8 +8984,9 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -8722,21 +8995,22 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8837,7 +9111,7 @@
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
@@ -8875,58 +9149,58 @@
       <c r="AV5" s="42"/>
       <c r="AW5" s="42"/>
       <c r="AX5" s="42"/>
-      <c r="AY5" s="44"/>
+      <c r="AY5" s="43"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="46"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="47"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="46"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.4">
       <c r="C7" s="20"/>
@@ -10421,7 +10695,7 @@
   </sheetPr>
   <dimension ref="A1:AY69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BA46" sqref="BA46"/>
     </sheetView>
   </sheetViews>
@@ -10500,7 +10774,7 @@
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
@@ -10538,63 +10812,63 @@
       <c r="AV5" s="42"/>
       <c r="AW5" s="42"/>
       <c r="AX5" s="42"/>
-      <c r="AY5" s="44"/>
+      <c r="AY5" s="43"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="46"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="47"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="46"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -10643,9 +10917,9 @@
       <c r="AY7" s="21"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -10694,9 +10968,9 @@
       <c r="AY8" s="21"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -10745,9 +11019,9 @@
       <c r="AY9" s="21"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -10796,9 +11070,9 @@
       <c r="AY10" s="21"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -10847,9 +11121,9 @@
       <c r="AY11" s="21"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -10898,9 +11172,9 @@
       <c r="AY12" s="21"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -10949,9 +11223,9 @@
       <c r="AY13" s="21"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -11000,9 +11274,9 @@
       <c r="AY14" s="21"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -11051,9 +11325,9 @@
       <c r="AY15" s="21"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -11102,9 +11376,9 @@
       <c r="AY16" s="21"/>
     </row>
     <row r="17" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -11153,9 +11427,9 @@
       <c r="AY17" s="21"/>
     </row>
     <row r="18" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -11204,9 +11478,9 @@
       <c r="AY18" s="21"/>
     </row>
     <row r="19" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -11255,9 +11529,9 @@
       <c r="AY19" s="21"/>
     </row>
     <row r="20" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
@@ -11306,9 +11580,9 @@
       <c r="AY20" s="21"/>
     </row>
     <row r="21" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -11357,9 +11631,9 @@
       <c r="AY21" s="21"/>
     </row>
     <row r="22" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -11408,9 +11682,9 @@
       <c r="AY22" s="21"/>
     </row>
     <row r="23" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -11459,9 +11733,9 @@
       <c r="AY23" s="21"/>
     </row>
     <row r="24" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -11510,9 +11784,9 @@
       <c r="AY24" s="21"/>
     </row>
     <row r="25" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -11561,9 +11835,9 @@
       <c r="AY25" s="21"/>
     </row>
     <row r="26" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -11612,9 +11886,9 @@
       <c r="AY26" s="21"/>
     </row>
     <row r="27" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
@@ -11663,9 +11937,9 @@
       <c r="AY27" s="21"/>
     </row>
     <row r="28" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
@@ -11714,9 +11988,9 @@
       <c r="AY28" s="21"/>
     </row>
     <row r="29" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -11765,9 +12039,9 @@
       <c r="AY29" s="21"/>
     </row>
     <row r="30" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
@@ -11816,9 +12090,9 @@
       <c r="AY30" s="21"/>
     </row>
     <row r="31" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
@@ -11867,9 +12141,9 @@
       <c r="AY31" s="21"/>
     </row>
     <row r="32" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -11918,9 +12192,9 @@
       <c r="AY32" s="21"/>
     </row>
     <row r="33" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
@@ -12072,105 +12346,105 @@
     </row>
     <row r="37" spans="3:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="38" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="51"/>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="51"/>
-      <c r="AG38" s="51"/>
-      <c r="AH38" s="51"/>
-      <c r="AI38" s="51"/>
-      <c r="AJ38" s="51"/>
-      <c r="AK38" s="51"/>
-      <c r="AL38" s="51"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="AC38" s="49"/>
+      <c r="AD38" s="50"/>
+      <c r="AE38" s="50"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
+      <c r="AH38" s="50"/>
+      <c r="AI38" s="50"/>
+      <c r="AJ38" s="50"/>
+      <c r="AK38" s="50"/>
+      <c r="AL38" s="50"/>
     </row>
     <row r="39" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C39" s="48"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="AC39" s="48"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
-      <c r="AH39" s="52"/>
-      <c r="AI39" s="52"/>
-      <c r="AJ39" s="52"/>
-      <c r="AK39" s="52"/>
-      <c r="AL39" s="52"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="48"/>
+      <c r="AC39" s="47"/>
+      <c r="AD39" s="48"/>
+      <c r="AE39" s="48"/>
+      <c r="AF39" s="48"/>
+      <c r="AG39" s="48"/>
+      <c r="AH39" s="48"/>
+      <c r="AI39" s="48"/>
+      <c r="AJ39" s="48"/>
+      <c r="AK39" s="48"/>
+      <c r="AL39" s="48"/>
     </row>
     <row r="40" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C40" s="53"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="54"/>
-      <c r="AE40" s="54"/>
-      <c r="AF40" s="54"/>
-      <c r="AG40" s="54"/>
-      <c r="AH40" s="54"/>
-      <c r="AI40" s="54"/>
-      <c r="AJ40" s="54"/>
-      <c r="AK40" s="54"/>
-      <c r="AL40" s="54"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
+      <c r="AH40" s="52"/>
+      <c r="AI40" s="52"/>
+      <c r="AJ40" s="52"/>
+      <c r="AK40" s="52"/>
+      <c r="AL40" s="52"/>
     </row>
     <row r="41" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
@@ -12178,9 +12452,9 @@
       <c r="J41" s="23"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
       <c r="S41" s="23"/>
       <c r="T41" s="23"/>
       <c r="U41" s="23"/>
@@ -12188,9 +12462,9 @@
       <c r="W41" s="23"/>
       <c r="X41" s="19"/>
       <c r="Y41" s="19"/>
-      <c r="AC41" s="48"/>
-      <c r="AD41" s="49"/>
-      <c r="AE41" s="49"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="48"/>
+      <c r="AE41" s="48"/>
       <c r="AF41" s="23"/>
       <c r="AG41" s="23"/>
       <c r="AH41" s="23"/>
@@ -12200,9 +12474,9 @@
       <c r="AL41" s="19"/>
     </row>
     <row r="42" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
@@ -12210,9 +12484,9 @@
       <c r="J42" s="23"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
       <c r="S42" s="23"/>
       <c r="T42" s="23"/>
       <c r="U42" s="23"/>
@@ -12220,9 +12494,9 @@
       <c r="W42" s="23"/>
       <c r="X42" s="19"/>
       <c r="Y42" s="19"/>
-      <c r="AC42" s="48"/>
-      <c r="AD42" s="49"/>
-      <c r="AE42" s="49"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="48"/>
       <c r="AF42" s="23"/>
       <c r="AG42" s="23"/>
       <c r="AH42" s="23"/>
@@ -12232,9 +12506,9 @@
       <c r="AL42" s="19"/>
     </row>
     <row r="43" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
@@ -12242,9 +12516,9 @@
       <c r="J43" s="23"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
       <c r="S43" s="23"/>
       <c r="T43" s="23"/>
       <c r="U43" s="23"/>
@@ -12252,9 +12526,9 @@
       <c r="W43" s="23"/>
       <c r="X43" s="19"/>
       <c r="Y43" s="19"/>
-      <c r="AC43" s="48"/>
-      <c r="AD43" s="49"/>
-      <c r="AE43" s="49"/>
+      <c r="AC43" s="47"/>
+      <c r="AD43" s="48"/>
+      <c r="AE43" s="48"/>
       <c r="AF43" s="23"/>
       <c r="AG43" s="23"/>
       <c r="AH43" s="23"/>
@@ -12264,9 +12538,9 @@
       <c r="AL43" s="19"/>
     </row>
     <row r="44" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C44" s="48"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
@@ -12274,9 +12548,9 @@
       <c r="J44" s="23"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="49"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
       <c r="S44" s="23"/>
       <c r="T44" s="23"/>
       <c r="U44" s="23"/>
@@ -12284,9 +12558,9 @@
       <c r="W44" s="23"/>
       <c r="X44" s="19"/>
       <c r="Y44" s="19"/>
-      <c r="AC44" s="48"/>
-      <c r="AD44" s="49"/>
-      <c r="AE44" s="49"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="48"/>
+      <c r="AE44" s="48"/>
       <c r="AF44" s="23"/>
       <c r="AG44" s="23"/>
       <c r="AH44" s="23"/>
@@ -12296,9 +12570,9 @@
       <c r="AL44" s="19"/>
     </row>
     <row r="45" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
@@ -12306,9 +12580,9 @@
       <c r="J45" s="23"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="49"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
       <c r="S45" s="23"/>
       <c r="T45" s="23"/>
       <c r="U45" s="23"/>
@@ -12316,9 +12590,9 @@
       <c r="W45" s="23"/>
       <c r="X45" s="19"/>
       <c r="Y45" s="19"/>
-      <c r="AC45" s="48"/>
-      <c r="AD45" s="49"/>
-      <c r="AE45" s="49"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="48"/>
+      <c r="AE45" s="48"/>
       <c r="AF45" s="23"/>
       <c r="AG45" s="23"/>
       <c r="AH45" s="23"/>
@@ -12328,9 +12602,9 @@
       <c r="AL45" s="19"/>
     </row>
     <row r="46" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
@@ -12338,9 +12612,9 @@
       <c r="J46" s="23"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="49"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
       <c r="S46" s="23"/>
       <c r="T46" s="23"/>
       <c r="U46" s="23"/>
@@ -12348,9 +12622,9 @@
       <c r="W46" s="23"/>
       <c r="X46" s="19"/>
       <c r="Y46" s="19"/>
-      <c r="AC46" s="48"/>
-      <c r="AD46" s="49"/>
-      <c r="AE46" s="49"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="48"/>
+      <c r="AE46" s="48"/>
       <c r="AF46" s="23"/>
       <c r="AG46" s="23"/>
       <c r="AH46" s="23"/>
@@ -12360,9 +12634,9 @@
       <c r="AL46" s="19"/>
     </row>
     <row r="47" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
@@ -12370,9 +12644,9 @@
       <c r="J47" s="23"/>
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
       <c r="S47" s="23"/>
       <c r="T47" s="23"/>
       <c r="U47" s="23"/>
@@ -12380,9 +12654,9 @@
       <c r="W47" s="23"/>
       <c r="X47" s="19"/>
       <c r="Y47" s="19"/>
-      <c r="AC47" s="48"/>
-      <c r="AD47" s="49"/>
-      <c r="AE47" s="49"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="48"/>
+      <c r="AE47" s="48"/>
       <c r="AF47" s="23"/>
       <c r="AG47" s="23"/>
       <c r="AH47" s="23"/>
@@ -12392,9 +12666,9 @@
       <c r="AL47" s="19"/>
     </row>
     <row r="48" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
@@ -12402,9 +12676,9 @@
       <c r="J48" s="23"/>
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="49"/>
-      <c r="R48" s="49"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
       <c r="U48" s="23"/>
@@ -12412,9 +12686,9 @@
       <c r="W48" s="23"/>
       <c r="X48" s="19"/>
       <c r="Y48" s="19"/>
-      <c r="AC48" s="48"/>
-      <c r="AD48" s="49"/>
-      <c r="AE48" s="49"/>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="48"/>
+      <c r="AE48" s="48"/>
       <c r="AF48" s="23"/>
       <c r="AG48" s="23"/>
       <c r="AH48" s="23"/>
@@ -12424,9 +12698,9 @@
       <c r="AL48" s="19"/>
     </row>
     <row r="49" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
@@ -12434,9 +12708,9 @@
       <c r="J49" s="23"/>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="49"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
       <c r="S49" s="23"/>
       <c r="T49" s="23"/>
       <c r="U49" s="23"/>
@@ -12444,9 +12718,9 @@
       <c r="W49" s="23"/>
       <c r="X49" s="19"/>
       <c r="Y49" s="19"/>
-      <c r="AC49" s="48"/>
-      <c r="AD49" s="49"/>
-      <c r="AE49" s="49"/>
+      <c r="AC49" s="47"/>
+      <c r="AD49" s="48"/>
+      <c r="AE49" s="48"/>
       <c r="AF49" s="23"/>
       <c r="AG49" s="23"/>
       <c r="AH49" s="23"/>
@@ -12456,9 +12730,9 @@
       <c r="AL49" s="19"/>
     </row>
     <row r="50" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
@@ -12466,9 +12740,9 @@
       <c r="J50" s="23"/>
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="49"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
       <c r="S50" s="23"/>
       <c r="T50" s="23"/>
       <c r="U50" s="23"/>
@@ -12476,9 +12750,9 @@
       <c r="W50" s="23"/>
       <c r="X50" s="19"/>
       <c r="Y50" s="19"/>
-      <c r="AC50" s="48"/>
-      <c r="AD50" s="49"/>
-      <c r="AE50" s="49"/>
+      <c r="AC50" s="47"/>
+      <c r="AD50" s="48"/>
+      <c r="AE50" s="48"/>
       <c r="AF50" s="23"/>
       <c r="AG50" s="23"/>
       <c r="AH50" s="23"/>
@@ -12488,9 +12762,9 @@
       <c r="AL50" s="19"/>
     </row>
     <row r="51" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
@@ -12498,9 +12772,9 @@
       <c r="J51" s="23"/>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="49"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
       <c r="S51" s="23"/>
       <c r="T51" s="23"/>
       <c r="U51" s="23"/>
@@ -12508,9 +12782,9 @@
       <c r="W51" s="23"/>
       <c r="X51" s="19"/>
       <c r="Y51" s="19"/>
-      <c r="AC51" s="48"/>
-      <c r="AD51" s="49"/>
-      <c r="AE51" s="49"/>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="48"/>
+      <c r="AE51" s="48"/>
       <c r="AF51" s="23"/>
       <c r="AG51" s="23"/>
       <c r="AH51" s="23"/>
@@ -12520,9 +12794,9 @@
       <c r="AL51" s="19"/>
     </row>
     <row r="52" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
@@ -12530,9 +12804,9 @@
       <c r="J52" s="23"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="49"/>
-      <c r="R52" s="49"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
       <c r="S52" s="23"/>
       <c r="T52" s="23"/>
       <c r="U52" s="23"/>
@@ -12540,9 +12814,9 @@
       <c r="W52" s="23"/>
       <c r="X52" s="19"/>
       <c r="Y52" s="19"/>
-      <c r="AC52" s="48"/>
-      <c r="AD52" s="49"/>
-      <c r="AE52" s="49"/>
+      <c r="AC52" s="47"/>
+      <c r="AD52" s="48"/>
+      <c r="AE52" s="48"/>
       <c r="AF52" s="23"/>
       <c r="AG52" s="23"/>
       <c r="AH52" s="23"/>
@@ -12552,9 +12826,9 @@
       <c r="AL52" s="19"/>
     </row>
     <row r="53" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
@@ -12562,9 +12836,9 @@
       <c r="J53" s="23"/>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="49"/>
-      <c r="R53" s="49"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
       <c r="S53" s="23"/>
       <c r="T53" s="23"/>
       <c r="U53" s="23"/>
@@ -12572,9 +12846,9 @@
       <c r="W53" s="23"/>
       <c r="X53" s="19"/>
       <c r="Y53" s="19"/>
-      <c r="AC53" s="48"/>
-      <c r="AD53" s="49"/>
-      <c r="AE53" s="49"/>
+      <c r="AC53" s="47"/>
+      <c r="AD53" s="48"/>
+      <c r="AE53" s="48"/>
       <c r="AF53" s="23"/>
       <c r="AG53" s="23"/>
       <c r="AH53" s="23"/>
@@ -12584,9 +12858,9 @@
       <c r="AL53" s="19"/>
     </row>
     <row r="54" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C54" s="48"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
@@ -12594,9 +12868,9 @@
       <c r="J54" s="23"/>
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="49"/>
-      <c r="R54" s="49"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
       <c r="S54" s="23"/>
       <c r="T54" s="23"/>
       <c r="U54" s="23"/>
@@ -12604,9 +12878,9 @@
       <c r="W54" s="23"/>
       <c r="X54" s="19"/>
       <c r="Y54" s="19"/>
-      <c r="AC54" s="48"/>
-      <c r="AD54" s="49"/>
-      <c r="AE54" s="49"/>
+      <c r="AC54" s="47"/>
+      <c r="AD54" s="48"/>
+      <c r="AE54" s="48"/>
       <c r="AF54" s="23"/>
       <c r="AG54" s="23"/>
       <c r="AH54" s="23"/>
@@ -12616,9 +12890,9 @@
       <c r="AL54" s="19"/>
     </row>
     <row r="55" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C55" s="48"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
@@ -12626,9 +12900,9 @@
       <c r="J55" s="23"/>
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="49"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
       <c r="S55" s="23"/>
       <c r="T55" s="23"/>
       <c r="U55" s="23"/>
@@ -12636,9 +12910,9 @@
       <c r="W55" s="23"/>
       <c r="X55" s="19"/>
       <c r="Y55" s="19"/>
-      <c r="AC55" s="48"/>
-      <c r="AD55" s="49"/>
-      <c r="AE55" s="49"/>
+      <c r="AC55" s="47"/>
+      <c r="AD55" s="48"/>
+      <c r="AE55" s="48"/>
       <c r="AF55" s="23"/>
       <c r="AG55" s="23"/>
       <c r="AH55" s="23"/>
@@ -12648,9 +12922,9 @@
       <c r="AL55" s="19"/>
     </row>
     <row r="56" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
@@ -12658,9 +12932,9 @@
       <c r="J56" s="23"/>
       <c r="K56" s="19"/>
       <c r="L56" s="19"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="49"/>
-      <c r="R56" s="49"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
       <c r="S56" s="23"/>
       <c r="T56" s="23"/>
       <c r="U56" s="23"/>
@@ -12668,9 +12942,9 @@
       <c r="W56" s="23"/>
       <c r="X56" s="19"/>
       <c r="Y56" s="19"/>
-      <c r="AC56" s="48"/>
-      <c r="AD56" s="49"/>
-      <c r="AE56" s="49"/>
+      <c r="AC56" s="47"/>
+      <c r="AD56" s="48"/>
+      <c r="AE56" s="48"/>
       <c r="AF56" s="23"/>
       <c r="AG56" s="23"/>
       <c r="AH56" s="23"/>
@@ -12680,9 +12954,9 @@
       <c r="AL56" s="19"/>
     </row>
     <row r="57" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
@@ -12690,9 +12964,9 @@
       <c r="J57" s="23"/>
       <c r="K57" s="19"/>
       <c r="L57" s="19"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="49"/>
-      <c r="R57" s="49"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
       <c r="S57" s="23"/>
       <c r="T57" s="23"/>
       <c r="U57" s="23"/>
@@ -12700,9 +12974,9 @@
       <c r="W57" s="23"/>
       <c r="X57" s="19"/>
       <c r="Y57" s="19"/>
-      <c r="AC57" s="48"/>
-      <c r="AD57" s="49"/>
-      <c r="AE57" s="49"/>
+      <c r="AC57" s="47"/>
+      <c r="AD57" s="48"/>
+      <c r="AE57" s="48"/>
       <c r="AF57" s="23"/>
       <c r="AG57" s="23"/>
       <c r="AH57" s="23"/>
@@ -12712,9 +12986,9 @@
       <c r="AL57" s="19"/>
     </row>
     <row r="58" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
@@ -12722,9 +12996,9 @@
       <c r="J58" s="23"/>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="49"/>
-      <c r="R58" s="49"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
       <c r="S58" s="23"/>
       <c r="T58" s="23"/>
       <c r="U58" s="23"/>
@@ -12732,9 +13006,9 @@
       <c r="W58" s="23"/>
       <c r="X58" s="19"/>
       <c r="Y58" s="19"/>
-      <c r="AC58" s="48"/>
-      <c r="AD58" s="49"/>
-      <c r="AE58" s="49"/>
+      <c r="AC58" s="47"/>
+      <c r="AD58" s="48"/>
+      <c r="AE58" s="48"/>
       <c r="AF58" s="23"/>
       <c r="AG58" s="23"/>
       <c r="AH58" s="23"/>
@@ -12744,9 +13018,9 @@
       <c r="AL58" s="19"/>
     </row>
     <row r="59" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
@@ -12754,9 +13028,9 @@
       <c r="J59" s="23"/>
       <c r="K59" s="19"/>
       <c r="L59" s="19"/>
-      <c r="P59" s="48"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="49"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
       <c r="S59" s="23"/>
       <c r="T59" s="23"/>
       <c r="U59" s="23"/>
@@ -12764,9 +13038,9 @@
       <c r="W59" s="23"/>
       <c r="X59" s="19"/>
       <c r="Y59" s="19"/>
-      <c r="AC59" s="48"/>
-      <c r="AD59" s="49"/>
-      <c r="AE59" s="49"/>
+      <c r="AC59" s="47"/>
+      <c r="AD59" s="48"/>
+      <c r="AE59" s="48"/>
       <c r="AF59" s="23"/>
       <c r="AG59" s="23"/>
       <c r="AH59" s="23"/>
@@ -12776,9 +13050,9 @@
       <c r="AL59" s="19"/>
     </row>
     <row r="60" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C60" s="48"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
@@ -12786,9 +13060,9 @@
       <c r="J60" s="23"/>
       <c r="K60" s="19"/>
       <c r="L60" s="19"/>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="49"/>
-      <c r="R60" s="49"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
       <c r="S60" s="23"/>
       <c r="T60" s="23"/>
       <c r="U60" s="23"/>
@@ -12796,9 +13070,9 @@
       <c r="W60" s="23"/>
       <c r="X60" s="19"/>
       <c r="Y60" s="19"/>
-      <c r="AC60" s="48"/>
-      <c r="AD60" s="49"/>
-      <c r="AE60" s="49"/>
+      <c r="AC60" s="47"/>
+      <c r="AD60" s="48"/>
+      <c r="AE60" s="48"/>
       <c r="AF60" s="23"/>
       <c r="AG60" s="23"/>
       <c r="AH60" s="23"/>
@@ -12808,9 +13082,9 @@
       <c r="AL60" s="19"/>
     </row>
     <row r="61" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C61" s="48"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
@@ -12818,9 +13092,9 @@
       <c r="J61" s="23"/>
       <c r="K61" s="19"/>
       <c r="L61" s="19"/>
-      <c r="P61" s="48"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="49"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
       <c r="S61" s="23"/>
       <c r="T61" s="23"/>
       <c r="U61" s="23"/>
@@ -12828,9 +13102,9 @@
       <c r="W61" s="23"/>
       <c r="X61" s="19"/>
       <c r="Y61" s="19"/>
-      <c r="AC61" s="48"/>
-      <c r="AD61" s="49"/>
-      <c r="AE61" s="49"/>
+      <c r="AC61" s="47"/>
+      <c r="AD61" s="48"/>
+      <c r="AE61" s="48"/>
       <c r="AF61" s="23"/>
       <c r="AG61" s="23"/>
       <c r="AH61" s="23"/>
@@ -12840,9 +13114,9 @@
       <c r="AL61" s="19"/>
     </row>
     <row r="62" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C62" s="48"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
@@ -12850,9 +13124,9 @@
       <c r="J62" s="23"/>
       <c r="K62" s="19"/>
       <c r="L62" s="19"/>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="49"/>
-      <c r="R62" s="49"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
       <c r="S62" s="23"/>
       <c r="T62" s="23"/>
       <c r="U62" s="23"/>
@@ -12860,9 +13134,9 @@
       <c r="W62" s="23"/>
       <c r="X62" s="19"/>
       <c r="Y62" s="19"/>
-      <c r="AC62" s="48"/>
-      <c r="AD62" s="49"/>
-      <c r="AE62" s="49"/>
+      <c r="AC62" s="47"/>
+      <c r="AD62" s="48"/>
+      <c r="AE62" s="48"/>
       <c r="AF62" s="23"/>
       <c r="AG62" s="23"/>
       <c r="AH62" s="23"/>
@@ -12872,9 +13146,9 @@
       <c r="AL62" s="19"/>
     </row>
     <row r="63" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C63" s="48"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
@@ -12882,9 +13156,9 @@
       <c r="J63" s="23"/>
       <c r="K63" s="19"/>
       <c r="L63" s="19"/>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
       <c r="S63" s="23"/>
       <c r="T63" s="23"/>
       <c r="U63" s="23"/>
@@ -12892,9 +13166,9 @@
       <c r="W63" s="23"/>
       <c r="X63" s="19"/>
       <c r="Y63" s="19"/>
-      <c r="AC63" s="48"/>
-      <c r="AD63" s="49"/>
-      <c r="AE63" s="49"/>
+      <c r="AC63" s="47"/>
+      <c r="AD63" s="48"/>
+      <c r="AE63" s="48"/>
       <c r="AF63" s="23"/>
       <c r="AG63" s="23"/>
       <c r="AH63" s="23"/>
@@ -12904,9 +13178,9 @@
       <c r="AL63" s="19"/>
     </row>
     <row r="64" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C64" s="48"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
@@ -12914,9 +13188,9 @@
       <c r="J64" s="23"/>
       <c r="K64" s="19"/>
       <c r="L64" s="19"/>
-      <c r="P64" s="48"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="49"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="48"/>
       <c r="S64" s="23"/>
       <c r="T64" s="23"/>
       <c r="U64" s="23"/>
@@ -12924,9 +13198,9 @@
       <c r="W64" s="23"/>
       <c r="X64" s="19"/>
       <c r="Y64" s="19"/>
-      <c r="AC64" s="48"/>
-      <c r="AD64" s="49"/>
-      <c r="AE64" s="49"/>
+      <c r="AC64" s="47"/>
+      <c r="AD64" s="48"/>
+      <c r="AE64" s="48"/>
       <c r="AF64" s="23"/>
       <c r="AG64" s="23"/>
       <c r="AH64" s="23"/>
@@ -12936,9 +13210,9 @@
       <c r="AL64" s="19"/>
     </row>
     <row r="65" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C65" s="48"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
@@ -12946,9 +13220,9 @@
       <c r="J65" s="23"/>
       <c r="K65" s="19"/>
       <c r="L65" s="19"/>
-      <c r="P65" s="48"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="49"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="48"/>
       <c r="S65" s="23"/>
       <c r="T65" s="23"/>
       <c r="U65" s="23"/>
@@ -12956,9 +13230,9 @@
       <c r="W65" s="23"/>
       <c r="X65" s="19"/>
       <c r="Y65" s="19"/>
-      <c r="AC65" s="48"/>
-      <c r="AD65" s="49"/>
-      <c r="AE65" s="49"/>
+      <c r="AC65" s="47"/>
+      <c r="AD65" s="48"/>
+      <c r="AE65" s="48"/>
       <c r="AF65" s="23"/>
       <c r="AG65" s="23"/>
       <c r="AH65" s="23"/>
@@ -12968,9 +13242,9 @@
       <c r="AL65" s="19"/>
     </row>
     <row r="66" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C66" s="48"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
@@ -12978,9 +13252,9 @@
       <c r="J66" s="23"/>
       <c r="K66" s="19"/>
       <c r="L66" s="19"/>
-      <c r="P66" s="48"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="49"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="48"/>
       <c r="S66" s="23"/>
       <c r="T66" s="23"/>
       <c r="U66" s="23"/>
@@ -12988,9 +13262,9 @@
       <c r="W66" s="23"/>
       <c r="X66" s="19"/>
       <c r="Y66" s="19"/>
-      <c r="AC66" s="48"/>
-      <c r="AD66" s="49"/>
-      <c r="AE66" s="49"/>
+      <c r="AC66" s="47"/>
+      <c r="AD66" s="48"/>
+      <c r="AE66" s="48"/>
       <c r="AF66" s="23"/>
       <c r="AG66" s="23"/>
       <c r="AH66" s="23"/>
@@ -13000,9 +13274,9 @@
       <c r="AL66" s="19"/>
     </row>
     <row r="67" spans="3:38" x14ac:dyDescent="0.4">
-      <c r="C67" s="48"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
@@ -13010,9 +13284,9 @@
       <c r="J67" s="23"/>
       <c r="K67" s="19"/>
       <c r="L67" s="19"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="49"/>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="48"/>
       <c r="S67" s="23"/>
       <c r="T67" s="23"/>
       <c r="U67" s="23"/>
@@ -13020,9 +13294,9 @@
       <c r="W67" s="23"/>
       <c r="X67" s="19"/>
       <c r="Y67" s="19"/>
-      <c r="AC67" s="48"/>
-      <c r="AD67" s="49"/>
-      <c r="AE67" s="49"/>
+      <c r="AC67" s="47"/>
+      <c r="AD67" s="48"/>
+      <c r="AE67" s="48"/>
       <c r="AF67" s="23"/>
       <c r="AG67" s="23"/>
       <c r="AH67" s="23"/>
@@ -13191,7 +13465,7 @@
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
@@ -13229,58 +13503,58 @@
       <c r="AV5" s="42"/>
       <c r="AW5" s="42"/>
       <c r="AX5" s="42"/>
-      <c r="AY5" s="44"/>
+      <c r="AY5" s="43"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="46"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="47"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="46"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.4">
       <c r="C7" s="20"/>
@@ -14852,7 +15126,7 @@
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
@@ -14890,63 +15164,63 @@
       <c r="AV5" s="42"/>
       <c r="AW5" s="42"/>
       <c r="AX5" s="42"/>
-      <c r="AY5" s="44"/>
+      <c r="AY5" s="43"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="46"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="46"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="47"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="46"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -14995,9 +15269,9 @@
       <c r="AY7" s="21"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -15046,9 +15320,9 @@
       <c r="AY8" s="21"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -15097,9 +15371,9 @@
       <c r="AY9" s="21"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -15148,9 +15422,9 @@
       <c r="AY10" s="21"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -15199,9 +15473,9 @@
       <c r="AY11" s="21"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -15250,9 +15524,9 @@
       <c r="AY12" s="21"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -15301,9 +15575,9 @@
       <c r="AY13" s="21"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -15352,9 +15626,9 @@
       <c r="AY14" s="21"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -15403,9 +15677,9 @@
       <c r="AY15" s="21"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -15454,9 +15728,9 @@
       <c r="AY16" s="21"/>
     </row>
     <row r="17" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -15505,9 +15779,9 @@
       <c r="AY17" s="21"/>
     </row>
     <row r="18" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -15556,9 +15830,9 @@
       <c r="AY18" s="21"/>
     </row>
     <row r="19" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -15607,9 +15881,9 @@
       <c r="AY19" s="21"/>
     </row>
     <row r="20" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
@@ -15658,9 +15932,9 @@
       <c r="AY20" s="21"/>
     </row>
     <row r="21" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -15709,9 +15983,9 @@
       <c r="AY21" s="21"/>
     </row>
     <row r="22" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -15760,9 +16034,9 @@
       <c r="AY22" s="21"/>
     </row>
     <row r="23" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -15811,9 +16085,9 @@
       <c r="AY23" s="21"/>
     </row>
     <row r="24" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -15862,9 +16136,9 @@
       <c r="AY24" s="21"/>
     </row>
     <row r="25" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -15913,9 +16187,9 @@
       <c r="AY25" s="21"/>
     </row>
     <row r="26" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -15964,9 +16238,9 @@
       <c r="AY26" s="21"/>
     </row>
     <row r="27" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
@@ -16015,9 +16289,9 @@
       <c r="AY27" s="21"/>
     </row>
     <row r="28" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
@@ -16066,9 +16340,9 @@
       <c r="AY28" s="21"/>
     </row>
     <row r="29" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -16117,9 +16391,9 @@
       <c r="AY29" s="21"/>
     </row>
     <row r="30" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
@@ -16168,9 +16442,9 @@
       <c r="AY30" s="21"/>
     </row>
     <row r="31" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
@@ -16219,9 +16493,9 @@
       <c r="AY31" s="21"/>
     </row>
     <row r="32" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -16270,9 +16544,9 @@
       <c r="AY32" s="21"/>
     </row>
     <row r="33" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
@@ -17602,10 +17876,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17725,9 +17999,28 @@
         <v>153</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C29" s="53"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A2973A-2E50-421C-9C7A-549C266BE0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EAE9BF-0E8D-4909-A277-140562E392EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="690" windowWidth="21120" windowHeight="14010" activeTab="1" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
+    <workbookView xWindow="2310" yWindow="810" windowWidth="25515" windowHeight="14010" activeTab="1" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
   <sheets>
     <sheet name="遷移図" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="160">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -454,14 +454,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>login</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>user_create</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -838,10 +830,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>/kintai/user/edit/{$seq_user_id}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>https://icooon-mono.com/00434-free-clock-icon-part-2%e7%84%a1%e6%96%99%e3%81%ae%e6%99%82%e8%a8%88%e3%81%ae%e3%82%a2%e3%82%a4%e3%82%b3%e3%83%b3-2/</t>
   </si>
   <si>
@@ -963,6 +951,26 @@
   </si>
   <si>
     <t>TemplateView</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LoginView</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/kintai/user/edit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TopView</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UserCreateView</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UserEditView</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1500,6 +1508,68 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1805,68 +1875,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7638,30 +7646,30 @@
     <tableColumn id="5" xr3:uid="{D4F97791-1B66-40A7-878A-EA346B3FE47E}" name="URL" dataDxfId="20">
       <calculatedColumnFormula>$D$1&amp;テーブル2[[#This Row],[パス名]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{803D1913-A85D-4B55-9B0F-279B6A77FB14}" name="ログイン_x000a_要求" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{B4E4CA48-4926-4106-8863-A09A4C260153}" name="TemplateView" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{43C6DEDE-73FA-4A00-ACD2-CDCA758836EE}" name="View関数" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{84092C46-EF3D-4000-95FD-C05C4BA4FFE0}" name="備考" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{803D1913-A85D-4B55-9B0F-279B6A77FB14}" name="ログイン_x000a_要求" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{B4E4CA48-4926-4106-8863-A09A4C260153}" name="TemplateView" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{43C6DEDE-73FA-4A00-ACD2-CDCA758836EE}" name="View関数" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{84092C46-EF3D-4000-95FD-C05C4BA4FFE0}" name="備考" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K43" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K43" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:K43" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="No" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{1957689B-E225-49BB-B9C6-E7FD96BEFAF8}" name="テーブル名（物理名）" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{59B3D7F6-7F01-4CC9-A3E4-6F9A1CE9A7ED}" name="カラム名（論理名）" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{B344ED27-C9AF-40C5-804E-DE744CF55CF6}" name="カラム名（物理名）" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{B8D62AAD-9CA8-4C97-A164-779DE4FB09D0}" name="シーケンス" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{A1AFAE0B-B8B7-4F06-9E79-A973996E7D17}" name="Pキー" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{CE544C9E-ABCD-4010-8985-2C9F62BDA4D1}" name="必須" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{E8A272B1-E29C-469E-9A35-AE83F24373DA}" name="型" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{33CEA65A-379F-49DF-A0D1-3E54DF4C627F}" name="サイズ" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{B17BCC14-EBDF-42B5-93C8-71C562D92537}" name="備考" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="No" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{1957689B-E225-49BB-B9C6-E7FD96BEFAF8}" name="テーブル名（物理名）" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{59B3D7F6-7F01-4CC9-A3E4-6F9A1CE9A7ED}" name="カラム名（論理名）" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{B344ED27-C9AF-40C5-804E-DE744CF55CF6}" name="カラム名（物理名）" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{B8D62AAD-9CA8-4C97-A164-779DE4FB09D0}" name="シーケンス" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{A1AFAE0B-B8B7-4F06-9E79-A973996E7D17}" name="Pキー" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{CE544C9E-ABCD-4010-8985-2C9F62BDA4D1}" name="必須" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{E8A272B1-E29C-469E-9A35-AE83F24373DA}" name="型" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{33CEA65A-379F-49DF-A0D1-3E54DF4C627F}" name="サイズ" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{B17BCC14-EBDF-42B5-93C8-71C562D92537}" name="備考" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7972,7 +7980,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -7988,12 +7996,12 @@
     </row>
     <row r="24" spans="59:59" x14ac:dyDescent="0.4">
       <c r="BG24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="59:59" x14ac:dyDescent="0.4">
       <c r="BG26" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8013,16 +8021,16 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.25" style="2" bestFit="1" customWidth="1"/>
@@ -8045,13 +8053,13 @@
     </row>
     <row r="2" spans="1:9" ht="31.5" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>62</v>
@@ -8060,10 +8068,10 @@
         <v>57</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>58</v>
@@ -8078,24 +8086,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" s="11" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/admin/login</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="G3" s="11"/>
       <c r="H3" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I3" s="10"/>
     </row>
@@ -8105,10 +8113,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>61</v>
@@ -8118,12 +8126,12 @@
         <v>http://127.0.0.1:8000/kintai/login</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="10" t="s">
-        <v>66</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -8132,10 +8140,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>63</v>
@@ -8145,12 +8153,12 @@
         <v>http://127.0.0.1:8000/kintai</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10" t="s">
-        <v>67</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -8159,10 +8167,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>65</v>
@@ -8172,9 +8180,9 @@
         <v>http://127.0.0.1:8000/kintai/user/list</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="G6" s="16"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
@@ -8184,10 +8192,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>64</v>
@@ -8197,11 +8205,13 @@
         <v>http://127.0.0.1:8000/kintai/user/create</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="H7" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I7" s="10"/>
     </row>
@@ -8211,24 +8221,26 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="E8" s="11" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/user/edit/{$seq_user_id}</v>
+        <v>http://127.0.0.1:8000/kintai/user/edit</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="12"/>
+        <v>103</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="H8" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I8" s="10"/>
     </row>
@@ -8238,22 +8250,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/user/delete</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="17"/>
+        <v>114</v>
+      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
@@ -8263,20 +8275,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/cp/list</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
@@ -8286,20 +8298,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/cp/create</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
@@ -8309,20 +8321,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/cp/edit</v>
       </c>
       <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
@@ -8332,20 +8344,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E13" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/cp/delete</v>
       </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
@@ -8355,20 +8367,20 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/dv/list</v>
       </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
@@ -8378,20 +8390,20 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="E15" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/dv/create</v>
       </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
@@ -8401,20 +8413,20 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E16" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/dv/edit</v>
       </c>
       <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
@@ -8424,20 +8436,20 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E17" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/dv/delete</v>
       </c>
       <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
@@ -8447,20 +8459,20 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E18" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/ot/list</v>
       </c>
       <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
@@ -8470,20 +8482,20 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E19" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/ot/create</v>
       </c>
       <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
     </row>
@@ -8493,20 +8505,20 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E20" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/ot/edit</v>
       </c>
       <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
     </row>
@@ -8516,20 +8528,20 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E21" s="16" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/ot/delete</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
     </row>
@@ -8546,7 +8558,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
     </row>
@@ -8563,7 +8575,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
@@ -8580,7 +8592,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
     </row>
@@ -8597,7 +8609,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
     </row>
@@ -8614,7 +8626,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
     </row>
@@ -8631,7 +8643,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
@@ -8648,7 +8660,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
@@ -8665,7 +8677,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
@@ -8682,7 +8694,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
     </row>
@@ -8699,7 +8711,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
@@ -8716,7 +8728,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
@@ -8733,7 +8745,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
     </row>
@@ -8750,7 +8762,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
     </row>
@@ -8767,7 +8779,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
     </row>
@@ -8784,7 +8796,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
     </row>
@@ -9000,17 +9012,17 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C36">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9032,9 +9044,7 @@
   </sheetPr>
   <dimension ref="A1:AY35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BG12" sqref="BG12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10695,9 +10705,7 @@
   </sheetPr>
   <dimension ref="A1:AY69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA46" sqref="BA46"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -13399,7 +13407,7 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.4">
       <c r="V2" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -16711,8 +16719,8 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -16748,7 +16756,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -16843,7 +16851,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -16989,7 +16997,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -17193,13 +17201,13 @@
         <v>27</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F16" s="8">
         <v>1</v>
@@ -17223,13 +17231,13 @@
         <v>27</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8">
@@ -17258,10 +17266,10 @@
         <v>28</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8">
@@ -17293,7 +17301,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -17321,7 +17329,7 @@
         <v>31</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -17349,7 +17357,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -17377,7 +17385,7 @@
         <v>33</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -17452,16 +17460,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
@@ -17484,16 +17492,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -17502,7 +17510,7 @@
         <v>18</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K26" s="8"/>
     </row>
@@ -17512,10 +17520,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>23</v>
@@ -17540,10 +17548,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>25</v>
@@ -17568,16 +17576,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="D29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
@@ -17600,16 +17608,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="E30" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -17628,10 +17636,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>23</v>
@@ -17656,10 +17664,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>25</v>
@@ -17878,9 +17886,7 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -17889,25 +17895,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C4" s="34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
@@ -17915,10 +17921,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C5" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -17926,82 +17932,82 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -18009,12 +18015,12 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -18028,9 +18034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318F5ACB-8B67-4E43-8C03-9DB021B5E5D3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA16FE4C-462E-40FC-B308-B1B09A45C024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCCE7F0-317F-4F5D-BC3D-5EEFAC8CDB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="240" windowWidth="21945" windowHeight="15045" activeTab="8" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
+    <workbookView xWindow="5475" yWindow="210" windowWidth="21945" windowHeight="15045" activeTab="3" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
   <sheets>
     <sheet name="遷移図" sheetId="1" r:id="rId1"/>
@@ -1649,7 +1649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1872,34 +1872,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1911,58 +1887,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2007,51 +1958,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2232,6 +2138,97 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5778,7 +5775,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4467225" y="8220075"/>
+          <a:off x="4467225" y="8620125"/>
           <a:ext cx="1133475" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5847,7 +5844,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4467225" y="8848725"/>
+          <a:off x="4467225" y="9248775"/>
           <a:ext cx="1133475" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5916,7 +5913,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591425" y="8220075"/>
+          <a:off x="7591425" y="8620125"/>
           <a:ext cx="1133475" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10131,20 +10128,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K72" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K72" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:K72" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="#" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{1957689B-E225-49BB-B9C6-E7FD96BEFAF8}" name="テーブル名（物理名）" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{59B3D7F6-7F01-4CC9-A3E4-6F9A1CE9A7ED}" name="カラム名（論理名）" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{B344ED27-C9AF-40C5-804E-DE744CF55CF6}" name="カラム名（物理名）" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{B8D62AAD-9CA8-4C97-A164-779DE4FB09D0}" name="シーケンス" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{A1AFAE0B-B8B7-4F06-9E79-A973996E7D17}" name="Pキー" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{CE544C9E-ABCD-4010-8985-2C9F62BDA4D1}" name="必須" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{E8A272B1-E29C-469E-9A35-AE83F24373DA}" name="型" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{33CEA65A-379F-49DF-A0D1-3E54DF4C627F}" name="サイズ" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{B17BCC14-EBDF-42B5-93C8-71C562D92537}" name="備考" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="#" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{1957689B-E225-49BB-B9C6-E7FD96BEFAF8}" name="テーブル名（物理名）" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{59B3D7F6-7F01-4CC9-A3E4-6F9A1CE9A7ED}" name="カラム名（論理名）" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B344ED27-C9AF-40C5-804E-DE744CF55CF6}" name="カラム名（物理名）" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{B8D62AAD-9CA8-4C97-A164-779DE4FB09D0}" name="シーケンス" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{A1AFAE0B-B8B7-4F06-9E79-A973996E7D17}" name="Pキー" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{CE544C9E-ABCD-4010-8985-2C9F62BDA4D1}" name="必須" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{E8A272B1-E29C-469E-9A35-AE83F24373DA}" name="型" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{33CEA65A-379F-49DF-A0D1-3E54DF4C627F}" name="サイズ" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{B17BCC14-EBDF-42B5-93C8-71C562D92537}" name="備考" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11612,17 +11609,17 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C21 C24:C36">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13356,7 +13353,9 @@
   </sheetPr>
   <dimension ref="A1:AY71"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR57" sqref="AR57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -15206,11 +15205,11 @@
       <c r="C43" s="46"/>
       <c r="D43" s="47"/>
       <c r="E43" s="47"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="P43" s="46"/>
@@ -15238,11 +15237,11 @@
       <c r="C44" s="46"/>
       <c r="D44" s="47"/>
       <c r="E44" s="47"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
       <c r="P44" s="46"/>
@@ -15270,11 +15269,11 @@
       <c r="C45" s="46"/>
       <c r="D45" s="47"/>
       <c r="E45" s="47"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="P45" s="46"/>
@@ -15302,11 +15301,11 @@
       <c r="C46" s="46"/>
       <c r="D46" s="47"/>
       <c r="E46" s="47"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="P46" s="46"/>
@@ -15334,11 +15333,11 @@
       <c r="C47" s="46"/>
       <c r="D47" s="47"/>
       <c r="E47" s="47"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
       <c r="P47" s="46"/>
@@ -15366,11 +15365,11 @@
       <c r="C48" s="46"/>
       <c r="D48" s="47"/>
       <c r="E48" s="47"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
       <c r="P48" s="46"/>
@@ -15398,11 +15397,11 @@
       <c r="C49" s="46"/>
       <c r="D49" s="47"/>
       <c r="E49" s="47"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="P49" s="46"/>
@@ -15430,11 +15429,11 @@
       <c r="C50" s="46"/>
       <c r="D50" s="47"/>
       <c r="E50" s="47"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="P50" s="46"/>
@@ -15462,11 +15461,11 @@
       <c r="C51" s="46"/>
       <c r="D51" s="47"/>
       <c r="E51" s="47"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="P51" s="46"/>
@@ -15494,11 +15493,11 @@
       <c r="C52" s="46"/>
       <c r="D52" s="47"/>
       <c r="E52" s="47"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
       <c r="P52" s="46"/>
@@ -15526,11 +15525,11 @@
       <c r="C53" s="46"/>
       <c r="D53" s="47"/>
       <c r="E53" s="47"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
       <c r="P53" s="46"/>
@@ -15558,11 +15557,11 @@
       <c r="C54" s="46"/>
       <c r="D54" s="47"/>
       <c r="E54" s="47"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
       <c r="P54" s="46"/>
@@ -15590,11 +15589,11 @@
       <c r="C55" s="46"/>
       <c r="D55" s="47"/>
       <c r="E55" s="47"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="P55" s="46"/>
@@ -15622,11 +15621,11 @@
       <c r="C56" s="46"/>
       <c r="D56" s="47"/>
       <c r="E56" s="47"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
       <c r="P56" s="46"/>
@@ -15654,11 +15653,11 @@
       <c r="C57" s="46"/>
       <c r="D57" s="47"/>
       <c r="E57" s="47"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
       <c r="P57" s="46"/>
@@ -15686,11 +15685,11 @@
       <c r="C58" s="46"/>
       <c r="D58" s="47"/>
       <c r="E58" s="47"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
       <c r="P58" s="46"/>
@@ -15718,11 +15717,11 @@
       <c r="C59" s="46"/>
       <c r="D59" s="47"/>
       <c r="E59" s="47"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
       <c r="P59" s="46"/>
@@ -15750,11 +15749,11 @@
       <c r="C60" s="46"/>
       <c r="D60" s="47"/>
       <c r="E60" s="47"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
       <c r="P60" s="46"/>
@@ -15782,11 +15781,11 @@
       <c r="C61" s="46"/>
       <c r="D61" s="47"/>
       <c r="E61" s="47"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
       <c r="P61" s="46"/>
@@ -15814,11 +15813,11 @@
       <c r="C62" s="46"/>
       <c r="D62" s="47"/>
       <c r="E62" s="47"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
       <c r="K62" s="18"/>
       <c r="L62" s="18"/>
       <c r="P62" s="46"/>
@@ -15846,11 +15845,11 @@
       <c r="C63" s="46"/>
       <c r="D63" s="47"/>
       <c r="E63" s="47"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
       <c r="K63" s="18"/>
       <c r="L63" s="18"/>
       <c r="P63" s="46"/>
@@ -15878,11 +15877,11 @@
       <c r="C64" s="46"/>
       <c r="D64" s="47"/>
       <c r="E64" s="47"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
       <c r="K64" s="18"/>
       <c r="L64" s="18"/>
       <c r="P64" s="46"/>
@@ -15910,11 +15909,11 @@
       <c r="C65" s="46"/>
       <c r="D65" s="47"/>
       <c r="E65" s="47"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
       <c r="P65" s="46"/>
@@ -15942,11 +15941,11 @@
       <c r="C66" s="46"/>
       <c r="D66" s="47"/>
       <c r="E66" s="47"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
       <c r="K66" s="18"/>
       <c r="L66" s="18"/>
       <c r="P66" s="46"/>
@@ -15974,11 +15973,11 @@
       <c r="C67" s="46"/>
       <c r="D67" s="47"/>
       <c r="E67" s="47"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
       <c r="K67" s="18"/>
       <c r="L67" s="18"/>
       <c r="P67" s="46"/>
@@ -16006,11 +16005,11 @@
       <c r="C68" s="46"/>
       <c r="D68" s="47"/>
       <c r="E68" s="47"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
       <c r="K68" s="18"/>
       <c r="L68" s="18"/>
       <c r="P68" s="46"/>
@@ -16038,11 +16037,11 @@
       <c r="C69" s="46"/>
       <c r="D69" s="47"/>
       <c r="E69" s="47"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
       <c r="K69" s="18"/>
       <c r="L69" s="18"/>
       <c r="P69" s="46"/>
@@ -21871,15 +21870,15 @@
       <c r="AD83" s="68"/>
     </row>
     <row r="84" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J84" s="74">
+      <c r="J84" s="79">
         <v>1</v>
       </c>
-      <c r="K84" s="75"/>
-      <c r="L84" s="76"/>
-      <c r="M84" s="77" t="s">
+      <c r="K84" s="80"/>
+      <c r="L84" s="81"/>
+      <c r="M84" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="N84" s="78"/>
+      <c r="N84" s="85"/>
       <c r="O84" s="53"/>
       <c r="P84" s="54"/>
       <c r="Q84" s="56"/>
@@ -21889,9 +21888,9 @@
       <c r="S84" s="53"/>
       <c r="T84" s="55"/>
       <c r="U84" s="56"/>
-      <c r="V84" s="74"/>
-      <c r="W84" s="75"/>
-      <c r="X84" s="76"/>
+      <c r="V84" s="79"/>
+      <c r="W84" s="80"/>
+      <c r="X84" s="81"/>
       <c r="Y84" s="71" t="s">
         <v>177</v>
       </c>
@@ -21904,16 +21903,16 @@
       <c r="AD84" s="73"/>
     </row>
     <row r="85" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J85" s="74">
+      <c r="J85" s="79">
         <f>J84+1</f>
         <v>2</v>
       </c>
-      <c r="K85" s="75"/>
-      <c r="L85" s="76"/>
-      <c r="M85" s="74" t="s">
+      <c r="K85" s="80"/>
+      <c r="L85" s="81"/>
+      <c r="M85" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="N85" s="75"/>
+      <c r="N85" s="80"/>
       <c r="O85" s="53"/>
       <c r="P85" s="54"/>
       <c r="Q85" s="56"/>
@@ -21923,9 +21922,9 @@
       <c r="S85" s="53"/>
       <c r="T85" s="55"/>
       <c r="U85" s="56"/>
-      <c r="V85" s="74"/>
-      <c r="W85" s="75"/>
-      <c r="X85" s="76"/>
+      <c r="V85" s="79"/>
+      <c r="W85" s="80"/>
+      <c r="X85" s="81"/>
       <c r="Y85" s="71" t="s">
         <v>177</v>
       </c>
@@ -21938,16 +21937,16 @@
       <c r="AD85" s="73"/>
     </row>
     <row r="86" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J86" s="74">
+      <c r="J86" s="79">
         <f>J85+1</f>
         <v>3</v>
       </c>
-      <c r="K86" s="75"/>
-      <c r="L86" s="76"/>
-      <c r="M86" s="74" t="s">
+      <c r="K86" s="80"/>
+      <c r="L86" s="81"/>
+      <c r="M86" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="N86" s="75"/>
+      <c r="N86" s="80"/>
       <c r="O86" s="61"/>
       <c r="P86" s="62"/>
       <c r="Q86" s="63"/>
@@ -21957,9 +21956,9 @@
       <c r="S86" s="53"/>
       <c r="T86" s="55"/>
       <c r="U86" s="56"/>
-      <c r="V86" s="74"/>
-      <c r="W86" s="75"/>
-      <c r="X86" s="76"/>
+      <c r="V86" s="79"/>
+      <c r="W86" s="80"/>
+      <c r="X86" s="81"/>
       <c r="Y86" s="71" t="s">
         <v>177</v>
       </c>
@@ -21972,16 +21971,16 @@
       <c r="AD86" s="73"/>
     </row>
     <row r="87" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J87" s="74">
+      <c r="J87" s="79">
         <f t="shared" ref="J87:J91" si="0">J86+1</f>
         <v>4</v>
       </c>
-      <c r="K87" s="75"/>
-      <c r="L87" s="76"/>
-      <c r="M87" s="74" t="s">
+      <c r="K87" s="80"/>
+      <c r="L87" s="81"/>
+      <c r="M87" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="N87" s="75"/>
+      <c r="N87" s="80"/>
       <c r="O87" s="58" t="s">
         <v>172</v>
       </c>
@@ -21995,9 +21994,9 @@
       </c>
       <c r="T87" s="59"/>
       <c r="U87" s="64"/>
-      <c r="V87" s="74"/>
-      <c r="W87" s="75"/>
-      <c r="X87" s="76"/>
+      <c r="V87" s="79"/>
+      <c r="W87" s="80"/>
+      <c r="X87" s="81"/>
       <c r="Y87" s="71" t="s">
         <v>179</v>
       </c>
@@ -22010,16 +22009,16 @@
       <c r="AD87" s="73"/>
     </row>
     <row r="88" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J88" s="74">
+      <c r="J88" s="79">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K88" s="75"/>
-      <c r="L88" s="76"/>
-      <c r="M88" s="74" t="s">
+      <c r="K88" s="80"/>
+      <c r="L88" s="81"/>
+      <c r="M88" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="N88" s="75"/>
+      <c r="N88" s="80"/>
       <c r="O88" s="58" t="s">
         <v>172</v>
       </c>
@@ -22033,9 +22032,9 @@
       </c>
       <c r="T88" s="59"/>
       <c r="U88" s="64"/>
-      <c r="V88" s="74"/>
-      <c r="W88" s="75"/>
-      <c r="X88" s="76"/>
+      <c r="V88" s="79"/>
+      <c r="W88" s="80"/>
+      <c r="X88" s="81"/>
       <c r="Y88" s="71" t="s">
         <v>179</v>
       </c>
@@ -22048,16 +22047,16 @@
       <c r="AD88" s="73"/>
     </row>
     <row r="89" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J89" s="74">
+      <c r="J89" s="79">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K89" s="75"/>
-      <c r="L89" s="76"/>
-      <c r="M89" s="74" t="s">
+      <c r="K89" s="80"/>
+      <c r="L89" s="81"/>
+      <c r="M89" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="N89" s="75"/>
+      <c r="N89" s="80"/>
       <c r="O89" s="58" t="s">
         <v>172</v>
       </c>
@@ -22071,9 +22070,9 @@
       </c>
       <c r="T89" s="59"/>
       <c r="U89" s="64"/>
-      <c r="V89" s="74"/>
-      <c r="W89" s="75"/>
-      <c r="X89" s="76"/>
+      <c r="V89" s="79"/>
+      <c r="W89" s="80"/>
+      <c r="X89" s="81"/>
       <c r="Y89" s="71" t="s">
         <v>180</v>
       </c>
@@ -22086,16 +22085,16 @@
       <c r="AD89" s="73"/>
     </row>
     <row r="90" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J90" s="74">
+      <c r="J90" s="79">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K90" s="75"/>
-      <c r="L90" s="76"/>
-      <c r="M90" s="79" t="s">
+      <c r="K90" s="80"/>
+      <c r="L90" s="81"/>
+      <c r="M90" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="N90" s="80"/>
+      <c r="N90" s="83"/>
       <c r="O90" s="58"/>
       <c r="P90" s="59"/>
       <c r="Q90" s="64"/>
@@ -22105,9 +22104,9 @@
       <c r="S90" s="58"/>
       <c r="T90" s="59"/>
       <c r="U90" s="64"/>
-      <c r="V90" s="74"/>
-      <c r="W90" s="75"/>
-      <c r="X90" s="76"/>
+      <c r="V90" s="79"/>
+      <c r="W90" s="80"/>
+      <c r="X90" s="81"/>
       <c r="Y90" s="71" t="s">
         <v>177</v>
       </c>
@@ -22120,16 +22119,16 @@
       <c r="AD90" s="73"/>
     </row>
     <row r="91" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J91" s="74">
+      <c r="J91" s="79">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K91" s="75"/>
-      <c r="L91" s="76"/>
-      <c r="M91" s="77" t="s">
+      <c r="K91" s="80"/>
+      <c r="L91" s="81"/>
+      <c r="M91" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="N91" s="78"/>
+      <c r="N91" s="85"/>
       <c r="O91" s="58"/>
       <c r="P91" s="59"/>
       <c r="Q91" s="64"/>
@@ -22139,9 +22138,9 @@
       <c r="S91" s="58"/>
       <c r="T91" s="59"/>
       <c r="U91" s="64"/>
-      <c r="V91" s="74"/>
-      <c r="W91" s="75"/>
-      <c r="X91" s="76"/>
+      <c r="V91" s="79"/>
+      <c r="W91" s="80"/>
+      <c r="X91" s="81"/>
       <c r="Y91" s="71" t="s">
         <v>177</v>
       </c>
@@ -22154,16 +22153,16 @@
       <c r="AD91" s="73"/>
     </row>
     <row r="92" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J92" s="74">
+      <c r="J92" s="79">
         <f t="shared" ref="J92:J105" si="1">J91+1</f>
         <v>9</v>
       </c>
-      <c r="K92" s="75"/>
-      <c r="L92" s="76"/>
-      <c r="M92" s="77" t="s">
+      <c r="K92" s="80"/>
+      <c r="L92" s="81"/>
+      <c r="M92" s="84" t="s">
         <v>170</v>
       </c>
-      <c r="N92" s="78"/>
+      <c r="N92" s="85"/>
       <c r="O92" s="58"/>
       <c r="P92" s="59"/>
       <c r="Q92" s="64"/>
@@ -22173,9 +22172,9 @@
       <c r="S92" s="58"/>
       <c r="T92" s="59"/>
       <c r="U92" s="64"/>
-      <c r="V92" s="74"/>
-      <c r="W92" s="75"/>
-      <c r="X92" s="76"/>
+      <c r="V92" s="79"/>
+      <c r="W92" s="80"/>
+      <c r="X92" s="81"/>
       <c r="Y92" s="71" t="s">
         <v>177</v>
       </c>
@@ -22188,16 +22187,16 @@
       <c r="AD92" s="73"/>
     </row>
     <row r="93" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J93" s="74">
+      <c r="J93" s="79">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K93" s="75"/>
-      <c r="L93" s="76"/>
-      <c r="M93" s="74" t="s">
+      <c r="K93" s="80"/>
+      <c r="L93" s="81"/>
+      <c r="M93" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="N93" s="75"/>
+      <c r="N93" s="80"/>
       <c r="O93" s="58" t="s">
         <v>172</v>
       </c>
@@ -22211,9 +22210,9 @@
       </c>
       <c r="T93" s="59"/>
       <c r="U93" s="64"/>
-      <c r="V93" s="74"/>
-      <c r="W93" s="75"/>
-      <c r="X93" s="76"/>
+      <c r="V93" s="79"/>
+      <c r="W93" s="80"/>
+      <c r="X93" s="81"/>
       <c r="Y93" s="71" t="s">
         <v>182</v>
       </c>
@@ -22226,16 +22225,16 @@
       <c r="AD93" s="73"/>
     </row>
     <row r="94" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J94" s="74">
+      <c r="J94" s="79">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K94" s="75"/>
-      <c r="L94" s="76"/>
-      <c r="M94" s="74" t="s">
+      <c r="K94" s="80"/>
+      <c r="L94" s="81"/>
+      <c r="M94" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="N94" s="75"/>
+      <c r="N94" s="80"/>
       <c r="O94" s="58" t="s">
         <v>172</v>
       </c>
@@ -22249,9 +22248,9 @@
       </c>
       <c r="T94" s="59"/>
       <c r="U94" s="64"/>
-      <c r="V94" s="74"/>
-      <c r="W94" s="75"/>
-      <c r="X94" s="76"/>
+      <c r="V94" s="79"/>
+      <c r="W94" s="80"/>
+      <c r="X94" s="81"/>
       <c r="Y94" s="71" t="s">
         <v>179</v>
       </c>
@@ -22264,16 +22263,16 @@
       <c r="AD94" s="73"/>
     </row>
     <row r="95" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J95" s="74">
+      <c r="J95" s="79">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K95" s="75"/>
-      <c r="L95" s="76"/>
-      <c r="M95" s="74" t="s">
+      <c r="K95" s="80"/>
+      <c r="L95" s="81"/>
+      <c r="M95" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="N95" s="75"/>
+      <c r="N95" s="80"/>
       <c r="O95" s="58" t="s">
         <v>172</v>
       </c>
@@ -22287,9 +22286,9 @@
       </c>
       <c r="T95" s="59"/>
       <c r="U95" s="64"/>
-      <c r="V95" s="74"/>
-      <c r="W95" s="75"/>
-      <c r="X95" s="76"/>
+      <c r="V95" s="79"/>
+      <c r="W95" s="80"/>
+      <c r="X95" s="81"/>
       <c r="Y95" s="71" t="s">
         <v>179</v>
       </c>
@@ -22302,16 +22301,16 @@
       <c r="AD95" s="73"/>
     </row>
     <row r="96" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J96" s="74">
+      <c r="J96" s="79">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K96" s="75"/>
-      <c r="L96" s="76"/>
-      <c r="M96" s="74" t="s">
+      <c r="K96" s="80"/>
+      <c r="L96" s="81"/>
+      <c r="M96" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="N96" s="75"/>
+      <c r="N96" s="80"/>
       <c r="O96" s="58" t="s">
         <v>172</v>
       </c>
@@ -22325,9 +22324,9 @@
       </c>
       <c r="T96" s="59"/>
       <c r="U96" s="64"/>
-      <c r="V96" s="74"/>
-      <c r="W96" s="75"/>
-      <c r="X96" s="76"/>
+      <c r="V96" s="79"/>
+      <c r="W96" s="80"/>
+      <c r="X96" s="81"/>
       <c r="Y96" s="71" t="s">
         <v>179</v>
       </c>
@@ -22340,16 +22339,16 @@
       <c r="AD96" s="73"/>
     </row>
     <row r="97" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J97" s="74">
+      <c r="J97" s="79">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K97" s="75"/>
-      <c r="L97" s="76"/>
-      <c r="M97" s="79" t="s">
+      <c r="K97" s="80"/>
+      <c r="L97" s="81"/>
+      <c r="M97" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="N97" s="80"/>
+      <c r="N97" s="83"/>
       <c r="O97" s="58"/>
       <c r="P97" s="59"/>
       <c r="Q97" s="64"/>
@@ -22359,9 +22358,9 @@
       <c r="S97" s="58"/>
       <c r="T97" s="59"/>
       <c r="U97" s="64"/>
-      <c r="V97" s="74"/>
-      <c r="W97" s="75"/>
-      <c r="X97" s="76"/>
+      <c r="V97" s="79"/>
+      <c r="W97" s="80"/>
+      <c r="X97" s="81"/>
       <c r="Y97" s="71" t="s">
         <v>177</v>
       </c>
@@ -22374,16 +22373,16 @@
       <c r="AD97" s="73"/>
     </row>
     <row r="98" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J98" s="74">
+      <c r="J98" s="79">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K98" s="75"/>
-      <c r="L98" s="76"/>
-      <c r="M98" s="77" t="s">
+      <c r="K98" s="80"/>
+      <c r="L98" s="81"/>
+      <c r="M98" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="N98" s="78"/>
+      <c r="N98" s="85"/>
       <c r="O98" s="58"/>
       <c r="P98" s="59"/>
       <c r="Q98" s="64"/>
@@ -22393,9 +22392,9 @@
       <c r="S98" s="58"/>
       <c r="T98" s="59"/>
       <c r="U98" s="64"/>
-      <c r="V98" s="74"/>
-      <c r="W98" s="75"/>
-      <c r="X98" s="76"/>
+      <c r="V98" s="79"/>
+      <c r="W98" s="80"/>
+      <c r="X98" s="81"/>
       <c r="Y98" s="71" t="s">
         <v>177</v>
       </c>
@@ -22408,16 +22407,16 @@
       <c r="AD98" s="73"/>
     </row>
     <row r="99" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J99" s="74">
+      <c r="J99" s="79">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K99" s="75"/>
-      <c r="L99" s="76"/>
-      <c r="M99" s="74" t="s">
+      <c r="K99" s="80"/>
+      <c r="L99" s="81"/>
+      <c r="M99" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="N99" s="75"/>
+      <c r="N99" s="80"/>
       <c r="O99" s="58" t="s">
         <v>172</v>
       </c>
@@ -22431,9 +22430,9 @@
       </c>
       <c r="T99" s="59"/>
       <c r="U99" s="64"/>
-      <c r="V99" s="74"/>
-      <c r="W99" s="75"/>
-      <c r="X99" s="76"/>
+      <c r="V99" s="79"/>
+      <c r="W99" s="80"/>
+      <c r="X99" s="81"/>
       <c r="Y99" s="71" t="s">
         <v>179</v>
       </c>
@@ -22446,16 +22445,16 @@
       <c r="AD99" s="73"/>
     </row>
     <row r="100" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J100" s="74">
+      <c r="J100" s="79">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K100" s="75"/>
-      <c r="L100" s="76"/>
-      <c r="M100" s="74" t="s">
+      <c r="K100" s="80"/>
+      <c r="L100" s="81"/>
+      <c r="M100" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="N100" s="75"/>
+      <c r="N100" s="80"/>
       <c r="O100" s="58" t="s">
         <v>172</v>
       </c>
@@ -22469,9 +22468,9 @@
       </c>
       <c r="T100" s="59"/>
       <c r="U100" s="64"/>
-      <c r="V100" s="74"/>
-      <c r="W100" s="75"/>
-      <c r="X100" s="76"/>
+      <c r="V100" s="79"/>
+      <c r="W100" s="80"/>
+      <c r="X100" s="81"/>
       <c r="Y100" s="71" t="s">
         <v>179</v>
       </c>
@@ -22484,16 +22483,16 @@
       <c r="AD100" s="73"/>
     </row>
     <row r="101" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J101" s="74">
+      <c r="J101" s="79">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K101" s="75"/>
-      <c r="L101" s="76"/>
-      <c r="M101" s="74" t="s">
+      <c r="K101" s="80"/>
+      <c r="L101" s="81"/>
+      <c r="M101" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="N101" s="75"/>
+      <c r="N101" s="80"/>
       <c r="O101" s="58" t="s">
         <v>172</v>
       </c>
@@ -22507,9 +22506,9 @@
       </c>
       <c r="T101" s="59"/>
       <c r="U101" s="64"/>
-      <c r="V101" s="74"/>
-      <c r="W101" s="75"/>
-      <c r="X101" s="76"/>
+      <c r="V101" s="79"/>
+      <c r="W101" s="80"/>
+      <c r="X101" s="81"/>
       <c r="Y101" s="71" t="s">
         <v>179</v>
       </c>
@@ -22522,16 +22521,16 @@
       <c r="AD101" s="73"/>
     </row>
     <row r="102" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J102" s="74">
+      <c r="J102" s="79">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K102" s="75"/>
-      <c r="L102" s="76"/>
-      <c r="M102" s="74" t="s">
+      <c r="K102" s="80"/>
+      <c r="L102" s="81"/>
+      <c r="M102" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="N102" s="75"/>
+      <c r="N102" s="80"/>
       <c r="O102" s="58" t="s">
         <v>172</v>
       </c>
@@ -22545,9 +22544,9 @@
       </c>
       <c r="T102" s="59"/>
       <c r="U102" s="64"/>
-      <c r="V102" s="74"/>
-      <c r="W102" s="75"/>
-      <c r="X102" s="76"/>
+      <c r="V102" s="79"/>
+      <c r="W102" s="80"/>
+      <c r="X102" s="81"/>
       <c r="Y102" s="71" t="s">
         <v>179</v>
       </c>
@@ -22560,16 +22559,16 @@
       <c r="AD102" s="73"/>
     </row>
     <row r="103" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J103" s="74">
+      <c r="J103" s="79">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K103" s="75"/>
-      <c r="L103" s="76"/>
-      <c r="M103" s="74" t="s">
+      <c r="K103" s="80"/>
+      <c r="L103" s="81"/>
+      <c r="M103" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="N103" s="75"/>
+      <c r="N103" s="80"/>
       <c r="O103" s="58" t="s">
         <v>172</v>
       </c>
@@ -22583,9 +22582,9 @@
       </c>
       <c r="T103" s="59"/>
       <c r="U103" s="64"/>
-      <c r="V103" s="74"/>
-      <c r="W103" s="75"/>
-      <c r="X103" s="76"/>
+      <c r="V103" s="79"/>
+      <c r="W103" s="80"/>
+      <c r="X103" s="81"/>
       <c r="Y103" s="71" t="s">
         <v>179</v>
       </c>
@@ -22598,16 +22597,16 @@
       <c r="AD103" s="73"/>
     </row>
     <row r="104" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J104" s="74">
+      <c r="J104" s="79">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K104" s="75"/>
-      <c r="L104" s="76"/>
-      <c r="M104" s="79" t="s">
+      <c r="K104" s="80"/>
+      <c r="L104" s="81"/>
+      <c r="M104" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="N104" s="80"/>
+      <c r="N104" s="83"/>
       <c r="O104" s="58"/>
       <c r="P104" s="59"/>
       <c r="Q104" s="64"/>
@@ -22617,9 +22616,9 @@
       <c r="S104" s="58"/>
       <c r="T104" s="59"/>
       <c r="U104" s="64"/>
-      <c r="V104" s="74"/>
-      <c r="W104" s="75"/>
-      <c r="X104" s="76"/>
+      <c r="V104" s="79"/>
+      <c r="W104" s="80"/>
+      <c r="X104" s="81"/>
       <c r="Y104" s="71" t="s">
         <v>177</v>
       </c>
@@ -22632,16 +22631,16 @@
       <c r="AD104" s="73"/>
     </row>
     <row r="105" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J105" s="74">
+      <c r="J105" s="79">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K105" s="75"/>
-      <c r="L105" s="76"/>
-      <c r="M105" s="77" t="s">
+      <c r="K105" s="80"/>
+      <c r="L105" s="81"/>
+      <c r="M105" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="N105" s="78"/>
+      <c r="N105" s="85"/>
       <c r="O105" s="58"/>
       <c r="P105" s="59"/>
       <c r="Q105" s="64"/>
@@ -22651,9 +22650,9 @@
       <c r="S105" s="58"/>
       <c r="T105" s="59"/>
       <c r="U105" s="64"/>
-      <c r="V105" s="74"/>
-      <c r="W105" s="75"/>
-      <c r="X105" s="76"/>
+      <c r="V105" s="79"/>
+      <c r="W105" s="80"/>
+      <c r="X105" s="81"/>
       <c r="Y105" s="71" t="s">
         <v>177</v>
       </c>
@@ -22666,16 +22665,16 @@
       <c r="AD105" s="73"/>
     </row>
     <row r="106" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J106" s="74">
+      <c r="J106" s="79">
         <f t="shared" ref="J106:J114" si="2">J105+1</f>
         <v>23</v>
       </c>
-      <c r="K106" s="75"/>
-      <c r="L106" s="76"/>
-      <c r="M106" s="74" t="s">
+      <c r="K106" s="80"/>
+      <c r="L106" s="81"/>
+      <c r="M106" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="N106" s="75"/>
+      <c r="N106" s="80"/>
       <c r="O106" s="58" t="s">
         <v>172</v>
       </c>
@@ -22689,9 +22688,9 @@
       </c>
       <c r="T106" s="59"/>
       <c r="U106" s="64"/>
-      <c r="V106" s="74"/>
-      <c r="W106" s="75"/>
-      <c r="X106" s="76"/>
+      <c r="V106" s="79"/>
+      <c r="W106" s="80"/>
+      <c r="X106" s="81"/>
       <c r="Y106" s="71" t="s">
         <v>179</v>
       </c>
@@ -22704,16 +22703,16 @@
       <c r="AD106" s="73"/>
     </row>
     <row r="107" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J107" s="74">
+      <c r="J107" s="79">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="K107" s="75"/>
-      <c r="L107" s="76"/>
-      <c r="M107" s="74" t="s">
+      <c r="K107" s="80"/>
+      <c r="L107" s="81"/>
+      <c r="M107" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="N107" s="75"/>
+      <c r="N107" s="80"/>
       <c r="O107" s="58" t="s">
         <v>172</v>
       </c>
@@ -22727,9 +22726,9 @@
       </c>
       <c r="T107" s="59"/>
       <c r="U107" s="64"/>
-      <c r="V107" s="74"/>
-      <c r="W107" s="75"/>
-      <c r="X107" s="76"/>
+      <c r="V107" s="79"/>
+      <c r="W107" s="80"/>
+      <c r="X107" s="81"/>
       <c r="Y107" s="71" t="s">
         <v>179</v>
       </c>
@@ -22742,16 +22741,16 @@
       <c r="AD107" s="73"/>
     </row>
     <row r="108" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J108" s="74">
+      <c r="J108" s="79">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K108" s="75"/>
-      <c r="L108" s="76"/>
-      <c r="M108" s="74" t="s">
+      <c r="K108" s="80"/>
+      <c r="L108" s="81"/>
+      <c r="M108" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="N108" s="75"/>
+      <c r="N108" s="80"/>
       <c r="O108" s="58" t="s">
         <v>172</v>
       </c>
@@ -22765,9 +22764,9 @@
       </c>
       <c r="T108" s="59"/>
       <c r="U108" s="64"/>
-      <c r="V108" s="74"/>
-      <c r="W108" s="75"/>
-      <c r="X108" s="76"/>
+      <c r="V108" s="79"/>
+      <c r="W108" s="80"/>
+      <c r="X108" s="81"/>
       <c r="Y108" s="71" t="s">
         <v>179</v>
       </c>
@@ -22780,16 +22779,16 @@
       <c r="AD108" s="73"/>
     </row>
     <row r="109" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J109" s="74">
+      <c r="J109" s="79">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="K109" s="75"/>
-      <c r="L109" s="76"/>
-      <c r="M109" s="74" t="s">
+      <c r="K109" s="80"/>
+      <c r="L109" s="81"/>
+      <c r="M109" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="N109" s="75"/>
+      <c r="N109" s="80"/>
       <c r="O109" s="58" t="s">
         <v>172</v>
       </c>
@@ -22803,9 +22802,9 @@
       </c>
       <c r="T109" s="59"/>
       <c r="U109" s="64"/>
-      <c r="V109" s="74"/>
-      <c r="W109" s="75"/>
-      <c r="X109" s="76"/>
+      <c r="V109" s="79"/>
+      <c r="W109" s="80"/>
+      <c r="X109" s="81"/>
       <c r="Y109" s="71" t="s">
         <v>179</v>
       </c>
@@ -22818,16 +22817,16 @@
       <c r="AD109" s="73"/>
     </row>
     <row r="110" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J110" s="74">
+      <c r="J110" s="79">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="K110" s="75"/>
-      <c r="L110" s="76"/>
-      <c r="M110" s="74" t="s">
+      <c r="K110" s="80"/>
+      <c r="L110" s="81"/>
+      <c r="M110" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="N110" s="75"/>
+      <c r="N110" s="80"/>
       <c r="O110" s="58" t="s">
         <v>172</v>
       </c>
@@ -22841,9 +22840,9 @@
       </c>
       <c r="T110" s="59"/>
       <c r="U110" s="64"/>
-      <c r="V110" s="74"/>
-      <c r="W110" s="75"/>
-      <c r="X110" s="76"/>
+      <c r="V110" s="79"/>
+      <c r="W110" s="80"/>
+      <c r="X110" s="81"/>
       <c r="Y110" s="71" t="s">
         <v>179</v>
       </c>
@@ -22856,16 +22855,16 @@
       <c r="AD110" s="73"/>
     </row>
     <row r="111" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J111" s="74">
+      <c r="J111" s="79">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K111" s="75"/>
-      <c r="L111" s="76"/>
-      <c r="M111" s="79" t="s">
+      <c r="K111" s="80"/>
+      <c r="L111" s="81"/>
+      <c r="M111" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="N111" s="80"/>
+      <c r="N111" s="83"/>
       <c r="O111" s="58"/>
       <c r="P111" s="59"/>
       <c r="Q111" s="64"/>
@@ -22875,9 +22874,9 @@
       <c r="S111" s="58"/>
       <c r="T111" s="59"/>
       <c r="U111" s="64"/>
-      <c r="V111" s="74"/>
-      <c r="W111" s="75"/>
-      <c r="X111" s="76"/>
+      <c r="V111" s="79"/>
+      <c r="W111" s="80"/>
+      <c r="X111" s="81"/>
       <c r="Y111" s="71" t="s">
         <v>177</v>
       </c>
@@ -22890,16 +22889,16 @@
       <c r="AD111" s="73"/>
     </row>
     <row r="112" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J112" s="74">
+      <c r="J112" s="79">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="K112" s="75"/>
-      <c r="L112" s="76"/>
-      <c r="M112" s="77" t="s">
+      <c r="K112" s="80"/>
+      <c r="L112" s="81"/>
+      <c r="M112" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="N112" s="78"/>
+      <c r="N112" s="85"/>
       <c r="O112" s="58"/>
       <c r="P112" s="59"/>
       <c r="Q112" s="64"/>
@@ -22909,9 +22908,9 @@
       <c r="S112" s="58"/>
       <c r="T112" s="59"/>
       <c r="U112" s="64"/>
-      <c r="V112" s="74"/>
-      <c r="W112" s="75"/>
-      <c r="X112" s="76"/>
+      <c r="V112" s="79"/>
+      <c r="W112" s="80"/>
+      <c r="X112" s="81"/>
       <c r="Y112" s="71" t="s">
         <v>177</v>
       </c>
@@ -22924,16 +22923,16 @@
       <c r="AD112" s="73"/>
     </row>
     <row r="113" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J113" s="74">
+      <c r="J113" s="79">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K113" s="75"/>
-      <c r="L113" s="76"/>
-      <c r="M113" s="74" t="s">
+      <c r="K113" s="80"/>
+      <c r="L113" s="81"/>
+      <c r="M113" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="N113" s="75"/>
+      <c r="N113" s="80"/>
       <c r="O113" s="58" t="s">
         <v>172</v>
       </c>
@@ -22947,9 +22946,9 @@
       </c>
       <c r="T113" s="59"/>
       <c r="U113" s="64"/>
-      <c r="V113" s="74"/>
-      <c r="W113" s="75"/>
-      <c r="X113" s="76"/>
+      <c r="V113" s="79"/>
+      <c r="W113" s="80"/>
+      <c r="X113" s="81"/>
       <c r="Y113" s="71" t="s">
         <v>179</v>
       </c>
@@ -22962,16 +22961,16 @@
       <c r="AD113" s="73"/>
     </row>
     <row r="114" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J114" s="74">
+      <c r="J114" s="79">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K114" s="75"/>
-      <c r="L114" s="76"/>
-      <c r="M114" s="74" t="s">
+      <c r="K114" s="80"/>
+      <c r="L114" s="81"/>
+      <c r="M114" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="N114" s="75"/>
+      <c r="N114" s="80"/>
       <c r="O114" s="58" t="s">
         <v>172</v>
       </c>
@@ -22985,9 +22984,9 @@
       </c>
       <c r="T114" s="59"/>
       <c r="U114" s="64"/>
-      <c r="V114" s="74"/>
-      <c r="W114" s="75"/>
-      <c r="X114" s="76"/>
+      <c r="V114" s="79"/>
+      <c r="W114" s="80"/>
+      <c r="X114" s="81"/>
       <c r="Y114" s="71" t="s">
         <v>179</v>
       </c>
@@ -23001,14 +23000,79 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="V113:X113"/>
-    <mergeCell ref="V114:X114"/>
-    <mergeCell ref="V107:X107"/>
-    <mergeCell ref="V108:X108"/>
-    <mergeCell ref="V109:X109"/>
-    <mergeCell ref="V110:X110"/>
-    <mergeCell ref="V111:X111"/>
-    <mergeCell ref="V112:X112"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="V94:X94"/>
+    <mergeCell ref="V84:X84"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="V86:X86"/>
+    <mergeCell ref="V87:X87"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="V90:X90"/>
+    <mergeCell ref="V91:X91"/>
+    <mergeCell ref="V92:X92"/>
+    <mergeCell ref="V93:X93"/>
     <mergeCell ref="V106:X106"/>
     <mergeCell ref="V95:X95"/>
     <mergeCell ref="V96:X96"/>
@@ -23021,79 +23085,14 @@
     <mergeCell ref="V103:X103"/>
     <mergeCell ref="V104:X104"/>
     <mergeCell ref="V105:X105"/>
-    <mergeCell ref="V94:X94"/>
-    <mergeCell ref="V84:X84"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="V86:X86"/>
-    <mergeCell ref="V87:X87"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="V90:X90"/>
-    <mergeCell ref="V91:X91"/>
-    <mergeCell ref="V92:X92"/>
-    <mergeCell ref="V93:X93"/>
-    <mergeCell ref="J114:L114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="J113:L113"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="V113:X113"/>
+    <mergeCell ref="V114:X114"/>
+    <mergeCell ref="V107:X107"/>
+    <mergeCell ref="V108:X108"/>
+    <mergeCell ref="V109:X109"/>
+    <mergeCell ref="V110:X110"/>
+    <mergeCell ref="V111:X111"/>
+    <mergeCell ref="V112:X112"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23136,7 +23135,7 @@
   </sheetPr>
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
@@ -23157,1756 +23156,1756 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="84">
+      <c r="A2" s="76">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="81">
+      <c r="F2" s="74">
         <v>1</v>
       </c>
-      <c r="G2" s="81">
+      <c r="G2" s="74">
         <v>1</v>
       </c>
-      <c r="H2" s="81">
+      <c r="H2" s="74">
         <v>1</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="84">
+      <c r="A3" s="76">
         <f t="shared" ref="A3:A72" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74">
         <v>1</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="81"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="84">
+      <c r="A4" s="76">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81">
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74">
         <v>1</v>
       </c>
-      <c r="I4" s="81" t="s">
+      <c r="I4" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="81"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="84">
+      <c r="A5" s="76">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81">
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74">
         <v>1</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="81"/>
-    </row>
-    <row r="6" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="84">
+      <c r="K5" s="74"/>
+    </row>
+    <row r="6" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="76">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85">
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77">
         <v>1</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85" t="s">
+      <c r="J6" s="77"/>
+      <c r="K6" s="77" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="84">
+    <row r="7" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="76">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85">
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77">
         <v>1</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-    </row>
-    <row r="8" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="84">
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+    </row>
+    <row r="8" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="76">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85">
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77">
         <v>1</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="I8" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-    </row>
-    <row r="9" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="84">
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+    </row>
+    <row r="9" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="76">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="77">
         <v>1</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="77">
         <v>1</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="77">
         <v>1</v>
       </c>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-    </row>
-    <row r="10" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="84">
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+    </row>
+    <row r="10" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="76">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85">
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77">
         <v>1</v>
       </c>
-      <c r="I10" s="85" t="s">
+      <c r="I10" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-    </row>
-    <row r="11" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="84">
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+    </row>
+    <row r="11" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="76">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85">
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77">
         <v>1</v>
       </c>
-      <c r="I11" s="85" t="s">
+      <c r="I11" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="85" t="s">
+      <c r="J11" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="85"/>
-    </row>
-    <row r="12" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="84">
+      <c r="K11" s="77"/>
+    </row>
+    <row r="12" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="76">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85">
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77">
         <v>1</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-    </row>
-    <row r="13" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="84">
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+    </row>
+    <row r="13" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="76">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85">
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77">
         <v>1</v>
       </c>
-      <c r="I13" s="85" t="s">
+      <c r="I13" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="85" t="s">
+      <c r="J13" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="85" t="s">
+      <c r="K13" s="77" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="84">
+    <row r="14" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="76">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85">
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77">
         <v>1</v>
       </c>
-      <c r="I14" s="85" t="s">
+      <c r="I14" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="85" t="s">
+      <c r="J14" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="85" t="s">
+      <c r="K14" s="77" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="84">
+    <row r="15" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="76">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85">
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77">
         <v>1</v>
       </c>
-      <c r="I15" s="85" t="s">
+      <c r="I15" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="85" t="s">
+      <c r="J15" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="85" t="s">
+      <c r="K15" s="77" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="84">
+    <row r="16" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="76">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85">
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77">
         <v>1</v>
       </c>
-      <c r="I16" s="85" t="s">
+      <c r="I16" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-    </row>
-    <row r="17" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="84">
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+    </row>
+    <row r="17" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="76">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85">
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77">
         <v>1</v>
       </c>
-      <c r="I17" s="85" t="s">
+      <c r="I17" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-    </row>
-    <row r="18" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="84">
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+    </row>
+    <row r="18" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="76">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="85">
+      <c r="F18" s="77">
         <v>1</v>
       </c>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85">
+      <c r="G18" s="77"/>
+      <c r="H18" s="77">
         <v>1</v>
       </c>
-      <c r="I18" s="85" t="s">
+      <c r="I18" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-    </row>
-    <row r="19" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="84">
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+    </row>
+    <row r="19" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="76">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85">
+      <c r="F19" s="77"/>
+      <c r="G19" s="77">
         <v>1</v>
       </c>
-      <c r="H19" s="85">
+      <c r="H19" s="77">
         <v>1</v>
       </c>
-      <c r="I19" s="85" t="s">
+      <c r="I19" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="85" t="s">
+      <c r="J19" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="85"/>
-    </row>
-    <row r="20" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="84">
+      <c r="K19" s="77"/>
+    </row>
+    <row r="20" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="76">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="85" t="s">
+      <c r="E20" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85">
+      <c r="F20" s="77"/>
+      <c r="G20" s="77">
         <v>1</v>
       </c>
-      <c r="H20" s="85">
+      <c r="H20" s="77">
         <v>1</v>
       </c>
-      <c r="I20" s="85" t="s">
+      <c r="I20" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="85" t="s">
+      <c r="J20" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="85"/>
-    </row>
-    <row r="21" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="84">
+      <c r="K20" s="77"/>
+    </row>
+    <row r="21" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="76">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="85" t="s">
+      <c r="E21" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85">
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77">
         <v>1</v>
       </c>
-      <c r="I21" s="85" t="s">
+      <c r="I21" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-    </row>
-    <row r="22" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="84">
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+    </row>
+    <row r="22" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="76">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85">
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77">
         <v>1</v>
       </c>
-      <c r="I22" s="85" t="s">
+      <c r="I22" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-    </row>
-    <row r="23" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="84">
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+    </row>
+    <row r="23" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="76">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85">
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77">
         <v>1</v>
       </c>
-      <c r="I23" s="85" t="s">
+      <c r="I23" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-    </row>
-    <row r="24" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="84">
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+    </row>
+    <row r="24" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="76">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="85" t="s">
+      <c r="E24" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85">
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77">
         <v>1</v>
       </c>
-      <c r="I24" s="85" t="s">
+      <c r="I24" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-    </row>
-    <row r="25" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="84">
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+    </row>
+    <row r="25" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="76">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="85" t="s">
+      <c r="E25" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85">
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77">
         <v>1</v>
       </c>
-      <c r="I25" s="85" t="s">
+      <c r="I25" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85" t="s">
+      <c r="J25" s="77"/>
+      <c r="K25" s="77" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="84">
+    <row r="26" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="76">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="85" t="s">
+      <c r="E26" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85">
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77">
         <v>1</v>
       </c>
-      <c r="I26" s="85" t="s">
+      <c r="I26" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-    </row>
-    <row r="27" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="84">
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+    </row>
+    <row r="27" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="76">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="85" t="s">
+      <c r="E27" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85">
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77">
         <v>1</v>
       </c>
-      <c r="I27" s="85" t="s">
+      <c r="I27" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-    </row>
-    <row r="28" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="84">
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+    </row>
+    <row r="28" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="76">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="85" t="s">
+      <c r="E28" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85" t="s">
+      <c r="F28" s="77"/>
+      <c r="G28" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="85">
+      <c r="H28" s="77">
         <v>1</v>
       </c>
-      <c r="I28" s="85" t="s">
+      <c r="I28" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="85" t="s">
+      <c r="J28" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="85"/>
-    </row>
-    <row r="29" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="84">
+      <c r="K28" s="77"/>
+    </row>
+    <row r="29" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="76">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="85" t="s">
+      <c r="E29" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85" t="s">
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="85" t="s">
+      <c r="J29" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="85"/>
-    </row>
-    <row r="30" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="84">
+      <c r="K29" s="77"/>
+    </row>
+    <row r="30" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="76">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85">
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77">
         <v>1</v>
       </c>
-      <c r="I30" s="85" t="s">
+      <c r="I30" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85" t="s">
+      <c r="J30" s="77"/>
+      <c r="K30" s="77" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="84">
+    <row r="31" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="76">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="85" t="s">
+      <c r="E31" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85">
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77">
         <v>1</v>
       </c>
-      <c r="I31" s="85" t="s">
+      <c r="I31" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-    </row>
-    <row r="32" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="84">
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+    </row>
+    <row r="32" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="76">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="85" t="s">
+      <c r="E32" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85">
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77">
         <v>1</v>
       </c>
-      <c r="I32" s="85" t="s">
+      <c r="I32" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-    </row>
-    <row r="33" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="84">
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+    </row>
+    <row r="33" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="76">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="85" t="s">
+      <c r="C33" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="85" t="s">
+      <c r="D33" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85" t="s">
+      <c r="F33" s="77"/>
+      <c r="G33" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="85">
+      <c r="H33" s="77">
         <v>1</v>
       </c>
-      <c r="I33" s="85" t="s">
+      <c r="I33" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="85" t="s">
+      <c r="J33" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="85"/>
-    </row>
-    <row r="34" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="84">
+      <c r="K33" s="77"/>
+    </row>
+    <row r="34" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="76">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="85" t="s">
+      <c r="E34" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85" t="s">
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="85" t="s">
+      <c r="J34" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="K34" s="85"/>
-    </row>
-    <row r="35" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="84">
+      <c r="K34" s="77"/>
+    </row>
+    <row r="35" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="76">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="E35" s="85" t="s">
+      <c r="E35" s="77" t="s">
         <v>201</v>
       </c>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85">
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77">
         <v>1</v>
       </c>
-      <c r="I35" s="85" t="s">
+      <c r="I35" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85" t="s">
+      <c r="J35" s="77"/>
+      <c r="K35" s="77" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="84">
+    <row r="36" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="76">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="D36" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="85" t="s">
+      <c r="E36" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85">
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77">
         <v>1</v>
       </c>
-      <c r="I36" s="85" t="s">
+      <c r="I36" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-    </row>
-    <row r="37" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="84">
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+    </row>
+    <row r="37" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="76">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="85" t="s">
+      <c r="E37" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85">
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77">
         <v>1</v>
       </c>
-      <c r="I37" s="85" t="s">
+      <c r="I37" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-    </row>
-    <row r="38" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="84">
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+    </row>
+    <row r="38" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="76">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="E38" s="85" t="s">
+      <c r="E38" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="F38" s="85" t="s">
+      <c r="F38" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="G38" s="85" t="s">
+      <c r="G38" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="H38" s="85" t="s">
+      <c r="H38" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="I38" s="85" t="s">
+      <c r="I38" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-    </row>
-    <row r="39" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="84">
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+    </row>
+    <row r="39" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="76">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="E39" s="85" t="s">
+      <c r="E39" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85" t="s">
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="I39" s="85" t="s">
+      <c r="I39" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85" t="s">
+      <c r="J39" s="77"/>
+      <c r="K39" s="77" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="84">
+    <row r="40" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="76">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="E40" s="85" t="s">
+      <c r="E40" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85" t="s">
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="I40" s="85" t="s">
+      <c r="I40" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="85" t="s">
+      <c r="J40" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="K40" s="85"/>
-    </row>
-    <row r="41" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="84">
+      <c r="K40" s="77"/>
+    </row>
+    <row r="41" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="76">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="85" t="s">
+      <c r="E41" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85" t="s">
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="I41" s="85" t="s">
+      <c r="I41" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="85" t="s">
+      <c r="J41" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="K41" s="85"/>
-    </row>
-    <row r="42" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="84">
+      <c r="K41" s="77"/>
+    </row>
+    <row r="42" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="76">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D42" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="E42" s="85" t="s">
+      <c r="E42" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85" t="s">
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="I42" s="85" t="s">
+      <c r="I42" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-    </row>
-    <row r="43" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="84">
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+    </row>
+    <row r="43" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="76">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="85" t="s">
+      <c r="B43" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="85" t="s">
+      <c r="E43" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85" t="s">
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="I43" s="85" t="s">
+      <c r="I43" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-    </row>
-    <row r="44" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="84">
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+    </row>
+    <row r="44" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="76">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="D44" s="85" t="s">
+      <c r="D44" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="85" t="s">
+      <c r="E44" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85" t="s">
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="I44" s="85" t="s">
+      <c r="I44" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" s="84">
+      <c r="A45" s="76">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="84">
+      <c r="A46" s="76">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="84">
+      <c r="A47" s="76">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" s="84">
+      <c r="A48" s="76">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49" s="84">
+      <c r="A49" s="76">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" s="84">
+      <c r="A50" s="76">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51" s="84">
+      <c r="A51" s="76">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" s="84">
+      <c r="A52" s="76">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A53" s="84">
+      <c r="A53" s="76">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54" s="84">
+      <c r="A54" s="76">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="81"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A55" s="84">
+      <c r="A55" s="76">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="K55" s="81"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A56" s="84">
+      <c r="A56" s="76">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A57" s="84">
+      <c r="A57" s="76">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" s="84">
+      <c r="A58" s="76">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" s="84">
+      <c r="A59" s="76">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="81"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="81"/>
-      <c r="K59" s="81"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60" s="84">
+      <c r="A60" s="76">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" s="84">
+      <c r="A61" s="76">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A62" s="84">
+      <c r="A62" s="76">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="81"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="81"/>
-      <c r="J62" s="81"/>
-      <c r="K62" s="81"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="74"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A63" s="84">
+      <c r="A63" s="76">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="81"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="81"/>
-      <c r="J63" s="81"/>
-      <c r="K63" s="81"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A64" s="84">
+      <c r="A64" s="76">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="81"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="81"/>
-      <c r="J64" s="81"/>
-      <c r="K64" s="81"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A65" s="84">
+      <c r="A65" s="76">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="81"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="81"/>
-      <c r="I65" s="81"/>
-      <c r="J65" s="81"/>
-      <c r="K65" s="81"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A66" s="84">
+      <c r="A66" s="76">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="81"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="81"/>
-      <c r="J66" s="81"/>
-      <c r="K66" s="81"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="74"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A67" s="84">
+      <c r="A67" s="76">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67" s="81"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="81"/>
-      <c r="I67" s="81"/>
-      <c r="J67" s="81"/>
-      <c r="K67" s="81"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="74"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A68" s="84">
+      <c r="A68" s="76">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B68" s="81"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="81"/>
-      <c r="J68" s="81"/>
-      <c r="K68" s="81"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A69" s="84">
+      <c r="A69" s="76">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B69" s="81"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="81"/>
-      <c r="J69" s="81"/>
-      <c r="K69" s="81"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="74"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A70" s="84">
+      <c r="A70" s="76">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="B70" s="81"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="81"/>
-      <c r="I70" s="81"/>
-      <c r="J70" s="81"/>
-      <c r="K70" s="81"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="74"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A71" s="84">
+      <c r="A71" s="76">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
-      <c r="I71" s="81"/>
-      <c r="J71" s="81"/>
-      <c r="K71" s="81"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="74"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A72" s="84">
+      <c r="A72" s="76">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B72" s="81"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="81"/>
-      <c r="I72" s="81"/>
-      <c r="J72" s="81"/>
-      <c r="K72" s="81"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="74"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCCE7F0-317F-4F5D-BC3D-5EEFAC8CDB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C193E2D-8216-4C05-979B-840A34A8BAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="210" windowWidth="21945" windowHeight="15045" activeTab="3" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
+    <workbookView xWindow="6870" yWindow="150" windowWidth="21945" windowHeight="15045" activeTab="8" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
   <sheets>
     <sheet name="遷移図" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="205">
   <si>
     <t>テーブル名（物理名）</t>
     <rPh sb="4" eb="5">
@@ -1138,9 +1138,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>SEQ_BUSINESS_CALENDAR_MT_ID</t>
-  </si>
-  <si>
     <t>営業日マスタ</t>
     <rPh sb="0" eb="3">
       <t>エイギョウビ</t>
@@ -1152,12 +1149,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>営業日マスタID</t>
-  </si>
-  <si>
-    <t>INT</t>
   </si>
   <si>
     <t>日付</t>
@@ -1172,25 +1163,6 @@
       <t>ヨウビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WEEKDAY</t>
-  </si>
-  <si>
-    <t>営業日フラグ</t>
-  </si>
-  <si>
-    <t>BUSINESS_FLG</t>
-  </si>
-  <si>
-    <t>バージョン情報</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VERSION</t>
   </si>
   <si>
     <t>DATETIME</t>
@@ -1223,6 +1195,38 @@
   </si>
   <si>
     <t>USER_DATA</t>
+  </si>
+  <si>
+    <t>BUSINESS_CALENDAR_MT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SEQ_BUSINESS_CALENDAR_MT_ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WEEKDAY</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BUSINESS_FLG</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>営業日マスタID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>営業日フラグ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>デフォルト=TRUE</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1896,16 +1900,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10128,8 +10132,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K72" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:K72" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K71" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:K71" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="#" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="12"/>
@@ -13353,8 +13357,8 @@
   </sheetPr>
   <dimension ref="A1:AY71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR57" sqref="AR57"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV57" sqref="AV57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -21875,10 +21879,10 @@
       </c>
       <c r="K84" s="80"/>
       <c r="L84" s="81"/>
-      <c r="M84" s="84" t="s">
+      <c r="M84" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="N84" s="85"/>
+      <c r="N84" s="83"/>
       <c r="O84" s="53"/>
       <c r="P84" s="54"/>
       <c r="Q84" s="56"/>
@@ -22091,10 +22095,10 @@
       </c>
       <c r="K90" s="80"/>
       <c r="L90" s="81"/>
-      <c r="M90" s="82" t="s">
+      <c r="M90" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="N90" s="83"/>
+      <c r="N90" s="85"/>
       <c r="O90" s="58"/>
       <c r="P90" s="59"/>
       <c r="Q90" s="64"/>
@@ -22125,10 +22129,10 @@
       </c>
       <c r="K91" s="80"/>
       <c r="L91" s="81"/>
-      <c r="M91" s="84" t="s">
+      <c r="M91" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="N91" s="85"/>
+      <c r="N91" s="83"/>
       <c r="O91" s="58"/>
       <c r="P91" s="59"/>
       <c r="Q91" s="64"/>
@@ -22159,10 +22163,10 @@
       </c>
       <c r="K92" s="80"/>
       <c r="L92" s="81"/>
-      <c r="M92" s="84" t="s">
+      <c r="M92" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="N92" s="85"/>
+      <c r="N92" s="83"/>
       <c r="O92" s="58"/>
       <c r="P92" s="59"/>
       <c r="Q92" s="64"/>
@@ -22345,10 +22349,10 @@
       </c>
       <c r="K97" s="80"/>
       <c r="L97" s="81"/>
-      <c r="M97" s="82" t="s">
+      <c r="M97" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="N97" s="83"/>
+      <c r="N97" s="85"/>
       <c r="O97" s="58"/>
       <c r="P97" s="59"/>
       <c r="Q97" s="64"/>
@@ -22379,10 +22383,10 @@
       </c>
       <c r="K98" s="80"/>
       <c r="L98" s="81"/>
-      <c r="M98" s="84" t="s">
+      <c r="M98" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="N98" s="85"/>
+      <c r="N98" s="83"/>
       <c r="O98" s="58"/>
       <c r="P98" s="59"/>
       <c r="Q98" s="64"/>
@@ -22603,10 +22607,10 @@
       </c>
       <c r="K104" s="80"/>
       <c r="L104" s="81"/>
-      <c r="M104" s="82" t="s">
+      <c r="M104" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="N104" s="83"/>
+      <c r="N104" s="85"/>
       <c r="O104" s="58"/>
       <c r="P104" s="59"/>
       <c r="Q104" s="64"/>
@@ -22637,10 +22641,10 @@
       </c>
       <c r="K105" s="80"/>
       <c r="L105" s="81"/>
-      <c r="M105" s="84" t="s">
+      <c r="M105" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="N105" s="85"/>
+      <c r="N105" s="83"/>
       <c r="O105" s="58"/>
       <c r="P105" s="59"/>
       <c r="Q105" s="64"/>
@@ -22861,10 +22865,10 @@
       </c>
       <c r="K111" s="80"/>
       <c r="L111" s="81"/>
-      <c r="M111" s="82" t="s">
+      <c r="M111" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="N111" s="83"/>
+      <c r="N111" s="85"/>
       <c r="O111" s="58"/>
       <c r="P111" s="59"/>
       <c r="Q111" s="64"/>
@@ -22895,10 +22899,10 @@
       </c>
       <c r="K112" s="80"/>
       <c r="L112" s="81"/>
-      <c r="M112" s="84" t="s">
+      <c r="M112" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="N112" s="85"/>
+      <c r="N112" s="83"/>
       <c r="O112" s="58"/>
       <c r="P112" s="59"/>
       <c r="Q112" s="64"/>
@@ -23000,79 +23004,14 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="J113:L113"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="J114:L114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="V94:X94"/>
-    <mergeCell ref="V84:X84"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="V86:X86"/>
-    <mergeCell ref="V87:X87"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="V90:X90"/>
-    <mergeCell ref="V91:X91"/>
-    <mergeCell ref="V92:X92"/>
-    <mergeCell ref="V93:X93"/>
+    <mergeCell ref="V113:X113"/>
+    <mergeCell ref="V114:X114"/>
+    <mergeCell ref="V107:X107"/>
+    <mergeCell ref="V108:X108"/>
+    <mergeCell ref="V109:X109"/>
+    <mergeCell ref="V110:X110"/>
+    <mergeCell ref="V111:X111"/>
+    <mergeCell ref="V112:X112"/>
     <mergeCell ref="V106:X106"/>
     <mergeCell ref="V95:X95"/>
     <mergeCell ref="V96:X96"/>
@@ -23085,14 +23024,79 @@
     <mergeCell ref="V103:X103"/>
     <mergeCell ref="V104:X104"/>
     <mergeCell ref="V105:X105"/>
-    <mergeCell ref="V113:X113"/>
-    <mergeCell ref="V114:X114"/>
-    <mergeCell ref="V107:X107"/>
-    <mergeCell ref="V108:X108"/>
-    <mergeCell ref="V109:X109"/>
-    <mergeCell ref="V110:X110"/>
-    <mergeCell ref="V111:X111"/>
-    <mergeCell ref="V112:X112"/>
+    <mergeCell ref="V94:X94"/>
+    <mergeCell ref="V84:X84"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="V86:X86"/>
+    <mergeCell ref="V87:X87"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="V89:X89"/>
+    <mergeCell ref="V90:X90"/>
+    <mergeCell ref="V91:X91"/>
+    <mergeCell ref="V92:X92"/>
+    <mergeCell ref="V93:X93"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="M86:N86"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23133,11 +23137,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -23225,7 +23229,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="76">
-        <f t="shared" ref="A3:A72" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A71" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="74" t="s">
@@ -23295,7 +23299,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E5" s="74" t="s">
         <v>94</v>
@@ -23322,13 +23326,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
@@ -23336,11 +23340,11 @@
         <v>1</v>
       </c>
       <c r="I6" s="77" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J6" s="77"/>
       <c r="K6" s="77" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
@@ -23743,7 +23747,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E20" s="77" t="s">
         <v>94</v>
@@ -23887,10 +23891,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="77" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E25" s="77" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
@@ -23898,11 +23902,11 @@
         <v>1</v>
       </c>
       <c r="I25" s="77" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J25" s="77"/>
       <c r="K25" s="77" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
@@ -24033,10 +24037,10 @@
         <v>71</v>
       </c>
       <c r="D30" s="77" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E30" s="77" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
@@ -24044,11 +24048,11 @@
         <v>1</v>
       </c>
       <c r="I30" s="77" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J30" s="77"/>
       <c r="K30" s="77" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
@@ -24119,7 +24123,7 @@
         <v>93</v>
       </c>
       <c r="D33" s="77" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E33" s="77" t="s">
         <v>94</v>
@@ -24179,10 +24183,10 @@
         <v>93</v>
       </c>
       <c r="D35" s="77" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E35" s="77" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F35" s="77"/>
       <c r="G35" s="77"/>
@@ -24190,11 +24194,11 @@
         <v>1</v>
       </c>
       <c r="I35" s="77" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J35" s="77"/>
       <c r="K35" s="77" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
@@ -24259,25 +24263,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="77" t="s">
+      <c r="D38" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="F38" s="77" t="s">
-        <v>188</v>
-      </c>
       <c r="G38" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H38" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I38" s="77" t="s">
         <v>34</v>
@@ -24291,21 +24295,21 @@
         <v>38</v>
       </c>
       <c r="B39" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="77" t="s">
-        <v>187</v>
-      </c>
       <c r="D39" s="77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E39" s="77" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="F39" s="77"/>
       <c r="G39" s="77"/>
       <c r="H39" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I39" s="77" t="s">
         <v>183</v>
@@ -24321,27 +24325,27 @@
         <v>39</v>
       </c>
       <c r="B40" s="77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C40" s="77" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D40" s="77" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E40" s="77" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F40" s="77"/>
       <c r="G40" s="77"/>
       <c r="H40" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I40" s="77" t="s">
         <v>17</v>
       </c>
       <c r="J40" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K40" s="77"/>
     </row>
@@ -24351,29 +24355,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C41" s="77" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E41" s="77" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F41" s="77"/>
       <c r="G41" s="77"/>
       <c r="H41" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I41" s="77" t="s">
         <v>17</v>
       </c>
       <c r="J41" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="K41" s="77"/>
+        <v>187</v>
+      </c>
+      <c r="K41" s="77" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="42" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="76">
@@ -24381,21 +24387,21 @@
         <v>41</v>
       </c>
       <c r="B42" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C42" s="77" t="s">
-        <v>187</v>
-      </c>
       <c r="D42" s="77" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="E42" s="77" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="F42" s="77"/>
       <c r="G42" s="77"/>
       <c r="H42" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I42" s="77" t="s">
         <v>190</v>
@@ -24409,55 +24415,43 @@
         <v>42</v>
       </c>
       <c r="B43" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="77" t="s">
-        <v>187</v>
-      </c>
       <c r="D43" s="77" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E43" s="77" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F43" s="77"/>
       <c r="G43" s="77"/>
       <c r="H43" s="77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I43" s="77" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J43" s="77"/>
       <c r="K43" s="77"/>
     </row>
-    <row r="44" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="76">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="I44" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="76">
@@ -24891,22 +24885,6 @@
       <c r="J71" s="74"/>
       <c r="K71" s="74"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A72" s="76">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="74"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="74"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24917,7 +24895,7 @@
     <brk id="27" max="16383" man="1"/>
     <brk id="32" max="16383" man="1"/>
     <brk id="37" max="16383" man="1"/>
-    <brk id="44" max="16383" man="1"/>
+    <brk id="43" max="16383" man="1"/>
   </rowBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C193E2D-8216-4C05-979B-840A34A8BAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DAFA3B-3ACB-43E8-968B-99E868165997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="150" windowWidth="21945" windowHeight="15045" activeTab="8" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
+    <workbookView xWindow="4080" yWindow="405" windowWidth="23760" windowHeight="14505" activeTab="1" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
   <sheets>
     <sheet name="遷移図" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="205">
   <si>
     <t>テーブル名（物理名）</t>
     <rPh sb="4" eb="5">
@@ -350,10 +350,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>HHMI</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>8時間半の場合、8.5</t>
     <rPh sb="1" eb="3">
       <t>ジカン</t>
@@ -380,10 +376,6 @@
   <si>
     <t>始業時刻</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>日別ユーザ勤怠情報ID</t>
@@ -1069,10 +1061,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>9:00</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>終業時刻</t>
     <rPh sb="0" eb="2">
       <t>シュウギョウ</t>
@@ -1226,6 +1214,18 @@
   </si>
   <si>
     <t>デフォルト=TRUE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>00</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1396,13 +1396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1653,7 +1653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1828,12 +1828,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1846,43 +1840,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1891,25 +1855,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8035,7 +8026,7 @@
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8052,7 +8043,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1695450" y="1638300"/>
-          <a:ext cx="9629775" cy="13335000"/>
+          <a:ext cx="9629775" cy="14135100"/>
           <a:chOff x="1828800" y="1476375"/>
           <a:chExt cx="9629775" cy="4933950"/>
         </a:xfrm>
@@ -8557,13 +8548,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8889,13 +8880,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8963,15 +8954,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9041,13 +9032,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9109,7 +9100,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>9:00</a:t>
+            <a:t>9</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9125,15 +9116,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9187,6 +9178,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>18</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:schemeClr val="bg1">
@@ -9201,15 +9202,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9272,15 +9273,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9341,25 +9342,342 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD43DA1-909E-4D2A-B890-9C2F22A95E13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="16973550"/>
+          <a:ext cx="600075" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E7D836-272C-46D6-B0A8-06F19C2C08B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="17278350"/>
+          <a:ext cx="600075" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8441B200-EA8F-4BF0-8A37-45D3C5B88EAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="16973550"/>
+          <a:ext cx="600075" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D43AE91-FA79-46D0-B93A-A7B2AABCBA81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="17278350"/>
+          <a:ext cx="600075" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>00</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="図 82">
+        <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D754B3-F20B-5BF4-725D-7932518397E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DFF0021-35EB-298B-4256-AC50131CA43D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9382,8 +9700,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3552825" y="4505325"/>
-          <a:ext cx="5010150" cy="9696450"/>
+          <a:off x="3562350" y="4457700"/>
+          <a:ext cx="6915150" cy="9696450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9400,6 +9718,148 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形: 角を丸くする 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{599B375A-D253-488D-8850-1879FF603FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="4648200"/>
+          <a:ext cx="1181100" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3578E5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3578E5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE67CD7-E832-4964-89F4-E1750A4CAF15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="15240000"/>
+          <a:ext cx="1181100" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="3578E5"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3578E5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10132,8 +10592,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K71" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:K71" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K72" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:K72" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="#" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="12"/>
@@ -10472,12 +10932,12 @@
     </row>
     <row r="24" spans="59:59" x14ac:dyDescent="0.4">
       <c r="BG24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="59:59" x14ac:dyDescent="0.4">
       <c r="BG26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -10503,25 +10963,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C4" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
@@ -10529,10 +10989,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C5" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
@@ -10540,82 +11000,82 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -10623,12 +11083,12 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -10662,10 +11122,10 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -10683,12 +11143,12 @@
   <sheetData>
     <row r="1" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -10696,25 +11156,25 @@
     </row>
     <row r="2" spans="1:8" ht="31.5" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>7</v>
@@ -10726,20 +11186,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/admin/login</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="9"/>
@@ -10750,23 +11210,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/login</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -10776,23 +11236,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -10802,20 +11262,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/user/list</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="14"/>
@@ -10826,23 +11286,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/user/create</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H7" s="9"/>
     </row>
@@ -10852,23 +11312,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/user/edit</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -10878,20 +11338,20 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/user/delete</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="14"/>
@@ -10902,13 +11362,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -10924,13 +11384,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -10946,13 +11406,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -10968,13 +11428,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -10990,13 +11450,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -11012,13 +11472,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>103</v>
       </c>
       <c r="E15" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -11034,13 +11494,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E16" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -11056,13 +11516,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -11078,13 +11538,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E18" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -11100,13 +11560,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E19" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -11122,13 +11582,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E20" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -11144,13 +11604,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E21" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
@@ -11166,23 +11626,23 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="E22" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/daily/create</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H22" s="9"/>
     </row>
@@ -11192,23 +11652,23 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="E23" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
         <v>http://127.0.0.1:8000/kintai/ref</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H23" s="9"/>
     </row>
@@ -13357,9 +13817,7 @@
   </sheetPr>
   <dimension ref="A1:AY71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV57" sqref="AV57"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -16163,7 +16621,7 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.4">
       <c r="V2" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -17941,7 +18399,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AY114"/>
+  <dimension ref="A1:AY118"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -21642,7 +22100,7 @@
       <c r="K76" s="18"/>
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
-      <c r="N76" s="21"/>
+      <c r="N76" s="18"/>
       <c r="O76" s="18"/>
       <c r="P76" s="18"/>
       <c r="Q76" s="18"/>
@@ -21733,1370 +22191,1990 @@
       <c r="AY77" s="20"/>
     </row>
     <row r="78" spans="3:51" x14ac:dyDescent="0.4">
-      <c r="C78" s="23"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="24"/>
-      <c r="T78" s="24"/>
-      <c r="U78" s="24"/>
-      <c r="V78" s="24"/>
-      <c r="W78" s="24"/>
-      <c r="X78" s="24"/>
-      <c r="Y78" s="24"/>
-      <c r="Z78" s="24"/>
-      <c r="AA78" s="24"/>
-      <c r="AB78" s="24"/>
-      <c r="AC78" s="24"/>
-      <c r="AD78" s="24"/>
-      <c r="AE78" s="24"/>
-      <c r="AF78" s="24"/>
-      <c r="AG78" s="24"/>
-      <c r="AH78" s="24"/>
-      <c r="AI78" s="24"/>
-      <c r="AJ78" s="24"/>
-      <c r="AK78" s="24"/>
-      <c r="AL78" s="24"/>
-      <c r="AM78" s="24"/>
-      <c r="AN78" s="24"/>
-      <c r="AO78" s="24"/>
-      <c r="AP78" s="24"/>
-      <c r="AQ78" s="24"/>
-      <c r="AR78" s="24"/>
-      <c r="AS78" s="24"/>
-      <c r="AT78" s="24"/>
-      <c r="AU78" s="24"/>
-      <c r="AV78" s="24"/>
-      <c r="AW78" s="24"/>
-      <c r="AX78" s="24"/>
-      <c r="AY78" s="25"/>
-    </row>
-    <row r="79" spans="3:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="27"/>
-      <c r="P79" s="27"/>
-      <c r="Q79" s="27"/>
-      <c r="R79" s="27"/>
-      <c r="S79" s="27"/>
-      <c r="T79" s="27"/>
-      <c r="U79" s="27"/>
-      <c r="V79" s="27"/>
-      <c r="W79" s="27"/>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="27"/>
-      <c r="Z79" s="27"/>
-      <c r="AA79" s="27"/>
-      <c r="AB79" s="27"/>
-      <c r="AC79" s="27"/>
-      <c r="AD79" s="27"/>
-      <c r="AE79" s="27"/>
-      <c r="AF79" s="27"/>
-      <c r="AG79" s="27"/>
-      <c r="AH79" s="27"/>
-      <c r="AI79" s="27"/>
-      <c r="AJ79" s="27"/>
-      <c r="AK79" s="27"/>
-      <c r="AL79" s="27"/>
-      <c r="AM79" s="27"/>
-      <c r="AN79" s="27"/>
-      <c r="AO79" s="27"/>
-      <c r="AP79" s="27"/>
-      <c r="AQ79" s="27"/>
-      <c r="AR79" s="27"/>
-      <c r="AS79" s="27"/>
-      <c r="AT79" s="27"/>
-      <c r="AU79" s="27"/>
-      <c r="AV79" s="27"/>
-      <c r="AW79" s="27"/>
-      <c r="AX79" s="27"/>
-      <c r="AY79" s="28"/>
-    </row>
-    <row r="83" spans="10:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J83" s="66" t="s">
+      <c r="C78" s="46"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="18"/>
+      <c r="U78" s="18"/>
+      <c r="V78" s="18"/>
+      <c r="W78" s="18"/>
+      <c r="X78" s="18"/>
+      <c r="Y78" s="18"/>
+      <c r="Z78" s="18"/>
+      <c r="AA78" s="18"/>
+      <c r="AB78" s="18"/>
+      <c r="AC78" s="18"/>
+      <c r="AD78" s="18"/>
+      <c r="AE78" s="18"/>
+      <c r="AF78" s="18"/>
+      <c r="AG78" s="18"/>
+      <c r="AH78" s="18"/>
+      <c r="AI78" s="18"/>
+      <c r="AJ78" s="18"/>
+      <c r="AK78" s="18"/>
+      <c r="AL78" s="18"/>
+      <c r="AM78" s="18"/>
+      <c r="AN78" s="18"/>
+      <c r="AO78" s="18"/>
+      <c r="AP78" s="18"/>
+      <c r="AQ78" s="18"/>
+      <c r="AR78" s="18"/>
+      <c r="AS78" s="18"/>
+      <c r="AT78" s="18"/>
+      <c r="AU78" s="18"/>
+      <c r="AV78" s="18"/>
+      <c r="AW78" s="18"/>
+      <c r="AX78" s="18"/>
+      <c r="AY78" s="20"/>
+    </row>
+    <row r="79" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C79" s="46"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="18"/>
+      <c r="V79" s="18"/>
+      <c r="W79" s="18"/>
+      <c r="X79" s="18"/>
+      <c r="Y79" s="18"/>
+      <c r="Z79" s="18"/>
+      <c r="AA79" s="18"/>
+      <c r="AB79" s="18"/>
+      <c r="AC79" s="18"/>
+      <c r="AD79" s="18"/>
+      <c r="AE79" s="18"/>
+      <c r="AF79" s="18"/>
+      <c r="AG79" s="18"/>
+      <c r="AH79" s="18"/>
+      <c r="AI79" s="18"/>
+      <c r="AJ79" s="18"/>
+      <c r="AK79" s="18"/>
+      <c r="AL79" s="18"/>
+      <c r="AM79" s="18"/>
+      <c r="AN79" s="18"/>
+      <c r="AO79" s="18"/>
+      <c r="AP79" s="18"/>
+      <c r="AQ79" s="18"/>
+      <c r="AR79" s="18"/>
+      <c r="AS79" s="18"/>
+      <c r="AT79" s="18"/>
+      <c r="AU79" s="18"/>
+      <c r="AV79" s="18"/>
+      <c r="AW79" s="18"/>
+      <c r="AX79" s="18"/>
+      <c r="AY79" s="20"/>
+    </row>
+    <row r="80" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C80" s="46"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="18"/>
+      <c r="W80" s="18"/>
+      <c r="X80" s="18"/>
+      <c r="Y80" s="18"/>
+      <c r="Z80" s="18"/>
+      <c r="AA80" s="18"/>
+      <c r="AB80" s="18"/>
+      <c r="AC80" s="18"/>
+      <c r="AD80" s="18"/>
+      <c r="AE80" s="18"/>
+      <c r="AF80" s="18"/>
+      <c r="AG80" s="18"/>
+      <c r="AH80" s="18"/>
+      <c r="AI80" s="18"/>
+      <c r="AJ80" s="18"/>
+      <c r="AK80" s="18"/>
+      <c r="AL80" s="18"/>
+      <c r="AM80" s="18"/>
+      <c r="AN80" s="18"/>
+      <c r="AO80" s="18"/>
+      <c r="AP80" s="18"/>
+      <c r="AQ80" s="18"/>
+      <c r="AR80" s="18"/>
+      <c r="AS80" s="18"/>
+      <c r="AT80" s="18"/>
+      <c r="AU80" s="18"/>
+      <c r="AV80" s="18"/>
+      <c r="AW80" s="18"/>
+      <c r="AX80" s="18"/>
+      <c r="AY80" s="20"/>
+    </row>
+    <row r="81" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C81" s="46"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
+      <c r="V81" s="18"/>
+      <c r="W81" s="18"/>
+      <c r="X81" s="18"/>
+      <c r="Y81" s="18"/>
+      <c r="Z81" s="18"/>
+      <c r="AA81" s="18"/>
+      <c r="AB81" s="18"/>
+      <c r="AC81" s="18"/>
+      <c r="AD81" s="18"/>
+      <c r="AE81" s="18"/>
+      <c r="AF81" s="18"/>
+      <c r="AG81" s="18"/>
+      <c r="AH81" s="18"/>
+      <c r="AI81" s="18"/>
+      <c r="AJ81" s="18"/>
+      <c r="AK81" s="18"/>
+      <c r="AL81" s="18"/>
+      <c r="AM81" s="18"/>
+      <c r="AN81" s="18"/>
+      <c r="AO81" s="18"/>
+      <c r="AP81" s="18"/>
+      <c r="AQ81" s="18"/>
+      <c r="AR81" s="18"/>
+      <c r="AS81" s="18"/>
+      <c r="AT81" s="18"/>
+      <c r="AU81" s="18"/>
+      <c r="AV81" s="18"/>
+      <c r="AW81" s="18"/>
+      <c r="AX81" s="18"/>
+      <c r="AY81" s="20"/>
+    </row>
+    <row r="82" spans="3:51" x14ac:dyDescent="0.4">
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="24"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="24"/>
+      <c r="V82" s="24"/>
+      <c r="W82" s="24"/>
+      <c r="X82" s="24"/>
+      <c r="Y82" s="24"/>
+      <c r="Z82" s="24"/>
+      <c r="AA82" s="24"/>
+      <c r="AB82" s="24"/>
+      <c r="AC82" s="24"/>
+      <c r="AD82" s="24"/>
+      <c r="AE82" s="24"/>
+      <c r="AF82" s="24"/>
+      <c r="AG82" s="24"/>
+      <c r="AH82" s="24"/>
+      <c r="AI82" s="24"/>
+      <c r="AJ82" s="24"/>
+      <c r="AK82" s="24"/>
+      <c r="AL82" s="24"/>
+      <c r="AM82" s="24"/>
+      <c r="AN82" s="24"/>
+      <c r="AO82" s="24"/>
+      <c r="AP82" s="24"/>
+      <c r="AQ82" s="24"/>
+      <c r="AR82" s="24"/>
+      <c r="AS82" s="24"/>
+      <c r="AT82" s="24"/>
+      <c r="AU82" s="24"/>
+      <c r="AV82" s="24"/>
+      <c r="AW82" s="24"/>
+      <c r="AX82" s="24"/>
+      <c r="AY82" s="25"/>
+    </row>
+    <row r="83" spans="3:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C83" s="26"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27"/>
+      <c r="AF83" s="27"/>
+      <c r="AG83" s="27"/>
+      <c r="AH83" s="27"/>
+      <c r="AI83" s="27"/>
+      <c r="AJ83" s="27"/>
+      <c r="AK83" s="27"/>
+      <c r="AL83" s="27"/>
+      <c r="AM83" s="27"/>
+      <c r="AN83" s="27"/>
+      <c r="AO83" s="27"/>
+      <c r="AP83" s="27"/>
+      <c r="AQ83" s="27"/>
+      <c r="AR83" s="27"/>
+      <c r="AS83" s="27"/>
+      <c r="AT83" s="27"/>
+      <c r="AU83" s="27"/>
+      <c r="AV83" s="27"/>
+      <c r="AW83" s="27"/>
+      <c r="AX83" s="27"/>
+      <c r="AY83" s="28"/>
+    </row>
+    <row r="87" spans="3:51" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J87" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="K87" s="72"/>
+      <c r="L87" s="73"/>
+      <c r="M87" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="N87" s="74"/>
+      <c r="O87" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="P87" s="72"/>
+      <c r="Q87" s="73"/>
+      <c r="R87" s="73"/>
+      <c r="S87" s="73"/>
+      <c r="T87" s="73"/>
+      <c r="U87" s="73"/>
+      <c r="V87" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="W87" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="X87" s="72"/>
+      <c r="Y87" s="73"/>
+      <c r="Z87" s="72"/>
+      <c r="AA87" s="72"/>
+      <c r="AB87" s="72"/>
+      <c r="AC87" s="72"/>
+      <c r="AD87" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE87" s="72"/>
+      <c r="AF87" s="73"/>
+      <c r="AG87" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH87" s="72"/>
+      <c r="AI87" s="73"/>
+      <c r="AJ87" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK87" s="72"/>
+      <c r="AL87" s="73"/>
+    </row>
+    <row r="88" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J88" s="76">
+        <v>1</v>
+      </c>
+      <c r="K88" s="77"/>
+      <c r="L88" s="78"/>
+      <c r="M88" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="K83" s="67"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="69" t="s">
+      <c r="N88" s="82"/>
+      <c r="O88" s="53"/>
+      <c r="P88" s="54"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="53"/>
+      <c r="T88" s="54"/>
+      <c r="U88" s="56"/>
+      <c r="V88" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W88" s="53"/>
+      <c r="X88" s="55"/>
+      <c r="Y88" s="56"/>
+      <c r="Z88" s="56"/>
+      <c r="AA88" s="55"/>
+      <c r="AB88" s="55"/>
+      <c r="AC88" s="55"/>
+      <c r="AD88" s="76"/>
+      <c r="AE88" s="77"/>
+      <c r="AF88" s="78"/>
+      <c r="AG88" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH88" s="69"/>
+      <c r="AI88" s="70"/>
+      <c r="AJ88" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK88" s="69"/>
+      <c r="AL88" s="70"/>
+    </row>
+    <row r="89" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J89" s="76">
+        <f>J88+1</f>
+        <v>2</v>
+      </c>
+      <c r="K89" s="77"/>
+      <c r="L89" s="78"/>
+      <c r="M89" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="N83" s="69"/>
-      <c r="O83" s="66" t="s">
+      <c r="N89" s="78"/>
+      <c r="O89" s="53"/>
+      <c r="P89" s="54"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="S89" s="53"/>
+      <c r="T89" s="54"/>
+      <c r="U89" s="56"/>
+      <c r="V89" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W89" s="53"/>
+      <c r="X89" s="55"/>
+      <c r="Y89" s="56"/>
+      <c r="Z89" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA89" s="55"/>
+      <c r="AB89" s="55"/>
+      <c r="AC89" s="55"/>
+      <c r="AD89" s="76"/>
+      <c r="AE89" s="77"/>
+      <c r="AF89" s="78"/>
+      <c r="AG89" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="P83" s="67"/>
-      <c r="Q83" s="68"/>
-      <c r="R83" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="S83" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="T83" s="67"/>
-      <c r="U83" s="68"/>
-      <c r="V83" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="W83" s="67"/>
-      <c r="X83" s="68"/>
-      <c r="Y83" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z83" s="67"/>
-      <c r="AA83" s="68"/>
-      <c r="AB83" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC83" s="67"/>
-      <c r="AD83" s="68"/>
-    </row>
-    <row r="84" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J84" s="79">
-        <v>1</v>
-      </c>
-      <c r="K84" s="80"/>
-      <c r="L84" s="81"/>
-      <c r="M84" s="82" t="s">
+      <c r="AH89" s="69"/>
+      <c r="AI89" s="70"/>
+      <c r="AJ89" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK89" s="69"/>
+      <c r="AL89" s="70"/>
+    </row>
+    <row r="90" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J90" s="76">
+        <f>J89+1</f>
+        <v>3</v>
+      </c>
+      <c r="K90" s="77"/>
+      <c r="L90" s="78"/>
+      <c r="M90" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="N84" s="83"/>
-      <c r="O84" s="53"/>
-      <c r="P84" s="54"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="S84" s="53"/>
-      <c r="T84" s="55"/>
-      <c r="U84" s="56"/>
-      <c r="V84" s="79"/>
-      <c r="W84" s="80"/>
-      <c r="X84" s="81"/>
-      <c r="Y84" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z84" s="72"/>
-      <c r="AA84" s="73"/>
-      <c r="AB84" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC84" s="72"/>
-      <c r="AD84" s="73"/>
-    </row>
-    <row r="85" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J85" s="79">
-        <f>J84+1</f>
-        <v>2</v>
-      </c>
-      <c r="K85" s="80"/>
-      <c r="L85" s="81"/>
-      <c r="M85" s="79" t="s">
+      <c r="N90" s="78"/>
+      <c r="O90" s="59"/>
+      <c r="P90" s="60"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="S90" s="59"/>
+      <c r="T90" s="60"/>
+      <c r="U90" s="61"/>
+      <c r="V90" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W90" s="53"/>
+      <c r="X90" s="55"/>
+      <c r="Y90" s="56"/>
+      <c r="Z90" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA90" s="55"/>
+      <c r="AB90" s="55"/>
+      <c r="AC90" s="55"/>
+      <c r="AD90" s="76"/>
+      <c r="AE90" s="77"/>
+      <c r="AF90" s="78"/>
+      <c r="AG90" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH90" s="69"/>
+      <c r="AI90" s="70"/>
+      <c r="AJ90" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK90" s="69"/>
+      <c r="AL90" s="70"/>
+    </row>
+    <row r="91" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J91" s="76">
+        <f t="shared" ref="J91:J95" si="0">J90+1</f>
+        <v>4</v>
+      </c>
+      <c r="K91" s="77"/>
+      <c r="L91" s="78"/>
+      <c r="M91" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="N85" s="80"/>
-      <c r="O85" s="53"/>
-      <c r="P85" s="54"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="S85" s="53"/>
-      <c r="T85" s="55"/>
-      <c r="U85" s="56"/>
-      <c r="V85" s="79"/>
-      <c r="W85" s="80"/>
-      <c r="X85" s="81"/>
-      <c r="Y85" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z85" s="72"/>
-      <c r="AA85" s="73"/>
-      <c r="AB85" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC85" s="72"/>
-      <c r="AD85" s="73"/>
-    </row>
-    <row r="86" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J86" s="79">
-        <f>J85+1</f>
-        <v>3</v>
-      </c>
-      <c r="K86" s="80"/>
-      <c r="L86" s="81"/>
-      <c r="M86" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="N86" s="80"/>
-      <c r="O86" s="61"/>
-      <c r="P86" s="62"/>
-      <c r="Q86" s="63"/>
-      <c r="R86" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="S86" s="53"/>
-      <c r="T86" s="55"/>
-      <c r="U86" s="56"/>
-      <c r="V86" s="79"/>
-      <c r="W86" s="80"/>
-      <c r="X86" s="81"/>
-      <c r="Y86" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z86" s="72"/>
-      <c r="AA86" s="73"/>
-      <c r="AB86" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC86" s="72"/>
-      <c r="AD86" s="73"/>
-    </row>
-    <row r="87" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J87" s="79">
-        <f t="shared" ref="J87:J91" si="0">J86+1</f>
-        <v>4</v>
-      </c>
-      <c r="K87" s="80"/>
-      <c r="L87" s="81"/>
-      <c r="M87" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="N87" s="80"/>
-      <c r="O87" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="64"/>
-      <c r="R87" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="S87" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T87" s="59"/>
-      <c r="U87" s="64"/>
-      <c r="V87" s="79"/>
-      <c r="W87" s="80"/>
-      <c r="X87" s="81"/>
-      <c r="Y87" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z87" s="72"/>
-      <c r="AA87" s="73"/>
-      <c r="AB87" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC87" s="72"/>
-      <c r="AD87" s="73"/>
-    </row>
-    <row r="88" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J88" s="79">
+      <c r="N91" s="78"/>
+      <c r="O91" s="68">
+        <v>9</v>
+      </c>
+      <c r="P91" s="69"/>
+      <c r="Q91" s="70"/>
+      <c r="R91" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="S91" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="T91" s="69"/>
+      <c r="U91" s="70"/>
+      <c r="V91" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W91" s="68">
+        <v>18</v>
+      </c>
+      <c r="X91" s="69"/>
+      <c r="Y91" s="70"/>
+      <c r="Z91" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA91" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB91" s="69"/>
+      <c r="AC91" s="70"/>
+      <c r="AD91" s="76"/>
+      <c r="AE91" s="77"/>
+      <c r="AF91" s="78"/>
+      <c r="AG91" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH91" s="69"/>
+      <c r="AI91" s="70"/>
+      <c r="AJ91" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK91" s="69"/>
+      <c r="AL91" s="70"/>
+    </row>
+    <row r="92" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J92" s="76">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K88" s="80"/>
-      <c r="L88" s="81"/>
-      <c r="M88" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="N88" s="80"/>
-      <c r="O88" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="64"/>
-      <c r="R88" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S88" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T88" s="59"/>
-      <c r="U88" s="64"/>
-      <c r="V88" s="79"/>
-      <c r="W88" s="80"/>
-      <c r="X88" s="81"/>
-      <c r="Y88" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z88" s="72"/>
-      <c r="AA88" s="73"/>
-      <c r="AB88" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC88" s="72"/>
-      <c r="AD88" s="73"/>
-    </row>
-    <row r="89" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J89" s="79">
+      <c r="K92" s="77"/>
+      <c r="L92" s="78"/>
+      <c r="M92" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="N92" s="78"/>
+      <c r="O92" s="68">
+        <v>9</v>
+      </c>
+      <c r="P92" s="69"/>
+      <c r="Q92" s="70"/>
+      <c r="R92" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="S92" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="T92" s="69"/>
+      <c r="U92" s="70"/>
+      <c r="V92" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W92" s="68">
+        <v>18</v>
+      </c>
+      <c r="X92" s="69"/>
+      <c r="Y92" s="70"/>
+      <c r="Z92" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA92" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB92" s="69"/>
+      <c r="AC92" s="70"/>
+      <c r="AD92" s="76"/>
+      <c r="AE92" s="77"/>
+      <c r="AF92" s="78"/>
+      <c r="AG92" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH92" s="69"/>
+      <c r="AI92" s="70"/>
+      <c r="AJ92" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK92" s="69"/>
+      <c r="AL92" s="70"/>
+    </row>
+    <row r="93" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J93" s="76">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K89" s="80"/>
-      <c r="L89" s="81"/>
-      <c r="M89" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="N89" s="80"/>
-      <c r="O89" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P89" s="59"/>
-      <c r="Q89" s="64"/>
-      <c r="R89" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S89" s="70">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="T89" s="59"/>
-      <c r="U89" s="64"/>
-      <c r="V89" s="79"/>
-      <c r="W89" s="80"/>
-      <c r="X89" s="81"/>
-      <c r="Y89" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z89" s="72"/>
-      <c r="AA89" s="73"/>
-      <c r="AB89" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC89" s="72"/>
-      <c r="AD89" s="73"/>
-    </row>
-    <row r="90" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J90" s="79">
+      <c r="K93" s="77"/>
+      <c r="L93" s="78"/>
+      <c r="M93" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="N93" s="78"/>
+      <c r="O93" s="68">
+        <v>9</v>
+      </c>
+      <c r="P93" s="69"/>
+      <c r="Q93" s="70"/>
+      <c r="R93" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S93" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T93" s="69"/>
+      <c r="U93" s="70"/>
+      <c r="V93" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W93" s="68">
+        <v>18</v>
+      </c>
+      <c r="X93" s="69"/>
+      <c r="Y93" s="70"/>
+      <c r="Z93" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA93" s="68">
+        <v>30</v>
+      </c>
+      <c r="AB93" s="69"/>
+      <c r="AC93" s="70"/>
+      <c r="AD93" s="76"/>
+      <c r="AE93" s="77"/>
+      <c r="AF93" s="78"/>
+      <c r="AG93" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH93" s="69"/>
+      <c r="AI93" s="70"/>
+      <c r="AJ93" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK93" s="69"/>
+      <c r="AL93" s="70"/>
+    </row>
+    <row r="94" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J94" s="76">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K90" s="80"/>
-      <c r="L90" s="81"/>
-      <c r="M90" s="84" t="s">
+      <c r="K94" s="77"/>
+      <c r="L94" s="78"/>
+      <c r="M94" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="N94" s="80"/>
+      <c r="O94" s="53"/>
+      <c r="P94" s="54"/>
+      <c r="Q94" s="56"/>
+      <c r="R94" s="56"/>
+      <c r="S94" s="53"/>
+      <c r="T94" s="54"/>
+      <c r="U94" s="56"/>
+      <c r="V94" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="N90" s="85"/>
-      <c r="O90" s="58"/>
-      <c r="P90" s="59"/>
-      <c r="Q90" s="64"/>
-      <c r="R90" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S90" s="58"/>
-      <c r="T90" s="59"/>
-      <c r="U90" s="64"/>
-      <c r="V90" s="79"/>
-      <c r="W90" s="80"/>
-      <c r="X90" s="81"/>
-      <c r="Y90" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z90" s="72"/>
-      <c r="AA90" s="73"/>
-      <c r="AB90" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC90" s="72"/>
-      <c r="AD90" s="73"/>
-    </row>
-    <row r="91" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J91" s="79">
+      <c r="W94" s="53"/>
+      <c r="X94" s="55"/>
+      <c r="Y94" s="56"/>
+      <c r="Z94" s="56"/>
+      <c r="AA94" s="55"/>
+      <c r="AB94" s="55"/>
+      <c r="AC94" s="55"/>
+      <c r="AD94" s="76"/>
+      <c r="AE94" s="77"/>
+      <c r="AF94" s="78"/>
+      <c r="AG94" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH94" s="69"/>
+      <c r="AI94" s="70"/>
+      <c r="AJ94" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK94" s="69"/>
+      <c r="AL94" s="70"/>
+    </row>
+    <row r="95" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J95" s="76">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K91" s="80"/>
-      <c r="L91" s="81"/>
-      <c r="M91" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="N91" s="83"/>
-      <c r="O91" s="58"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="64"/>
-      <c r="R91" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S91" s="58"/>
-      <c r="T91" s="59"/>
-      <c r="U91" s="64"/>
-      <c r="V91" s="79"/>
-      <c r="W91" s="80"/>
-      <c r="X91" s="81"/>
-      <c r="Y91" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z91" s="72"/>
-      <c r="AA91" s="73"/>
-      <c r="AB91" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC91" s="72"/>
-      <c r="AD91" s="73"/>
-    </row>
-    <row r="92" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J92" s="79">
-        <f t="shared" ref="J92:J105" si="1">J91+1</f>
+      <c r="K95" s="77"/>
+      <c r="L95" s="78"/>
+      <c r="M95" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="N95" s="82"/>
+      <c r="O95" s="53"/>
+      <c r="P95" s="54"/>
+      <c r="Q95" s="56"/>
+      <c r="R95" s="56"/>
+      <c r="S95" s="53"/>
+      <c r="T95" s="54"/>
+      <c r="U95" s="56"/>
+      <c r="V95" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W95" s="53"/>
+      <c r="X95" s="55"/>
+      <c r="Y95" s="56"/>
+      <c r="Z95" s="56"/>
+      <c r="AA95" s="55"/>
+      <c r="AB95" s="55"/>
+      <c r="AC95" s="55"/>
+      <c r="AD95" s="76"/>
+      <c r="AE95" s="77"/>
+      <c r="AF95" s="78"/>
+      <c r="AG95" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH95" s="69"/>
+      <c r="AI95" s="70"/>
+      <c r="AJ95" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK95" s="69"/>
+      <c r="AL95" s="70"/>
+    </row>
+    <row r="96" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J96" s="76">
+        <f t="shared" ref="J96:J109" si="1">J95+1</f>
         <v>9</v>
       </c>
-      <c r="K92" s="80"/>
-      <c r="L92" s="81"/>
-      <c r="M92" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="N92" s="83"/>
-      <c r="O92" s="58"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="64"/>
-      <c r="R92" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S92" s="58"/>
-      <c r="T92" s="59"/>
-      <c r="U92" s="64"/>
-      <c r="V92" s="79"/>
-      <c r="W92" s="80"/>
-      <c r="X92" s="81"/>
-      <c r="Y92" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z92" s="72"/>
-      <c r="AA92" s="73"/>
-      <c r="AB92" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC92" s="72"/>
-      <c r="AD92" s="73"/>
-    </row>
-    <row r="93" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J93" s="79">
+      <c r="K96" s="77"/>
+      <c r="L96" s="78"/>
+      <c r="M96" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="N96" s="82"/>
+      <c r="O96" s="53"/>
+      <c r="P96" s="54"/>
+      <c r="Q96" s="56"/>
+      <c r="R96" s="56"/>
+      <c r="S96" s="53"/>
+      <c r="T96" s="54"/>
+      <c r="U96" s="56"/>
+      <c r="V96" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W96" s="53"/>
+      <c r="X96" s="55"/>
+      <c r="Y96" s="56"/>
+      <c r="Z96" s="56"/>
+      <c r="AA96" s="55"/>
+      <c r="AB96" s="55"/>
+      <c r="AC96" s="55"/>
+      <c r="AD96" s="76"/>
+      <c r="AE96" s="77"/>
+      <c r="AF96" s="78"/>
+      <c r="AG96" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH96" s="69"/>
+      <c r="AI96" s="70"/>
+      <c r="AJ96" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK96" s="69"/>
+      <c r="AL96" s="70"/>
+    </row>
+    <row r="97" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J97" s="76">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K93" s="80"/>
-      <c r="L93" s="81"/>
-      <c r="M93" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="N93" s="80"/>
-      <c r="O93" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P93" s="59"/>
-      <c r="Q93" s="64"/>
-      <c r="R93" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S93" s="70">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="T93" s="59"/>
-      <c r="U93" s="64"/>
-      <c r="V93" s="79"/>
-      <c r="W93" s="80"/>
-      <c r="X93" s="81"/>
-      <c r="Y93" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z93" s="72"/>
-      <c r="AA93" s="73"/>
-      <c r="AB93" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC93" s="72"/>
-      <c r="AD93" s="73"/>
-    </row>
-    <row r="94" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J94" s="79">
+      <c r="K97" s="77"/>
+      <c r="L97" s="78"/>
+      <c r="M97" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="N97" s="78"/>
+      <c r="O97" s="68">
+        <v>9</v>
+      </c>
+      <c r="P97" s="69"/>
+      <c r="Q97" s="70"/>
+      <c r="R97" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S97" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T97" s="69"/>
+      <c r="U97" s="70"/>
+      <c r="V97" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W97" s="68">
+        <v>20</v>
+      </c>
+      <c r="X97" s="69"/>
+      <c r="Y97" s="70"/>
+      <c r="Z97" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA97" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB97" s="69"/>
+      <c r="AC97" s="70"/>
+      <c r="AD97" s="76"/>
+      <c r="AE97" s="77"/>
+      <c r="AF97" s="78"/>
+      <c r="AG97" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH97" s="69"/>
+      <c r="AI97" s="70"/>
+      <c r="AJ97" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK97" s="69"/>
+      <c r="AL97" s="70"/>
+    </row>
+    <row r="98" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J98" s="76">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K94" s="80"/>
-      <c r="L94" s="81"/>
-      <c r="M94" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="N94" s="80"/>
-      <c r="O94" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P94" s="59"/>
-      <c r="Q94" s="64"/>
-      <c r="R94" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S94" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T94" s="59"/>
-      <c r="U94" s="64"/>
-      <c r="V94" s="79"/>
-      <c r="W94" s="80"/>
-      <c r="X94" s="81"/>
-      <c r="Y94" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z94" s="72"/>
-      <c r="AA94" s="73"/>
-      <c r="AB94" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC94" s="72"/>
-      <c r="AD94" s="73"/>
-    </row>
-    <row r="95" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J95" s="79">
+      <c r="K98" s="77"/>
+      <c r="L98" s="78"/>
+      <c r="M98" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="N98" s="78"/>
+      <c r="O98" s="68">
+        <v>9</v>
+      </c>
+      <c r="P98" s="69"/>
+      <c r="Q98" s="70"/>
+      <c r="R98" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S98" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T98" s="69"/>
+      <c r="U98" s="70"/>
+      <c r="V98" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W98" s="68">
+        <v>18</v>
+      </c>
+      <c r="X98" s="69"/>
+      <c r="Y98" s="70"/>
+      <c r="Z98" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA98" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB98" s="69"/>
+      <c r="AC98" s="70"/>
+      <c r="AD98" s="76"/>
+      <c r="AE98" s="77"/>
+      <c r="AF98" s="78"/>
+      <c r="AG98" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH98" s="69"/>
+      <c r="AI98" s="70"/>
+      <c r="AJ98" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK98" s="69"/>
+      <c r="AL98" s="70"/>
+    </row>
+    <row r="99" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J99" s="76">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K95" s="80"/>
-      <c r="L95" s="81"/>
-      <c r="M95" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="N95" s="80"/>
-      <c r="O95" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P95" s="59"/>
-      <c r="Q95" s="64"/>
-      <c r="R95" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S95" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T95" s="59"/>
-      <c r="U95" s="64"/>
-      <c r="V95" s="79"/>
-      <c r="W95" s="80"/>
-      <c r="X95" s="81"/>
-      <c r="Y95" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z95" s="72"/>
-      <c r="AA95" s="73"/>
-      <c r="AB95" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC95" s="72"/>
-      <c r="AD95" s="73"/>
-    </row>
-    <row r="96" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J96" s="79">
+      <c r="K99" s="77"/>
+      <c r="L99" s="78"/>
+      <c r="M99" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="N99" s="78"/>
+      <c r="O99" s="68">
+        <v>9</v>
+      </c>
+      <c r="P99" s="69"/>
+      <c r="Q99" s="70"/>
+      <c r="R99" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S99" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T99" s="69"/>
+      <c r="U99" s="70"/>
+      <c r="V99" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W99" s="68">
+        <v>18</v>
+      </c>
+      <c r="X99" s="69"/>
+      <c r="Y99" s="70"/>
+      <c r="Z99" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA99" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB99" s="69"/>
+      <c r="AC99" s="70"/>
+      <c r="AD99" s="76"/>
+      <c r="AE99" s="77"/>
+      <c r="AF99" s="78"/>
+      <c r="AG99" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH99" s="69"/>
+      <c r="AI99" s="70"/>
+      <c r="AJ99" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK99" s="69"/>
+      <c r="AL99" s="70"/>
+    </row>
+    <row r="100" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J100" s="76">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K96" s="80"/>
-      <c r="L96" s="81"/>
-      <c r="M96" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="N96" s="80"/>
-      <c r="O96" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P96" s="59"/>
-      <c r="Q96" s="64"/>
-      <c r="R96" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S96" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T96" s="59"/>
-      <c r="U96" s="64"/>
-      <c r="V96" s="79"/>
-      <c r="W96" s="80"/>
-      <c r="X96" s="81"/>
-      <c r="Y96" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z96" s="72"/>
-      <c r="AA96" s="73"/>
-      <c r="AB96" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC96" s="72"/>
-      <c r="AD96" s="73"/>
-    </row>
-    <row r="97" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J97" s="79">
+      <c r="K100" s="77"/>
+      <c r="L100" s="78"/>
+      <c r="M100" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="N100" s="78"/>
+      <c r="O100" s="68">
+        <v>9</v>
+      </c>
+      <c r="P100" s="69"/>
+      <c r="Q100" s="70"/>
+      <c r="R100" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S100" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T100" s="69"/>
+      <c r="U100" s="70"/>
+      <c r="V100" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W100" s="68">
+        <v>18</v>
+      </c>
+      <c r="X100" s="69"/>
+      <c r="Y100" s="70"/>
+      <c r="Z100" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA100" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB100" s="69"/>
+      <c r="AC100" s="70"/>
+      <c r="AD100" s="76"/>
+      <c r="AE100" s="77"/>
+      <c r="AF100" s="78"/>
+      <c r="AG100" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH100" s="69"/>
+      <c r="AI100" s="70"/>
+      <c r="AJ100" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK100" s="69"/>
+      <c r="AL100" s="70"/>
+    </row>
+    <row r="101" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J101" s="76">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K97" s="80"/>
-      <c r="L97" s="81"/>
-      <c r="M97" s="84" t="s">
+      <c r="K101" s="77"/>
+      <c r="L101" s="78"/>
+      <c r="M101" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="N101" s="80"/>
+      <c r="O101" s="53"/>
+      <c r="P101" s="54"/>
+      <c r="Q101" s="56"/>
+      <c r="R101" s="56"/>
+      <c r="S101" s="53"/>
+      <c r="T101" s="54"/>
+      <c r="U101" s="56"/>
+      <c r="V101" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="N97" s="85"/>
-      <c r="O97" s="58"/>
-      <c r="P97" s="59"/>
-      <c r="Q97" s="64"/>
-      <c r="R97" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S97" s="58"/>
-      <c r="T97" s="59"/>
-      <c r="U97" s="64"/>
-      <c r="V97" s="79"/>
-      <c r="W97" s="80"/>
-      <c r="X97" s="81"/>
-      <c r="Y97" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z97" s="72"/>
-      <c r="AA97" s="73"/>
-      <c r="AB97" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC97" s="72"/>
-      <c r="AD97" s="73"/>
-    </row>
-    <row r="98" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J98" s="79">
+      <c r="W101" s="53"/>
+      <c r="X101" s="55"/>
+      <c r="Y101" s="56"/>
+      <c r="Z101" s="56"/>
+      <c r="AA101" s="55"/>
+      <c r="AB101" s="55"/>
+      <c r="AC101" s="55"/>
+      <c r="AD101" s="76"/>
+      <c r="AE101" s="77"/>
+      <c r="AF101" s="78"/>
+      <c r="AG101" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH101" s="69"/>
+      <c r="AI101" s="70"/>
+      <c r="AJ101" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK101" s="69"/>
+      <c r="AL101" s="70"/>
+    </row>
+    <row r="102" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J102" s="76">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K98" s="80"/>
-      <c r="L98" s="81"/>
-      <c r="M98" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="N98" s="83"/>
-      <c r="O98" s="58"/>
-      <c r="P98" s="59"/>
-      <c r="Q98" s="64"/>
-      <c r="R98" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S98" s="58"/>
-      <c r="T98" s="59"/>
-      <c r="U98" s="64"/>
-      <c r="V98" s="79"/>
-      <c r="W98" s="80"/>
-      <c r="X98" s="81"/>
-      <c r="Y98" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z98" s="72"/>
-      <c r="AA98" s="73"/>
-      <c r="AB98" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC98" s="72"/>
-      <c r="AD98" s="73"/>
-    </row>
-    <row r="99" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J99" s="79">
+      <c r="K102" s="77"/>
+      <c r="L102" s="78"/>
+      <c r="M102" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="N102" s="82"/>
+      <c r="O102" s="53"/>
+      <c r="P102" s="54"/>
+      <c r="Q102" s="56"/>
+      <c r="R102" s="56"/>
+      <c r="S102" s="53"/>
+      <c r="T102" s="54"/>
+      <c r="U102" s="56"/>
+      <c r="V102" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W102" s="53"/>
+      <c r="X102" s="55"/>
+      <c r="Y102" s="56"/>
+      <c r="Z102" s="56"/>
+      <c r="AA102" s="55"/>
+      <c r="AB102" s="55"/>
+      <c r="AC102" s="55"/>
+      <c r="AD102" s="76"/>
+      <c r="AE102" s="77"/>
+      <c r="AF102" s="78"/>
+      <c r="AG102" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH102" s="69"/>
+      <c r="AI102" s="70"/>
+      <c r="AJ102" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK102" s="69"/>
+      <c r="AL102" s="70"/>
+    </row>
+    <row r="103" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J103" s="76">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K99" s="80"/>
-      <c r="L99" s="81"/>
-      <c r="M99" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="N99" s="80"/>
-      <c r="O99" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P99" s="59"/>
-      <c r="Q99" s="64"/>
-      <c r="R99" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S99" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T99" s="59"/>
-      <c r="U99" s="64"/>
-      <c r="V99" s="79"/>
-      <c r="W99" s="80"/>
-      <c r="X99" s="81"/>
-      <c r="Y99" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z99" s="72"/>
-      <c r="AA99" s="73"/>
-      <c r="AB99" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC99" s="72"/>
-      <c r="AD99" s="73"/>
-    </row>
-    <row r="100" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J100" s="79">
+      <c r="K103" s="77"/>
+      <c r="L103" s="78"/>
+      <c r="M103" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="N103" s="78"/>
+      <c r="O103" s="68">
+        <v>9</v>
+      </c>
+      <c r="P103" s="69"/>
+      <c r="Q103" s="70"/>
+      <c r="R103" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S103" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T103" s="69"/>
+      <c r="U103" s="70"/>
+      <c r="V103" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W103" s="68">
+        <v>18</v>
+      </c>
+      <c r="X103" s="69"/>
+      <c r="Y103" s="70"/>
+      <c r="Z103" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA103" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB103" s="69"/>
+      <c r="AC103" s="70"/>
+      <c r="AD103" s="76"/>
+      <c r="AE103" s="77"/>
+      <c r="AF103" s="78"/>
+      <c r="AG103" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH103" s="69"/>
+      <c r="AI103" s="70"/>
+      <c r="AJ103" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK103" s="69"/>
+      <c r="AL103" s="70"/>
+    </row>
+    <row r="104" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J104" s="76">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K100" s="80"/>
-      <c r="L100" s="81"/>
-      <c r="M100" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="N100" s="80"/>
-      <c r="O100" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P100" s="59"/>
-      <c r="Q100" s="64"/>
-      <c r="R100" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S100" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T100" s="59"/>
-      <c r="U100" s="64"/>
-      <c r="V100" s="79"/>
-      <c r="W100" s="80"/>
-      <c r="X100" s="81"/>
-      <c r="Y100" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z100" s="72"/>
-      <c r="AA100" s="73"/>
-      <c r="AB100" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC100" s="72"/>
-      <c r="AD100" s="73"/>
-    </row>
-    <row r="101" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J101" s="79">
+      <c r="K104" s="77"/>
+      <c r="L104" s="78"/>
+      <c r="M104" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="N104" s="78"/>
+      <c r="O104" s="68">
+        <v>9</v>
+      </c>
+      <c r="P104" s="69"/>
+      <c r="Q104" s="70"/>
+      <c r="R104" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S104" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T104" s="69"/>
+      <c r="U104" s="70"/>
+      <c r="V104" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W104" s="68">
+        <v>18</v>
+      </c>
+      <c r="X104" s="69"/>
+      <c r="Y104" s="70"/>
+      <c r="Z104" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA104" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB104" s="69"/>
+      <c r="AC104" s="70"/>
+      <c r="AD104" s="76"/>
+      <c r="AE104" s="77"/>
+      <c r="AF104" s="78"/>
+      <c r="AG104" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH104" s="69"/>
+      <c r="AI104" s="70"/>
+      <c r="AJ104" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK104" s="69"/>
+      <c r="AL104" s="70"/>
+    </row>
+    <row r="105" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J105" s="76">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K101" s="80"/>
-      <c r="L101" s="81"/>
-      <c r="M101" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="N101" s="80"/>
-      <c r="O101" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P101" s="59"/>
-      <c r="Q101" s="64"/>
-      <c r="R101" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S101" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T101" s="59"/>
-      <c r="U101" s="64"/>
-      <c r="V101" s="79"/>
-      <c r="W101" s="80"/>
-      <c r="X101" s="81"/>
-      <c r="Y101" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z101" s="72"/>
-      <c r="AA101" s="73"/>
-      <c r="AB101" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC101" s="72"/>
-      <c r="AD101" s="73"/>
-    </row>
-    <row r="102" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J102" s="79">
+      <c r="K105" s="77"/>
+      <c r="L105" s="78"/>
+      <c r="M105" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="N105" s="78"/>
+      <c r="O105" s="68">
+        <v>9</v>
+      </c>
+      <c r="P105" s="69"/>
+      <c r="Q105" s="70"/>
+      <c r="R105" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S105" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T105" s="69"/>
+      <c r="U105" s="70"/>
+      <c r="V105" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W105" s="68">
+        <v>18</v>
+      </c>
+      <c r="X105" s="69"/>
+      <c r="Y105" s="70"/>
+      <c r="Z105" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA105" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB105" s="69"/>
+      <c r="AC105" s="70"/>
+      <c r="AD105" s="76"/>
+      <c r="AE105" s="77"/>
+      <c r="AF105" s="78"/>
+      <c r="AG105" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH105" s="69"/>
+      <c r="AI105" s="70"/>
+      <c r="AJ105" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK105" s="69"/>
+      <c r="AL105" s="70"/>
+    </row>
+    <row r="106" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J106" s="76">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K102" s="80"/>
-      <c r="L102" s="81"/>
-      <c r="M102" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="N102" s="80"/>
-      <c r="O102" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P102" s="59"/>
-      <c r="Q102" s="64"/>
-      <c r="R102" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S102" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T102" s="59"/>
-      <c r="U102" s="64"/>
-      <c r="V102" s="79"/>
-      <c r="W102" s="80"/>
-      <c r="X102" s="81"/>
-      <c r="Y102" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z102" s="72"/>
-      <c r="AA102" s="73"/>
-      <c r="AB102" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC102" s="72"/>
-      <c r="AD102" s="73"/>
-    </row>
-    <row r="103" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J103" s="79">
+      <c r="K106" s="77"/>
+      <c r="L106" s="78"/>
+      <c r="M106" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="N106" s="78"/>
+      <c r="O106" s="68">
+        <v>9</v>
+      </c>
+      <c r="P106" s="69"/>
+      <c r="Q106" s="70"/>
+      <c r="R106" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S106" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T106" s="69"/>
+      <c r="U106" s="70"/>
+      <c r="V106" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W106" s="68">
+        <v>18</v>
+      </c>
+      <c r="X106" s="69"/>
+      <c r="Y106" s="70"/>
+      <c r="Z106" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA106" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB106" s="69"/>
+      <c r="AC106" s="70"/>
+      <c r="AD106" s="76"/>
+      <c r="AE106" s="77"/>
+      <c r="AF106" s="78"/>
+      <c r="AG106" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH106" s="69"/>
+      <c r="AI106" s="70"/>
+      <c r="AJ106" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK106" s="69"/>
+      <c r="AL106" s="70"/>
+    </row>
+    <row r="107" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J107" s="76">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K103" s="80"/>
-      <c r="L103" s="81"/>
-      <c r="M103" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="N103" s="80"/>
-      <c r="O103" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P103" s="59"/>
-      <c r="Q103" s="64"/>
-      <c r="R103" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S103" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T103" s="59"/>
-      <c r="U103" s="64"/>
-      <c r="V103" s="79"/>
-      <c r="W103" s="80"/>
-      <c r="X103" s="81"/>
-      <c r="Y103" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z103" s="72"/>
-      <c r="AA103" s="73"/>
-      <c r="AB103" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC103" s="72"/>
-      <c r="AD103" s="73"/>
-    </row>
-    <row r="104" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J104" s="79">
+      <c r="K107" s="77"/>
+      <c r="L107" s="78"/>
+      <c r="M107" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="N107" s="78"/>
+      <c r="O107" s="68">
+        <v>9</v>
+      </c>
+      <c r="P107" s="69"/>
+      <c r="Q107" s="70"/>
+      <c r="R107" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S107" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T107" s="69"/>
+      <c r="U107" s="70"/>
+      <c r="V107" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W107" s="68">
+        <v>18</v>
+      </c>
+      <c r="X107" s="69"/>
+      <c r="Y107" s="70"/>
+      <c r="Z107" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA107" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB107" s="69"/>
+      <c r="AC107" s="70"/>
+      <c r="AD107" s="76"/>
+      <c r="AE107" s="77"/>
+      <c r="AF107" s="78"/>
+      <c r="AG107" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH107" s="69"/>
+      <c r="AI107" s="70"/>
+      <c r="AJ107" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK107" s="69"/>
+      <c r="AL107" s="70"/>
+    </row>
+    <row r="108" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J108" s="76">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K104" s="80"/>
-      <c r="L104" s="81"/>
-      <c r="M104" s="84" t="s">
+      <c r="K108" s="77"/>
+      <c r="L108" s="78"/>
+      <c r="M108" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="N108" s="80"/>
+      <c r="O108" s="53"/>
+      <c r="P108" s="54"/>
+      <c r="Q108" s="56"/>
+      <c r="R108" s="56"/>
+      <c r="S108" s="53"/>
+      <c r="T108" s="54"/>
+      <c r="U108" s="56"/>
+      <c r="V108" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="N104" s="85"/>
-      <c r="O104" s="58"/>
-      <c r="P104" s="59"/>
-      <c r="Q104" s="64"/>
-      <c r="R104" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S104" s="58"/>
-      <c r="T104" s="59"/>
-      <c r="U104" s="64"/>
-      <c r="V104" s="79"/>
-      <c r="W104" s="80"/>
-      <c r="X104" s="81"/>
-      <c r="Y104" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z104" s="72"/>
-      <c r="AA104" s="73"/>
-      <c r="AB104" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC104" s="72"/>
-      <c r="AD104" s="73"/>
-    </row>
-    <row r="105" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J105" s="79">
+      <c r="W108" s="53"/>
+      <c r="X108" s="55"/>
+      <c r="Y108" s="56"/>
+      <c r="Z108" s="56"/>
+      <c r="AA108" s="55"/>
+      <c r="AB108" s="55"/>
+      <c r="AC108" s="55"/>
+      <c r="AD108" s="76"/>
+      <c r="AE108" s="77"/>
+      <c r="AF108" s="78"/>
+      <c r="AG108" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH108" s="69"/>
+      <c r="AI108" s="70"/>
+      <c r="AJ108" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK108" s="69"/>
+      <c r="AL108" s="70"/>
+    </row>
+    <row r="109" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J109" s="76">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K105" s="80"/>
-      <c r="L105" s="81"/>
-      <c r="M105" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="N105" s="83"/>
-      <c r="O105" s="58"/>
-      <c r="P105" s="59"/>
-      <c r="Q105" s="64"/>
-      <c r="R105" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S105" s="58"/>
-      <c r="T105" s="59"/>
-      <c r="U105" s="64"/>
-      <c r="V105" s="79"/>
-      <c r="W105" s="80"/>
-      <c r="X105" s="81"/>
-      <c r="Y105" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z105" s="72"/>
-      <c r="AA105" s="73"/>
-      <c r="AB105" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC105" s="72"/>
-      <c r="AD105" s="73"/>
-    </row>
-    <row r="106" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J106" s="79">
-        <f t="shared" ref="J106:J114" si="2">J105+1</f>
+      <c r="K109" s="77"/>
+      <c r="L109" s="78"/>
+      <c r="M109" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="N109" s="82"/>
+      <c r="O109" s="53"/>
+      <c r="P109" s="54"/>
+      <c r="Q109" s="56"/>
+      <c r="R109" s="56"/>
+      <c r="S109" s="53"/>
+      <c r="T109" s="54"/>
+      <c r="U109" s="56"/>
+      <c r="V109" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W109" s="53"/>
+      <c r="X109" s="55"/>
+      <c r="Y109" s="56"/>
+      <c r="Z109" s="56"/>
+      <c r="AA109" s="55"/>
+      <c r="AB109" s="55"/>
+      <c r="AC109" s="55"/>
+      <c r="AD109" s="76"/>
+      <c r="AE109" s="77"/>
+      <c r="AF109" s="78"/>
+      <c r="AG109" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH109" s="69"/>
+      <c r="AI109" s="70"/>
+      <c r="AJ109" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK109" s="69"/>
+      <c r="AL109" s="70"/>
+    </row>
+    <row r="110" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J110" s="76">
+        <f t="shared" ref="J110:J118" si="2">J109+1</f>
         <v>23</v>
       </c>
-      <c r="K106" s="80"/>
-      <c r="L106" s="81"/>
-      <c r="M106" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="N106" s="80"/>
-      <c r="O106" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="64"/>
-      <c r="R106" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S106" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T106" s="59"/>
-      <c r="U106" s="64"/>
-      <c r="V106" s="79"/>
-      <c r="W106" s="80"/>
-      <c r="X106" s="81"/>
-      <c r="Y106" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z106" s="72"/>
-      <c r="AA106" s="73"/>
-      <c r="AB106" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC106" s="72"/>
-      <c r="AD106" s="73"/>
-    </row>
-    <row r="107" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J107" s="79">
+      <c r="K110" s="77"/>
+      <c r="L110" s="78"/>
+      <c r="M110" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="N110" s="78"/>
+      <c r="O110" s="68">
+        <v>9</v>
+      </c>
+      <c r="P110" s="69"/>
+      <c r="Q110" s="70"/>
+      <c r="R110" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S110" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T110" s="69"/>
+      <c r="U110" s="70"/>
+      <c r="V110" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W110" s="68">
+        <v>18</v>
+      </c>
+      <c r="X110" s="69"/>
+      <c r="Y110" s="70"/>
+      <c r="Z110" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA110" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB110" s="69"/>
+      <c r="AC110" s="70"/>
+      <c r="AD110" s="76"/>
+      <c r="AE110" s="77"/>
+      <c r="AF110" s="78"/>
+      <c r="AG110" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH110" s="69"/>
+      <c r="AI110" s="70"/>
+      <c r="AJ110" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK110" s="69"/>
+      <c r="AL110" s="70"/>
+    </row>
+    <row r="111" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J111" s="76">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="K107" s="80"/>
-      <c r="L107" s="81"/>
-      <c r="M107" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="N107" s="80"/>
-      <c r="O107" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P107" s="59"/>
-      <c r="Q107" s="64"/>
-      <c r="R107" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S107" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T107" s="59"/>
-      <c r="U107" s="64"/>
-      <c r="V107" s="79"/>
-      <c r="W107" s="80"/>
-      <c r="X107" s="81"/>
-      <c r="Y107" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z107" s="72"/>
-      <c r="AA107" s="73"/>
-      <c r="AB107" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC107" s="72"/>
-      <c r="AD107" s="73"/>
-    </row>
-    <row r="108" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J108" s="79">
+      <c r="K111" s="77"/>
+      <c r="L111" s="78"/>
+      <c r="M111" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="N111" s="78"/>
+      <c r="O111" s="68">
+        <v>9</v>
+      </c>
+      <c r="P111" s="69"/>
+      <c r="Q111" s="70"/>
+      <c r="R111" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S111" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T111" s="69"/>
+      <c r="U111" s="70"/>
+      <c r="V111" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W111" s="68">
+        <v>18</v>
+      </c>
+      <c r="X111" s="69"/>
+      <c r="Y111" s="70"/>
+      <c r="Z111" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA111" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB111" s="69"/>
+      <c r="AC111" s="70"/>
+      <c r="AD111" s="76"/>
+      <c r="AE111" s="77"/>
+      <c r="AF111" s="78"/>
+      <c r="AG111" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH111" s="69"/>
+      <c r="AI111" s="70"/>
+      <c r="AJ111" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK111" s="69"/>
+      <c r="AL111" s="70"/>
+    </row>
+    <row r="112" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J112" s="76">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K108" s="80"/>
-      <c r="L108" s="81"/>
-      <c r="M108" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="N108" s="80"/>
-      <c r="O108" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P108" s="59"/>
-      <c r="Q108" s="64"/>
-      <c r="R108" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S108" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T108" s="59"/>
-      <c r="U108" s="64"/>
-      <c r="V108" s="79"/>
-      <c r="W108" s="80"/>
-      <c r="X108" s="81"/>
-      <c r="Y108" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z108" s="72"/>
-      <c r="AA108" s="73"/>
-      <c r="AB108" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC108" s="72"/>
-      <c r="AD108" s="73"/>
-    </row>
-    <row r="109" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J109" s="79">
+      <c r="K112" s="77"/>
+      <c r="L112" s="78"/>
+      <c r="M112" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="N112" s="78"/>
+      <c r="O112" s="68">
+        <v>9</v>
+      </c>
+      <c r="P112" s="69"/>
+      <c r="Q112" s="70"/>
+      <c r="R112" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S112" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T112" s="69"/>
+      <c r="U112" s="70"/>
+      <c r="V112" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W112" s="68">
+        <v>18</v>
+      </c>
+      <c r="X112" s="69"/>
+      <c r="Y112" s="70"/>
+      <c r="Z112" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA112" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB112" s="69"/>
+      <c r="AC112" s="70"/>
+      <c r="AD112" s="76"/>
+      <c r="AE112" s="77"/>
+      <c r="AF112" s="78"/>
+      <c r="AG112" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH112" s="69"/>
+      <c r="AI112" s="70"/>
+      <c r="AJ112" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK112" s="69"/>
+      <c r="AL112" s="70"/>
+    </row>
+    <row r="113" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J113" s="76">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="K109" s="80"/>
-      <c r="L109" s="81"/>
-      <c r="M109" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="N109" s="80"/>
-      <c r="O109" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P109" s="59"/>
-      <c r="Q109" s="64"/>
-      <c r="R109" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S109" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T109" s="59"/>
-      <c r="U109" s="64"/>
-      <c r="V109" s="79"/>
-      <c r="W109" s="80"/>
-      <c r="X109" s="81"/>
-      <c r="Y109" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z109" s="72"/>
-      <c r="AA109" s="73"/>
-      <c r="AB109" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC109" s="72"/>
-      <c r="AD109" s="73"/>
-    </row>
-    <row r="110" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J110" s="79">
+      <c r="K113" s="77"/>
+      <c r="L113" s="78"/>
+      <c r="M113" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="N113" s="78"/>
+      <c r="O113" s="68">
+        <v>9</v>
+      </c>
+      <c r="P113" s="69"/>
+      <c r="Q113" s="70"/>
+      <c r="R113" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S113" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T113" s="69"/>
+      <c r="U113" s="70"/>
+      <c r="V113" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W113" s="68">
+        <v>18</v>
+      </c>
+      <c r="X113" s="69"/>
+      <c r="Y113" s="70"/>
+      <c r="Z113" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA113" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB113" s="69"/>
+      <c r="AC113" s="70"/>
+      <c r="AD113" s="76"/>
+      <c r="AE113" s="77"/>
+      <c r="AF113" s="78"/>
+      <c r="AG113" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH113" s="69"/>
+      <c r="AI113" s="70"/>
+      <c r="AJ113" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK113" s="69"/>
+      <c r="AL113" s="70"/>
+    </row>
+    <row r="114" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J114" s="76">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="K110" s="80"/>
-      <c r="L110" s="81"/>
-      <c r="M110" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="N110" s="80"/>
-      <c r="O110" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P110" s="59"/>
-      <c r="Q110" s="64"/>
-      <c r="R110" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S110" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T110" s="59"/>
-      <c r="U110" s="64"/>
-      <c r="V110" s="79"/>
-      <c r="W110" s="80"/>
-      <c r="X110" s="81"/>
-      <c r="Y110" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z110" s="72"/>
-      <c r="AA110" s="73"/>
-      <c r="AB110" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC110" s="72"/>
-      <c r="AD110" s="73"/>
-    </row>
-    <row r="111" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J111" s="79">
+      <c r="K114" s="77"/>
+      <c r="L114" s="78"/>
+      <c r="M114" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="N114" s="78"/>
+      <c r="O114" s="68">
+        <v>9</v>
+      </c>
+      <c r="P114" s="69"/>
+      <c r="Q114" s="70"/>
+      <c r="R114" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S114" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T114" s="69"/>
+      <c r="U114" s="70"/>
+      <c r="V114" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W114" s="68">
+        <v>18</v>
+      </c>
+      <c r="X114" s="69"/>
+      <c r="Y114" s="70"/>
+      <c r="Z114" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA114" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB114" s="69"/>
+      <c r="AC114" s="70"/>
+      <c r="AD114" s="76"/>
+      <c r="AE114" s="77"/>
+      <c r="AF114" s="78"/>
+      <c r="AG114" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH114" s="69"/>
+      <c r="AI114" s="70"/>
+      <c r="AJ114" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK114" s="69"/>
+      <c r="AL114" s="70"/>
+    </row>
+    <row r="115" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J115" s="76">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K111" s="80"/>
-      <c r="L111" s="81"/>
-      <c r="M111" s="84" t="s">
+      <c r="K115" s="77"/>
+      <c r="L115" s="78"/>
+      <c r="M115" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="N115" s="80"/>
+      <c r="O115" s="53"/>
+      <c r="P115" s="54"/>
+      <c r="Q115" s="56"/>
+      <c r="R115" s="56"/>
+      <c r="S115" s="53"/>
+      <c r="T115" s="54"/>
+      <c r="U115" s="56"/>
+      <c r="V115" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="N111" s="85"/>
-      <c r="O111" s="58"/>
-      <c r="P111" s="59"/>
-      <c r="Q111" s="64"/>
-      <c r="R111" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S111" s="58"/>
-      <c r="T111" s="59"/>
-      <c r="U111" s="64"/>
-      <c r="V111" s="79"/>
-      <c r="W111" s="80"/>
-      <c r="X111" s="81"/>
-      <c r="Y111" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z111" s="72"/>
-      <c r="AA111" s="73"/>
-      <c r="AB111" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC111" s="72"/>
-      <c r="AD111" s="73"/>
-    </row>
-    <row r="112" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J112" s="79">
+      <c r="W115" s="53"/>
+      <c r="X115" s="55"/>
+      <c r="Y115" s="56"/>
+      <c r="Z115" s="56"/>
+      <c r="AA115" s="55"/>
+      <c r="AB115" s="55"/>
+      <c r="AC115" s="55"/>
+      <c r="AD115" s="76"/>
+      <c r="AE115" s="77"/>
+      <c r="AF115" s="78"/>
+      <c r="AG115" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH115" s="69"/>
+      <c r="AI115" s="70"/>
+      <c r="AJ115" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK115" s="69"/>
+      <c r="AL115" s="70"/>
+    </row>
+    <row r="116" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J116" s="76">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="K112" s="80"/>
-      <c r="L112" s="81"/>
-      <c r="M112" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="N112" s="83"/>
-      <c r="O112" s="58"/>
-      <c r="P112" s="59"/>
-      <c r="Q112" s="64"/>
-      <c r="R112" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S112" s="58"/>
-      <c r="T112" s="59"/>
-      <c r="U112" s="64"/>
-      <c r="V112" s="79"/>
-      <c r="W112" s="80"/>
-      <c r="X112" s="81"/>
-      <c r="Y112" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z112" s="72"/>
-      <c r="AA112" s="73"/>
-      <c r="AB112" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC112" s="72"/>
-      <c r="AD112" s="73"/>
-    </row>
-    <row r="113" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J113" s="79">
+      <c r="K116" s="77"/>
+      <c r="L116" s="78"/>
+      <c r="M116" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="N116" s="82"/>
+      <c r="O116" s="53"/>
+      <c r="P116" s="54"/>
+      <c r="Q116" s="56"/>
+      <c r="R116" s="56"/>
+      <c r="S116" s="53"/>
+      <c r="T116" s="54"/>
+      <c r="U116" s="56"/>
+      <c r="V116" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W116" s="53"/>
+      <c r="X116" s="55"/>
+      <c r="Y116" s="56"/>
+      <c r="Z116" s="56"/>
+      <c r="AA116" s="55"/>
+      <c r="AB116" s="55"/>
+      <c r="AC116" s="55"/>
+      <c r="AD116" s="76"/>
+      <c r="AE116" s="77"/>
+      <c r="AF116" s="78"/>
+      <c r="AG116" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH116" s="69"/>
+      <c r="AI116" s="70"/>
+      <c r="AJ116" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK116" s="69"/>
+      <c r="AL116" s="70"/>
+    </row>
+    <row r="117" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J117" s="76">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K113" s="80"/>
-      <c r="L113" s="81"/>
-      <c r="M113" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="N113" s="80"/>
-      <c r="O113" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P113" s="59"/>
-      <c r="Q113" s="64"/>
-      <c r="R113" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S113" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T113" s="59"/>
-      <c r="U113" s="64"/>
-      <c r="V113" s="79"/>
-      <c r="W113" s="80"/>
-      <c r="X113" s="81"/>
-      <c r="Y113" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z113" s="72"/>
-      <c r="AA113" s="73"/>
-      <c r="AB113" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC113" s="72"/>
-      <c r="AD113" s="73"/>
-    </row>
-    <row r="114" spans="10:30" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J114" s="79">
+      <c r="K117" s="77"/>
+      <c r="L117" s="78"/>
+      <c r="M117" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="N117" s="78"/>
+      <c r="O117" s="68">
+        <v>9</v>
+      </c>
+      <c r="P117" s="69"/>
+      <c r="Q117" s="70"/>
+      <c r="R117" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S117" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T117" s="69"/>
+      <c r="U117" s="70"/>
+      <c r="V117" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W117" s="68">
+        <v>18</v>
+      </c>
+      <c r="X117" s="69"/>
+      <c r="Y117" s="70"/>
+      <c r="Z117" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA117" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB117" s="69"/>
+      <c r="AC117" s="70"/>
+      <c r="AD117" s="76"/>
+      <c r="AE117" s="77"/>
+      <c r="AF117" s="78"/>
+      <c r="AG117" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH117" s="69"/>
+      <c r="AI117" s="70"/>
+      <c r="AJ117" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK117" s="69"/>
+      <c r="AL117" s="70"/>
+    </row>
+    <row r="118" spans="10:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J118" s="76">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K114" s="80"/>
-      <c r="L114" s="81"/>
-      <c r="M114" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="N114" s="80"/>
-      <c r="O114" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="P114" s="59"/>
-      <c r="Q114" s="64"/>
-      <c r="R114" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="S114" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="T114" s="59"/>
-      <c r="U114" s="64"/>
-      <c r="V114" s="79"/>
-      <c r="W114" s="80"/>
-      <c r="X114" s="81"/>
-      <c r="Y114" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z114" s="72"/>
-      <c r="AA114" s="73"/>
-      <c r="AB114" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC114" s="72"/>
-      <c r="AD114" s="73"/>
+      <c r="K118" s="77"/>
+      <c r="L118" s="78"/>
+      <c r="M118" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="N118" s="78"/>
+      <c r="O118" s="68">
+        <v>9</v>
+      </c>
+      <c r="P118" s="69"/>
+      <c r="Q118" s="70"/>
+      <c r="R118" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="S118" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="T118" s="69"/>
+      <c r="U118" s="70"/>
+      <c r="V118" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="W118" s="68">
+        <v>18</v>
+      </c>
+      <c r="X118" s="69"/>
+      <c r="Y118" s="70"/>
+      <c r="Z118" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA118" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB118" s="69"/>
+      <c r="AC118" s="70"/>
+      <c r="AD118" s="76"/>
+      <c r="AE118" s="77"/>
+      <c r="AF118" s="78"/>
+      <c r="AG118" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH118" s="69"/>
+      <c r="AI118" s="70"/>
+      <c r="AJ118" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK118" s="69"/>
+      <c r="AL118" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="V113:X113"/>
-    <mergeCell ref="V114:X114"/>
-    <mergeCell ref="V107:X107"/>
-    <mergeCell ref="V108:X108"/>
-    <mergeCell ref="V109:X109"/>
-    <mergeCell ref="V110:X110"/>
-    <mergeCell ref="V111:X111"/>
-    <mergeCell ref="V112:X112"/>
-    <mergeCell ref="V106:X106"/>
-    <mergeCell ref="V95:X95"/>
-    <mergeCell ref="V96:X96"/>
-    <mergeCell ref="V97:X97"/>
-    <mergeCell ref="V98:X98"/>
-    <mergeCell ref="V99:X99"/>
-    <mergeCell ref="V100:X100"/>
-    <mergeCell ref="V101:X101"/>
-    <mergeCell ref="V102:X102"/>
-    <mergeCell ref="V103:X103"/>
-    <mergeCell ref="V104:X104"/>
-    <mergeCell ref="V105:X105"/>
-    <mergeCell ref="V94:X94"/>
-    <mergeCell ref="V84:X84"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="V86:X86"/>
-    <mergeCell ref="V87:X87"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="V89:X89"/>
-    <mergeCell ref="V90:X90"/>
-    <mergeCell ref="V91:X91"/>
-    <mergeCell ref="V92:X92"/>
-    <mergeCell ref="V93:X93"/>
-    <mergeCell ref="J114:L114"/>
-    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="M109:N109"/>
     <mergeCell ref="J110:L110"/>
     <mergeCell ref="M110:N110"/>
     <mergeCell ref="J111:L111"/>
     <mergeCell ref="M111:N111"/>
     <mergeCell ref="J112:L112"/>
     <mergeCell ref="M112:N112"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="M109:N109"/>
     <mergeCell ref="J113:L113"/>
     <mergeCell ref="M113:N113"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="J84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="J86:L86"/>
-    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="J118:L118"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="J115:L115"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="J116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="AD98:AF98"/>
+    <mergeCell ref="AD88:AF88"/>
+    <mergeCell ref="AD89:AF89"/>
+    <mergeCell ref="AD90:AF90"/>
+    <mergeCell ref="AD91:AF91"/>
+    <mergeCell ref="AD92:AF92"/>
+    <mergeCell ref="AD93:AF93"/>
+    <mergeCell ref="AD94:AF94"/>
+    <mergeCell ref="AD95:AF95"/>
+    <mergeCell ref="AD96:AF96"/>
+    <mergeCell ref="AD97:AF97"/>
+    <mergeCell ref="AD110:AF110"/>
+    <mergeCell ref="AD99:AF99"/>
+    <mergeCell ref="AD100:AF100"/>
+    <mergeCell ref="AD101:AF101"/>
+    <mergeCell ref="AD102:AF102"/>
+    <mergeCell ref="AD103:AF103"/>
+    <mergeCell ref="AD104:AF104"/>
+    <mergeCell ref="AD105:AF105"/>
+    <mergeCell ref="AD106:AF106"/>
+    <mergeCell ref="AD107:AF107"/>
+    <mergeCell ref="AD108:AF108"/>
+    <mergeCell ref="AD109:AF109"/>
+    <mergeCell ref="AD117:AF117"/>
+    <mergeCell ref="AD118:AF118"/>
+    <mergeCell ref="AD111:AF111"/>
+    <mergeCell ref="AD112:AF112"/>
+    <mergeCell ref="AD113:AF113"/>
+    <mergeCell ref="AD114:AF114"/>
+    <mergeCell ref="AD115:AF115"/>
+    <mergeCell ref="AD116:AF116"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23137,11 +24215,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -23160,9 +24238,9 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -23177,13 +24255,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>5</v>
@@ -23196,1694 +24274,1716 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="76">
+      <c r="A2" s="64">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="74">
+      <c r="F2" s="62">
         <v>1</v>
       </c>
-      <c r="G2" s="74">
+      <c r="G2" s="62">
         <v>1</v>
       </c>
-      <c r="H2" s="74">
+      <c r="H2" s="62">
         <v>1</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="76">
-        <f t="shared" ref="A3:A71" si="0">ROW()-1</f>
+      <c r="A3" s="64">
+        <f t="shared" ref="A3:A72" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74">
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62">
         <v>1</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="74"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="76">
+      <c r="A4" s="64">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74">
+      <c r="E4" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62">
         <v>1</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="74"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="76">
+      <c r="A5" s="64">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74">
+      <c r="D5" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62">
         <v>1</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="74"/>
-    </row>
-    <row r="6" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="76">
+      <c r="K5" s="62"/>
+    </row>
+    <row r="6" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="64">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="77" t="s">
+      <c r="C6" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65">
+        <v>1</v>
+      </c>
+      <c r="I6" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77">
-        <v>1</v>
-      </c>
-      <c r="I6" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="76">
+      <c r="J6" s="65"/>
+      <c r="K6" s="65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="64">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77">
+      <c r="E7" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65">
         <v>1</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-    </row>
-    <row r="8" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="76">
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+    </row>
+    <row r="8" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="64">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77">
+      <c r="E8" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65">
         <v>1</v>
       </c>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-    </row>
-    <row r="9" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="76">
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="64">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="77" t="s">
+      <c r="D9" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="65">
         <v>1</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="65">
         <v>1</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="65">
         <v>1</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-    </row>
-    <row r="10" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="76">
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+    </row>
+    <row r="10" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="64">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77">
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65">
         <v>1</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-    </row>
-    <row r="11" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="76">
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+    </row>
+    <row r="11" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="64">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77">
+      <c r="E11" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="62">
         <v>1</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="77" t="s">
+      <c r="J11" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="77"/>
-    </row>
-    <row r="12" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="76">
+      <c r="K11" s="65"/>
+    </row>
+    <row r="12" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="64">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77">
+      <c r="D12" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="62">
         <v>1</v>
       </c>
-      <c r="I12" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-    </row>
-    <row r="13" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="76">
+      <c r="I12" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="65"/>
+    </row>
+    <row r="13" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="64">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77">
+      <c r="D13" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65">
         <v>1</v>
       </c>
-      <c r="I13" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="76">
+      <c r="I13" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+    </row>
+    <row r="14" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="64">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77">
+      <c r="E14" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65">
         <v>1</v>
       </c>
-      <c r="I14" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="76">
+      <c r="I14" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+    </row>
+    <row r="15" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="64">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77">
+      <c r="D15" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65">
         <v>1</v>
       </c>
-      <c r="I15" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="77" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="76">
+      <c r="I15" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+    </row>
+    <row r="16" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="64">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77">
+      <c r="D16" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65">
         <v>1</v>
       </c>
-      <c r="I16" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-    </row>
-    <row r="17" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="76">
+      <c r="I16" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="64">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77">
+      <c r="D17" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65">
         <v>1</v>
       </c>
-      <c r="I17" s="77" t="s">
+      <c r="I17" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-    </row>
-    <row r="18" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="76">
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+    </row>
+    <row r="18" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="64">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="77">
+      <c r="B18" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65">
         <v>1</v>
       </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77">
-        <v>1</v>
-      </c>
-      <c r="I18" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-    </row>
-    <row r="19" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="76">
+      <c r="I18" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+    </row>
+    <row r="19" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="64">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77">
+      <c r="C19" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="65">
         <v>1</v>
       </c>
-      <c r="H19" s="77">
+      <c r="G19" s="65"/>
+      <c r="H19" s="65">
         <v>1</v>
       </c>
-      <c r="I19" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="77"/>
-    </row>
-    <row r="20" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="76">
+      <c r="I19" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+    </row>
+    <row r="20" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="64">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77">
+      <c r="C20" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65">
         <v>1</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="65">
         <v>1</v>
       </c>
-      <c r="I20" s="77" t="s">
+      <c r="I20" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="77"/>
-    </row>
-    <row r="21" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="76">
+      <c r="K20" s="65"/>
+    </row>
+    <row r="21" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="64">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77">
+      <c r="D21" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65">
         <v>1</v>
       </c>
-      <c r="I21" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-    </row>
-    <row r="22" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="76">
+      <c r="H21" s="65">
+        <v>1</v>
+      </c>
+      <c r="I21" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="65"/>
+    </row>
+    <row r="22" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="64">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77">
+      <c r="D22" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65">
         <v>1</v>
       </c>
-      <c r="I22" s="77" t="s">
+      <c r="I22" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-    </row>
-    <row r="23" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="76">
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+    </row>
+    <row r="23" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="64">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77">
+      <c r="D23" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65">
         <v>1</v>
       </c>
-      <c r="I23" s="77" t="s">
+      <c r="I23" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-    </row>
-    <row r="24" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="76">
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+    </row>
+    <row r="24" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="64">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77">
+      <c r="D24" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65">
         <v>1</v>
       </c>
-      <c r="I24" s="77" t="s">
+      <c r="I24" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-    </row>
-    <row r="25" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="76">
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+    </row>
+    <row r="25" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="64">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77">
+      <c r="D25" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65">
         <v>1</v>
       </c>
-      <c r="I25" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="76">
+      <c r="I25" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+    </row>
+    <row r="26" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="64">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77">
+      <c r="D26" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65">
         <v>1</v>
       </c>
-      <c r="I26" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-    </row>
-    <row r="27" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="76">
+      <c r="I26" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="64">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77">
+      <c r="D27" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65">
         <v>1</v>
       </c>
-      <c r="I27" s="77" t="s">
+      <c r="I27" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-    </row>
-    <row r="28" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="76">
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+    </row>
+    <row r="28" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="64">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="77">
+      <c r="B28" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65">
         <v>1</v>
       </c>
-      <c r="I28" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="77"/>
-    </row>
-    <row r="29" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="76">
+      <c r="I28" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+    </row>
+    <row r="29" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="64">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="77" t="s">
+      <c r="B29" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77" t="s">
+      <c r="F29" s="65"/>
+      <c r="G29" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="65">
+        <v>1</v>
+      </c>
+      <c r="I29" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29" s="77"/>
-    </row>
-    <row r="30" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="76">
+      <c r="J29" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="65"/>
+    </row>
+    <row r="30" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="64">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77">
-        <v>1</v>
-      </c>
-      <c r="I30" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="76">
+      <c r="E30" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="65"/>
+    </row>
+    <row r="31" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="64">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77">
+      <c r="B31" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65">
         <v>1</v>
       </c>
-      <c r="I31" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-    </row>
-    <row r="32" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="76">
+      <c r="I31" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="64">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77">
+      <c r="B32" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65">
         <v>1</v>
       </c>
-      <c r="I32" s="77" t="s">
+      <c r="I32" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-    </row>
-    <row r="33" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="76">
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+    </row>
+    <row r="33" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="64">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="77">
+      <c r="B33" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65">
         <v>1</v>
       </c>
-      <c r="I33" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="77"/>
-    </row>
-    <row r="34" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="76">
+      <c r="I33" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+    </row>
+    <row r="34" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="64">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77" t="s">
+      <c r="F34" s="65"/>
+      <c r="G34" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="65">
+        <v>1</v>
+      </c>
+      <c r="I34" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34" s="77"/>
-    </row>
-    <row r="35" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="76">
+      <c r="J34" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="65"/>
+    </row>
+    <row r="35" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="64">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="77" t="s">
+      <c r="B35" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="E35" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77">
-        <v>1</v>
-      </c>
-      <c r="I35" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="76">
+      <c r="E35" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="65"/>
+    </row>
+    <row r="36" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="64">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77">
+      <c r="B36" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65">
         <v>1</v>
       </c>
-      <c r="I36" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-    </row>
-    <row r="37" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="76">
+      <c r="I36" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="64">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77">
+      <c r="B37" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65">
         <v>1</v>
       </c>
-      <c r="I37" s="77" t="s">
+      <c r="I37" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-    </row>
-    <row r="38" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="76">
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+    </row>
+    <row r="38" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="64">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="77" t="s">
-        <v>202</v>
-      </c>
-      <c r="E38" s="77" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="H38" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="I38" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-    </row>
-    <row r="39" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="76">
+      <c r="B38" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65">
+        <v>1</v>
+      </c>
+      <c r="I38" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+    </row>
+    <row r="39" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="64">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="77" t="s">
+      <c r="B39" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="I39" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77" t="s">
+      <c r="E39" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="65" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="76">
+      <c r="G39" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+    </row>
+    <row r="40" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="64">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="E40" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="I40" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="K40" s="77"/>
-    </row>
-    <row r="41" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="76">
+      <c r="E40" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="I40" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="64">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="77" t="s">
+      <c r="B41" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="D41" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="E41" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="I41" s="77" t="s">
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="I41" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="K41" s="77" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="76">
+      <c r="J41" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="K41" s="65"/>
+    </row>
+    <row r="42" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="64">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="C42" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="I42" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-    </row>
-    <row r="43" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="76">
+      <c r="B42" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="I42" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="K42" s="65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="64">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77" t="s">
+      <c r="B43" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="I43" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="I43" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="76">
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+    </row>
+    <row r="44" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="64">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
+      <c r="B44" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="I44" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" s="76">
+      <c r="A45" s="64">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="76">
+      <c r="A46" s="64">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="76">
+      <c r="A47" s="64">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" s="76">
+      <c r="A48" s="64">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="74"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49" s="76">
+      <c r="A49" s="64">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" s="76">
+      <c r="A50" s="64">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51" s="76">
+      <c r="A51" s="64">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" s="76">
+      <c r="A52" s="64">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="74"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A53" s="76">
+      <c r="A53" s="64">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="74"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54" s="76">
+      <c r="A54" s="64">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="74"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A55" s="76">
+      <c r="A55" s="64">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="74"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A56" s="76">
+      <c r="A56" s="64">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="74"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A57" s="76">
+      <c r="A57" s="64">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="74"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" s="76">
+      <c r="A58" s="64">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="74"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="74"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" s="76">
+      <c r="A59" s="64">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="74"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="74"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60" s="76">
+      <c r="A60" s="64">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" s="76">
+      <c r="A61" s="64">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="74"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="74"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A62" s="76">
+      <c r="A62" s="64">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="74"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="74"/>
-      <c r="K62" s="74"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A63" s="76">
+      <c r="A63" s="64">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="74"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="74"/>
-      <c r="J63" s="74"/>
-      <c r="K63" s="74"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A64" s="76">
+      <c r="A64" s="64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="74"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="74"/>
-      <c r="K64" s="74"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="62"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A65" s="76">
+      <c r="A65" s="64">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="74"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A66" s="76">
+      <c r="A66" s="64">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="74"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="74"/>
-      <c r="J66" s="74"/>
-      <c r="K66" s="74"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="62"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A67" s="76">
+      <c r="A67" s="64">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67" s="74"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="74"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A68" s="76">
+      <c r="A68" s="64">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B68" s="74"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="74"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="62"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A69" s="76">
+      <c r="A69" s="64">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B69" s="74"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="74"/>
-      <c r="J69" s="74"/>
-      <c r="K69" s="74"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A70" s="76">
+      <c r="A70" s="64">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="B70" s="74"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="74"/>
-      <c r="K70" s="74"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="62"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A71" s="76">
+      <c r="A71" s="64">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="B71" s="74"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="74"/>
-      <c r="H71" s="74"/>
-      <c r="I71" s="74"/>
-      <c r="J71" s="74"/>
-      <c r="K71" s="74"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A72" s="64">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="62"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -24891,11 +25991,11 @@
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="6" manualBreakCount="6">
     <brk id="8" max="16383" man="1"/>
-    <brk id="17" max="16383" man="1"/>
-    <brk id="27" max="16383" man="1"/>
-    <brk id="32" max="16383" man="1"/>
-    <brk id="37" max="16383" man="1"/>
-    <brk id="43" max="16383" man="1"/>
+    <brk id="18" max="16383" man="1"/>
+    <brk id="28" max="16383" man="1"/>
+    <brk id="33" max="16383" man="1"/>
+    <brk id="38" max="16383" man="1"/>
+    <brk id="44" max="16383" man="1"/>
   </rowBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DAFA3B-3ACB-43E8-968B-99E868165997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF104B6-DDBE-4325-A0E1-9DEEBAB28BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="405" windowWidth="23760" windowHeight="14505" activeTab="1" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
+    <workbookView xWindow="7560" yWindow="405" windowWidth="20280" windowHeight="14505" activeTab="8" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
   <sheets>
     <sheet name="遷移図" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="209">
   <si>
     <t>テーブル名（物理名）</t>
     <rPh sb="4" eb="5">
@@ -1228,6 +1228,22 @@
     <t>00</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>承認フラグ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>取消申請フラグ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>APPROVAL_FLG</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CANCEL_FLG</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1891,16 +1907,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10592,8 +10608,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K72" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:K72" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}" name="テーブル1" displayName="テーブル1" ref="A1:K74" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:K74" xr:uid="{8805D284-06DE-4145-A118-D7D491A8C8DC}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B83B990F-AAF7-4E0D-832A-FD0EB83BF657}" name="#" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{3B6AFDE3-3A68-4826-B10B-B4E01BEE4117}" name="テーブル（論理名）" dataDxfId="12"/>
@@ -11122,7 +11138,7 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -22549,10 +22565,10 @@
       </c>
       <c r="K88" s="77"/>
       <c r="L88" s="78"/>
-      <c r="M88" s="81" t="s">
+      <c r="M88" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="N88" s="82"/>
+      <c r="N88" s="80"/>
       <c r="O88" s="53"/>
       <c r="P88" s="54"/>
       <c r="Q88" s="56"/>
@@ -22845,10 +22861,10 @@
       </c>
       <c r="K94" s="77"/>
       <c r="L94" s="78"/>
-      <c r="M94" s="79" t="s">
+      <c r="M94" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="N94" s="80"/>
+      <c r="N94" s="82"/>
       <c r="O94" s="53"/>
       <c r="P94" s="54"/>
       <c r="Q94" s="56"/>
@@ -22887,10 +22903,10 @@
       </c>
       <c r="K95" s="77"/>
       <c r="L95" s="78"/>
-      <c r="M95" s="81" t="s">
+      <c r="M95" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="N95" s="82"/>
+      <c r="N95" s="80"/>
       <c r="O95" s="53"/>
       <c r="P95" s="54"/>
       <c r="Q95" s="56"/>
@@ -22929,10 +22945,10 @@
       </c>
       <c r="K96" s="77"/>
       <c r="L96" s="78"/>
-      <c r="M96" s="81" t="s">
+      <c r="M96" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="N96" s="82"/>
+      <c r="N96" s="80"/>
       <c r="O96" s="53"/>
       <c r="P96" s="54"/>
       <c r="Q96" s="56"/>
@@ -23187,10 +23203,10 @@
       </c>
       <c r="K101" s="77"/>
       <c r="L101" s="78"/>
-      <c r="M101" s="79" t="s">
+      <c r="M101" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="N101" s="80"/>
+      <c r="N101" s="82"/>
       <c r="O101" s="53"/>
       <c r="P101" s="54"/>
       <c r="Q101" s="56"/>
@@ -23229,10 +23245,10 @@
       </c>
       <c r="K102" s="77"/>
       <c r="L102" s="78"/>
-      <c r="M102" s="81" t="s">
+      <c r="M102" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="N102" s="82"/>
+      <c r="N102" s="80"/>
       <c r="O102" s="53"/>
       <c r="P102" s="54"/>
       <c r="Q102" s="56"/>
@@ -23541,10 +23557,10 @@
       </c>
       <c r="K108" s="77"/>
       <c r="L108" s="78"/>
-      <c r="M108" s="79" t="s">
+      <c r="M108" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="N108" s="80"/>
+      <c r="N108" s="82"/>
       <c r="O108" s="53"/>
       <c r="P108" s="54"/>
       <c r="Q108" s="56"/>
@@ -23583,10 +23599,10 @@
       </c>
       <c r="K109" s="77"/>
       <c r="L109" s="78"/>
-      <c r="M109" s="81" t="s">
+      <c r="M109" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="N109" s="82"/>
+      <c r="N109" s="80"/>
       <c r="O109" s="53"/>
       <c r="P109" s="54"/>
       <c r="Q109" s="56"/>
@@ -23895,10 +23911,10 @@
       </c>
       <c r="K115" s="77"/>
       <c r="L115" s="78"/>
-      <c r="M115" s="79" t="s">
+      <c r="M115" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="N115" s="80"/>
+      <c r="N115" s="82"/>
       <c r="O115" s="53"/>
       <c r="P115" s="54"/>
       <c r="Q115" s="56"/>
@@ -23937,10 +23953,10 @@
       </c>
       <c r="K116" s="77"/>
       <c r="L116" s="78"/>
-      <c r="M116" s="81" t="s">
+      <c r="M116" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="N116" s="82"/>
+      <c r="N116" s="80"/>
       <c r="O116" s="53"/>
       <c r="P116" s="54"/>
       <c r="Q116" s="56"/>
@@ -24082,79 +24098,14 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="J113:L113"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="J117:L117"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="J118:L118"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="J114:L114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="J115:L115"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="J116:L116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="AD98:AF98"/>
-    <mergeCell ref="AD88:AF88"/>
-    <mergeCell ref="AD89:AF89"/>
-    <mergeCell ref="AD90:AF90"/>
-    <mergeCell ref="AD91:AF91"/>
-    <mergeCell ref="AD92:AF92"/>
-    <mergeCell ref="AD93:AF93"/>
-    <mergeCell ref="AD94:AF94"/>
-    <mergeCell ref="AD95:AF95"/>
-    <mergeCell ref="AD96:AF96"/>
-    <mergeCell ref="AD97:AF97"/>
+    <mergeCell ref="AD117:AF117"/>
+    <mergeCell ref="AD118:AF118"/>
+    <mergeCell ref="AD111:AF111"/>
+    <mergeCell ref="AD112:AF112"/>
+    <mergeCell ref="AD113:AF113"/>
+    <mergeCell ref="AD114:AF114"/>
+    <mergeCell ref="AD115:AF115"/>
+    <mergeCell ref="AD116:AF116"/>
     <mergeCell ref="AD110:AF110"/>
     <mergeCell ref="AD99:AF99"/>
     <mergeCell ref="AD100:AF100"/>
@@ -24167,14 +24118,79 @@
     <mergeCell ref="AD107:AF107"/>
     <mergeCell ref="AD108:AF108"/>
     <mergeCell ref="AD109:AF109"/>
-    <mergeCell ref="AD117:AF117"/>
-    <mergeCell ref="AD118:AF118"/>
-    <mergeCell ref="AD111:AF111"/>
-    <mergeCell ref="AD112:AF112"/>
-    <mergeCell ref="AD113:AF113"/>
-    <mergeCell ref="AD114:AF114"/>
-    <mergeCell ref="AD115:AF115"/>
-    <mergeCell ref="AD116:AF116"/>
+    <mergeCell ref="AD98:AF98"/>
+    <mergeCell ref="AD88:AF88"/>
+    <mergeCell ref="AD89:AF89"/>
+    <mergeCell ref="AD90:AF90"/>
+    <mergeCell ref="AD91:AF91"/>
+    <mergeCell ref="AD92:AF92"/>
+    <mergeCell ref="AD93:AF93"/>
+    <mergeCell ref="AD94:AF94"/>
+    <mergeCell ref="AD95:AF95"/>
+    <mergeCell ref="AD96:AF96"/>
+    <mergeCell ref="AD97:AF97"/>
+    <mergeCell ref="J118:L118"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="J115:L115"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="J116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="M90:N90"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24215,11 +24231,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -24307,7 +24323,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="64">
-        <f t="shared" ref="A3:A72" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A74" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -24728,22 +24744,24 @@
       <c r="C17" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="D17" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="65">
         <v>1</v>
       </c>
       <c r="I17" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
+        <v>192</v>
+      </c>
+      <c r="J17" s="62"/>
+      <c r="K17" s="65" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="18" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="64">
@@ -24756,22 +24774,24 @@
       <c r="C18" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
+      <c r="D18" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="65">
         <v>1</v>
       </c>
       <c r="I18" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
+        <v>192</v>
+      </c>
+      <c r="J18" s="62"/>
+      <c r="K18" s="65" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="19" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="64">
@@ -24779,26 +24799,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="65">
-        <v>1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F19" s="65"/>
       <c r="G19" s="65"/>
       <c r="H19" s="65">
         <v>1</v>
       </c>
       <c r="I19" s="65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" s="65"/>
       <c r="K19" s="65"/>
@@ -24809,30 +24827,26 @@
         <v>19</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F20" s="65"/>
-      <c r="G20" s="65">
-        <v>1</v>
-      </c>
+      <c r="G20" s="65"/>
       <c r="H20" s="65">
         <v>1</v>
       </c>
       <c r="I20" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="65" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J20" s="65"/>
       <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
@@ -24844,27 +24858,25 @@
         <v>26</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65">
+        <v>95</v>
+      </c>
+      <c r="F21" s="65">
         <v>1</v>
       </c>
+      <c r="G21" s="65"/>
       <c r="H21" s="65">
         <v>1</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="65" t="s">
-        <v>19</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J21" s="65"/>
       <c r="K21" s="65"/>
     </row>
     <row r="22" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
@@ -24876,23 +24888,27 @@
         <v>26</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="G22" s="65">
+        <v>1</v>
+      </c>
       <c r="H22" s="65">
         <v>1</v>
       </c>
       <c r="I22" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="65"/>
+        <v>17</v>
+      </c>
+      <c r="J22" s="65" t="s">
+        <v>19</v>
+      </c>
       <c r="K22" s="65"/>
     </row>
     <row r="23" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
@@ -24907,20 +24923,24 @@
         <v>27</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
+      <c r="G23" s="65">
+        <v>1</v>
+      </c>
       <c r="H23" s="65">
         <v>1</v>
       </c>
       <c r="I23" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="65"/>
+        <v>17</v>
+      </c>
+      <c r="J23" s="65" t="s">
+        <v>19</v>
+      </c>
       <c r="K23" s="65"/>
     </row>
     <row r="24" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
@@ -24935,10 +24955,10 @@
         <v>27</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E24" s="65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F24" s="65"/>
       <c r="G24" s="65"/>
@@ -24963,10 +24983,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F25" s="65"/>
       <c r="G25" s="65"/>
@@ -24991,10 +25011,10 @@
         <v>27</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="F26" s="65"/>
       <c r="G26" s="65"/>
@@ -25002,12 +25022,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="65" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="J26" s="65"/>
-      <c r="K26" s="65" t="s">
-        <v>191</v>
-      </c>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="64">
@@ -25021,10 +25039,10 @@
         <v>27</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
@@ -25032,7 +25050,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J27" s="65"/>
       <c r="K27" s="65"/>
@@ -25049,10 +25067,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="F28" s="65"/>
       <c r="G28" s="65"/>
@@ -25060,10 +25078,12 @@
         <v>1</v>
       </c>
       <c r="I28" s="65" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
+      <c r="K28" s="65" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="29" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="64">
@@ -25071,30 +25091,26 @@
         <v>28</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F29" s="65"/>
-      <c r="G29" s="65" t="s">
-        <v>37</v>
-      </c>
+      <c r="G29" s="65"/>
       <c r="H29" s="65">
         <v>1</v>
       </c>
       <c r="I29" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="65" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J29" s="65"/>
       <c r="K29" s="65"/>
     </row>
     <row r="30" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
@@ -25103,26 +25119,26 @@
         <v>29</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F30" s="65"/>
       <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
+      <c r="H30" s="65">
+        <v>1</v>
+      </c>
       <c r="I30" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="65" t="s">
-        <v>73</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J30" s="65"/>
       <c r="K30" s="65"/>
     </row>
     <row r="31" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
@@ -25137,23 +25153,25 @@
         <v>69</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
+      <c r="G31" s="65" t="s">
+        <v>37</v>
+      </c>
       <c r="H31" s="65">
         <v>1</v>
       </c>
       <c r="I31" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65" t="s">
-        <v>191</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J31" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="65"/>
     </row>
     <row r="32" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="64">
@@ -25167,20 +25185,20 @@
         <v>69</v>
       </c>
       <c r="D32" s="65" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E32" s="65" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F32" s="65"/>
       <c r="G32" s="65"/>
-      <c r="H32" s="65">
-        <v>1</v>
-      </c>
+      <c r="H32" s="65"/>
       <c r="I32" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" s="65"/>
+        <v>17</v>
+      </c>
+      <c r="J32" s="65" t="s">
+        <v>73</v>
+      </c>
       <c r="K32" s="65"/>
     </row>
     <row r="33" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
@@ -25195,10 +25213,10 @@
         <v>69</v>
       </c>
       <c r="D33" s="65" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="F33" s="65"/>
       <c r="G33" s="65"/>
@@ -25206,10 +25224,12 @@
         <v>1</v>
       </c>
       <c r="I33" s="65" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
+      <c r="K33" s="65" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="34" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="64">
@@ -25217,30 +25237,26 @@
         <v>33</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="E34" s="65" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="F34" s="65"/>
-      <c r="G34" s="65" t="s">
-        <v>37</v>
-      </c>
+      <c r="G34" s="65"/>
       <c r="H34" s="65">
         <v>1</v>
       </c>
       <c r="I34" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="65" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J34" s="65"/>
       <c r="K34" s="65"/>
     </row>
     <row r="35" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
@@ -25249,26 +25265,26 @@
         <v>34</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D35" s="65" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="E35" s="65" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F35" s="65"/>
       <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
+      <c r="H35" s="65">
+        <v>1</v>
+      </c>
       <c r="I35" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="65" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J35" s="65"/>
       <c r="K35" s="65"/>
     </row>
     <row r="36" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
@@ -25283,23 +25299,25 @@
         <v>91</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
+      <c r="G36" s="65" t="s">
+        <v>37</v>
+      </c>
       <c r="H36" s="65">
         <v>1</v>
       </c>
       <c r="I36" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65" t="s">
-        <v>191</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J36" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="65"/>
     </row>
     <row r="37" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="64">
@@ -25313,20 +25331,20 @@
         <v>91</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="F37" s="65"/>
       <c r="G37" s="65"/>
-      <c r="H37" s="65">
-        <v>1</v>
-      </c>
+      <c r="H37" s="65"/>
       <c r="I37" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="J37" s="65"/>
+        <v>17</v>
+      </c>
+      <c r="J37" s="65" t="s">
+        <v>41</v>
+      </c>
       <c r="K37" s="65"/>
     </row>
     <row r="38" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
@@ -25341,10 +25359,10 @@
         <v>91</v>
       </c>
       <c r="D38" s="65" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="F38" s="65"/>
       <c r="G38" s="65"/>
@@ -25352,10 +25370,12 @@
         <v>1</v>
       </c>
       <c r="I38" s="65" t="s">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
+      <c r="K38" s="65" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="39" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="64">
@@ -25363,28 +25383,24 @@
         <v>38</v>
       </c>
       <c r="B39" s="65" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="D39" s="65" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="F39" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G39" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="H39" s="65" t="s">
-        <v>184</v>
+        <v>23</v>
+      </c>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65">
+        <v>1</v>
       </c>
       <c r="I39" s="65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J39" s="65"/>
       <c r="K39" s="65"/>
@@ -25395,29 +25411,27 @@
         <v>39</v>
       </c>
       <c r="B40" s="65" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="D40" s="65" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="E40" s="65" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="F40" s="65"/>
       <c r="G40" s="65"/>
-      <c r="H40" s="65" t="s">
-        <v>184</v>
+      <c r="H40" s="65">
+        <v>1</v>
       </c>
       <c r="I40" s="65" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="J40" s="65"/>
-      <c r="K40" s="65" t="s">
-        <v>181</v>
-      </c>
+      <c r="K40" s="65"/>
     </row>
     <row r="41" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="64">
@@ -25428,25 +25442,27 @@
         <v>182</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E41" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
+        <v>195</v>
+      </c>
+      <c r="F41" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="65" t="s">
+        <v>184</v>
+      </c>
       <c r="H41" s="65" t="s">
         <v>184</v>
       </c>
       <c r="I41" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="65" t="s">
-        <v>184</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J41" s="65"/>
       <c r="K41" s="65"/>
     </row>
     <row r="42" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
@@ -25458,13 +25474,13 @@
         <v>182</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D42" s="65" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E42" s="65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F42" s="65"/>
       <c r="G42" s="65"/>
@@ -25472,13 +25488,11 @@
         <v>184</v>
       </c>
       <c r="I42" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="65" t="s">
-        <v>184</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J42" s="65"/>
       <c r="K42" s="65" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
@@ -25490,13 +25504,13 @@
         <v>182</v>
       </c>
       <c r="C43" s="65" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="F43" s="65"/>
       <c r="G43" s="65"/>
@@ -25504,9 +25518,11 @@
         <v>184</v>
       </c>
       <c r="I43" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="J43" s="65"/>
+        <v>17</v>
+      </c>
+      <c r="J43" s="65" t="s">
+        <v>184</v>
+      </c>
       <c r="K43" s="65"/>
     </row>
     <row r="44" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
@@ -25518,13 +25534,13 @@
         <v>182</v>
       </c>
       <c r="C44" s="65" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="E44" s="65" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="F44" s="65"/>
       <c r="G44" s="65"/>
@@ -25532,42 +25548,70 @@
         <v>184</v>
       </c>
       <c r="I44" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="J44" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="K44" s="65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="64">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B45" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="I45" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+    </row>
+    <row r="46" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="64">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
+      <c r="B46" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="I46" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="64">
@@ -25985,17 +26029,49 @@
       <c r="J72" s="62"/>
       <c r="K72" s="62"/>
     </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73" s="64">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" s="64">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="6" manualBreakCount="6">
     <brk id="8" max="16383" man="1"/>
-    <brk id="18" max="16383" man="1"/>
-    <brk id="28" max="16383" man="1"/>
-    <brk id="33" max="16383" man="1"/>
-    <brk id="38" max="16383" man="1"/>
-    <brk id="44" max="16383" man="1"/>
+    <brk id="20" max="16383" man="1"/>
+    <brk id="30" max="16383" man="1"/>
+    <brk id="35" max="16383" man="1"/>
+    <brk id="40" max="16383" man="1"/>
+    <brk id="46" max="16383" man="1"/>
   </rowBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF104B6-DDBE-4325-A0E1-9DEEBAB28BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D73C177-11C9-4704-8DC9-53D2B3769B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="405" windowWidth="20280" windowHeight="14505" activeTab="8" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
+    <workbookView xWindow="420" yWindow="1110" windowWidth="17895" windowHeight="14220" activeTab="2" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
   <sheets>
     <sheet name="遷移図" sheetId="1" r:id="rId1"/>
@@ -1907,16 +1907,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12121,7 +12121,9 @@
   </sheetPr>
   <dimension ref="A1:AY36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -22565,10 +22567,10 @@
       </c>
       <c r="K88" s="77"/>
       <c r="L88" s="78"/>
-      <c r="M88" s="79" t="s">
+      <c r="M88" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="N88" s="80"/>
+      <c r="N88" s="82"/>
       <c r="O88" s="53"/>
       <c r="P88" s="54"/>
       <c r="Q88" s="56"/>
@@ -22861,10 +22863,10 @@
       </c>
       <c r="K94" s="77"/>
       <c r="L94" s="78"/>
-      <c r="M94" s="81" t="s">
+      <c r="M94" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="N94" s="82"/>
+      <c r="N94" s="80"/>
       <c r="O94" s="53"/>
       <c r="P94" s="54"/>
       <c r="Q94" s="56"/>
@@ -22903,10 +22905,10 @@
       </c>
       <c r="K95" s="77"/>
       <c r="L95" s="78"/>
-      <c r="M95" s="79" t="s">
+      <c r="M95" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="N95" s="80"/>
+      <c r="N95" s="82"/>
       <c r="O95" s="53"/>
       <c r="P95" s="54"/>
       <c r="Q95" s="56"/>
@@ -22945,10 +22947,10 @@
       </c>
       <c r="K96" s="77"/>
       <c r="L96" s="78"/>
-      <c r="M96" s="79" t="s">
+      <c r="M96" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="N96" s="80"/>
+      <c r="N96" s="82"/>
       <c r="O96" s="53"/>
       <c r="P96" s="54"/>
       <c r="Q96" s="56"/>
@@ -23203,10 +23205,10 @@
       </c>
       <c r="K101" s="77"/>
       <c r="L101" s="78"/>
-      <c r="M101" s="81" t="s">
+      <c r="M101" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="N101" s="82"/>
+      <c r="N101" s="80"/>
       <c r="O101" s="53"/>
       <c r="P101" s="54"/>
       <c r="Q101" s="56"/>
@@ -23245,10 +23247,10 @@
       </c>
       <c r="K102" s="77"/>
       <c r="L102" s="78"/>
-      <c r="M102" s="79" t="s">
+      <c r="M102" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="N102" s="80"/>
+      <c r="N102" s="82"/>
       <c r="O102" s="53"/>
       <c r="P102" s="54"/>
       <c r="Q102" s="56"/>
@@ -23557,10 +23559,10 @@
       </c>
       <c r="K108" s="77"/>
       <c r="L108" s="78"/>
-      <c r="M108" s="81" t="s">
+      <c r="M108" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="N108" s="82"/>
+      <c r="N108" s="80"/>
       <c r="O108" s="53"/>
       <c r="P108" s="54"/>
       <c r="Q108" s="56"/>
@@ -23599,10 +23601,10 @@
       </c>
       <c r="K109" s="77"/>
       <c r="L109" s="78"/>
-      <c r="M109" s="79" t="s">
+      <c r="M109" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="N109" s="80"/>
+      <c r="N109" s="82"/>
       <c r="O109" s="53"/>
       <c r="P109" s="54"/>
       <c r="Q109" s="56"/>
@@ -23911,10 +23913,10 @@
       </c>
       <c r="K115" s="77"/>
       <c r="L115" s="78"/>
-      <c r="M115" s="81" t="s">
+      <c r="M115" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="N115" s="82"/>
+      <c r="N115" s="80"/>
       <c r="O115" s="53"/>
       <c r="P115" s="54"/>
       <c r="Q115" s="56"/>
@@ -23953,10 +23955,10 @@
       </c>
       <c r="K116" s="77"/>
       <c r="L116" s="78"/>
-      <c r="M116" s="79" t="s">
+      <c r="M116" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="N116" s="80"/>
+      <c r="N116" s="82"/>
       <c r="O116" s="53"/>
       <c r="P116" s="54"/>
       <c r="Q116" s="56"/>
@@ -24098,14 +24100,79 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="AD117:AF117"/>
-    <mergeCell ref="AD118:AF118"/>
-    <mergeCell ref="AD111:AF111"/>
-    <mergeCell ref="AD112:AF112"/>
-    <mergeCell ref="AD113:AF113"/>
-    <mergeCell ref="AD114:AF114"/>
-    <mergeCell ref="AD115:AF115"/>
-    <mergeCell ref="AD116:AF116"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="J118:L118"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="J115:L115"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="J116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="AD98:AF98"/>
+    <mergeCell ref="AD88:AF88"/>
+    <mergeCell ref="AD89:AF89"/>
+    <mergeCell ref="AD90:AF90"/>
+    <mergeCell ref="AD91:AF91"/>
+    <mergeCell ref="AD92:AF92"/>
+    <mergeCell ref="AD93:AF93"/>
+    <mergeCell ref="AD94:AF94"/>
+    <mergeCell ref="AD95:AF95"/>
+    <mergeCell ref="AD96:AF96"/>
+    <mergeCell ref="AD97:AF97"/>
     <mergeCell ref="AD110:AF110"/>
     <mergeCell ref="AD99:AF99"/>
     <mergeCell ref="AD100:AF100"/>
@@ -24118,79 +24185,14 @@
     <mergeCell ref="AD107:AF107"/>
     <mergeCell ref="AD108:AF108"/>
     <mergeCell ref="AD109:AF109"/>
-    <mergeCell ref="AD98:AF98"/>
-    <mergeCell ref="AD88:AF88"/>
-    <mergeCell ref="AD89:AF89"/>
-    <mergeCell ref="AD90:AF90"/>
-    <mergeCell ref="AD91:AF91"/>
-    <mergeCell ref="AD92:AF92"/>
-    <mergeCell ref="AD93:AF93"/>
-    <mergeCell ref="AD94:AF94"/>
-    <mergeCell ref="AD95:AF95"/>
-    <mergeCell ref="AD96:AF96"/>
-    <mergeCell ref="AD97:AF97"/>
-    <mergeCell ref="J118:L118"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="J114:L114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="J115:L115"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="J116:L116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="J113:L113"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="J117:L117"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="AD117:AF117"/>
+    <mergeCell ref="AD118:AF118"/>
+    <mergeCell ref="AD111:AF111"/>
+    <mergeCell ref="AD112:AF112"/>
+    <mergeCell ref="AD113:AF113"/>
+    <mergeCell ref="AD114:AF114"/>
+    <mergeCell ref="AD115:AF115"/>
+    <mergeCell ref="AD116:AF116"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24233,9 +24235,9 @@
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="E9" activeCellId="1" sqref="D19 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043B02D3-FDD8-416F-82D0-6FD6FCBCFA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB631A7D-DFCA-47D1-8F60-7B948A136002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="113">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -690,6 +690,13 @@
     <t>00</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>定時</t>
+    <rPh sb="0" eb="2">
+      <t>テイジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1304,6 +1311,9 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,20 +1323,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8417,9 +8424,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>定時</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反映</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8488,9 +8504,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>定時</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反映</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14260,7 +14285,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>定時</a:t>
+            <a:t>反映</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14330,9 +14355,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>定時</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反映</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14401,9 +14435,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>定時</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反映</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14472,9 +14515,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>定時</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反映</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14543,9 +14595,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>定時</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反映</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14614,9 +14675,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>定時</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反映</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14685,9 +14755,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>定時</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反映</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14756,9 +14835,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>定時</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反映</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14827,9 +14915,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>定時</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反映</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14898,9 +14995,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>定時</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反映</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14908,23 +15014,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="118" name="図 117">
+        <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C07A51F-A32A-BD59-0A66-295D382821AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550F3A8F-8121-CD90-18D4-040EB504C0F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14947,7 +15053,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2819400" y="4457700"/>
+          <a:off x="2857500" y="4610100"/>
           <a:ext cx="7629525" cy="9696450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18753,7 +18859,9 @@
   </sheetPr>
   <dimension ref="A1:AY71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -23337,8 +23445,8 @@
   </sheetPr>
   <dimension ref="A1:AY118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD90" sqref="BD90"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BF35" sqref="BF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -27469,7 +27577,7 @@
       <c r="AB87" s="67"/>
       <c r="AC87" s="67"/>
       <c r="AD87" s="66" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AE87" s="67"/>
       <c r="AF87" s="68"/>
@@ -27485,18 +27593,18 @@
       <c r="AL87" s="68"/>
     </row>
     <row r="88" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G88" s="71"/>
-      <c r="H88" s="72"/>
-      <c r="I88" s="73"/>
-      <c r="J88" s="71">
+      <c r="G88" s="72"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="74"/>
+      <c r="J88" s="72">
         <v>1</v>
       </c>
-      <c r="K88" s="72"/>
-      <c r="L88" s="73"/>
-      <c r="M88" s="74" t="s">
+      <c r="K88" s="73"/>
+      <c r="L88" s="74"/>
+      <c r="M88" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="N88" s="75"/>
+      <c r="N88" s="78"/>
       <c r="O88" s="53"/>
       <c r="P88" s="54"/>
       <c r="Q88" s="56"/>
@@ -27514,9 +27622,9 @@
       <c r="AA88" s="55"/>
       <c r="AB88" s="55"/>
       <c r="AC88" s="55"/>
-      <c r="AD88" s="71"/>
-      <c r="AE88" s="72"/>
-      <c r="AF88" s="73"/>
+      <c r="AD88" s="72"/>
+      <c r="AE88" s="73"/>
+      <c r="AF88" s="74"/>
       <c r="AG88" s="63" t="s">
         <v>103</v>
       </c>
@@ -27529,19 +27637,19 @@
       <c r="AL88" s="65"/>
     </row>
     <row r="89" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G89" s="71"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="73"/>
-      <c r="J89" s="71">
+      <c r="G89" s="72"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="74"/>
+      <c r="J89" s="72">
         <f>J88+1</f>
         <v>2</v>
       </c>
-      <c r="K89" s="72"/>
-      <c r="L89" s="73"/>
-      <c r="M89" s="71" t="s">
+      <c r="K89" s="73"/>
+      <c r="L89" s="74"/>
+      <c r="M89" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N89" s="73"/>
+      <c r="N89" s="74"/>
       <c r="O89" s="53"/>
       <c r="P89" s="54"/>
       <c r="Q89" s="56"/>
@@ -27563,9 +27671,9 @@
       <c r="AA89" s="55"/>
       <c r="AB89" s="55"/>
       <c r="AC89" s="55"/>
-      <c r="AD89" s="71"/>
-      <c r="AE89" s="72"/>
-      <c r="AF89" s="73"/>
+      <c r="AD89" s="72"/>
+      <c r="AE89" s="73"/>
+      <c r="AF89" s="74"/>
       <c r="AG89" s="63" t="s">
         <v>103</v>
       </c>
@@ -27578,19 +27686,19 @@
       <c r="AL89" s="65"/>
     </row>
     <row r="90" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G90" s="71"/>
-      <c r="H90" s="72"/>
-      <c r="I90" s="73"/>
-      <c r="J90" s="71">
+      <c r="G90" s="72"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="74"/>
+      <c r="J90" s="72">
         <f>J89+1</f>
         <v>3</v>
       </c>
-      <c r="K90" s="72"/>
-      <c r="L90" s="73"/>
-      <c r="M90" s="71" t="s">
+      <c r="K90" s="73"/>
+      <c r="L90" s="74"/>
+      <c r="M90" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="N90" s="73"/>
+      <c r="N90" s="74"/>
       <c r="O90" s="59"/>
       <c r="P90" s="60"/>
       <c r="Q90" s="61"/>
@@ -27612,9 +27720,9 @@
       <c r="AA90" s="55"/>
       <c r="AB90" s="55"/>
       <c r="AC90" s="55"/>
-      <c r="AD90" s="71"/>
-      <c r="AE90" s="72"/>
-      <c r="AF90" s="73"/>
+      <c r="AD90" s="72"/>
+      <c r="AE90" s="73"/>
+      <c r="AF90" s="74"/>
       <c r="AG90" s="63" t="s">
         <v>103</v>
       </c>
@@ -27627,19 +27735,19 @@
       <c r="AL90" s="65"/>
     </row>
     <row r="91" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G91" s="71"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="73"/>
-      <c r="J91" s="71">
+      <c r="G91" s="72"/>
+      <c r="H91" s="73"/>
+      <c r="I91" s="74"/>
+      <c r="J91" s="72">
         <f t="shared" ref="J91:J95" si="0">J90+1</f>
         <v>4</v>
       </c>
-      <c r="K91" s="72"/>
-      <c r="L91" s="73"/>
-      <c r="M91" s="71" t="s">
+      <c r="K91" s="73"/>
+      <c r="L91" s="74"/>
+      <c r="M91" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="N91" s="73"/>
+      <c r="N91" s="74"/>
       <c r="O91" s="63">
         <v>9</v>
       </c>
@@ -27669,9 +27777,9 @@
       </c>
       <c r="AB91" s="64"/>
       <c r="AC91" s="65"/>
-      <c r="AD91" s="71"/>
-      <c r="AE91" s="72"/>
-      <c r="AF91" s="73"/>
+      <c r="AD91" s="72"/>
+      <c r="AE91" s="73"/>
+      <c r="AF91" s="74"/>
       <c r="AG91" s="63" t="s">
         <v>103</v>
       </c>
@@ -27684,19 +27792,19 @@
       <c r="AL91" s="65"/>
     </row>
     <row r="92" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G92" s="71"/>
-      <c r="H92" s="72"/>
-      <c r="I92" s="73"/>
-      <c r="J92" s="71">
+      <c r="G92" s="72"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="74"/>
+      <c r="J92" s="72">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K92" s="72"/>
-      <c r="L92" s="73"/>
-      <c r="M92" s="71" t="s">
+      <c r="K92" s="73"/>
+      <c r="L92" s="74"/>
+      <c r="M92" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="N92" s="73"/>
+      <c r="N92" s="74"/>
       <c r="O92" s="63">
         <v>9</v>
       </c>
@@ -27726,9 +27834,9 @@
       </c>
       <c r="AB92" s="64"/>
       <c r="AC92" s="65"/>
-      <c r="AD92" s="71"/>
-      <c r="AE92" s="72"/>
-      <c r="AF92" s="73"/>
+      <c r="AD92" s="72"/>
+      <c r="AE92" s="73"/>
+      <c r="AF92" s="74"/>
       <c r="AG92" s="63" t="s">
         <v>103</v>
       </c>
@@ -27741,19 +27849,19 @@
       <c r="AL92" s="65"/>
     </row>
     <row r="93" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G93" s="71"/>
-      <c r="H93" s="72"/>
-      <c r="I93" s="73"/>
-      <c r="J93" s="71">
+      <c r="G93" s="72"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="74"/>
+      <c r="J93" s="72">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K93" s="72"/>
-      <c r="L93" s="73"/>
-      <c r="M93" s="71" t="s">
+      <c r="K93" s="73"/>
+      <c r="L93" s="74"/>
+      <c r="M93" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="N93" s="73"/>
+      <c r="N93" s="74"/>
       <c r="O93" s="63">
         <v>9</v>
       </c>
@@ -27783,9 +27891,9 @@
       </c>
       <c r="AB93" s="64"/>
       <c r="AC93" s="65"/>
-      <c r="AD93" s="71"/>
-      <c r="AE93" s="72"/>
-      <c r="AF93" s="73"/>
+      <c r="AD93" s="72"/>
+      <c r="AE93" s="73"/>
+      <c r="AF93" s="74"/>
       <c r="AG93" s="63" t="s">
         <v>106</v>
       </c>
@@ -27798,19 +27906,19 @@
       <c r="AL93" s="65"/>
     </row>
     <row r="94" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G94" s="71"/>
-      <c r="H94" s="72"/>
-      <c r="I94" s="73"/>
-      <c r="J94" s="71">
+      <c r="G94" s="72"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="74"/>
+      <c r="J94" s="72">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K94" s="72"/>
-      <c r="L94" s="73"/>
-      <c r="M94" s="76" t="s">
+      <c r="K94" s="73"/>
+      <c r="L94" s="74"/>
+      <c r="M94" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="N94" s="77"/>
+      <c r="N94" s="76"/>
       <c r="O94" s="53"/>
       <c r="P94" s="54"/>
       <c r="Q94" s="56"/>
@@ -27828,9 +27936,9 @@
       <c r="AA94" s="55"/>
       <c r="AB94" s="55"/>
       <c r="AC94" s="55"/>
-      <c r="AD94" s="71"/>
-      <c r="AE94" s="72"/>
-      <c r="AF94" s="73"/>
+      <c r="AD94" s="72"/>
+      <c r="AE94" s="73"/>
+      <c r="AF94" s="74"/>
       <c r="AG94" s="63" t="s">
         <v>103</v>
       </c>
@@ -27843,19 +27951,19 @@
       <c r="AL94" s="65"/>
     </row>
     <row r="95" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G95" s="71"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="73"/>
-      <c r="J95" s="71">
+      <c r="G95" s="72"/>
+      <c r="H95" s="73"/>
+      <c r="I95" s="74"/>
+      <c r="J95" s="72">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K95" s="72"/>
-      <c r="L95" s="73"/>
-      <c r="M95" s="74" t="s">
+      <c r="K95" s="73"/>
+      <c r="L95" s="74"/>
+      <c r="M95" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="N95" s="75"/>
+      <c r="N95" s="78"/>
       <c r="O95" s="53"/>
       <c r="P95" s="54"/>
       <c r="Q95" s="56"/>
@@ -27873,9 +27981,9 @@
       <c r="AA95" s="55"/>
       <c r="AB95" s="55"/>
       <c r="AC95" s="55"/>
-      <c r="AD95" s="71"/>
-      <c r="AE95" s="72"/>
-      <c r="AF95" s="73"/>
+      <c r="AD95" s="72"/>
+      <c r="AE95" s="73"/>
+      <c r="AF95" s="74"/>
       <c r="AG95" s="63" t="s">
         <v>103</v>
       </c>
@@ -27888,19 +27996,19 @@
       <c r="AL95" s="65"/>
     </row>
     <row r="96" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G96" s="71"/>
-      <c r="H96" s="72"/>
-      <c r="I96" s="73"/>
-      <c r="J96" s="71">
+      <c r="G96" s="72"/>
+      <c r="H96" s="73"/>
+      <c r="I96" s="74"/>
+      <c r="J96" s="72">
         <f t="shared" ref="J96:J109" si="1">J95+1</f>
         <v>9</v>
       </c>
-      <c r="K96" s="72"/>
-      <c r="L96" s="73"/>
-      <c r="M96" s="74" t="s">
+      <c r="K96" s="73"/>
+      <c r="L96" s="74"/>
+      <c r="M96" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="N96" s="75"/>
+      <c r="N96" s="78"/>
       <c r="O96" s="53"/>
       <c r="P96" s="54"/>
       <c r="Q96" s="56"/>
@@ -27918,9 +28026,9 @@
       <c r="AA96" s="55"/>
       <c r="AB96" s="55"/>
       <c r="AC96" s="55"/>
-      <c r="AD96" s="71"/>
-      <c r="AE96" s="72"/>
-      <c r="AF96" s="73"/>
+      <c r="AD96" s="72"/>
+      <c r="AE96" s="73"/>
+      <c r="AF96" s="74"/>
       <c r="AG96" s="63" t="s">
         <v>103</v>
       </c>
@@ -27933,19 +28041,19 @@
       <c r="AL96" s="65"/>
     </row>
     <row r="97" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G97" s="71"/>
-      <c r="H97" s="72"/>
-      <c r="I97" s="73"/>
-      <c r="J97" s="71">
+      <c r="G97" s="72"/>
+      <c r="H97" s="73"/>
+      <c r="I97" s="74"/>
+      <c r="J97" s="72">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K97" s="72"/>
-      <c r="L97" s="73"/>
-      <c r="M97" s="71" t="s">
+      <c r="K97" s="73"/>
+      <c r="L97" s="74"/>
+      <c r="M97" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="N97" s="73"/>
+      <c r="N97" s="74"/>
       <c r="O97" s="63">
         <v>9</v>
       </c>
@@ -27975,9 +28083,9 @@
       </c>
       <c r="AB97" s="64"/>
       <c r="AC97" s="65"/>
-      <c r="AD97" s="71"/>
-      <c r="AE97" s="72"/>
-      <c r="AF97" s="73"/>
+      <c r="AD97" s="72"/>
+      <c r="AE97" s="73"/>
+      <c r="AF97" s="74"/>
       <c r="AG97" s="63" t="s">
         <v>108</v>
       </c>
@@ -27990,19 +28098,19 @@
       <c r="AL97" s="65"/>
     </row>
     <row r="98" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G98" s="71"/>
-      <c r="H98" s="72"/>
-      <c r="I98" s="73"/>
-      <c r="J98" s="71">
+      <c r="G98" s="72"/>
+      <c r="H98" s="73"/>
+      <c r="I98" s="74"/>
+      <c r="J98" s="72">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K98" s="72"/>
-      <c r="L98" s="73"/>
-      <c r="M98" s="71" t="s">
+      <c r="K98" s="73"/>
+      <c r="L98" s="74"/>
+      <c r="M98" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="N98" s="73"/>
+      <c r="N98" s="74"/>
       <c r="O98" s="63">
         <v>9</v>
       </c>
@@ -28032,9 +28140,9 @@
       </c>
       <c r="AB98" s="64"/>
       <c r="AC98" s="65"/>
-      <c r="AD98" s="71"/>
-      <c r="AE98" s="72"/>
-      <c r="AF98" s="73"/>
+      <c r="AD98" s="72"/>
+      <c r="AE98" s="73"/>
+      <c r="AF98" s="74"/>
       <c r="AG98" s="63" t="s">
         <v>105</v>
       </c>
@@ -28047,19 +28155,19 @@
       <c r="AL98" s="65"/>
     </row>
     <row r="99" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G99" s="71"/>
-      <c r="H99" s="72"/>
-      <c r="I99" s="73"/>
-      <c r="J99" s="71">
+      <c r="G99" s="72"/>
+      <c r="H99" s="73"/>
+      <c r="I99" s="74"/>
+      <c r="J99" s="72">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K99" s="72"/>
-      <c r="L99" s="73"/>
-      <c r="M99" s="71" t="s">
+      <c r="K99" s="73"/>
+      <c r="L99" s="74"/>
+      <c r="M99" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="N99" s="73"/>
+      <c r="N99" s="74"/>
       <c r="O99" s="63">
         <v>9</v>
       </c>
@@ -28089,9 +28197,9 @@
       </c>
       <c r="AB99" s="64"/>
       <c r="AC99" s="65"/>
-      <c r="AD99" s="71"/>
-      <c r="AE99" s="72"/>
-      <c r="AF99" s="73"/>
+      <c r="AD99" s="72"/>
+      <c r="AE99" s="73"/>
+      <c r="AF99" s="74"/>
       <c r="AG99" s="63" t="s">
         <v>105</v>
       </c>
@@ -28104,19 +28212,19 @@
       <c r="AL99" s="65"/>
     </row>
     <row r="100" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G100" s="71"/>
-      <c r="H100" s="72"/>
-      <c r="I100" s="73"/>
-      <c r="J100" s="71">
+      <c r="G100" s="72"/>
+      <c r="H100" s="73"/>
+      <c r="I100" s="74"/>
+      <c r="J100" s="72">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K100" s="72"/>
-      <c r="L100" s="73"/>
-      <c r="M100" s="71" t="s">
+      <c r="K100" s="73"/>
+      <c r="L100" s="74"/>
+      <c r="M100" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="N100" s="73"/>
+      <c r="N100" s="74"/>
       <c r="O100" s="63">
         <v>9</v>
       </c>
@@ -28146,9 +28254,9 @@
       </c>
       <c r="AB100" s="64"/>
       <c r="AC100" s="65"/>
-      <c r="AD100" s="71"/>
-      <c r="AE100" s="72"/>
-      <c r="AF100" s="73"/>
+      <c r="AD100" s="72"/>
+      <c r="AE100" s="73"/>
+      <c r="AF100" s="74"/>
       <c r="AG100" s="63" t="s">
         <v>105</v>
       </c>
@@ -28161,19 +28269,19 @@
       <c r="AL100" s="65"/>
     </row>
     <row r="101" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G101" s="71"/>
-      <c r="H101" s="72"/>
-      <c r="I101" s="73"/>
-      <c r="J101" s="71">
+      <c r="G101" s="72"/>
+      <c r="H101" s="73"/>
+      <c r="I101" s="74"/>
+      <c r="J101" s="72">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K101" s="72"/>
-      <c r="L101" s="73"/>
-      <c r="M101" s="76" t="s">
+      <c r="K101" s="73"/>
+      <c r="L101" s="74"/>
+      <c r="M101" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="N101" s="77"/>
+      <c r="N101" s="76"/>
       <c r="O101" s="53"/>
       <c r="P101" s="54"/>
       <c r="Q101" s="56"/>
@@ -28191,9 +28299,9 @@
       <c r="AA101" s="55"/>
       <c r="AB101" s="55"/>
       <c r="AC101" s="55"/>
-      <c r="AD101" s="71"/>
-      <c r="AE101" s="72"/>
-      <c r="AF101" s="73"/>
+      <c r="AD101" s="72"/>
+      <c r="AE101" s="73"/>
+      <c r="AF101" s="74"/>
       <c r="AG101" s="63" t="s">
         <v>103</v>
       </c>
@@ -28206,19 +28314,19 @@
       <c r="AL101" s="65"/>
     </row>
     <row r="102" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G102" s="71"/>
-      <c r="H102" s="72"/>
-      <c r="I102" s="73"/>
-      <c r="J102" s="71">
+      <c r="G102" s="72"/>
+      <c r="H102" s="73"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="72">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K102" s="72"/>
-      <c r="L102" s="73"/>
-      <c r="M102" s="74" t="s">
+      <c r="K102" s="73"/>
+      <c r="L102" s="74"/>
+      <c r="M102" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="N102" s="75"/>
+      <c r="N102" s="78"/>
       <c r="O102" s="53"/>
       <c r="P102" s="54"/>
       <c r="Q102" s="56"/>
@@ -28236,9 +28344,9 @@
       <c r="AA102" s="55"/>
       <c r="AB102" s="55"/>
       <c r="AC102" s="55"/>
-      <c r="AD102" s="71"/>
-      <c r="AE102" s="72"/>
-      <c r="AF102" s="73"/>
+      <c r="AD102" s="72"/>
+      <c r="AE102" s="73"/>
+      <c r="AF102" s="74"/>
       <c r="AG102" s="63" t="s">
         <v>103</v>
       </c>
@@ -28251,19 +28359,19 @@
       <c r="AL102" s="65"/>
     </row>
     <row r="103" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G103" s="71"/>
-      <c r="H103" s="72"/>
-      <c r="I103" s="73"/>
-      <c r="J103" s="71">
+      <c r="G103" s="72"/>
+      <c r="H103" s="73"/>
+      <c r="I103" s="74"/>
+      <c r="J103" s="72">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K103" s="72"/>
-      <c r="L103" s="73"/>
-      <c r="M103" s="71" t="s">
+      <c r="K103" s="73"/>
+      <c r="L103" s="74"/>
+      <c r="M103" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N103" s="73"/>
+      <c r="N103" s="74"/>
       <c r="O103" s="63">
         <v>9</v>
       </c>
@@ -28293,9 +28401,9 @@
       </c>
       <c r="AB103" s="64"/>
       <c r="AC103" s="65"/>
-      <c r="AD103" s="71"/>
-      <c r="AE103" s="72"/>
-      <c r="AF103" s="73"/>
+      <c r="AD103" s="72"/>
+      <c r="AE103" s="73"/>
+      <c r="AF103" s="74"/>
       <c r="AG103" s="63" t="s">
         <v>105</v>
       </c>
@@ -28308,19 +28416,19 @@
       <c r="AL103" s="65"/>
     </row>
     <row r="104" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G104" s="71"/>
-      <c r="H104" s="72"/>
-      <c r="I104" s="73"/>
-      <c r="J104" s="71">
+      <c r="G104" s="72"/>
+      <c r="H104" s="73"/>
+      <c r="I104" s="74"/>
+      <c r="J104" s="72">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K104" s="72"/>
-      <c r="L104" s="73"/>
-      <c r="M104" s="71" t="s">
+      <c r="K104" s="73"/>
+      <c r="L104" s="74"/>
+      <c r="M104" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="N104" s="73"/>
+      <c r="N104" s="74"/>
       <c r="O104" s="63">
         <v>9</v>
       </c>
@@ -28350,9 +28458,9 @@
       </c>
       <c r="AB104" s="64"/>
       <c r="AC104" s="65"/>
-      <c r="AD104" s="71"/>
-      <c r="AE104" s="72"/>
-      <c r="AF104" s="73"/>
+      <c r="AD104" s="72"/>
+      <c r="AE104" s="73"/>
+      <c r="AF104" s="74"/>
       <c r="AG104" s="63" t="s">
         <v>105</v>
       </c>
@@ -28365,19 +28473,19 @@
       <c r="AL104" s="65"/>
     </row>
     <row r="105" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G105" s="71"/>
-      <c r="H105" s="72"/>
-      <c r="I105" s="73"/>
-      <c r="J105" s="71">
+      <c r="G105" s="72"/>
+      <c r="H105" s="73"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="72">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K105" s="72"/>
-      <c r="L105" s="73"/>
-      <c r="M105" s="71" t="s">
+      <c r="K105" s="73"/>
+      <c r="L105" s="74"/>
+      <c r="M105" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="N105" s="73"/>
+      <c r="N105" s="74"/>
       <c r="O105" s="63">
         <v>9</v>
       </c>
@@ -28407,9 +28515,9 @@
       </c>
       <c r="AB105" s="64"/>
       <c r="AC105" s="65"/>
-      <c r="AD105" s="71"/>
-      <c r="AE105" s="72"/>
-      <c r="AF105" s="73"/>
+      <c r="AD105" s="72"/>
+      <c r="AE105" s="73"/>
+      <c r="AF105" s="74"/>
       <c r="AG105" s="63" t="s">
         <v>105</v>
       </c>
@@ -28422,19 +28530,19 @@
       <c r="AL105" s="65"/>
     </row>
     <row r="106" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G106" s="71"/>
-      <c r="H106" s="72"/>
-      <c r="I106" s="73"/>
-      <c r="J106" s="71">
+      <c r="G106" s="72"/>
+      <c r="H106" s="73"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="72">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K106" s="72"/>
-      <c r="L106" s="73"/>
-      <c r="M106" s="71" t="s">
+      <c r="K106" s="73"/>
+      <c r="L106" s="74"/>
+      <c r="M106" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="N106" s="73"/>
+      <c r="N106" s="74"/>
       <c r="O106" s="63">
         <v>9</v>
       </c>
@@ -28464,9 +28572,9 @@
       </c>
       <c r="AB106" s="64"/>
       <c r="AC106" s="65"/>
-      <c r="AD106" s="71"/>
-      <c r="AE106" s="72"/>
-      <c r="AF106" s="73"/>
+      <c r="AD106" s="72"/>
+      <c r="AE106" s="73"/>
+      <c r="AF106" s="74"/>
       <c r="AG106" s="63" t="s">
         <v>105</v>
       </c>
@@ -28479,19 +28587,19 @@
       <c r="AL106" s="65"/>
     </row>
     <row r="107" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G107" s="71"/>
-      <c r="H107" s="72"/>
-      <c r="I107" s="73"/>
-      <c r="J107" s="71">
+      <c r="G107" s="72"/>
+      <c r="H107" s="73"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="72">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K107" s="72"/>
-      <c r="L107" s="73"/>
-      <c r="M107" s="71" t="s">
+      <c r="K107" s="73"/>
+      <c r="L107" s="74"/>
+      <c r="M107" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="N107" s="73"/>
+      <c r="N107" s="74"/>
       <c r="O107" s="63">
         <v>9</v>
       </c>
@@ -28521,9 +28629,9 @@
       </c>
       <c r="AB107" s="64"/>
       <c r="AC107" s="65"/>
-      <c r="AD107" s="71"/>
-      <c r="AE107" s="72"/>
-      <c r="AF107" s="73"/>
+      <c r="AD107" s="72"/>
+      <c r="AE107" s="73"/>
+      <c r="AF107" s="74"/>
       <c r="AG107" s="63" t="s">
         <v>105</v>
       </c>
@@ -28536,19 +28644,19 @@
       <c r="AL107" s="65"/>
     </row>
     <row r="108" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G108" s="71"/>
-      <c r="H108" s="72"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="71">
+      <c r="G108" s="72"/>
+      <c r="H108" s="73"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="72">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K108" s="72"/>
-      <c r="L108" s="73"/>
-      <c r="M108" s="76" t="s">
+      <c r="K108" s="73"/>
+      <c r="L108" s="74"/>
+      <c r="M108" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="N108" s="77"/>
+      <c r="N108" s="76"/>
       <c r="O108" s="53"/>
       <c r="P108" s="54"/>
       <c r="Q108" s="56"/>
@@ -28566,9 +28674,9 @@
       <c r="AA108" s="55"/>
       <c r="AB108" s="55"/>
       <c r="AC108" s="55"/>
-      <c r="AD108" s="71"/>
-      <c r="AE108" s="72"/>
-      <c r="AF108" s="73"/>
+      <c r="AD108" s="72"/>
+      <c r="AE108" s="73"/>
+      <c r="AF108" s="74"/>
       <c r="AG108" s="63" t="s">
         <v>103</v>
       </c>
@@ -28581,19 +28689,19 @@
       <c r="AL108" s="65"/>
     </row>
     <row r="109" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G109" s="71"/>
-      <c r="H109" s="72"/>
-      <c r="I109" s="73"/>
-      <c r="J109" s="71">
+      <c r="G109" s="72"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="72">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K109" s="72"/>
-      <c r="L109" s="73"/>
-      <c r="M109" s="74" t="s">
+      <c r="K109" s="73"/>
+      <c r="L109" s="74"/>
+      <c r="M109" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="N109" s="75"/>
+      <c r="N109" s="78"/>
       <c r="O109" s="53"/>
       <c r="P109" s="54"/>
       <c r="Q109" s="56"/>
@@ -28611,9 +28719,9 @@
       <c r="AA109" s="55"/>
       <c r="AB109" s="55"/>
       <c r="AC109" s="55"/>
-      <c r="AD109" s="71"/>
-      <c r="AE109" s="72"/>
-      <c r="AF109" s="73"/>
+      <c r="AD109" s="72"/>
+      <c r="AE109" s="73"/>
+      <c r="AF109" s="74"/>
       <c r="AG109" s="63" t="s">
         <v>103</v>
       </c>
@@ -28626,19 +28734,19 @@
       <c r="AL109" s="65"/>
     </row>
     <row r="110" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G110" s="71"/>
-      <c r="H110" s="72"/>
-      <c r="I110" s="73"/>
-      <c r="J110" s="71">
+      <c r="G110" s="72"/>
+      <c r="H110" s="73"/>
+      <c r="I110" s="74"/>
+      <c r="J110" s="72">
         <f t="shared" ref="J110:J118" si="2">J109+1</f>
         <v>23</v>
       </c>
-      <c r="K110" s="72"/>
-      <c r="L110" s="73"/>
-      <c r="M110" s="71" t="s">
+      <c r="K110" s="73"/>
+      <c r="L110" s="74"/>
+      <c r="M110" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N110" s="73"/>
+      <c r="N110" s="74"/>
       <c r="O110" s="63">
         <v>9</v>
       </c>
@@ -28668,9 +28776,9 @@
       </c>
       <c r="AB110" s="64"/>
       <c r="AC110" s="65"/>
-      <c r="AD110" s="71"/>
-      <c r="AE110" s="72"/>
-      <c r="AF110" s="73"/>
+      <c r="AD110" s="72"/>
+      <c r="AE110" s="73"/>
+      <c r="AF110" s="74"/>
       <c r="AG110" s="63" t="s">
         <v>105</v>
       </c>
@@ -28683,19 +28791,19 @@
       <c r="AL110" s="65"/>
     </row>
     <row r="111" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G111" s="71"/>
-      <c r="H111" s="72"/>
-      <c r="I111" s="73"/>
-      <c r="J111" s="71">
+      <c r="G111" s="72"/>
+      <c r="H111" s="73"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="72">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="K111" s="72"/>
-      <c r="L111" s="73"/>
-      <c r="M111" s="71" t="s">
+      <c r="K111" s="73"/>
+      <c r="L111" s="74"/>
+      <c r="M111" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="N111" s="73"/>
+      <c r="N111" s="74"/>
       <c r="O111" s="63">
         <v>9</v>
       </c>
@@ -28725,9 +28833,9 @@
       </c>
       <c r="AB111" s="64"/>
       <c r="AC111" s="65"/>
-      <c r="AD111" s="71"/>
-      <c r="AE111" s="72"/>
-      <c r="AF111" s="73"/>
+      <c r="AD111" s="72"/>
+      <c r="AE111" s="73"/>
+      <c r="AF111" s="74"/>
       <c r="AG111" s="63" t="s">
         <v>105</v>
       </c>
@@ -28740,19 +28848,19 @@
       <c r="AL111" s="65"/>
     </row>
     <row r="112" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G112" s="71"/>
-      <c r="H112" s="72"/>
-      <c r="I112" s="73"/>
-      <c r="J112" s="71">
+      <c r="G112" s="72"/>
+      <c r="H112" s="73"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="72">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K112" s="72"/>
-      <c r="L112" s="73"/>
-      <c r="M112" s="71" t="s">
+      <c r="K112" s="73"/>
+      <c r="L112" s="74"/>
+      <c r="M112" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="N112" s="73"/>
+      <c r="N112" s="74"/>
       <c r="O112" s="63">
         <v>9</v>
       </c>
@@ -28782,9 +28890,9 @@
       </c>
       <c r="AB112" s="64"/>
       <c r="AC112" s="65"/>
-      <c r="AD112" s="71"/>
-      <c r="AE112" s="72"/>
-      <c r="AF112" s="73"/>
+      <c r="AD112" s="72"/>
+      <c r="AE112" s="73"/>
+      <c r="AF112" s="74"/>
       <c r="AG112" s="63" t="s">
         <v>105</v>
       </c>
@@ -28797,19 +28905,19 @@
       <c r="AL112" s="65"/>
     </row>
     <row r="113" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G113" s="71"/>
-      <c r="H113" s="72"/>
-      <c r="I113" s="73"/>
-      <c r="J113" s="71">
+      <c r="G113" s="72"/>
+      <c r="H113" s="73"/>
+      <c r="I113" s="74"/>
+      <c r="J113" s="72">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="K113" s="72"/>
-      <c r="L113" s="73"/>
-      <c r="M113" s="71" t="s">
+      <c r="K113" s="73"/>
+      <c r="L113" s="74"/>
+      <c r="M113" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="N113" s="73"/>
+      <c r="N113" s="74"/>
       <c r="O113" s="63">
         <v>9</v>
       </c>
@@ -28839,9 +28947,9 @@
       </c>
       <c r="AB113" s="64"/>
       <c r="AC113" s="65"/>
-      <c r="AD113" s="71"/>
-      <c r="AE113" s="72"/>
-      <c r="AF113" s="73"/>
+      <c r="AD113" s="72"/>
+      <c r="AE113" s="73"/>
+      <c r="AF113" s="74"/>
       <c r="AG113" s="63" t="s">
         <v>105</v>
       </c>
@@ -28854,19 +28962,19 @@
       <c r="AL113" s="65"/>
     </row>
     <row r="114" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G114" s="71"/>
-      <c r="H114" s="72"/>
-      <c r="I114" s="73"/>
-      <c r="J114" s="71">
+      <c r="G114" s="72"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="74"/>
+      <c r="J114" s="72">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="K114" s="72"/>
-      <c r="L114" s="73"/>
-      <c r="M114" s="71" t="s">
+      <c r="K114" s="73"/>
+      <c r="L114" s="74"/>
+      <c r="M114" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="N114" s="73"/>
+      <c r="N114" s="74"/>
       <c r="O114" s="63">
         <v>9</v>
       </c>
@@ -28896,9 +29004,9 @@
       </c>
       <c r="AB114" s="64"/>
       <c r="AC114" s="65"/>
-      <c r="AD114" s="71"/>
-      <c r="AE114" s="72"/>
-      <c r="AF114" s="73"/>
+      <c r="AD114" s="72"/>
+      <c r="AE114" s="73"/>
+      <c r="AF114" s="74"/>
       <c r="AG114" s="63" t="s">
         <v>105</v>
       </c>
@@ -28911,19 +29019,19 @@
       <c r="AL114" s="65"/>
     </row>
     <row r="115" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G115" s="71"/>
-      <c r="H115" s="72"/>
-      <c r="I115" s="73"/>
-      <c r="J115" s="71">
+      <c r="G115" s="72"/>
+      <c r="H115" s="73"/>
+      <c r="I115" s="74"/>
+      <c r="J115" s="72">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K115" s="72"/>
-      <c r="L115" s="73"/>
-      <c r="M115" s="76" t="s">
+      <c r="K115" s="73"/>
+      <c r="L115" s="74"/>
+      <c r="M115" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="N115" s="77"/>
+      <c r="N115" s="76"/>
       <c r="O115" s="53"/>
       <c r="P115" s="54"/>
       <c r="Q115" s="56"/>
@@ -28941,9 +29049,9 @@
       <c r="AA115" s="55"/>
       <c r="AB115" s="55"/>
       <c r="AC115" s="55"/>
-      <c r="AD115" s="71"/>
-      <c r="AE115" s="72"/>
-      <c r="AF115" s="73"/>
+      <c r="AD115" s="72"/>
+      <c r="AE115" s="73"/>
+      <c r="AF115" s="74"/>
       <c r="AG115" s="63" t="s">
         <v>103</v>
       </c>
@@ -28956,19 +29064,19 @@
       <c r="AL115" s="65"/>
     </row>
     <row r="116" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G116" s="71"/>
-      <c r="H116" s="72"/>
-      <c r="I116" s="73"/>
-      <c r="J116" s="71">
+      <c r="G116" s="72"/>
+      <c r="H116" s="73"/>
+      <c r="I116" s="74"/>
+      <c r="J116" s="72">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="K116" s="72"/>
-      <c r="L116" s="73"/>
-      <c r="M116" s="74" t="s">
+      <c r="K116" s="73"/>
+      <c r="L116" s="74"/>
+      <c r="M116" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="N116" s="75"/>
+      <c r="N116" s="78"/>
       <c r="O116" s="53"/>
       <c r="P116" s="54"/>
       <c r="Q116" s="56"/>
@@ -28986,9 +29094,9 @@
       <c r="AA116" s="55"/>
       <c r="AB116" s="55"/>
       <c r="AC116" s="55"/>
-      <c r="AD116" s="71"/>
-      <c r="AE116" s="72"/>
-      <c r="AF116" s="73"/>
+      <c r="AD116" s="72"/>
+      <c r="AE116" s="73"/>
+      <c r="AF116" s="74"/>
       <c r="AG116" s="63" t="s">
         <v>103</v>
       </c>
@@ -29001,19 +29109,19 @@
       <c r="AL116" s="65"/>
     </row>
     <row r="117" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G117" s="71"/>
-      <c r="H117" s="72"/>
-      <c r="I117" s="73"/>
-      <c r="J117" s="71">
+      <c r="G117" s="72"/>
+      <c r="H117" s="73"/>
+      <c r="I117" s="74"/>
+      <c r="J117" s="72">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K117" s="72"/>
-      <c r="L117" s="73"/>
-      <c r="M117" s="71" t="s">
+      <c r="K117" s="73"/>
+      <c r="L117" s="74"/>
+      <c r="M117" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="N117" s="73"/>
+      <c r="N117" s="74"/>
       <c r="O117" s="63">
         <v>9</v>
       </c>
@@ -29043,9 +29151,9 @@
       </c>
       <c r="AB117" s="64"/>
       <c r="AC117" s="65"/>
-      <c r="AD117" s="71"/>
-      <c r="AE117" s="72"/>
-      <c r="AF117" s="73"/>
+      <c r="AD117" s="72"/>
+      <c r="AE117" s="73"/>
+      <c r="AF117" s="74"/>
       <c r="AG117" s="63" t="s">
         <v>105</v>
       </c>
@@ -29058,19 +29166,19 @@
       <c r="AL117" s="65"/>
     </row>
     <row r="118" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G118" s="71"/>
-      <c r="H118" s="72"/>
-      <c r="I118" s="73"/>
-      <c r="J118" s="71">
+      <c r="G118" s="72"/>
+      <c r="H118" s="73"/>
+      <c r="I118" s="74"/>
+      <c r="J118" s="72">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K118" s="72"/>
-      <c r="L118" s="73"/>
-      <c r="M118" s="71" t="s">
+      <c r="K118" s="73"/>
+      <c r="L118" s="74"/>
+      <c r="M118" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="N118" s="73"/>
+      <c r="N118" s="74"/>
       <c r="O118" s="63">
         <v>9</v>
       </c>
@@ -29100,9 +29208,9 @@
       </c>
       <c r="AB118" s="64"/>
       <c r="AC118" s="65"/>
-      <c r="AD118" s="71"/>
-      <c r="AE118" s="72"/>
-      <c r="AF118" s="73"/>
+      <c r="AD118" s="72"/>
+      <c r="AE118" s="73"/>
+      <c r="AF118" s="74"/>
       <c r="AG118" s="63" t="s">
         <v>105</v>
       </c>
@@ -29116,68 +29224,54 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="AD117:AF117"/>
-    <mergeCell ref="AD118:AF118"/>
-    <mergeCell ref="AD111:AF111"/>
-    <mergeCell ref="AD112:AF112"/>
-    <mergeCell ref="AD113:AF113"/>
-    <mergeCell ref="AD114:AF114"/>
-    <mergeCell ref="AD115:AF115"/>
-    <mergeCell ref="AD116:AF116"/>
-    <mergeCell ref="AD110:AF110"/>
-    <mergeCell ref="AD99:AF99"/>
-    <mergeCell ref="AD100:AF100"/>
-    <mergeCell ref="AD101:AF101"/>
-    <mergeCell ref="AD102:AF102"/>
-    <mergeCell ref="AD103:AF103"/>
-    <mergeCell ref="AD104:AF104"/>
-    <mergeCell ref="AD105:AF105"/>
-    <mergeCell ref="AD106:AF106"/>
-    <mergeCell ref="AD107:AF107"/>
-    <mergeCell ref="AD108:AF108"/>
-    <mergeCell ref="AD109:AF109"/>
-    <mergeCell ref="AD98:AF98"/>
-    <mergeCell ref="AD88:AF88"/>
-    <mergeCell ref="AD89:AF89"/>
-    <mergeCell ref="AD90:AF90"/>
-    <mergeCell ref="AD91:AF91"/>
-    <mergeCell ref="AD92:AF92"/>
-    <mergeCell ref="AD93:AF93"/>
-    <mergeCell ref="AD94:AF94"/>
-    <mergeCell ref="AD95:AF95"/>
-    <mergeCell ref="AD96:AF96"/>
-    <mergeCell ref="AD97:AF97"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="M108:N108"/>
     <mergeCell ref="J118:L118"/>
     <mergeCell ref="M118:N118"/>
     <mergeCell ref="J114:L114"/>
@@ -29192,54 +29286,68 @@
     <mergeCell ref="M113:N113"/>
     <mergeCell ref="J117:L117"/>
     <mergeCell ref="M117:N117"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="AD108:AF108"/>
+    <mergeCell ref="AD109:AF109"/>
+    <mergeCell ref="AD98:AF98"/>
+    <mergeCell ref="AD88:AF88"/>
+    <mergeCell ref="AD89:AF89"/>
+    <mergeCell ref="AD90:AF90"/>
+    <mergeCell ref="AD91:AF91"/>
+    <mergeCell ref="AD92:AF92"/>
+    <mergeCell ref="AD93:AF93"/>
+    <mergeCell ref="AD94:AF94"/>
+    <mergeCell ref="AD95:AF95"/>
+    <mergeCell ref="AD96:AF96"/>
+    <mergeCell ref="AD97:AF97"/>
+    <mergeCell ref="AD99:AF99"/>
+    <mergeCell ref="AD100:AF100"/>
+    <mergeCell ref="AD101:AF101"/>
+    <mergeCell ref="AD102:AF102"/>
+    <mergeCell ref="AD103:AF103"/>
+    <mergeCell ref="AD104:AF104"/>
+    <mergeCell ref="AD105:AF105"/>
+    <mergeCell ref="AD106:AF106"/>
+    <mergeCell ref="AD107:AF107"/>
+    <mergeCell ref="AD117:AF117"/>
+    <mergeCell ref="AD118:AF118"/>
+    <mergeCell ref="AD111:AF111"/>
+    <mergeCell ref="AD112:AF112"/>
+    <mergeCell ref="AD113:AF113"/>
+    <mergeCell ref="AD114:AF114"/>
+    <mergeCell ref="AD115:AF115"/>
+    <mergeCell ref="AD116:AF116"/>
+    <mergeCell ref="AD110:AF110"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29288,12 +29396,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="78" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="71" customWidth="1"/>
     <col min="2" max="2" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
     </row>
@@ -29330,7 +29438,7 @@
       <c r="G5" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="71" t="s">
         <v>62</v>
       </c>
     </row>
@@ -29345,7 +29453,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="71" t="s">
         <v>63</v>
       </c>
     </row>
@@ -29370,7 +29478,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="71" t="s">
         <v>64</v>
       </c>
     </row>

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB631A7D-DFCA-47D1-8F60-7B948A136002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29622C88-51EC-4759-A7EE-B3AF66258B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="116">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -515,35 +515,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>勤怠情報照会画面</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/kintai/daily/create</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>/kintai/ref</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DailyWorkCreateView</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>WorkRefView</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -697,12 +669,48 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>list操作</t>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://natu-ym.com/python-list-conv/</t>
+  </si>
+  <si>
+    <t>/kintai/dailywork/create</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/kintai/dailywork/ref</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DailyWorkRefView</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日次勤怠照会画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記載事項があれば</t>
+    <rPh sb="0" eb="4">
+      <t>キサイジコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +807,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.59999389629810485"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1097,7 +1112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1323,17 +1338,38 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1827,7 +1863,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>勤怠登録画面</a:t>
+            <a:t>日次勤怠登録画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2057,7 +2093,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>勤怠照会画面</a:t>
+            <a:t>日次勤怠照会画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7275,7 +7311,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5686424" y="1828800"/>
+            <a:off x="5514974" y="1542870"/>
             <a:ext cx="1704975" cy="323850"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -7777,16 +7813,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7801,7 +7837,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2838450" y="3629024"/>
+          <a:off x="2095500" y="2857499"/>
           <a:ext cx="1400175" cy="704851"/>
           <a:chOff x="2114550" y="2990849"/>
           <a:chExt cx="1400175" cy="704851"/>
@@ -8911,15 +8947,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8935,7 +8971,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4429125" y="3609975"/>
+          <a:off x="3743325" y="2809875"/>
           <a:ext cx="581025" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -15014,23 +15050,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
+        <xdr:cNvPr id="97" name="図 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550F3A8F-8121-CD90-18D4-040EB504C0F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488046C2-8D95-1546-D721-1B467BE0BBFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15053,8 +15089,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2857500" y="4610100"/>
-          <a:ext cx="7629525" cy="9696450"/>
+          <a:off x="2066925" y="4505325"/>
+          <a:ext cx="8820150" cy="9696450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16165,7 +16201,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -16174,7 +16210,7 @@
     <col min="2" max="2" width="18.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45" style="2" customWidth="1"/>
@@ -16672,17 +16708,17 @@
         <v>10</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="E22" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/daily/create</v>
+        <v>http://127.0.0.1:8000/kintai/dailywork/create</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H22" s="9"/>
     </row>
@@ -16692,23 +16728,23 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="E23" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/ref</v>
+        <v>http://127.0.0.1:8000/kintai/dailywork/ref</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="H23" s="9"/>
     </row>
@@ -17146,7 +17182,7 @@
   <dimension ref="A1:AY36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -18859,8 +18895,8 @@
   </sheetPr>
   <dimension ref="A1:AY71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ26" sqref="AZ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -23445,8 +23481,8 @@
   </sheetPr>
   <dimension ref="A1:AY118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF35" sqref="BF35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BH20" sqref="BH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -27547,16 +27583,16 @@
       <c r="H87" s="67"/>
       <c r="I87" s="68"/>
       <c r="J87" s="66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K87" s="67"/>
       <c r="L87" s="68"/>
       <c r="M87" s="69" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N87" s="69"/>
       <c r="O87" s="66" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P87" s="67"/>
       <c r="Q87" s="68"/>
@@ -27565,10 +27601,10 @@
       <c r="T87" s="68"/>
       <c r="U87" s="68"/>
       <c r="V87" s="70" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W87" s="66" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X87" s="67"/>
       <c r="Y87" s="68"/>
@@ -27577,20 +27613,27 @@
       <c r="AB87" s="67"/>
       <c r="AC87" s="67"/>
       <c r="AD87" s="66" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AE87" s="67"/>
       <c r="AF87" s="68"/>
       <c r="AG87" s="66" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AH87" s="67"/>
       <c r="AI87" s="68"/>
       <c r="AJ87" s="66" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AK87" s="67"/>
-      <c r="AL87" s="68"/>
+      <c r="AL87" s="67"/>
+      <c r="AM87" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="80"/>
+      <c r="AO87" s="80"/>
+      <c r="AP87" s="80"/>
+      <c r="AQ87" s="81"/>
     </row>
     <row r="88" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G88" s="72"/>
@@ -27601,10 +27644,10 @@
       </c>
       <c r="K88" s="73"/>
       <c r="L88" s="74"/>
-      <c r="M88" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="N88" s="78"/>
+      <c r="M88" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="N88" s="76"/>
       <c r="O88" s="53"/>
       <c r="P88" s="54"/>
       <c r="Q88" s="56"/>
@@ -27613,7 +27656,7 @@
       <c r="T88" s="54"/>
       <c r="U88" s="56"/>
       <c r="V88" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W88" s="53"/>
       <c r="X88" s="55"/>
@@ -27626,15 +27669,22 @@
       <c r="AE88" s="73"/>
       <c r="AF88" s="74"/>
       <c r="AG88" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH88" s="64"/>
       <c r="AI88" s="65"/>
       <c r="AJ88" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK88" s="64"/>
-      <c r="AL88" s="65"/>
+      <c r="AL88" s="64"/>
+      <c r="AM88" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN88" s="83"/>
+      <c r="AO88" s="83"/>
+      <c r="AP88" s="84"/>
+      <c r="AQ88" s="85"/>
     </row>
     <row r="89" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G89" s="72"/>
@@ -27647,26 +27697,26 @@
       <c r="K89" s="73"/>
       <c r="L89" s="74"/>
       <c r="M89" s="72" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N89" s="74"/>
       <c r="O89" s="53"/>
       <c r="P89" s="54"/>
       <c r="Q89" s="56"/>
       <c r="R89" s="62" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S89" s="53"/>
       <c r="T89" s="54"/>
       <c r="U89" s="56"/>
       <c r="V89" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W89" s="53"/>
       <c r="X89" s="55"/>
       <c r="Y89" s="56"/>
       <c r="Z89" s="62" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA89" s="55"/>
       <c r="AB89" s="55"/>
@@ -27675,15 +27725,22 @@
       <c r="AE89" s="73"/>
       <c r="AF89" s="74"/>
       <c r="AG89" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH89" s="64"/>
       <c r="AI89" s="65"/>
       <c r="AJ89" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK89" s="64"/>
       <c r="AL89" s="65"/>
+      <c r="AM89" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN89" s="83"/>
+      <c r="AO89" s="83"/>
+      <c r="AP89" s="84"/>
+      <c r="AQ89" s="85"/>
     </row>
     <row r="90" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G90" s="72"/>
@@ -27696,26 +27753,26 @@
       <c r="K90" s="73"/>
       <c r="L90" s="74"/>
       <c r="M90" s="72" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N90" s="74"/>
       <c r="O90" s="59"/>
       <c r="P90" s="60"/>
       <c r="Q90" s="61"/>
       <c r="R90" s="62" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S90" s="59"/>
       <c r="T90" s="60"/>
       <c r="U90" s="61"/>
       <c r="V90" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W90" s="53"/>
       <c r="X90" s="55"/>
       <c r="Y90" s="56"/>
       <c r="Z90" s="62" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA90" s="55"/>
       <c r="AB90" s="55"/>
@@ -27724,15 +27781,22 @@
       <c r="AE90" s="73"/>
       <c r="AF90" s="74"/>
       <c r="AG90" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH90" s="64"/>
       <c r="AI90" s="65"/>
       <c r="AJ90" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK90" s="64"/>
       <c r="AL90" s="65"/>
+      <c r="AM90" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN90" s="83"/>
+      <c r="AO90" s="83"/>
+      <c r="AP90" s="84"/>
+      <c r="AQ90" s="85"/>
     </row>
     <row r="91" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G91" s="72"/>
@@ -27745,7 +27809,7 @@
       <c r="K91" s="73"/>
       <c r="L91" s="74"/>
       <c r="M91" s="72" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N91" s="74"/>
       <c r="O91" s="63">
@@ -27754,15 +27818,15 @@
       <c r="P91" s="64"/>
       <c r="Q91" s="65"/>
       <c r="R91" s="62" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S91" s="63" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T91" s="64"/>
       <c r="U91" s="65"/>
       <c r="V91" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W91" s="63">
         <v>18</v>
@@ -27770,10 +27834,10 @@
       <c r="X91" s="64"/>
       <c r="Y91" s="65"/>
       <c r="Z91" s="62" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA91" s="63" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AB91" s="64"/>
       <c r="AC91" s="65"/>
@@ -27781,15 +27845,22 @@
       <c r="AE91" s="73"/>
       <c r="AF91" s="74"/>
       <c r="AG91" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH91" s="64"/>
       <c r="AI91" s="65"/>
       <c r="AJ91" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK91" s="64"/>
       <c r="AL91" s="65"/>
+      <c r="AM91" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN91" s="83"/>
+      <c r="AO91" s="83"/>
+      <c r="AP91" s="84"/>
+      <c r="AQ91" s="85"/>
     </row>
     <row r="92" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G92" s="72"/>
@@ -27802,7 +27873,7 @@
       <c r="K92" s="73"/>
       <c r="L92" s="74"/>
       <c r="M92" s="72" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N92" s="74"/>
       <c r="O92" s="63">
@@ -27811,15 +27882,15 @@
       <c r="P92" s="64"/>
       <c r="Q92" s="65"/>
       <c r="R92" s="62" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S92" s="63" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T92" s="64"/>
       <c r="U92" s="65"/>
       <c r="V92" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W92" s="63">
         <v>18</v>
@@ -27827,10 +27898,10 @@
       <c r="X92" s="64"/>
       <c r="Y92" s="65"/>
       <c r="Z92" s="62" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA92" s="63" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AB92" s="64"/>
       <c r="AC92" s="65"/>
@@ -27838,15 +27909,22 @@
       <c r="AE92" s="73"/>
       <c r="AF92" s="74"/>
       <c r="AG92" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH92" s="64"/>
       <c r="AI92" s="65"/>
       <c r="AJ92" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK92" s="64"/>
       <c r="AL92" s="65"/>
+      <c r="AM92" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN92" s="83"/>
+      <c r="AO92" s="83"/>
+      <c r="AP92" s="84"/>
+      <c r="AQ92" s="85"/>
     </row>
     <row r="93" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G93" s="72"/>
@@ -27859,7 +27937,7 @@
       <c r="K93" s="73"/>
       <c r="L93" s="74"/>
       <c r="M93" s="72" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N93" s="74"/>
       <c r="O93" s="63">
@@ -27868,15 +27946,15 @@
       <c r="P93" s="64"/>
       <c r="Q93" s="65"/>
       <c r="R93" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S93" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T93" s="64"/>
       <c r="U93" s="65"/>
       <c r="V93" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W93" s="63">
         <v>18</v>
@@ -27884,7 +27962,7 @@
       <c r="X93" s="64"/>
       <c r="Y93" s="65"/>
       <c r="Z93" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA93" s="63">
         <v>30</v>
@@ -27895,15 +27973,22 @@
       <c r="AE93" s="73"/>
       <c r="AF93" s="74"/>
       <c r="AG93" s="63" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AH93" s="64"/>
       <c r="AI93" s="65"/>
       <c r="AJ93" s="63" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AK93" s="64"/>
       <c r="AL93" s="65"/>
+      <c r="AM93" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN93" s="83"/>
+      <c r="AO93" s="83"/>
+      <c r="AP93" s="84"/>
+      <c r="AQ93" s="85"/>
     </row>
     <row r="94" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G94" s="72"/>
@@ -27915,10 +28000,10 @@
       </c>
       <c r="K94" s="73"/>
       <c r="L94" s="74"/>
-      <c r="M94" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="N94" s="76"/>
+      <c r="M94" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="N94" s="78"/>
       <c r="O94" s="53"/>
       <c r="P94" s="54"/>
       <c r="Q94" s="56"/>
@@ -27927,7 +28012,7 @@
       <c r="T94" s="54"/>
       <c r="U94" s="56"/>
       <c r="V94" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W94" s="53"/>
       <c r="X94" s="55"/>
@@ -27940,15 +28025,22 @@
       <c r="AE94" s="73"/>
       <c r="AF94" s="74"/>
       <c r="AG94" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH94" s="64"/>
       <c r="AI94" s="65"/>
       <c r="AJ94" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK94" s="64"/>
       <c r="AL94" s="65"/>
+      <c r="AM94" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN94" s="83"/>
+      <c r="AO94" s="83"/>
+      <c r="AP94" s="84"/>
+      <c r="AQ94" s="85"/>
     </row>
     <row r="95" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G95" s="72"/>
@@ -27960,10 +28052,10 @@
       </c>
       <c r="K95" s="73"/>
       <c r="L95" s="74"/>
-      <c r="M95" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="N95" s="78"/>
+      <c r="M95" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="N95" s="76"/>
       <c r="O95" s="53"/>
       <c r="P95" s="54"/>
       <c r="Q95" s="56"/>
@@ -27972,7 +28064,7 @@
       <c r="T95" s="54"/>
       <c r="U95" s="56"/>
       <c r="V95" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W95" s="53"/>
       <c r="X95" s="55"/>
@@ -27985,15 +28077,22 @@
       <c r="AE95" s="73"/>
       <c r="AF95" s="74"/>
       <c r="AG95" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH95" s="64"/>
       <c r="AI95" s="65"/>
       <c r="AJ95" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK95" s="64"/>
       <c r="AL95" s="65"/>
+      <c r="AM95" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN95" s="83"/>
+      <c r="AO95" s="83"/>
+      <c r="AP95" s="84"/>
+      <c r="AQ95" s="85"/>
     </row>
     <row r="96" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G96" s="72"/>
@@ -28005,10 +28104,10 @@
       </c>
       <c r="K96" s="73"/>
       <c r="L96" s="74"/>
-      <c r="M96" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="N96" s="78"/>
+      <c r="M96" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="N96" s="76"/>
       <c r="O96" s="53"/>
       <c r="P96" s="54"/>
       <c r="Q96" s="56"/>
@@ -28017,7 +28116,7 @@
       <c r="T96" s="54"/>
       <c r="U96" s="56"/>
       <c r="V96" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W96" s="53"/>
       <c r="X96" s="55"/>
@@ -28030,17 +28129,24 @@
       <c r="AE96" s="73"/>
       <c r="AF96" s="74"/>
       <c r="AG96" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH96" s="64"/>
       <c r="AI96" s="65"/>
       <c r="AJ96" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK96" s="64"/>
       <c r="AL96" s="65"/>
-    </row>
-    <row r="97" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM96" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN96" s="83"/>
+      <c r="AO96" s="83"/>
+      <c r="AP96" s="84"/>
+      <c r="AQ96" s="85"/>
+    </row>
+    <row r="97" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G97" s="72"/>
       <c r="H97" s="73"/>
       <c r="I97" s="74"/>
@@ -28051,7 +28157,7 @@
       <c r="K97" s="73"/>
       <c r="L97" s="74"/>
       <c r="M97" s="72" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N97" s="74"/>
       <c r="O97" s="63">
@@ -28060,15 +28166,15 @@
       <c r="P97" s="64"/>
       <c r="Q97" s="65"/>
       <c r="R97" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S97" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T97" s="64"/>
       <c r="U97" s="65"/>
       <c r="V97" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W97" s="63">
         <v>20</v>
@@ -28076,10 +28182,10 @@
       <c r="X97" s="64"/>
       <c r="Y97" s="65"/>
       <c r="Z97" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA97" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB97" s="64"/>
       <c r="AC97" s="65"/>
@@ -28087,17 +28193,24 @@
       <c r="AE97" s="73"/>
       <c r="AF97" s="74"/>
       <c r="AG97" s="63" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AH97" s="64"/>
       <c r="AI97" s="65"/>
       <c r="AJ97" s="63" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AK97" s="64"/>
       <c r="AL97" s="65"/>
-    </row>
-    <row r="98" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM97" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN97" s="83"/>
+      <c r="AO97" s="83"/>
+      <c r="AP97" s="84"/>
+      <c r="AQ97" s="85"/>
+    </row>
+    <row r="98" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G98" s="72"/>
       <c r="H98" s="73"/>
       <c r="I98" s="74"/>
@@ -28108,7 +28221,7 @@
       <c r="K98" s="73"/>
       <c r="L98" s="74"/>
       <c r="M98" s="72" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N98" s="74"/>
       <c r="O98" s="63">
@@ -28117,15 +28230,15 @@
       <c r="P98" s="64"/>
       <c r="Q98" s="65"/>
       <c r="R98" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S98" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T98" s="64"/>
       <c r="U98" s="65"/>
       <c r="V98" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W98" s="63">
         <v>18</v>
@@ -28133,10 +28246,10 @@
       <c r="X98" s="64"/>
       <c r="Y98" s="65"/>
       <c r="Z98" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA98" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB98" s="64"/>
       <c r="AC98" s="65"/>
@@ -28144,17 +28257,24 @@
       <c r="AE98" s="73"/>
       <c r="AF98" s="74"/>
       <c r="AG98" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH98" s="64"/>
       <c r="AI98" s="65"/>
       <c r="AJ98" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK98" s="64"/>
       <c r="AL98" s="65"/>
-    </row>
-    <row r="99" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM98" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN98" s="83"/>
+      <c r="AO98" s="83"/>
+      <c r="AP98" s="84"/>
+      <c r="AQ98" s="85"/>
+    </row>
+    <row r="99" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G99" s="72"/>
       <c r="H99" s="73"/>
       <c r="I99" s="74"/>
@@ -28165,7 +28285,7 @@
       <c r="K99" s="73"/>
       <c r="L99" s="74"/>
       <c r="M99" s="72" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N99" s="74"/>
       <c r="O99" s="63">
@@ -28174,15 +28294,15 @@
       <c r="P99" s="64"/>
       <c r="Q99" s="65"/>
       <c r="R99" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S99" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T99" s="64"/>
       <c r="U99" s="65"/>
       <c r="V99" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W99" s="63">
         <v>18</v>
@@ -28190,10 +28310,10 @@
       <c r="X99" s="64"/>
       <c r="Y99" s="65"/>
       <c r="Z99" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA99" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB99" s="64"/>
       <c r="AC99" s="65"/>
@@ -28201,17 +28321,24 @@
       <c r="AE99" s="73"/>
       <c r="AF99" s="74"/>
       <c r="AG99" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH99" s="64"/>
       <c r="AI99" s="65"/>
       <c r="AJ99" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK99" s="64"/>
       <c r="AL99" s="65"/>
-    </row>
-    <row r="100" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM99" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN99" s="83"/>
+      <c r="AO99" s="83"/>
+      <c r="AP99" s="84"/>
+      <c r="AQ99" s="85"/>
+    </row>
+    <row r="100" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G100" s="72"/>
       <c r="H100" s="73"/>
       <c r="I100" s="74"/>
@@ -28222,7 +28349,7 @@
       <c r="K100" s="73"/>
       <c r="L100" s="74"/>
       <c r="M100" s="72" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N100" s="74"/>
       <c r="O100" s="63">
@@ -28231,15 +28358,15 @@
       <c r="P100" s="64"/>
       <c r="Q100" s="65"/>
       <c r="R100" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S100" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T100" s="64"/>
       <c r="U100" s="65"/>
       <c r="V100" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W100" s="63">
         <v>18</v>
@@ -28247,10 +28374,10 @@
       <c r="X100" s="64"/>
       <c r="Y100" s="65"/>
       <c r="Z100" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA100" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB100" s="64"/>
       <c r="AC100" s="65"/>
@@ -28258,17 +28385,24 @@
       <c r="AE100" s="73"/>
       <c r="AF100" s="74"/>
       <c r="AG100" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH100" s="64"/>
       <c r="AI100" s="65"/>
       <c r="AJ100" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK100" s="64"/>
       <c r="AL100" s="65"/>
-    </row>
-    <row r="101" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM100" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN100" s="83"/>
+      <c r="AO100" s="83"/>
+      <c r="AP100" s="84"/>
+      <c r="AQ100" s="85"/>
+    </row>
+    <row r="101" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G101" s="72"/>
       <c r="H101" s="73"/>
       <c r="I101" s="74"/>
@@ -28278,10 +28412,10 @@
       </c>
       <c r="K101" s="73"/>
       <c r="L101" s="74"/>
-      <c r="M101" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="N101" s="76"/>
+      <c r="M101" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="N101" s="78"/>
       <c r="O101" s="53"/>
       <c r="P101" s="54"/>
       <c r="Q101" s="56"/>
@@ -28290,7 +28424,7 @@
       <c r="T101" s="54"/>
       <c r="U101" s="56"/>
       <c r="V101" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W101" s="53"/>
       <c r="X101" s="55"/>
@@ -28303,17 +28437,24 @@
       <c r="AE101" s="73"/>
       <c r="AF101" s="74"/>
       <c r="AG101" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH101" s="64"/>
       <c r="AI101" s="65"/>
       <c r="AJ101" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK101" s="64"/>
       <c r="AL101" s="65"/>
-    </row>
-    <row r="102" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM101" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN101" s="83"/>
+      <c r="AO101" s="83"/>
+      <c r="AP101" s="84"/>
+      <c r="AQ101" s="85"/>
+    </row>
+    <row r="102" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G102" s="72"/>
       <c r="H102" s="73"/>
       <c r="I102" s="74"/>
@@ -28323,10 +28464,10 @@
       </c>
       <c r="K102" s="73"/>
       <c r="L102" s="74"/>
-      <c r="M102" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="N102" s="78"/>
+      <c r="M102" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="N102" s="76"/>
       <c r="O102" s="53"/>
       <c r="P102" s="54"/>
       <c r="Q102" s="56"/>
@@ -28335,7 +28476,7 @@
       <c r="T102" s="54"/>
       <c r="U102" s="56"/>
       <c r="V102" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W102" s="53"/>
       <c r="X102" s="55"/>
@@ -28348,17 +28489,24 @@
       <c r="AE102" s="73"/>
       <c r="AF102" s="74"/>
       <c r="AG102" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH102" s="64"/>
       <c r="AI102" s="65"/>
       <c r="AJ102" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK102" s="64"/>
       <c r="AL102" s="65"/>
-    </row>
-    <row r="103" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM102" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN102" s="83"/>
+      <c r="AO102" s="83"/>
+      <c r="AP102" s="84"/>
+      <c r="AQ102" s="85"/>
+    </row>
+    <row r="103" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G103" s="72"/>
       <c r="H103" s="73"/>
       <c r="I103" s="74"/>
@@ -28369,7 +28517,7 @@
       <c r="K103" s="73"/>
       <c r="L103" s="74"/>
       <c r="M103" s="72" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N103" s="74"/>
       <c r="O103" s="63">
@@ -28378,15 +28526,15 @@
       <c r="P103" s="64"/>
       <c r="Q103" s="65"/>
       <c r="R103" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S103" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T103" s="64"/>
       <c r="U103" s="65"/>
       <c r="V103" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W103" s="63">
         <v>18</v>
@@ -28394,10 +28542,10 @@
       <c r="X103" s="64"/>
       <c r="Y103" s="65"/>
       <c r="Z103" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA103" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB103" s="64"/>
       <c r="AC103" s="65"/>
@@ -28405,17 +28553,24 @@
       <c r="AE103" s="73"/>
       <c r="AF103" s="74"/>
       <c r="AG103" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH103" s="64"/>
       <c r="AI103" s="65"/>
       <c r="AJ103" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK103" s="64"/>
       <c r="AL103" s="65"/>
-    </row>
-    <row r="104" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM103" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN103" s="83"/>
+      <c r="AO103" s="83"/>
+      <c r="AP103" s="84"/>
+      <c r="AQ103" s="85"/>
+    </row>
+    <row r="104" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G104" s="72"/>
       <c r="H104" s="73"/>
       <c r="I104" s="74"/>
@@ -28426,7 +28581,7 @@
       <c r="K104" s="73"/>
       <c r="L104" s="74"/>
       <c r="M104" s="72" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N104" s="74"/>
       <c r="O104" s="63">
@@ -28435,15 +28590,15 @@
       <c r="P104" s="64"/>
       <c r="Q104" s="65"/>
       <c r="R104" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S104" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T104" s="64"/>
       <c r="U104" s="65"/>
       <c r="V104" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W104" s="63">
         <v>18</v>
@@ -28451,10 +28606,10 @@
       <c r="X104" s="64"/>
       <c r="Y104" s="65"/>
       <c r="Z104" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA104" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB104" s="64"/>
       <c r="AC104" s="65"/>
@@ -28462,17 +28617,24 @@
       <c r="AE104" s="73"/>
       <c r="AF104" s="74"/>
       <c r="AG104" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH104" s="64"/>
       <c r="AI104" s="65"/>
       <c r="AJ104" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK104" s="64"/>
       <c r="AL104" s="65"/>
-    </row>
-    <row r="105" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM104" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN104" s="83"/>
+      <c r="AO104" s="83"/>
+      <c r="AP104" s="84"/>
+      <c r="AQ104" s="85"/>
+    </row>
+    <row r="105" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G105" s="72"/>
       <c r="H105" s="73"/>
       <c r="I105" s="74"/>
@@ -28483,7 +28645,7 @@
       <c r="K105" s="73"/>
       <c r="L105" s="74"/>
       <c r="M105" s="72" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N105" s="74"/>
       <c r="O105" s="63">
@@ -28492,15 +28654,15 @@
       <c r="P105" s="64"/>
       <c r="Q105" s="65"/>
       <c r="R105" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S105" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T105" s="64"/>
       <c r="U105" s="65"/>
       <c r="V105" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W105" s="63">
         <v>18</v>
@@ -28508,10 +28670,10 @@
       <c r="X105" s="64"/>
       <c r="Y105" s="65"/>
       <c r="Z105" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA105" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB105" s="64"/>
       <c r="AC105" s="65"/>
@@ -28519,17 +28681,24 @@
       <c r="AE105" s="73"/>
       <c r="AF105" s="74"/>
       <c r="AG105" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH105" s="64"/>
       <c r="AI105" s="65"/>
       <c r="AJ105" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK105" s="64"/>
       <c r="AL105" s="65"/>
-    </row>
-    <row r="106" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM105" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN105" s="83"/>
+      <c r="AO105" s="83"/>
+      <c r="AP105" s="84"/>
+      <c r="AQ105" s="85"/>
+    </row>
+    <row r="106" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G106" s="72"/>
       <c r="H106" s="73"/>
       <c r="I106" s="74"/>
@@ -28540,7 +28709,7 @@
       <c r="K106" s="73"/>
       <c r="L106" s="74"/>
       <c r="M106" s="72" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N106" s="74"/>
       <c r="O106" s="63">
@@ -28549,15 +28718,15 @@
       <c r="P106" s="64"/>
       <c r="Q106" s="65"/>
       <c r="R106" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S106" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T106" s="64"/>
       <c r="U106" s="65"/>
       <c r="V106" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W106" s="63">
         <v>18</v>
@@ -28565,10 +28734,10 @@
       <c r="X106" s="64"/>
       <c r="Y106" s="65"/>
       <c r="Z106" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA106" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB106" s="64"/>
       <c r="AC106" s="65"/>
@@ -28576,17 +28745,24 @@
       <c r="AE106" s="73"/>
       <c r="AF106" s="74"/>
       <c r="AG106" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH106" s="64"/>
       <c r="AI106" s="65"/>
       <c r="AJ106" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK106" s="64"/>
       <c r="AL106" s="65"/>
-    </row>
-    <row r="107" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM106" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN106" s="83"/>
+      <c r="AO106" s="83"/>
+      <c r="AP106" s="84"/>
+      <c r="AQ106" s="85"/>
+    </row>
+    <row r="107" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G107" s="72"/>
       <c r="H107" s="73"/>
       <c r="I107" s="74"/>
@@ -28597,7 +28773,7 @@
       <c r="K107" s="73"/>
       <c r="L107" s="74"/>
       <c r="M107" s="72" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N107" s="74"/>
       <c r="O107" s="63">
@@ -28606,15 +28782,15 @@
       <c r="P107" s="64"/>
       <c r="Q107" s="65"/>
       <c r="R107" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S107" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T107" s="64"/>
       <c r="U107" s="65"/>
       <c r="V107" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W107" s="63">
         <v>18</v>
@@ -28622,10 +28798,10 @@
       <c r="X107" s="64"/>
       <c r="Y107" s="65"/>
       <c r="Z107" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA107" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB107" s="64"/>
       <c r="AC107" s="65"/>
@@ -28633,17 +28809,24 @@
       <c r="AE107" s="73"/>
       <c r="AF107" s="74"/>
       <c r="AG107" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH107" s="64"/>
       <c r="AI107" s="65"/>
       <c r="AJ107" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK107" s="64"/>
       <c r="AL107" s="65"/>
-    </row>
-    <row r="108" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM107" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN107" s="83"/>
+      <c r="AO107" s="83"/>
+      <c r="AP107" s="84"/>
+      <c r="AQ107" s="85"/>
+    </row>
+    <row r="108" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G108" s="72"/>
       <c r="H108" s="73"/>
       <c r="I108" s="74"/>
@@ -28653,10 +28836,10 @@
       </c>
       <c r="K108" s="73"/>
       <c r="L108" s="74"/>
-      <c r="M108" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="N108" s="76"/>
+      <c r="M108" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="N108" s="78"/>
       <c r="O108" s="53"/>
       <c r="P108" s="54"/>
       <c r="Q108" s="56"/>
@@ -28665,7 +28848,7 @@
       <c r="T108" s="54"/>
       <c r="U108" s="56"/>
       <c r="V108" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W108" s="53"/>
       <c r="X108" s="55"/>
@@ -28678,17 +28861,24 @@
       <c r="AE108" s="73"/>
       <c r="AF108" s="74"/>
       <c r="AG108" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH108" s="64"/>
       <c r="AI108" s="65"/>
       <c r="AJ108" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK108" s="64"/>
       <c r="AL108" s="65"/>
-    </row>
-    <row r="109" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM108" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN108" s="83"/>
+      <c r="AO108" s="83"/>
+      <c r="AP108" s="84"/>
+      <c r="AQ108" s="85"/>
+    </row>
+    <row r="109" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G109" s="72"/>
       <c r="H109" s="73"/>
       <c r="I109" s="74"/>
@@ -28698,10 +28888,10 @@
       </c>
       <c r="K109" s="73"/>
       <c r="L109" s="74"/>
-      <c r="M109" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="N109" s="78"/>
+      <c r="M109" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="N109" s="76"/>
       <c r="O109" s="53"/>
       <c r="P109" s="54"/>
       <c r="Q109" s="56"/>
@@ -28710,7 +28900,7 @@
       <c r="T109" s="54"/>
       <c r="U109" s="56"/>
       <c r="V109" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W109" s="53"/>
       <c r="X109" s="55"/>
@@ -28723,17 +28913,24 @@
       <c r="AE109" s="73"/>
       <c r="AF109" s="74"/>
       <c r="AG109" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH109" s="64"/>
       <c r="AI109" s="65"/>
       <c r="AJ109" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK109" s="64"/>
       <c r="AL109" s="65"/>
-    </row>
-    <row r="110" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM109" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN109" s="83"/>
+      <c r="AO109" s="83"/>
+      <c r="AP109" s="84"/>
+      <c r="AQ109" s="85"/>
+    </row>
+    <row r="110" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G110" s="72"/>
       <c r="H110" s="73"/>
       <c r="I110" s="74"/>
@@ -28744,7 +28941,7 @@
       <c r="K110" s="73"/>
       <c r="L110" s="74"/>
       <c r="M110" s="72" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N110" s="74"/>
       <c r="O110" s="63">
@@ -28753,15 +28950,15 @@
       <c r="P110" s="64"/>
       <c r="Q110" s="65"/>
       <c r="R110" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S110" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T110" s="64"/>
       <c r="U110" s="65"/>
       <c r="V110" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W110" s="63">
         <v>18</v>
@@ -28769,10 +28966,10 @@
       <c r="X110" s="64"/>
       <c r="Y110" s="65"/>
       <c r="Z110" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA110" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB110" s="64"/>
       <c r="AC110" s="65"/>
@@ -28780,17 +28977,24 @@
       <c r="AE110" s="73"/>
       <c r="AF110" s="74"/>
       <c r="AG110" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH110" s="64"/>
       <c r="AI110" s="65"/>
       <c r="AJ110" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK110" s="64"/>
       <c r="AL110" s="65"/>
-    </row>
-    <row r="111" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM110" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN110" s="83"/>
+      <c r="AO110" s="83"/>
+      <c r="AP110" s="84"/>
+      <c r="AQ110" s="85"/>
+    </row>
+    <row r="111" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G111" s="72"/>
       <c r="H111" s="73"/>
       <c r="I111" s="74"/>
@@ -28801,7 +29005,7 @@
       <c r="K111" s="73"/>
       <c r="L111" s="74"/>
       <c r="M111" s="72" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N111" s="74"/>
       <c r="O111" s="63">
@@ -28810,15 +29014,15 @@
       <c r="P111" s="64"/>
       <c r="Q111" s="65"/>
       <c r="R111" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S111" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T111" s="64"/>
       <c r="U111" s="65"/>
       <c r="V111" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W111" s="63">
         <v>18</v>
@@ -28826,10 +29030,10 @@
       <c r="X111" s="64"/>
       <c r="Y111" s="65"/>
       <c r="Z111" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA111" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB111" s="64"/>
       <c r="AC111" s="65"/>
@@ -28837,17 +29041,24 @@
       <c r="AE111" s="73"/>
       <c r="AF111" s="74"/>
       <c r="AG111" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH111" s="64"/>
       <c r="AI111" s="65"/>
       <c r="AJ111" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK111" s="64"/>
       <c r="AL111" s="65"/>
-    </row>
-    <row r="112" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM111" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN111" s="83"/>
+      <c r="AO111" s="83"/>
+      <c r="AP111" s="84"/>
+      <c r="AQ111" s="85"/>
+    </row>
+    <row r="112" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G112" s="72"/>
       <c r="H112" s="73"/>
       <c r="I112" s="74"/>
@@ -28858,7 +29069,7 @@
       <c r="K112" s="73"/>
       <c r="L112" s="74"/>
       <c r="M112" s="72" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N112" s="74"/>
       <c r="O112" s="63">
@@ -28867,15 +29078,15 @@
       <c r="P112" s="64"/>
       <c r="Q112" s="65"/>
       <c r="R112" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S112" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T112" s="64"/>
       <c r="U112" s="65"/>
       <c r="V112" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W112" s="63">
         <v>18</v>
@@ -28883,10 +29094,10 @@
       <c r="X112" s="64"/>
       <c r="Y112" s="65"/>
       <c r="Z112" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA112" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB112" s="64"/>
       <c r="AC112" s="65"/>
@@ -28894,17 +29105,24 @@
       <c r="AE112" s="73"/>
       <c r="AF112" s="74"/>
       <c r="AG112" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH112" s="64"/>
       <c r="AI112" s="65"/>
       <c r="AJ112" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK112" s="64"/>
       <c r="AL112" s="65"/>
-    </row>
-    <row r="113" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM112" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN112" s="83"/>
+      <c r="AO112" s="83"/>
+      <c r="AP112" s="84"/>
+      <c r="AQ112" s="85"/>
+    </row>
+    <row r="113" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G113" s="72"/>
       <c r="H113" s="73"/>
       <c r="I113" s="74"/>
@@ -28915,7 +29133,7 @@
       <c r="K113" s="73"/>
       <c r="L113" s="74"/>
       <c r="M113" s="72" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N113" s="74"/>
       <c r="O113" s="63">
@@ -28924,15 +29142,15 @@
       <c r="P113" s="64"/>
       <c r="Q113" s="65"/>
       <c r="R113" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S113" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T113" s="64"/>
       <c r="U113" s="65"/>
       <c r="V113" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W113" s="63">
         <v>18</v>
@@ -28940,10 +29158,10 @@
       <c r="X113" s="64"/>
       <c r="Y113" s="65"/>
       <c r="Z113" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA113" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB113" s="64"/>
       <c r="AC113" s="65"/>
@@ -28951,17 +29169,24 @@
       <c r="AE113" s="73"/>
       <c r="AF113" s="74"/>
       <c r="AG113" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH113" s="64"/>
       <c r="AI113" s="65"/>
       <c r="AJ113" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK113" s="64"/>
       <c r="AL113" s="65"/>
-    </row>
-    <row r="114" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM113" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN113" s="83"/>
+      <c r="AO113" s="83"/>
+      <c r="AP113" s="84"/>
+      <c r="AQ113" s="85"/>
+    </row>
+    <row r="114" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G114" s="72"/>
       <c r="H114" s="73"/>
       <c r="I114" s="74"/>
@@ -28972,7 +29197,7 @@
       <c r="K114" s="73"/>
       <c r="L114" s="74"/>
       <c r="M114" s="72" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N114" s="74"/>
       <c r="O114" s="63">
@@ -28981,15 +29206,15 @@
       <c r="P114" s="64"/>
       <c r="Q114" s="65"/>
       <c r="R114" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S114" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T114" s="64"/>
       <c r="U114" s="65"/>
       <c r="V114" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W114" s="63">
         <v>18</v>
@@ -28997,10 +29222,10 @@
       <c r="X114" s="64"/>
       <c r="Y114" s="65"/>
       <c r="Z114" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA114" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB114" s="64"/>
       <c r="AC114" s="65"/>
@@ -29008,17 +29233,24 @@
       <c r="AE114" s="73"/>
       <c r="AF114" s="74"/>
       <c r="AG114" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH114" s="64"/>
       <c r="AI114" s="65"/>
       <c r="AJ114" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK114" s="64"/>
       <c r="AL114" s="65"/>
-    </row>
-    <row r="115" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM114" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN114" s="83"/>
+      <c r="AO114" s="83"/>
+      <c r="AP114" s="84"/>
+      <c r="AQ114" s="85"/>
+    </row>
+    <row r="115" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G115" s="72"/>
       <c r="H115" s="73"/>
       <c r="I115" s="74"/>
@@ -29028,10 +29260,10 @@
       </c>
       <c r="K115" s="73"/>
       <c r="L115" s="74"/>
-      <c r="M115" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="N115" s="76"/>
+      <c r="M115" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="N115" s="78"/>
       <c r="O115" s="53"/>
       <c r="P115" s="54"/>
       <c r="Q115" s="56"/>
@@ -29040,7 +29272,7 @@
       <c r="T115" s="54"/>
       <c r="U115" s="56"/>
       <c r="V115" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W115" s="53"/>
       <c r="X115" s="55"/>
@@ -29053,17 +29285,24 @@
       <c r="AE115" s="73"/>
       <c r="AF115" s="74"/>
       <c r="AG115" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH115" s="64"/>
       <c r="AI115" s="65"/>
       <c r="AJ115" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK115" s="64"/>
       <c r="AL115" s="65"/>
-    </row>
-    <row r="116" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM115" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN115" s="83"/>
+      <c r="AO115" s="83"/>
+      <c r="AP115" s="84"/>
+      <c r="AQ115" s="85"/>
+    </row>
+    <row r="116" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G116" s="72"/>
       <c r="H116" s="73"/>
       <c r="I116" s="74"/>
@@ -29073,10 +29312,10 @@
       </c>
       <c r="K116" s="73"/>
       <c r="L116" s="74"/>
-      <c r="M116" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="N116" s="78"/>
+      <c r="M116" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="N116" s="76"/>
       <c r="O116" s="53"/>
       <c r="P116" s="54"/>
       <c r="Q116" s="56"/>
@@ -29085,7 +29324,7 @@
       <c r="T116" s="54"/>
       <c r="U116" s="56"/>
       <c r="V116" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W116" s="53"/>
       <c r="X116" s="55"/>
@@ -29098,17 +29337,24 @@
       <c r="AE116" s="73"/>
       <c r="AF116" s="74"/>
       <c r="AG116" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AH116" s="64"/>
       <c r="AI116" s="65"/>
       <c r="AJ116" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK116" s="64"/>
       <c r="AL116" s="65"/>
-    </row>
-    <row r="117" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM116" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN116" s="83"/>
+      <c r="AO116" s="83"/>
+      <c r="AP116" s="84"/>
+      <c r="AQ116" s="85"/>
+    </row>
+    <row r="117" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G117" s="72"/>
       <c r="H117" s="73"/>
       <c r="I117" s="74"/>
@@ -29119,7 +29365,7 @@
       <c r="K117" s="73"/>
       <c r="L117" s="74"/>
       <c r="M117" s="72" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N117" s="74"/>
       <c r="O117" s="63">
@@ -29128,15 +29374,15 @@
       <c r="P117" s="64"/>
       <c r="Q117" s="65"/>
       <c r="R117" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S117" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T117" s="64"/>
       <c r="U117" s="65"/>
       <c r="V117" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W117" s="63">
         <v>18</v>
@@ -29144,10 +29390,10 @@
       <c r="X117" s="64"/>
       <c r="Y117" s="65"/>
       <c r="Z117" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA117" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB117" s="64"/>
       <c r="AC117" s="65"/>
@@ -29155,17 +29401,24 @@
       <c r="AE117" s="73"/>
       <c r="AF117" s="74"/>
       <c r="AG117" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH117" s="64"/>
       <c r="AI117" s="65"/>
       <c r="AJ117" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK117" s="64"/>
       <c r="AL117" s="65"/>
-    </row>
-    <row r="118" spans="7:38" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AM117" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN117" s="83"/>
+      <c r="AO117" s="83"/>
+      <c r="AP117" s="84"/>
+      <c r="AQ117" s="85"/>
+    </row>
+    <row r="118" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G118" s="72"/>
       <c r="H118" s="73"/>
       <c r="I118" s="74"/>
@@ -29176,7 +29429,7 @@
       <c r="K118" s="73"/>
       <c r="L118" s="74"/>
       <c r="M118" s="72" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N118" s="74"/>
       <c r="O118" s="63">
@@ -29185,15 +29438,15 @@
       <c r="P118" s="64"/>
       <c r="Q118" s="65"/>
       <c r="R118" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="S118" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="T118" s="64"/>
       <c r="U118" s="65"/>
       <c r="V118" s="57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W118" s="63">
         <v>18</v>
@@ -29201,10 +29454,10 @@
       <c r="X118" s="64"/>
       <c r="Y118" s="65"/>
       <c r="Z118" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AA118" s="63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AB118" s="64"/>
       <c r="AC118" s="65"/>
@@ -29212,80 +29465,65 @@
       <c r="AE118" s="73"/>
       <c r="AF118" s="74"/>
       <c r="AG118" s="63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AH118" s="64"/>
       <c r="AI118" s="65"/>
       <c r="AJ118" s="63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AK118" s="64"/>
       <c r="AL118" s="65"/>
+      <c r="AM118" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN118" s="83"/>
+      <c r="AO118" s="83"/>
+      <c r="AP118" s="84"/>
+      <c r="AQ118" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="J91:L91"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="J90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="J98:L98"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="J99:L99"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="J103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="J104:L104"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="J105:L105"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="J100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="J101:L101"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="J102:L102"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="J109:L109"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="M110:N110"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="J106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="J118:L118"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="J114:L114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="J115:L115"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="J116:L116"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="J112:L112"/>
-    <mergeCell ref="M112:N112"/>
-    <mergeCell ref="J113:L113"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="J117:L117"/>
-    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="AD117:AF117"/>
+    <mergeCell ref="AD118:AF118"/>
+    <mergeCell ref="AD111:AF111"/>
+    <mergeCell ref="AD112:AF112"/>
+    <mergeCell ref="AD113:AF113"/>
+    <mergeCell ref="AD114:AF114"/>
+    <mergeCell ref="AD115:AF115"/>
+    <mergeCell ref="AD116:AF116"/>
+    <mergeCell ref="AD110:AF110"/>
     <mergeCell ref="AD108:AF108"/>
     <mergeCell ref="AD109:AF109"/>
     <mergeCell ref="AD98:AF98"/>
@@ -29308,46 +29546,68 @@
     <mergeCell ref="AD105:AF105"/>
     <mergeCell ref="AD106:AF106"/>
     <mergeCell ref="AD107:AF107"/>
-    <mergeCell ref="AD117:AF117"/>
-    <mergeCell ref="AD118:AF118"/>
-    <mergeCell ref="AD111:AF111"/>
-    <mergeCell ref="AD112:AF112"/>
-    <mergeCell ref="AD113:AF113"/>
-    <mergeCell ref="AD114:AF114"/>
-    <mergeCell ref="AD115:AF115"/>
-    <mergeCell ref="AD116:AF116"/>
-    <mergeCell ref="AD110:AF110"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="J118:L118"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="J115:L115"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="J116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="M110:N110"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="M90:N90"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29373,7 +29633,7 @@
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="str">
         <f>VLOOKUP(21,テーブル2[['#]:[画面名]],2,FALSE)</f>
-        <v>勤怠情報照会画面</v>
+        <v>日次勤怠照会画面</v>
       </c>
     </row>
   </sheetData>
@@ -29388,10 +29648,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -29525,9 +29785,19 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29622C88-51EC-4759-A7EE-B3AF66258B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523DDEAD-B1A7-47D7-A71E-3DE780B54A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
+    <workbookView xWindow="6720" yWindow="240" windowWidth="21690" windowHeight="14625" activeTab="1" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
   <sheets>
     <sheet name="遷移図" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="116">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>host=</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8000</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -515,10 +511,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DailyWorkCreateView</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -688,10 +680,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DailyWorkRefView</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日次勤怠照会画面</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -703,6 +691,18 @@
     <rPh sb="0" eb="4">
       <t>キサイジコウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DailyworkCreateView</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DailyworkRefView</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8085</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1112,7 +1112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1329,6 +1329,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1350,26 +1371,11 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8877,77 +8883,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE67CD7-E832-4964-89F4-E1750A4CAF15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3571875" y="15240000"/>
-          <a:ext cx="1181100" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="3578E5"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3578E5"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>登録</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -15051,15 +14986,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15089,7 +15024,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2066925" y="4505325"/>
+          <a:off x="2038350" y="3810000"/>
           <a:ext cx="8820150" cy="9696450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16143,7 +16078,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -16159,12 +16094,12 @@
     </row>
     <row r="24" spans="59:59" x14ac:dyDescent="0.4">
       <c r="BG24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="59:59" x14ac:dyDescent="0.4">
       <c r="BG26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -16198,10 +16133,10 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -16217,14 +16152,14 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="87" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
+      <c r="D1" s="86" t="s">
+        <v>115</v>
       </c>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -16232,25 +16167,25 @@
     </row>
     <row r="2" spans="1:8" ht="31.5" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>0</v>
@@ -16262,20 +16197,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/admin/login</v>
+        <v>http://127.0.0.1:8085/admin/login</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="9"/>
@@ -16286,23 +16221,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/login</v>
+        <v>http://127.0.0.1:8085/kintai/login</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -16312,23 +16247,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai</v>
+        <v>http://127.0.0.1:8085/kintai</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -16338,20 +16273,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/user/list</v>
+        <v>http://127.0.0.1:8085/kintai/user/list</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="14"/>
@@ -16362,23 +16297,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/user/create</v>
+        <v>http://127.0.0.1:8085/kintai/user/create</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="9"/>
     </row>
@@ -16388,23 +16323,23 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/user/edit</v>
+        <v>http://127.0.0.1:8085/kintai/user/edit</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -16414,20 +16349,20 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/user/delete</v>
+        <v>http://127.0.0.1:8085/kintai/user/delete</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="14"/>
@@ -16438,17 +16373,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/cp/list</v>
+        <v>http://127.0.0.1:8085/kintai/cp/list</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="15"/>
@@ -16460,17 +16395,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/cp/create</v>
+        <v>http://127.0.0.1:8085/kintai/cp/create</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
@@ -16482,17 +16417,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/cp/edit</v>
+        <v>http://127.0.0.1:8085/kintai/cp/edit</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
@@ -16504,17 +16439,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/cp/delete</v>
+        <v>http://127.0.0.1:8085/kintai/cp/delete</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="15"/>
@@ -16526,17 +16461,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/dv/list</v>
+        <v>http://127.0.0.1:8085/kintai/dv/list</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="15"/>
@@ -16548,17 +16483,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/dv/create</v>
+        <v>http://127.0.0.1:8085/kintai/dv/create</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="15"/>
@@ -16570,17 +16505,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/dv/edit</v>
+        <v>http://127.0.0.1:8085/kintai/dv/edit</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="15"/>
@@ -16592,17 +16527,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/dv/delete</v>
+        <v>http://127.0.0.1:8085/kintai/dv/delete</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="15"/>
@@ -16614,17 +16549,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/ot/list</v>
+        <v>http://127.0.0.1:8085/kintai/ot/list</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="15"/>
@@ -16636,17 +16571,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/ot/create</v>
+        <v>http://127.0.0.1:8085/kintai/ot/create</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="15"/>
@@ -16658,17 +16593,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/ot/edit</v>
+        <v>http://127.0.0.1:8085/kintai/ot/edit</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="15"/>
@@ -16680,17 +16615,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="15" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/ot/delete</v>
+        <v>http://127.0.0.1:8085/kintai/ot/delete</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="15"/>
@@ -16702,23 +16637,23 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/dailywork/create</v>
+        <v>http://127.0.0.1:8085/kintai/dailywork/create</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="H22" s="9"/>
     </row>
@@ -16728,23 +16663,23 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000/kintai/dailywork/ref</v>
+        <v>http://127.0.0.1:8085/kintai/dailywork/ref</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H23" s="9"/>
     </row>
@@ -16754,11 +16689,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
+        <v>http://127.0.0.1:8085</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="10"/>
@@ -16770,11 +16707,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
+        <v>http://127.0.0.1:8085</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="10"/>
@@ -16786,11 +16725,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
+        <v>http://127.0.0.1:8085</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="10"/>
@@ -16802,11 +16743,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D27" s="9"/>
       <c r="E27" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
+        <v>http://127.0.0.1:8085</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="10"/>
@@ -16818,11 +16761,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
+        <v>http://127.0.0.1:8085</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="10"/>
@@ -16834,11 +16779,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
+        <v>http://127.0.0.1:8085</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="10"/>
@@ -16850,11 +16797,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D30" s="9"/>
       <c r="E30" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
+        <v>http://127.0.0.1:8085</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="10"/>
@@ -16866,11 +16815,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D31" s="9"/>
       <c r="E31" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
+        <v>http://127.0.0.1:8085</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="10"/>
@@ -16882,11 +16833,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
+        <v>http://127.0.0.1:8085</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="10"/>
@@ -16898,11 +16851,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D33" s="9"/>
       <c r="E33" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
+        <v>http://127.0.0.1:8085</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="10"/>
@@ -16914,11 +16869,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D34" s="9"/>
       <c r="E34" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
+        <v>http://127.0.0.1:8085</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="10"/>
@@ -16930,11 +16887,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D35" s="9"/>
       <c r="E35" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
+        <v>http://127.0.0.1:8085</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="10"/>
@@ -16946,11 +16905,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
+      <c r="C36" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D36" s="9"/>
       <c r="E36" s="10" t="str">
         <f>$D$1&amp;テーブル2[[#This Row],[パス名]]</f>
-        <v>http://127.0.0.1:8000</v>
+        <v>http://127.0.0.1:8085</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="10"/>
@@ -17158,7 +17119,7 @@
       <formula>"◯"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C21 C24:C36">
+  <conditionalFormatting sqref="C9:C21">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"◯"</formula>
     </cfRule>
@@ -21701,7 +21662,7 @@
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.4">
       <c r="V2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -23481,8 +23442,8 @@
   </sheetPr>
   <dimension ref="A1:AY118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BH20" sqref="BH20"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG74" sqref="BG74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -27583,16 +27544,16 @@
       <c r="H87" s="67"/>
       <c r="I87" s="68"/>
       <c r="J87" s="66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K87" s="67"/>
       <c r="L87" s="68"/>
       <c r="M87" s="69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N87" s="69"/>
       <c r="O87" s="66" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P87" s="67"/>
       <c r="Q87" s="68"/>
@@ -27601,10 +27562,10 @@
       <c r="T87" s="68"/>
       <c r="U87" s="68"/>
       <c r="V87" s="70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W87" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X87" s="67"/>
       <c r="Y87" s="68"/>
@@ -27613,41 +27574,41 @@
       <c r="AB87" s="67"/>
       <c r="AC87" s="67"/>
       <c r="AD87" s="66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AE87" s="67"/>
       <c r="AF87" s="68"/>
       <c r="AG87" s="66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AH87" s="67"/>
       <c r="AI87" s="68"/>
       <c r="AJ87" s="66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AK87" s="67"/>
       <c r="AL87" s="67"/>
-      <c r="AM87" s="79" t="s">
+      <c r="AM87" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AN87" s="80"/>
-      <c r="AO87" s="80"/>
-      <c r="AP87" s="80"/>
-      <c r="AQ87" s="81"/>
+      <c r="AN87" s="73"/>
+      <c r="AO87" s="73"/>
+      <c r="AP87" s="73"/>
+      <c r="AQ87" s="74"/>
     </row>
     <row r="88" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G88" s="72"/>
-      <c r="H88" s="73"/>
-      <c r="I88" s="74"/>
-      <c r="J88" s="72">
+      <c r="G88" s="79"/>
+      <c r="H88" s="80"/>
+      <c r="I88" s="81"/>
+      <c r="J88" s="79">
         <v>1</v>
       </c>
-      <c r="K88" s="73"/>
-      <c r="L88" s="74"/>
-      <c r="M88" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="N88" s="76"/>
+      <c r="K88" s="80"/>
+      <c r="L88" s="81"/>
+      <c r="M88" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="N88" s="83"/>
       <c r="O88" s="53"/>
       <c r="P88" s="54"/>
       <c r="Q88" s="56"/>
@@ -27656,7 +27617,7 @@
       <c r="T88" s="54"/>
       <c r="U88" s="56"/>
       <c r="V88" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W88" s="53"/>
       <c r="X88" s="55"/>
@@ -27665,168 +27626,168 @@
       <c r="AA88" s="55"/>
       <c r="AB88" s="55"/>
       <c r="AC88" s="55"/>
-      <c r="AD88" s="72"/>
-      <c r="AE88" s="73"/>
-      <c r="AF88" s="74"/>
+      <c r="AD88" s="79"/>
+      <c r="AE88" s="80"/>
+      <c r="AF88" s="81"/>
       <c r="AG88" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH88" s="64"/>
       <c r="AI88" s="65"/>
       <c r="AJ88" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK88" s="64"/>
       <c r="AL88" s="64"/>
-      <c r="AM88" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN88" s="83"/>
-      <c r="AO88" s="83"/>
-      <c r="AP88" s="84"/>
-      <c r="AQ88" s="85"/>
+      <c r="AM88" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN88" s="76"/>
+      <c r="AO88" s="76"/>
+      <c r="AP88" s="77"/>
+      <c r="AQ88" s="78"/>
     </row>
     <row r="89" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G89" s="72"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="74"/>
-      <c r="J89" s="72">
+      <c r="G89" s="79"/>
+      <c r="H89" s="80"/>
+      <c r="I89" s="81"/>
+      <c r="J89" s="79">
         <f>J88+1</f>
         <v>2</v>
       </c>
-      <c r="K89" s="73"/>
-      <c r="L89" s="74"/>
-      <c r="M89" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="N89" s="74"/>
+      <c r="K89" s="80"/>
+      <c r="L89" s="81"/>
+      <c r="M89" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="N89" s="81"/>
       <c r="O89" s="53"/>
       <c r="P89" s="54"/>
       <c r="Q89" s="56"/>
       <c r="R89" s="62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S89" s="53"/>
       <c r="T89" s="54"/>
       <c r="U89" s="56"/>
       <c r="V89" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W89" s="53"/>
       <c r="X89" s="55"/>
       <c r="Y89" s="56"/>
       <c r="Z89" s="62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA89" s="55"/>
       <c r="AB89" s="55"/>
       <c r="AC89" s="55"/>
-      <c r="AD89" s="72"/>
-      <c r="AE89" s="73"/>
-      <c r="AF89" s="74"/>
+      <c r="AD89" s="79"/>
+      <c r="AE89" s="80"/>
+      <c r="AF89" s="81"/>
       <c r="AG89" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH89" s="64"/>
       <c r="AI89" s="65"/>
       <c r="AJ89" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK89" s="64"/>
       <c r="AL89" s="65"/>
-      <c r="AM89" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN89" s="83"/>
-      <c r="AO89" s="83"/>
-      <c r="AP89" s="84"/>
-      <c r="AQ89" s="85"/>
+      <c r="AM89" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN89" s="76"/>
+      <c r="AO89" s="76"/>
+      <c r="AP89" s="77"/>
+      <c r="AQ89" s="78"/>
     </row>
     <row r="90" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G90" s="72"/>
-      <c r="H90" s="73"/>
-      <c r="I90" s="74"/>
-      <c r="J90" s="72">
+      <c r="G90" s="79"/>
+      <c r="H90" s="80"/>
+      <c r="I90" s="81"/>
+      <c r="J90" s="79">
         <f>J89+1</f>
         <v>3</v>
       </c>
-      <c r="K90" s="73"/>
-      <c r="L90" s="74"/>
-      <c r="M90" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="N90" s="74"/>
+      <c r="K90" s="80"/>
+      <c r="L90" s="81"/>
+      <c r="M90" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="N90" s="81"/>
       <c r="O90" s="59"/>
       <c r="P90" s="60"/>
       <c r="Q90" s="61"/>
       <c r="R90" s="62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S90" s="59"/>
       <c r="T90" s="60"/>
       <c r="U90" s="61"/>
       <c r="V90" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W90" s="53"/>
       <c r="X90" s="55"/>
       <c r="Y90" s="56"/>
       <c r="Z90" s="62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA90" s="55"/>
       <c r="AB90" s="55"/>
       <c r="AC90" s="55"/>
-      <c r="AD90" s="72"/>
-      <c r="AE90" s="73"/>
-      <c r="AF90" s="74"/>
+      <c r="AD90" s="79"/>
+      <c r="AE90" s="80"/>
+      <c r="AF90" s="81"/>
       <c r="AG90" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH90" s="64"/>
       <c r="AI90" s="65"/>
       <c r="AJ90" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK90" s="64"/>
       <c r="AL90" s="65"/>
-      <c r="AM90" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN90" s="83"/>
-      <c r="AO90" s="83"/>
-      <c r="AP90" s="84"/>
-      <c r="AQ90" s="85"/>
+      <c r="AM90" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN90" s="76"/>
+      <c r="AO90" s="76"/>
+      <c r="AP90" s="77"/>
+      <c r="AQ90" s="78"/>
     </row>
     <row r="91" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G91" s="72"/>
-      <c r="H91" s="73"/>
-      <c r="I91" s="74"/>
-      <c r="J91" s="72">
+      <c r="G91" s="79"/>
+      <c r="H91" s="80"/>
+      <c r="I91" s="81"/>
+      <c r="J91" s="79">
         <f t="shared" ref="J91:J95" si="0">J90+1</f>
         <v>4</v>
       </c>
-      <c r="K91" s="73"/>
-      <c r="L91" s="74"/>
-      <c r="M91" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="N91" s="74"/>
+      <c r="K91" s="80"/>
+      <c r="L91" s="81"/>
+      <c r="M91" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="N91" s="81"/>
       <c r="O91" s="63">
         <v>9</v>
       </c>
       <c r="P91" s="64"/>
       <c r="Q91" s="65"/>
       <c r="R91" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="S91" s="63" t="s">
         <v>105</v>
-      </c>
-      <c r="S91" s="63" t="s">
-        <v>107</v>
       </c>
       <c r="T91" s="64"/>
       <c r="U91" s="65"/>
       <c r="V91" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W91" s="63">
         <v>18</v>
@@ -27834,63 +27795,63 @@
       <c r="X91" s="64"/>
       <c r="Y91" s="65"/>
       <c r="Z91" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA91" s="63" t="s">
         <v>105</v>
-      </c>
-      <c r="AA91" s="63" t="s">
-        <v>107</v>
       </c>
       <c r="AB91" s="64"/>
       <c r="AC91" s="65"/>
-      <c r="AD91" s="72"/>
-      <c r="AE91" s="73"/>
-      <c r="AF91" s="74"/>
+      <c r="AD91" s="79"/>
+      <c r="AE91" s="80"/>
+      <c r="AF91" s="81"/>
       <c r="AG91" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH91" s="64"/>
       <c r="AI91" s="65"/>
       <c r="AJ91" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK91" s="64"/>
       <c r="AL91" s="65"/>
-      <c r="AM91" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN91" s="83"/>
-      <c r="AO91" s="83"/>
-      <c r="AP91" s="84"/>
-      <c r="AQ91" s="85"/>
+      <c r="AM91" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN91" s="76"/>
+      <c r="AO91" s="76"/>
+      <c r="AP91" s="77"/>
+      <c r="AQ91" s="78"/>
     </row>
     <row r="92" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G92" s="72"/>
-      <c r="H92" s="73"/>
-      <c r="I92" s="74"/>
-      <c r="J92" s="72">
+      <c r="G92" s="79"/>
+      <c r="H92" s="80"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="79">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K92" s="73"/>
-      <c r="L92" s="74"/>
-      <c r="M92" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="N92" s="74"/>
+      <c r="K92" s="80"/>
+      <c r="L92" s="81"/>
+      <c r="M92" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="N92" s="81"/>
       <c r="O92" s="63">
         <v>9</v>
       </c>
       <c r="P92" s="64"/>
       <c r="Q92" s="65"/>
       <c r="R92" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="S92" s="63" t="s">
         <v>105</v>
-      </c>
-      <c r="S92" s="63" t="s">
-        <v>107</v>
       </c>
       <c r="T92" s="64"/>
       <c r="U92" s="65"/>
       <c r="V92" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W92" s="63">
         <v>18</v>
@@ -27898,63 +27859,63 @@
       <c r="X92" s="64"/>
       <c r="Y92" s="65"/>
       <c r="Z92" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA92" s="63" t="s">
         <v>105</v>
-      </c>
-      <c r="AA92" s="63" t="s">
-        <v>107</v>
       </c>
       <c r="AB92" s="64"/>
       <c r="AC92" s="65"/>
-      <c r="AD92" s="72"/>
-      <c r="AE92" s="73"/>
-      <c r="AF92" s="74"/>
+      <c r="AD92" s="79"/>
+      <c r="AE92" s="80"/>
+      <c r="AF92" s="81"/>
       <c r="AG92" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH92" s="64"/>
       <c r="AI92" s="65"/>
       <c r="AJ92" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK92" s="64"/>
       <c r="AL92" s="65"/>
-      <c r="AM92" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN92" s="83"/>
-      <c r="AO92" s="83"/>
-      <c r="AP92" s="84"/>
-      <c r="AQ92" s="85"/>
+      <c r="AM92" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN92" s="76"/>
+      <c r="AO92" s="76"/>
+      <c r="AP92" s="77"/>
+      <c r="AQ92" s="78"/>
     </row>
     <row r="93" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G93" s="72"/>
-      <c r="H93" s="73"/>
-      <c r="I93" s="74"/>
-      <c r="J93" s="72">
+      <c r="G93" s="79"/>
+      <c r="H93" s="80"/>
+      <c r="I93" s="81"/>
+      <c r="J93" s="79">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K93" s="73"/>
-      <c r="L93" s="74"/>
-      <c r="M93" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N93" s="74"/>
+      <c r="K93" s="80"/>
+      <c r="L93" s="81"/>
+      <c r="M93" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="N93" s="81"/>
       <c r="O93" s="63">
         <v>9</v>
       </c>
       <c r="P93" s="64"/>
       <c r="Q93" s="65"/>
       <c r="R93" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S93" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T93" s="64"/>
       <c r="U93" s="65"/>
       <c r="V93" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W93" s="63">
         <v>18</v>
@@ -27962,48 +27923,48 @@
       <c r="X93" s="64"/>
       <c r="Y93" s="65"/>
       <c r="Z93" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA93" s="63">
         <v>30</v>
       </c>
       <c r="AB93" s="64"/>
       <c r="AC93" s="65"/>
-      <c r="AD93" s="72"/>
-      <c r="AE93" s="73"/>
-      <c r="AF93" s="74"/>
+      <c r="AD93" s="79"/>
+      <c r="AE93" s="80"/>
+      <c r="AF93" s="81"/>
       <c r="AG93" s="63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH93" s="64"/>
       <c r="AI93" s="65"/>
       <c r="AJ93" s="63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AK93" s="64"/>
       <c r="AL93" s="65"/>
-      <c r="AM93" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN93" s="83"/>
-      <c r="AO93" s="83"/>
-      <c r="AP93" s="84"/>
-      <c r="AQ93" s="85"/>
+      <c r="AM93" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN93" s="76"/>
+      <c r="AO93" s="76"/>
+      <c r="AP93" s="77"/>
+      <c r="AQ93" s="78"/>
     </row>
     <row r="94" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G94" s="72"/>
-      <c r="H94" s="73"/>
-      <c r="I94" s="74"/>
-      <c r="J94" s="72">
+      <c r="G94" s="79"/>
+      <c r="H94" s="80"/>
+      <c r="I94" s="81"/>
+      <c r="J94" s="79">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K94" s="73"/>
-      <c r="L94" s="74"/>
-      <c r="M94" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="N94" s="78"/>
+      <c r="K94" s="80"/>
+      <c r="L94" s="81"/>
+      <c r="M94" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="N94" s="85"/>
       <c r="O94" s="53"/>
       <c r="P94" s="54"/>
       <c r="Q94" s="56"/>
@@ -28012,7 +27973,7 @@
       <c r="T94" s="54"/>
       <c r="U94" s="56"/>
       <c r="V94" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W94" s="53"/>
       <c r="X94" s="55"/>
@@ -28021,41 +27982,41 @@
       <c r="AA94" s="55"/>
       <c r="AB94" s="55"/>
       <c r="AC94" s="55"/>
-      <c r="AD94" s="72"/>
-      <c r="AE94" s="73"/>
-      <c r="AF94" s="74"/>
+      <c r="AD94" s="79"/>
+      <c r="AE94" s="80"/>
+      <c r="AF94" s="81"/>
       <c r="AG94" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH94" s="64"/>
       <c r="AI94" s="65"/>
       <c r="AJ94" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK94" s="64"/>
       <c r="AL94" s="65"/>
-      <c r="AM94" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN94" s="83"/>
-      <c r="AO94" s="83"/>
-      <c r="AP94" s="84"/>
-      <c r="AQ94" s="85"/>
+      <c r="AM94" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN94" s="76"/>
+      <c r="AO94" s="76"/>
+      <c r="AP94" s="77"/>
+      <c r="AQ94" s="78"/>
     </row>
     <row r="95" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G95" s="72"/>
-      <c r="H95" s="73"/>
-      <c r="I95" s="74"/>
-      <c r="J95" s="72">
+      <c r="G95" s="79"/>
+      <c r="H95" s="80"/>
+      <c r="I95" s="81"/>
+      <c r="J95" s="79">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K95" s="73"/>
-      <c r="L95" s="74"/>
-      <c r="M95" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="N95" s="76"/>
+      <c r="K95" s="80"/>
+      <c r="L95" s="81"/>
+      <c r="M95" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="N95" s="83"/>
       <c r="O95" s="53"/>
       <c r="P95" s="54"/>
       <c r="Q95" s="56"/>
@@ -28064,7 +28025,7 @@
       <c r="T95" s="54"/>
       <c r="U95" s="56"/>
       <c r="V95" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W95" s="53"/>
       <c r="X95" s="55"/>
@@ -28073,41 +28034,41 @@
       <c r="AA95" s="55"/>
       <c r="AB95" s="55"/>
       <c r="AC95" s="55"/>
-      <c r="AD95" s="72"/>
-      <c r="AE95" s="73"/>
-      <c r="AF95" s="74"/>
+      <c r="AD95" s="79"/>
+      <c r="AE95" s="80"/>
+      <c r="AF95" s="81"/>
       <c r="AG95" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH95" s="64"/>
       <c r="AI95" s="65"/>
       <c r="AJ95" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK95" s="64"/>
       <c r="AL95" s="65"/>
-      <c r="AM95" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN95" s="83"/>
-      <c r="AO95" s="83"/>
-      <c r="AP95" s="84"/>
-      <c r="AQ95" s="85"/>
+      <c r="AM95" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN95" s="76"/>
+      <c r="AO95" s="76"/>
+      <c r="AP95" s="77"/>
+      <c r="AQ95" s="78"/>
     </row>
     <row r="96" spans="3:51" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G96" s="72"/>
-      <c r="H96" s="73"/>
-      <c r="I96" s="74"/>
-      <c r="J96" s="72">
+      <c r="G96" s="79"/>
+      <c r="H96" s="80"/>
+      <c r="I96" s="81"/>
+      <c r="J96" s="79">
         <f t="shared" ref="J96:J109" si="1">J95+1</f>
         <v>9</v>
       </c>
-      <c r="K96" s="73"/>
-      <c r="L96" s="74"/>
-      <c r="M96" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="N96" s="76"/>
+      <c r="K96" s="80"/>
+      <c r="L96" s="81"/>
+      <c r="M96" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="N96" s="83"/>
       <c r="O96" s="53"/>
       <c r="P96" s="54"/>
       <c r="Q96" s="56"/>
@@ -28116,7 +28077,7 @@
       <c r="T96" s="54"/>
       <c r="U96" s="56"/>
       <c r="V96" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W96" s="53"/>
       <c r="X96" s="55"/>
@@ -28125,56 +28086,56 @@
       <c r="AA96" s="55"/>
       <c r="AB96" s="55"/>
       <c r="AC96" s="55"/>
-      <c r="AD96" s="72"/>
-      <c r="AE96" s="73"/>
-      <c r="AF96" s="74"/>
+      <c r="AD96" s="79"/>
+      <c r="AE96" s="80"/>
+      <c r="AF96" s="81"/>
       <c r="AG96" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH96" s="64"/>
       <c r="AI96" s="65"/>
       <c r="AJ96" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK96" s="64"/>
       <c r="AL96" s="65"/>
-      <c r="AM96" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN96" s="83"/>
-      <c r="AO96" s="83"/>
-      <c r="AP96" s="84"/>
-      <c r="AQ96" s="85"/>
+      <c r="AM96" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN96" s="76"/>
+      <c r="AO96" s="76"/>
+      <c r="AP96" s="77"/>
+      <c r="AQ96" s="78"/>
     </row>
     <row r="97" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G97" s="72"/>
-      <c r="H97" s="73"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="72">
+      <c r="G97" s="79"/>
+      <c r="H97" s="80"/>
+      <c r="I97" s="81"/>
+      <c r="J97" s="79">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K97" s="73"/>
-      <c r="L97" s="74"/>
-      <c r="M97" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="N97" s="74"/>
+      <c r="K97" s="80"/>
+      <c r="L97" s="81"/>
+      <c r="M97" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="N97" s="81"/>
       <c r="O97" s="63">
         <v>9</v>
       </c>
       <c r="P97" s="64"/>
       <c r="Q97" s="65"/>
       <c r="R97" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S97" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T97" s="64"/>
       <c r="U97" s="65"/>
       <c r="V97" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W97" s="63">
         <v>20</v>
@@ -28182,63 +28143,63 @@
       <c r="X97" s="64"/>
       <c r="Y97" s="65"/>
       <c r="Z97" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA97" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB97" s="64"/>
       <c r="AC97" s="65"/>
-      <c r="AD97" s="72"/>
-      <c r="AE97" s="73"/>
-      <c r="AF97" s="74"/>
+      <c r="AD97" s="79"/>
+      <c r="AE97" s="80"/>
+      <c r="AF97" s="81"/>
       <c r="AG97" s="63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AH97" s="64"/>
       <c r="AI97" s="65"/>
       <c r="AJ97" s="63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AK97" s="64"/>
       <c r="AL97" s="65"/>
-      <c r="AM97" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN97" s="83"/>
-      <c r="AO97" s="83"/>
-      <c r="AP97" s="84"/>
-      <c r="AQ97" s="85"/>
+      <c r="AM97" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN97" s="76"/>
+      <c r="AO97" s="76"/>
+      <c r="AP97" s="77"/>
+      <c r="AQ97" s="78"/>
     </row>
     <row r="98" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G98" s="72"/>
-      <c r="H98" s="73"/>
-      <c r="I98" s="74"/>
-      <c r="J98" s="72">
+      <c r="G98" s="79"/>
+      <c r="H98" s="80"/>
+      <c r="I98" s="81"/>
+      <c r="J98" s="79">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K98" s="73"/>
-      <c r="L98" s="74"/>
-      <c r="M98" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="N98" s="74"/>
+      <c r="K98" s="80"/>
+      <c r="L98" s="81"/>
+      <c r="M98" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="N98" s="81"/>
       <c r="O98" s="63">
         <v>9</v>
       </c>
       <c r="P98" s="64"/>
       <c r="Q98" s="65"/>
       <c r="R98" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S98" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T98" s="64"/>
       <c r="U98" s="65"/>
       <c r="V98" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W98" s="63">
         <v>18</v>
@@ -28246,63 +28207,63 @@
       <c r="X98" s="64"/>
       <c r="Y98" s="65"/>
       <c r="Z98" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA98" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB98" s="64"/>
       <c r="AC98" s="65"/>
-      <c r="AD98" s="72"/>
-      <c r="AE98" s="73"/>
-      <c r="AF98" s="74"/>
+      <c r="AD98" s="79"/>
+      <c r="AE98" s="80"/>
+      <c r="AF98" s="81"/>
       <c r="AG98" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH98" s="64"/>
       <c r="AI98" s="65"/>
       <c r="AJ98" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK98" s="64"/>
       <c r="AL98" s="65"/>
-      <c r="AM98" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN98" s="83"/>
-      <c r="AO98" s="83"/>
-      <c r="AP98" s="84"/>
-      <c r="AQ98" s="85"/>
+      <c r="AM98" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN98" s="76"/>
+      <c r="AO98" s="76"/>
+      <c r="AP98" s="77"/>
+      <c r="AQ98" s="78"/>
     </row>
     <row r="99" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G99" s="72"/>
-      <c r="H99" s="73"/>
-      <c r="I99" s="74"/>
-      <c r="J99" s="72">
+      <c r="G99" s="79"/>
+      <c r="H99" s="80"/>
+      <c r="I99" s="81"/>
+      <c r="J99" s="79">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K99" s="73"/>
-      <c r="L99" s="74"/>
-      <c r="M99" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="N99" s="74"/>
+      <c r="K99" s="80"/>
+      <c r="L99" s="81"/>
+      <c r="M99" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="N99" s="81"/>
       <c r="O99" s="63">
         <v>9</v>
       </c>
       <c r="P99" s="64"/>
       <c r="Q99" s="65"/>
       <c r="R99" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S99" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T99" s="64"/>
       <c r="U99" s="65"/>
       <c r="V99" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W99" s="63">
         <v>18</v>
@@ -28310,63 +28271,63 @@
       <c r="X99" s="64"/>
       <c r="Y99" s="65"/>
       <c r="Z99" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA99" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB99" s="64"/>
       <c r="AC99" s="65"/>
-      <c r="AD99" s="72"/>
-      <c r="AE99" s="73"/>
-      <c r="AF99" s="74"/>
+      <c r="AD99" s="79"/>
+      <c r="AE99" s="80"/>
+      <c r="AF99" s="81"/>
       <c r="AG99" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH99" s="64"/>
       <c r="AI99" s="65"/>
       <c r="AJ99" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK99" s="64"/>
       <c r="AL99" s="65"/>
-      <c r="AM99" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN99" s="83"/>
-      <c r="AO99" s="83"/>
-      <c r="AP99" s="84"/>
-      <c r="AQ99" s="85"/>
+      <c r="AM99" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN99" s="76"/>
+      <c r="AO99" s="76"/>
+      <c r="AP99" s="77"/>
+      <c r="AQ99" s="78"/>
     </row>
     <row r="100" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G100" s="72"/>
-      <c r="H100" s="73"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="72">
+      <c r="G100" s="79"/>
+      <c r="H100" s="80"/>
+      <c r="I100" s="81"/>
+      <c r="J100" s="79">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K100" s="73"/>
-      <c r="L100" s="74"/>
-      <c r="M100" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N100" s="74"/>
+      <c r="K100" s="80"/>
+      <c r="L100" s="81"/>
+      <c r="M100" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="N100" s="81"/>
       <c r="O100" s="63">
         <v>9</v>
       </c>
       <c r="P100" s="64"/>
       <c r="Q100" s="65"/>
       <c r="R100" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S100" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T100" s="64"/>
       <c r="U100" s="65"/>
       <c r="V100" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W100" s="63">
         <v>18</v>
@@ -28374,48 +28335,48 @@
       <c r="X100" s="64"/>
       <c r="Y100" s="65"/>
       <c r="Z100" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA100" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB100" s="64"/>
       <c r="AC100" s="65"/>
-      <c r="AD100" s="72"/>
-      <c r="AE100" s="73"/>
-      <c r="AF100" s="74"/>
+      <c r="AD100" s="79"/>
+      <c r="AE100" s="80"/>
+      <c r="AF100" s="81"/>
       <c r="AG100" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH100" s="64"/>
       <c r="AI100" s="65"/>
       <c r="AJ100" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK100" s="64"/>
       <c r="AL100" s="65"/>
-      <c r="AM100" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN100" s="83"/>
-      <c r="AO100" s="83"/>
-      <c r="AP100" s="84"/>
-      <c r="AQ100" s="85"/>
+      <c r="AM100" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN100" s="76"/>
+      <c r="AO100" s="76"/>
+      <c r="AP100" s="77"/>
+      <c r="AQ100" s="78"/>
     </row>
     <row r="101" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G101" s="72"/>
-      <c r="H101" s="73"/>
-      <c r="I101" s="74"/>
-      <c r="J101" s="72">
+      <c r="G101" s="79"/>
+      <c r="H101" s="80"/>
+      <c r="I101" s="81"/>
+      <c r="J101" s="79">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K101" s="73"/>
-      <c r="L101" s="74"/>
-      <c r="M101" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="N101" s="78"/>
+      <c r="K101" s="80"/>
+      <c r="L101" s="81"/>
+      <c r="M101" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="N101" s="85"/>
       <c r="O101" s="53"/>
       <c r="P101" s="54"/>
       <c r="Q101" s="56"/>
@@ -28424,7 +28385,7 @@
       <c r="T101" s="54"/>
       <c r="U101" s="56"/>
       <c r="V101" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W101" s="53"/>
       <c r="X101" s="55"/>
@@ -28433,41 +28394,41 @@
       <c r="AA101" s="55"/>
       <c r="AB101" s="55"/>
       <c r="AC101" s="55"/>
-      <c r="AD101" s="72"/>
-      <c r="AE101" s="73"/>
-      <c r="AF101" s="74"/>
+      <c r="AD101" s="79"/>
+      <c r="AE101" s="80"/>
+      <c r="AF101" s="81"/>
       <c r="AG101" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH101" s="64"/>
       <c r="AI101" s="65"/>
       <c r="AJ101" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK101" s="64"/>
       <c r="AL101" s="65"/>
-      <c r="AM101" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN101" s="83"/>
-      <c r="AO101" s="83"/>
-      <c r="AP101" s="84"/>
-      <c r="AQ101" s="85"/>
+      <c r="AM101" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN101" s="76"/>
+      <c r="AO101" s="76"/>
+      <c r="AP101" s="77"/>
+      <c r="AQ101" s="78"/>
     </row>
     <row r="102" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G102" s="72"/>
-      <c r="H102" s="73"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="72">
+      <c r="G102" s="79"/>
+      <c r="H102" s="80"/>
+      <c r="I102" s="81"/>
+      <c r="J102" s="79">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K102" s="73"/>
-      <c r="L102" s="74"/>
-      <c r="M102" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="N102" s="76"/>
+      <c r="K102" s="80"/>
+      <c r="L102" s="81"/>
+      <c r="M102" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="N102" s="83"/>
       <c r="O102" s="53"/>
       <c r="P102" s="54"/>
       <c r="Q102" s="56"/>
@@ -28476,7 +28437,7 @@
       <c r="T102" s="54"/>
       <c r="U102" s="56"/>
       <c r="V102" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W102" s="53"/>
       <c r="X102" s="55"/>
@@ -28485,56 +28446,56 @@
       <c r="AA102" s="55"/>
       <c r="AB102" s="55"/>
       <c r="AC102" s="55"/>
-      <c r="AD102" s="72"/>
-      <c r="AE102" s="73"/>
-      <c r="AF102" s="74"/>
+      <c r="AD102" s="79"/>
+      <c r="AE102" s="80"/>
+      <c r="AF102" s="81"/>
       <c r="AG102" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH102" s="64"/>
       <c r="AI102" s="65"/>
       <c r="AJ102" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK102" s="64"/>
       <c r="AL102" s="65"/>
-      <c r="AM102" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN102" s="83"/>
-      <c r="AO102" s="83"/>
-      <c r="AP102" s="84"/>
-      <c r="AQ102" s="85"/>
+      <c r="AM102" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN102" s="76"/>
+      <c r="AO102" s="76"/>
+      <c r="AP102" s="77"/>
+      <c r="AQ102" s="78"/>
     </row>
     <row r="103" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G103" s="72"/>
-      <c r="H103" s="73"/>
-      <c r="I103" s="74"/>
-      <c r="J103" s="72">
+      <c r="G103" s="79"/>
+      <c r="H103" s="80"/>
+      <c r="I103" s="81"/>
+      <c r="J103" s="79">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K103" s="73"/>
-      <c r="L103" s="74"/>
-      <c r="M103" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="N103" s="74"/>
+      <c r="K103" s="80"/>
+      <c r="L103" s="81"/>
+      <c r="M103" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="N103" s="81"/>
       <c r="O103" s="63">
         <v>9</v>
       </c>
       <c r="P103" s="64"/>
       <c r="Q103" s="65"/>
       <c r="R103" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S103" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T103" s="64"/>
       <c r="U103" s="65"/>
       <c r="V103" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W103" s="63">
         <v>18</v>
@@ -28542,63 +28503,63 @@
       <c r="X103" s="64"/>
       <c r="Y103" s="65"/>
       <c r="Z103" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA103" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB103" s="64"/>
       <c r="AC103" s="65"/>
-      <c r="AD103" s="72"/>
-      <c r="AE103" s="73"/>
-      <c r="AF103" s="74"/>
+      <c r="AD103" s="79"/>
+      <c r="AE103" s="80"/>
+      <c r="AF103" s="81"/>
       <c r="AG103" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH103" s="64"/>
       <c r="AI103" s="65"/>
       <c r="AJ103" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK103" s="64"/>
       <c r="AL103" s="65"/>
-      <c r="AM103" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN103" s="83"/>
-      <c r="AO103" s="83"/>
-      <c r="AP103" s="84"/>
-      <c r="AQ103" s="85"/>
+      <c r="AM103" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN103" s="76"/>
+      <c r="AO103" s="76"/>
+      <c r="AP103" s="77"/>
+      <c r="AQ103" s="78"/>
     </row>
     <row r="104" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G104" s="72"/>
-      <c r="H104" s="73"/>
-      <c r="I104" s="74"/>
-      <c r="J104" s="72">
+      <c r="G104" s="79"/>
+      <c r="H104" s="80"/>
+      <c r="I104" s="81"/>
+      <c r="J104" s="79">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K104" s="73"/>
-      <c r="L104" s="74"/>
-      <c r="M104" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="N104" s="74"/>
+      <c r="K104" s="80"/>
+      <c r="L104" s="81"/>
+      <c r="M104" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="N104" s="81"/>
       <c r="O104" s="63">
         <v>9</v>
       </c>
       <c r="P104" s="64"/>
       <c r="Q104" s="65"/>
       <c r="R104" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S104" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T104" s="64"/>
       <c r="U104" s="65"/>
       <c r="V104" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W104" s="63">
         <v>18</v>
@@ -28606,63 +28567,63 @@
       <c r="X104" s="64"/>
       <c r="Y104" s="65"/>
       <c r="Z104" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA104" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB104" s="64"/>
       <c r="AC104" s="65"/>
-      <c r="AD104" s="72"/>
-      <c r="AE104" s="73"/>
-      <c r="AF104" s="74"/>
+      <c r="AD104" s="79"/>
+      <c r="AE104" s="80"/>
+      <c r="AF104" s="81"/>
       <c r="AG104" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH104" s="64"/>
       <c r="AI104" s="65"/>
       <c r="AJ104" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK104" s="64"/>
       <c r="AL104" s="65"/>
-      <c r="AM104" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN104" s="83"/>
-      <c r="AO104" s="83"/>
-      <c r="AP104" s="84"/>
-      <c r="AQ104" s="85"/>
+      <c r="AM104" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN104" s="76"/>
+      <c r="AO104" s="76"/>
+      <c r="AP104" s="77"/>
+      <c r="AQ104" s="78"/>
     </row>
     <row r="105" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G105" s="72"/>
-      <c r="H105" s="73"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="72">
+      <c r="G105" s="79"/>
+      <c r="H105" s="80"/>
+      <c r="I105" s="81"/>
+      <c r="J105" s="79">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K105" s="73"/>
-      <c r="L105" s="74"/>
-      <c r="M105" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="N105" s="74"/>
+      <c r="K105" s="80"/>
+      <c r="L105" s="81"/>
+      <c r="M105" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="N105" s="81"/>
       <c r="O105" s="63">
         <v>9</v>
       </c>
       <c r="P105" s="64"/>
       <c r="Q105" s="65"/>
       <c r="R105" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S105" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T105" s="64"/>
       <c r="U105" s="65"/>
       <c r="V105" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W105" s="63">
         <v>18</v>
@@ -28670,63 +28631,63 @@
       <c r="X105" s="64"/>
       <c r="Y105" s="65"/>
       <c r="Z105" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA105" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB105" s="64"/>
       <c r="AC105" s="65"/>
-      <c r="AD105" s="72"/>
-      <c r="AE105" s="73"/>
-      <c r="AF105" s="74"/>
+      <c r="AD105" s="79"/>
+      <c r="AE105" s="80"/>
+      <c r="AF105" s="81"/>
       <c r="AG105" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH105" s="64"/>
       <c r="AI105" s="65"/>
       <c r="AJ105" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK105" s="64"/>
       <c r="AL105" s="65"/>
-      <c r="AM105" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN105" s="83"/>
-      <c r="AO105" s="83"/>
-      <c r="AP105" s="84"/>
-      <c r="AQ105" s="85"/>
+      <c r="AM105" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN105" s="76"/>
+      <c r="AO105" s="76"/>
+      <c r="AP105" s="77"/>
+      <c r="AQ105" s="78"/>
     </row>
     <row r="106" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G106" s="72"/>
-      <c r="H106" s="73"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="72">
+      <c r="G106" s="79"/>
+      <c r="H106" s="80"/>
+      <c r="I106" s="81"/>
+      <c r="J106" s="79">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K106" s="73"/>
-      <c r="L106" s="74"/>
-      <c r="M106" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="N106" s="74"/>
+      <c r="K106" s="80"/>
+      <c r="L106" s="81"/>
+      <c r="M106" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="N106" s="81"/>
       <c r="O106" s="63">
         <v>9</v>
       </c>
       <c r="P106" s="64"/>
       <c r="Q106" s="65"/>
       <c r="R106" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S106" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T106" s="64"/>
       <c r="U106" s="65"/>
       <c r="V106" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W106" s="63">
         <v>18</v>
@@ -28734,63 +28695,63 @@
       <c r="X106" s="64"/>
       <c r="Y106" s="65"/>
       <c r="Z106" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA106" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB106" s="64"/>
       <c r="AC106" s="65"/>
-      <c r="AD106" s="72"/>
-      <c r="AE106" s="73"/>
-      <c r="AF106" s="74"/>
+      <c r="AD106" s="79"/>
+      <c r="AE106" s="80"/>
+      <c r="AF106" s="81"/>
       <c r="AG106" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH106" s="64"/>
       <c r="AI106" s="65"/>
       <c r="AJ106" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK106" s="64"/>
       <c r="AL106" s="65"/>
-      <c r="AM106" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN106" s="83"/>
-      <c r="AO106" s="83"/>
-      <c r="AP106" s="84"/>
-      <c r="AQ106" s="85"/>
+      <c r="AM106" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN106" s="76"/>
+      <c r="AO106" s="76"/>
+      <c r="AP106" s="77"/>
+      <c r="AQ106" s="78"/>
     </row>
     <row r="107" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G107" s="72"/>
-      <c r="H107" s="73"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="72">
+      <c r="G107" s="79"/>
+      <c r="H107" s="80"/>
+      <c r="I107" s="81"/>
+      <c r="J107" s="79">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K107" s="73"/>
-      <c r="L107" s="74"/>
-      <c r="M107" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N107" s="74"/>
+      <c r="K107" s="80"/>
+      <c r="L107" s="81"/>
+      <c r="M107" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="N107" s="81"/>
       <c r="O107" s="63">
         <v>9</v>
       </c>
       <c r="P107" s="64"/>
       <c r="Q107" s="65"/>
       <c r="R107" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S107" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T107" s="64"/>
       <c r="U107" s="65"/>
       <c r="V107" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W107" s="63">
         <v>18</v>
@@ -28798,48 +28759,48 @@
       <c r="X107" s="64"/>
       <c r="Y107" s="65"/>
       <c r="Z107" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA107" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB107" s="64"/>
       <c r="AC107" s="65"/>
-      <c r="AD107" s="72"/>
-      <c r="AE107" s="73"/>
-      <c r="AF107" s="74"/>
+      <c r="AD107" s="79"/>
+      <c r="AE107" s="80"/>
+      <c r="AF107" s="81"/>
       <c r="AG107" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH107" s="64"/>
       <c r="AI107" s="65"/>
       <c r="AJ107" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK107" s="64"/>
       <c r="AL107" s="65"/>
-      <c r="AM107" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN107" s="83"/>
-      <c r="AO107" s="83"/>
-      <c r="AP107" s="84"/>
-      <c r="AQ107" s="85"/>
+      <c r="AM107" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN107" s="76"/>
+      <c r="AO107" s="76"/>
+      <c r="AP107" s="77"/>
+      <c r="AQ107" s="78"/>
     </row>
     <row r="108" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G108" s="72"/>
-      <c r="H108" s="73"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="72">
+      <c r="G108" s="79"/>
+      <c r="H108" s="80"/>
+      <c r="I108" s="81"/>
+      <c r="J108" s="79">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K108" s="73"/>
-      <c r="L108" s="74"/>
-      <c r="M108" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="N108" s="78"/>
+      <c r="K108" s="80"/>
+      <c r="L108" s="81"/>
+      <c r="M108" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="N108" s="85"/>
       <c r="O108" s="53"/>
       <c r="P108" s="54"/>
       <c r="Q108" s="56"/>
@@ -28848,7 +28809,7 @@
       <c r="T108" s="54"/>
       <c r="U108" s="56"/>
       <c r="V108" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W108" s="53"/>
       <c r="X108" s="55"/>
@@ -28857,41 +28818,41 @@
       <c r="AA108" s="55"/>
       <c r="AB108" s="55"/>
       <c r="AC108" s="55"/>
-      <c r="AD108" s="72"/>
-      <c r="AE108" s="73"/>
-      <c r="AF108" s="74"/>
+      <c r="AD108" s="79"/>
+      <c r="AE108" s="80"/>
+      <c r="AF108" s="81"/>
       <c r="AG108" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH108" s="64"/>
       <c r="AI108" s="65"/>
       <c r="AJ108" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK108" s="64"/>
       <c r="AL108" s="65"/>
-      <c r="AM108" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN108" s="83"/>
-      <c r="AO108" s="83"/>
-      <c r="AP108" s="84"/>
-      <c r="AQ108" s="85"/>
+      <c r="AM108" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN108" s="76"/>
+      <c r="AO108" s="76"/>
+      <c r="AP108" s="77"/>
+      <c r="AQ108" s="78"/>
     </row>
     <row r="109" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G109" s="72"/>
-      <c r="H109" s="73"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="72">
+      <c r="G109" s="79"/>
+      <c r="H109" s="80"/>
+      <c r="I109" s="81"/>
+      <c r="J109" s="79">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K109" s="73"/>
-      <c r="L109" s="74"/>
-      <c r="M109" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="N109" s="76"/>
+      <c r="K109" s="80"/>
+      <c r="L109" s="81"/>
+      <c r="M109" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="N109" s="83"/>
       <c r="O109" s="53"/>
       <c r="P109" s="54"/>
       <c r="Q109" s="56"/>
@@ -28900,7 +28861,7 @@
       <c r="T109" s="54"/>
       <c r="U109" s="56"/>
       <c r="V109" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W109" s="53"/>
       <c r="X109" s="55"/>
@@ -28909,56 +28870,56 @@
       <c r="AA109" s="55"/>
       <c r="AB109" s="55"/>
       <c r="AC109" s="55"/>
-      <c r="AD109" s="72"/>
-      <c r="AE109" s="73"/>
-      <c r="AF109" s="74"/>
+      <c r="AD109" s="79"/>
+      <c r="AE109" s="80"/>
+      <c r="AF109" s="81"/>
       <c r="AG109" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH109" s="64"/>
       <c r="AI109" s="65"/>
       <c r="AJ109" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK109" s="64"/>
       <c r="AL109" s="65"/>
-      <c r="AM109" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN109" s="83"/>
-      <c r="AO109" s="83"/>
-      <c r="AP109" s="84"/>
-      <c r="AQ109" s="85"/>
+      <c r="AM109" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN109" s="76"/>
+      <c r="AO109" s="76"/>
+      <c r="AP109" s="77"/>
+      <c r="AQ109" s="78"/>
     </row>
     <row r="110" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G110" s="72"/>
-      <c r="H110" s="73"/>
-      <c r="I110" s="74"/>
-      <c r="J110" s="72">
+      <c r="G110" s="79"/>
+      <c r="H110" s="80"/>
+      <c r="I110" s="81"/>
+      <c r="J110" s="79">
         <f t="shared" ref="J110:J118" si="2">J109+1</f>
         <v>23</v>
       </c>
-      <c r="K110" s="73"/>
-      <c r="L110" s="74"/>
-      <c r="M110" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="N110" s="74"/>
+      <c r="K110" s="80"/>
+      <c r="L110" s="81"/>
+      <c r="M110" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="N110" s="81"/>
       <c r="O110" s="63">
         <v>9</v>
       </c>
       <c r="P110" s="64"/>
       <c r="Q110" s="65"/>
       <c r="R110" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S110" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T110" s="64"/>
       <c r="U110" s="65"/>
       <c r="V110" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W110" s="63">
         <v>18</v>
@@ -28966,63 +28927,63 @@
       <c r="X110" s="64"/>
       <c r="Y110" s="65"/>
       <c r="Z110" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA110" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB110" s="64"/>
       <c r="AC110" s="65"/>
-      <c r="AD110" s="72"/>
-      <c r="AE110" s="73"/>
-      <c r="AF110" s="74"/>
+      <c r="AD110" s="79"/>
+      <c r="AE110" s="80"/>
+      <c r="AF110" s="81"/>
       <c r="AG110" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH110" s="64"/>
       <c r="AI110" s="65"/>
       <c r="AJ110" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK110" s="64"/>
       <c r="AL110" s="65"/>
-      <c r="AM110" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN110" s="83"/>
-      <c r="AO110" s="83"/>
-      <c r="AP110" s="84"/>
-      <c r="AQ110" s="85"/>
+      <c r="AM110" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN110" s="76"/>
+      <c r="AO110" s="76"/>
+      <c r="AP110" s="77"/>
+      <c r="AQ110" s="78"/>
     </row>
     <row r="111" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G111" s="72"/>
-      <c r="H111" s="73"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="72">
+      <c r="G111" s="79"/>
+      <c r="H111" s="80"/>
+      <c r="I111" s="81"/>
+      <c r="J111" s="79">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="K111" s="73"/>
-      <c r="L111" s="74"/>
-      <c r="M111" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="N111" s="74"/>
+      <c r="K111" s="80"/>
+      <c r="L111" s="81"/>
+      <c r="M111" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="N111" s="81"/>
       <c r="O111" s="63">
         <v>9</v>
       </c>
       <c r="P111" s="64"/>
       <c r="Q111" s="65"/>
       <c r="R111" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S111" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T111" s="64"/>
       <c r="U111" s="65"/>
       <c r="V111" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W111" s="63">
         <v>18</v>
@@ -29030,63 +28991,63 @@
       <c r="X111" s="64"/>
       <c r="Y111" s="65"/>
       <c r="Z111" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA111" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB111" s="64"/>
       <c r="AC111" s="65"/>
-      <c r="AD111" s="72"/>
-      <c r="AE111" s="73"/>
-      <c r="AF111" s="74"/>
+      <c r="AD111" s="79"/>
+      <c r="AE111" s="80"/>
+      <c r="AF111" s="81"/>
       <c r="AG111" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH111" s="64"/>
       <c r="AI111" s="65"/>
       <c r="AJ111" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK111" s="64"/>
       <c r="AL111" s="65"/>
-      <c r="AM111" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN111" s="83"/>
-      <c r="AO111" s="83"/>
-      <c r="AP111" s="84"/>
-      <c r="AQ111" s="85"/>
+      <c r="AM111" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN111" s="76"/>
+      <c r="AO111" s="76"/>
+      <c r="AP111" s="77"/>
+      <c r="AQ111" s="78"/>
     </row>
     <row r="112" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G112" s="72"/>
-      <c r="H112" s="73"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="72">
+      <c r="G112" s="79"/>
+      <c r="H112" s="80"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="79">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K112" s="73"/>
-      <c r="L112" s="74"/>
-      <c r="M112" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="N112" s="74"/>
+      <c r="K112" s="80"/>
+      <c r="L112" s="81"/>
+      <c r="M112" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="N112" s="81"/>
       <c r="O112" s="63">
         <v>9</v>
       </c>
       <c r="P112" s="64"/>
       <c r="Q112" s="65"/>
       <c r="R112" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S112" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T112" s="64"/>
       <c r="U112" s="65"/>
       <c r="V112" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W112" s="63">
         <v>18</v>
@@ -29094,63 +29055,63 @@
       <c r="X112" s="64"/>
       <c r="Y112" s="65"/>
       <c r="Z112" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA112" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB112" s="64"/>
       <c r="AC112" s="65"/>
-      <c r="AD112" s="72"/>
-      <c r="AE112" s="73"/>
-      <c r="AF112" s="74"/>
+      <c r="AD112" s="79"/>
+      <c r="AE112" s="80"/>
+      <c r="AF112" s="81"/>
       <c r="AG112" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH112" s="64"/>
       <c r="AI112" s="65"/>
       <c r="AJ112" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK112" s="64"/>
       <c r="AL112" s="65"/>
-      <c r="AM112" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN112" s="83"/>
-      <c r="AO112" s="83"/>
-      <c r="AP112" s="84"/>
-      <c r="AQ112" s="85"/>
+      <c r="AM112" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN112" s="76"/>
+      <c r="AO112" s="76"/>
+      <c r="AP112" s="77"/>
+      <c r="AQ112" s="78"/>
     </row>
     <row r="113" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G113" s="72"/>
-      <c r="H113" s="73"/>
-      <c r="I113" s="74"/>
-      <c r="J113" s="72">
+      <c r="G113" s="79"/>
+      <c r="H113" s="80"/>
+      <c r="I113" s="81"/>
+      <c r="J113" s="79">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="K113" s="73"/>
-      <c r="L113" s="74"/>
-      <c r="M113" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="N113" s="74"/>
+      <c r="K113" s="80"/>
+      <c r="L113" s="81"/>
+      <c r="M113" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="N113" s="81"/>
       <c r="O113" s="63">
         <v>9</v>
       </c>
       <c r="P113" s="64"/>
       <c r="Q113" s="65"/>
       <c r="R113" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S113" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T113" s="64"/>
       <c r="U113" s="65"/>
       <c r="V113" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W113" s="63">
         <v>18</v>
@@ -29158,63 +29119,63 @@
       <c r="X113" s="64"/>
       <c r="Y113" s="65"/>
       <c r="Z113" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA113" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB113" s="64"/>
       <c r="AC113" s="65"/>
-      <c r="AD113" s="72"/>
-      <c r="AE113" s="73"/>
-      <c r="AF113" s="74"/>
+      <c r="AD113" s="79"/>
+      <c r="AE113" s="80"/>
+      <c r="AF113" s="81"/>
       <c r="AG113" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH113" s="64"/>
       <c r="AI113" s="65"/>
       <c r="AJ113" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK113" s="64"/>
       <c r="AL113" s="65"/>
-      <c r="AM113" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN113" s="83"/>
-      <c r="AO113" s="83"/>
-      <c r="AP113" s="84"/>
-      <c r="AQ113" s="85"/>
+      <c r="AM113" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN113" s="76"/>
+      <c r="AO113" s="76"/>
+      <c r="AP113" s="77"/>
+      <c r="AQ113" s="78"/>
     </row>
     <row r="114" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G114" s="72"/>
-      <c r="H114" s="73"/>
-      <c r="I114" s="74"/>
-      <c r="J114" s="72">
+      <c r="G114" s="79"/>
+      <c r="H114" s="80"/>
+      <c r="I114" s="81"/>
+      <c r="J114" s="79">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="K114" s="73"/>
-      <c r="L114" s="74"/>
-      <c r="M114" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N114" s="74"/>
+      <c r="K114" s="80"/>
+      <c r="L114" s="81"/>
+      <c r="M114" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="N114" s="81"/>
       <c r="O114" s="63">
         <v>9</v>
       </c>
       <c r="P114" s="64"/>
       <c r="Q114" s="65"/>
       <c r="R114" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S114" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T114" s="64"/>
       <c r="U114" s="65"/>
       <c r="V114" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W114" s="63">
         <v>18</v>
@@ -29222,48 +29183,48 @@
       <c r="X114" s="64"/>
       <c r="Y114" s="65"/>
       <c r="Z114" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA114" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB114" s="64"/>
       <c r="AC114" s="65"/>
-      <c r="AD114" s="72"/>
-      <c r="AE114" s="73"/>
-      <c r="AF114" s="74"/>
+      <c r="AD114" s="79"/>
+      <c r="AE114" s="80"/>
+      <c r="AF114" s="81"/>
       <c r="AG114" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH114" s="64"/>
       <c r="AI114" s="65"/>
       <c r="AJ114" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK114" s="64"/>
       <c r="AL114" s="65"/>
-      <c r="AM114" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN114" s="83"/>
-      <c r="AO114" s="83"/>
-      <c r="AP114" s="84"/>
-      <c r="AQ114" s="85"/>
+      <c r="AM114" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN114" s="76"/>
+      <c r="AO114" s="76"/>
+      <c r="AP114" s="77"/>
+      <c r="AQ114" s="78"/>
     </row>
     <row r="115" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G115" s="72"/>
-      <c r="H115" s="73"/>
-      <c r="I115" s="74"/>
-      <c r="J115" s="72">
+      <c r="G115" s="79"/>
+      <c r="H115" s="80"/>
+      <c r="I115" s="81"/>
+      <c r="J115" s="79">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K115" s="73"/>
-      <c r="L115" s="74"/>
-      <c r="M115" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="N115" s="78"/>
+      <c r="K115" s="80"/>
+      <c r="L115" s="81"/>
+      <c r="M115" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="N115" s="85"/>
       <c r="O115" s="53"/>
       <c r="P115" s="54"/>
       <c r="Q115" s="56"/>
@@ -29272,7 +29233,7 @@
       <c r="T115" s="54"/>
       <c r="U115" s="56"/>
       <c r="V115" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W115" s="53"/>
       <c r="X115" s="55"/>
@@ -29281,41 +29242,41 @@
       <c r="AA115" s="55"/>
       <c r="AB115" s="55"/>
       <c r="AC115" s="55"/>
-      <c r="AD115" s="72"/>
-      <c r="AE115" s="73"/>
-      <c r="AF115" s="74"/>
+      <c r="AD115" s="79"/>
+      <c r="AE115" s="80"/>
+      <c r="AF115" s="81"/>
       <c r="AG115" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH115" s="64"/>
       <c r="AI115" s="65"/>
       <c r="AJ115" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK115" s="64"/>
       <c r="AL115" s="65"/>
-      <c r="AM115" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN115" s="83"/>
-      <c r="AO115" s="83"/>
-      <c r="AP115" s="84"/>
-      <c r="AQ115" s="85"/>
+      <c r="AM115" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN115" s="76"/>
+      <c r="AO115" s="76"/>
+      <c r="AP115" s="77"/>
+      <c r="AQ115" s="78"/>
     </row>
     <row r="116" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G116" s="72"/>
-      <c r="H116" s="73"/>
-      <c r="I116" s="74"/>
-      <c r="J116" s="72">
+      <c r="G116" s="79"/>
+      <c r="H116" s="80"/>
+      <c r="I116" s="81"/>
+      <c r="J116" s="79">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="K116" s="73"/>
-      <c r="L116" s="74"/>
-      <c r="M116" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="N116" s="76"/>
+      <c r="K116" s="80"/>
+      <c r="L116" s="81"/>
+      <c r="M116" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="N116" s="83"/>
       <c r="O116" s="53"/>
       <c r="P116" s="54"/>
       <c r="Q116" s="56"/>
@@ -29324,7 +29285,7 @@
       <c r="T116" s="54"/>
       <c r="U116" s="56"/>
       <c r="V116" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W116" s="53"/>
       <c r="X116" s="55"/>
@@ -29333,56 +29294,56 @@
       <c r="AA116" s="55"/>
       <c r="AB116" s="55"/>
       <c r="AC116" s="55"/>
-      <c r="AD116" s="72"/>
-      <c r="AE116" s="73"/>
-      <c r="AF116" s="74"/>
+      <c r="AD116" s="79"/>
+      <c r="AE116" s="80"/>
+      <c r="AF116" s="81"/>
       <c r="AG116" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AH116" s="64"/>
       <c r="AI116" s="65"/>
       <c r="AJ116" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK116" s="64"/>
       <c r="AL116" s="65"/>
-      <c r="AM116" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN116" s="83"/>
-      <c r="AO116" s="83"/>
-      <c r="AP116" s="84"/>
-      <c r="AQ116" s="85"/>
+      <c r="AM116" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN116" s="76"/>
+      <c r="AO116" s="76"/>
+      <c r="AP116" s="77"/>
+      <c r="AQ116" s="78"/>
     </row>
     <row r="117" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G117" s="72"/>
-      <c r="H117" s="73"/>
-      <c r="I117" s="74"/>
-      <c r="J117" s="72">
+      <c r="G117" s="79"/>
+      <c r="H117" s="80"/>
+      <c r="I117" s="81"/>
+      <c r="J117" s="79">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K117" s="73"/>
-      <c r="L117" s="74"/>
-      <c r="M117" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="N117" s="74"/>
+      <c r="K117" s="80"/>
+      <c r="L117" s="81"/>
+      <c r="M117" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="N117" s="81"/>
       <c r="O117" s="63">
         <v>9</v>
       </c>
       <c r="P117" s="64"/>
       <c r="Q117" s="65"/>
       <c r="R117" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S117" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T117" s="64"/>
       <c r="U117" s="65"/>
       <c r="V117" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W117" s="63">
         <v>18</v>
@@ -29390,63 +29351,63 @@
       <c r="X117" s="64"/>
       <c r="Y117" s="65"/>
       <c r="Z117" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA117" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB117" s="64"/>
       <c r="AC117" s="65"/>
-      <c r="AD117" s="72"/>
-      <c r="AE117" s="73"/>
-      <c r="AF117" s="74"/>
+      <c r="AD117" s="79"/>
+      <c r="AE117" s="80"/>
+      <c r="AF117" s="81"/>
       <c r="AG117" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH117" s="64"/>
       <c r="AI117" s="65"/>
       <c r="AJ117" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK117" s="64"/>
       <c r="AL117" s="65"/>
-      <c r="AM117" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN117" s="83"/>
-      <c r="AO117" s="83"/>
-      <c r="AP117" s="84"/>
-      <c r="AQ117" s="85"/>
+      <c r="AM117" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN117" s="76"/>
+      <c r="AO117" s="76"/>
+      <c r="AP117" s="77"/>
+      <c r="AQ117" s="78"/>
     </row>
     <row r="118" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G118" s="72"/>
-      <c r="H118" s="73"/>
-      <c r="I118" s="74"/>
-      <c r="J118" s="72">
+      <c r="G118" s="79"/>
+      <c r="H118" s="80"/>
+      <c r="I118" s="81"/>
+      <c r="J118" s="79">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K118" s="73"/>
-      <c r="L118" s="74"/>
-      <c r="M118" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="N118" s="74"/>
+      <c r="K118" s="80"/>
+      <c r="L118" s="81"/>
+      <c r="M118" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="N118" s="81"/>
       <c r="O118" s="63">
         <v>9</v>
       </c>
       <c r="P118" s="64"/>
       <c r="Q118" s="65"/>
       <c r="R118" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S118" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T118" s="64"/>
       <c r="U118" s="65"/>
       <c r="V118" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W118" s="63">
         <v>18</v>
@@ -29454,33 +29415,33 @@
       <c r="X118" s="64"/>
       <c r="Y118" s="65"/>
       <c r="Z118" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AA118" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AB118" s="64"/>
       <c r="AC118" s="65"/>
-      <c r="AD118" s="72"/>
-      <c r="AE118" s="73"/>
-      <c r="AF118" s="74"/>
+      <c r="AD118" s="79"/>
+      <c r="AE118" s="80"/>
+      <c r="AF118" s="81"/>
       <c r="AG118" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH118" s="64"/>
       <c r="AI118" s="65"/>
       <c r="AJ118" s="63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK118" s="64"/>
       <c r="AL118" s="65"/>
-      <c r="AM118" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN118" s="83"/>
-      <c r="AO118" s="83"/>
-      <c r="AP118" s="84"/>
-      <c r="AQ118" s="85"/>
+      <c r="AM118" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN118" s="76"/>
+      <c r="AO118" s="76"/>
+      <c r="AP118" s="77"/>
+      <c r="AQ118" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="124">
@@ -29622,7 +29583,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BB15" sqref="BB15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -29662,25 +29625,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>53</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>54</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
@@ -29688,10 +29651,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C5" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
@@ -29699,82 +29662,82 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -29782,22 +29745,22 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A958E04-3158-4A0B-B554-56EE61E0C367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7DF408-3211-4AAE-8B1B-3BFEFDDE18EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
@@ -1392,7 +1392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1639,27 +1639,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1667,9 +1646,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
@@ -1740,6 +1716,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19098,75 +19095,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="スマイル 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3259167E-B234-4888-8D44-D4148C0F0857}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1866900" y="10753725"/>
-          <a:ext cx="428625" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="smileyFace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1004888</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>1042987</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:colOff>1085849</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -19179,18 +19116,18 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="48" idx="4"/>
+          <a:stCxn id="28" idx="4"/>
           <a:endCxn id="50" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2912269" y="10332243"/>
-          <a:ext cx="695325" cy="2357437"/>
+          <a:off x="1135856" y="8555831"/>
+          <a:ext cx="4286250" cy="2319337"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 84667"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -19712,6 +19649,1491 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="スマイル 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4648A02-DFA7-441D-8770-06DEFF1CE970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="16497300"/>
+          <a:ext cx="428625" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1033463</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282DAB1C-0287-4DC8-9E8C-21E70D2BAEA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2940844" y="16075818"/>
+          <a:ext cx="714375" cy="2376487"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81FB999-EBB5-4120-BC69-07F30A42FF3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="17621250"/>
+          <a:ext cx="1409700" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニュー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404A9353-F32A-4242-8902-27DB4A374777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="18830925"/>
+          <a:ext cx="1409700" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザ設定画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC7E9FD-FB72-48F4-ACB3-F921D4852AEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="18392775"/>
+          <a:ext cx="0" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1033462</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1114424</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4929D1-C298-467B-84E3-47736653C726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1516856" y="18928556"/>
+          <a:ext cx="3543300" cy="2357437"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 85753"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2200BD15-554B-4257-9F90-15C42B07A458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762375" y="20450175"/>
+          <a:ext cx="1409700" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザ設定画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="グループ化 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32E37A7-C11D-4A30-BB11-C726268F40DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5915025" y="23193375"/>
+          <a:ext cx="1714500" cy="1047750"/>
+          <a:chOff x="5524500" y="1581150"/>
+          <a:chExt cx="1714500" cy="1047750"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="円柱 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4461CB2-DED8-C408-0D80-91E432C6B8F4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5876925" y="1581150"/>
+            <a:ext cx="1047750" cy="733425"/>
+          </a:xfrm>
+          <a:prstGeom prst="can">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="テキスト ボックス 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDB8749-5F8D-D634-988E-ABE60B78622A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5524500" y="2381250"/>
+            <a:ext cx="1714500" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>USER_DATA</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1114426</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1162051</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="コネクタ: カギ線 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15ADBE79-48BE-4226-B3F5-88DDCBF94D48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5357813" y="20331112"/>
+          <a:ext cx="542925" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2009775</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="グループ化 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECF9E40-7988-542C-6833-4E3BF28782E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5924550" y="25222200"/>
+          <a:ext cx="1714500" cy="1895475"/>
+          <a:chOff x="5934075" y="24793575"/>
+          <a:chExt cx="1714500" cy="1895475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="46" name="グループ化 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD05093-7504-FDF7-177E-323588AF2673}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5934075" y="24793575"/>
+            <a:ext cx="1714500" cy="1895475"/>
+            <a:chOff x="5895975" y="23574375"/>
+            <a:chExt cx="1714500" cy="1895475"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="34" name="グループ化 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10113713-11DD-429F-8247-64AD6E97C8B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="5895975" y="24422100"/>
+              <a:ext cx="1714500" cy="1047750"/>
+              <a:chOff x="5524500" y="1581150"/>
+              <a:chExt cx="1714500" cy="1047750"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="35" name="円柱 34">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58913E6B-CDC9-7409-A273-5F96AF46B45E}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5876925" y="1581150"/>
+                <a:ext cx="1047750" cy="733425"/>
+              </a:xfrm>
+              <a:prstGeom prst="can">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="36" name="テキスト ボックス 35">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837D5388-0D51-3F92-BC94-83CC346C2566}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5524500" y="2381250"/>
+                <a:ext cx="1714500" cy="247650"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                  <a:t>USER_DATA_HIST</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="フローチャート: 代替処理 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11A3559-CA39-ED5C-A382-A73AFFC167A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6029325" y="23574375"/>
+              <a:ext cx="1495425" cy="447675"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartAlternateProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>トリガー</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{367C76D3-FE4D-42BB-8B67-7D3E9C43803A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:stCxn id="37" idx="2"/>
+            <a:endCxn id="35" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6810375" y="25241250"/>
+            <a:ext cx="4763" cy="400050"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="コネクタ: カギ線 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A2D0A8-A219-49CE-96C3-D84B9082DF72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5357813" y="21950363"/>
+          <a:ext cx="552450" cy="2276475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1847850</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF94A68-AB02-4446-AD67-77D20E7814B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="23364825"/>
+          <a:ext cx="1409700" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザ設定画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="コネクタ: カギ線 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FB86E5-C0BC-4710-8352-2D1EC4700A46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="4279106" y="20319207"/>
+          <a:ext cx="1976437" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6747"/>
+            <a:gd name="adj2" fmla="val 107595"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="76" name="グループ化 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427A2F2D-48CD-7B58-8961-D89D681E4124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5934075" y="15173325"/>
+          <a:ext cx="1714500" cy="1895475"/>
+          <a:chOff x="5943600" y="15020925"/>
+          <a:chExt cx="1714500" cy="1895475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="68" name="グループ化 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8559D08-20B0-4A11-90E1-A88FABEE56DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5943600" y="15020925"/>
+            <a:ext cx="1714500" cy="1895475"/>
+            <a:chOff x="5895975" y="23574375"/>
+            <a:chExt cx="1714500" cy="1895475"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="69" name="グループ化 68">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D074DE3-D0D1-32D6-34CE-6F66A88924D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="5895975" y="24422100"/>
+              <a:ext cx="1714500" cy="1047750"/>
+              <a:chOff x="5524500" y="1581150"/>
+              <a:chExt cx="1714500" cy="1047750"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="71" name="円柱 70">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA6C2B6-A259-E304-405E-1E35441ACCD7}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5876925" y="1581150"/>
+                <a:ext cx="1047750" cy="733425"/>
+              </a:xfrm>
+              <a:prstGeom prst="can">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="72" name="テキスト ボックス 71">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96A09EA-49B0-AD72-9324-2D260984291B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5524500" y="2381250"/>
+                <a:ext cx="1714500" cy="247650"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                  <a:t>USER_DATA_HIST</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="70" name="フローチャート: 代替処理 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0566BBBB-D6FE-B6F2-8374-3ADD8B296B7F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6029325" y="23574375"/>
+              <a:ext cx="1495425" cy="447675"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartAlternateProcess">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>トリガー</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C18C5F-602B-453C-9B80-AADC9A5A9161}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:stCxn id="70" idx="2"/>
+            <a:endCxn id="71" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6819900" y="15468600"/>
+            <a:ext cx="4763" cy="400050"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -31591,18 +33013,18 @@
       <c r="AQ129" s="74"/>
     </row>
     <row r="130" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G130" s="82"/>
-      <c r="H130" s="83"/>
-      <c r="I130" s="84"/>
-      <c r="J130" s="82">
+      <c r="G130" s="108"/>
+      <c r="H130" s="109"/>
+      <c r="I130" s="110"/>
+      <c r="J130" s="108">
         <v>1</v>
       </c>
-      <c r="K130" s="83"/>
-      <c r="L130" s="84"/>
-      <c r="M130" s="87" t="s">
+      <c r="K130" s="109"/>
+      <c r="L130" s="110"/>
+      <c r="M130" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="N130" s="88"/>
+      <c r="N130" s="112"/>
       <c r="O130" s="53"/>
       <c r="P130" s="54"/>
       <c r="Q130" s="56"/>
@@ -31620,9 +33042,9 @@
       <c r="AA130" s="55"/>
       <c r="AB130" s="55"/>
       <c r="AC130" s="55"/>
-      <c r="AD130" s="82"/>
-      <c r="AE130" s="83"/>
-      <c r="AF130" s="84"/>
+      <c r="AD130" s="108"/>
+      <c r="AE130" s="109"/>
+      <c r="AF130" s="110"/>
       <c r="AG130" s="63" t="s">
         <v>97</v>
       </c>
@@ -31642,19 +33064,19 @@
       <c r="AQ130" s="78"/>
     </row>
     <row r="131" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G131" s="82"/>
-      <c r="H131" s="83"/>
-      <c r="I131" s="84"/>
-      <c r="J131" s="82">
+      <c r="G131" s="108"/>
+      <c r="H131" s="109"/>
+      <c r="I131" s="110"/>
+      <c r="J131" s="108">
         <f>J130+1</f>
         <v>2</v>
       </c>
-      <c r="K131" s="83"/>
-      <c r="L131" s="84"/>
-      <c r="M131" s="82" t="s">
+      <c r="K131" s="109"/>
+      <c r="L131" s="110"/>
+      <c r="M131" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="N131" s="84"/>
+      <c r="N131" s="110"/>
       <c r="O131" s="53"/>
       <c r="P131" s="54"/>
       <c r="Q131" s="56"/>
@@ -31676,9 +33098,9 @@
       <c r="AA131" s="55"/>
       <c r="AB131" s="55"/>
       <c r="AC131" s="55"/>
-      <c r="AD131" s="82"/>
-      <c r="AE131" s="83"/>
-      <c r="AF131" s="84"/>
+      <c r="AD131" s="108"/>
+      <c r="AE131" s="109"/>
+      <c r="AF131" s="110"/>
       <c r="AG131" s="63" t="s">
         <v>97</v>
       </c>
@@ -31698,19 +33120,19 @@
       <c r="AQ131" s="78"/>
     </row>
     <row r="132" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G132" s="82"/>
-      <c r="H132" s="83"/>
-      <c r="I132" s="84"/>
-      <c r="J132" s="82">
+      <c r="G132" s="108"/>
+      <c r="H132" s="109"/>
+      <c r="I132" s="110"/>
+      <c r="J132" s="108">
         <f>J131+1</f>
         <v>3</v>
       </c>
-      <c r="K132" s="83"/>
-      <c r="L132" s="84"/>
-      <c r="M132" s="82" t="s">
+      <c r="K132" s="109"/>
+      <c r="L132" s="110"/>
+      <c r="M132" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="N132" s="84"/>
+      <c r="N132" s="110"/>
       <c r="O132" s="59"/>
       <c r="P132" s="60"/>
       <c r="Q132" s="61"/>
@@ -31732,9 +33154,9 @@
       <c r="AA132" s="55"/>
       <c r="AB132" s="55"/>
       <c r="AC132" s="55"/>
-      <c r="AD132" s="82"/>
-      <c r="AE132" s="83"/>
-      <c r="AF132" s="84"/>
+      <c r="AD132" s="108"/>
+      <c r="AE132" s="109"/>
+      <c r="AF132" s="110"/>
       <c r="AG132" s="63" t="s">
         <v>97</v>
       </c>
@@ -31754,19 +33176,19 @@
       <c r="AQ132" s="78"/>
     </row>
     <row r="133" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G133" s="82"/>
-      <c r="H133" s="83"/>
-      <c r="I133" s="84"/>
-      <c r="J133" s="82">
+      <c r="G133" s="108"/>
+      <c r="H133" s="109"/>
+      <c r="I133" s="110"/>
+      <c r="J133" s="108">
         <f t="shared" ref="J133:J137" si="0">J132+1</f>
         <v>4</v>
       </c>
-      <c r="K133" s="83"/>
-      <c r="L133" s="84"/>
-      <c r="M133" s="82" t="s">
+      <c r="K133" s="109"/>
+      <c r="L133" s="110"/>
+      <c r="M133" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="N133" s="84"/>
+      <c r="N133" s="110"/>
       <c r="O133" s="63">
         <v>9</v>
       </c>
@@ -31796,9 +33218,9 @@
       </c>
       <c r="AB133" s="64"/>
       <c r="AC133" s="65"/>
-      <c r="AD133" s="82"/>
-      <c r="AE133" s="83"/>
-      <c r="AF133" s="84"/>
+      <c r="AD133" s="108"/>
+      <c r="AE133" s="109"/>
+      <c r="AF133" s="110"/>
       <c r="AG133" s="63" t="s">
         <v>97</v>
       </c>
@@ -31818,19 +33240,19 @@
       <c r="AQ133" s="78"/>
     </row>
     <row r="134" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G134" s="82"/>
-      <c r="H134" s="83"/>
-      <c r="I134" s="84"/>
-      <c r="J134" s="82">
+      <c r="G134" s="108"/>
+      <c r="H134" s="109"/>
+      <c r="I134" s="110"/>
+      <c r="J134" s="108">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K134" s="83"/>
-      <c r="L134" s="84"/>
-      <c r="M134" s="82" t="s">
+      <c r="K134" s="109"/>
+      <c r="L134" s="110"/>
+      <c r="M134" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="N134" s="84"/>
+      <c r="N134" s="110"/>
       <c r="O134" s="63">
         <v>9</v>
       </c>
@@ -31860,9 +33282,9 @@
       </c>
       <c r="AB134" s="64"/>
       <c r="AC134" s="65"/>
-      <c r="AD134" s="82"/>
-      <c r="AE134" s="83"/>
-      <c r="AF134" s="84"/>
+      <c r="AD134" s="108"/>
+      <c r="AE134" s="109"/>
+      <c r="AF134" s="110"/>
       <c r="AG134" s="63" t="s">
         <v>97</v>
       </c>
@@ -31882,19 +33304,19 @@
       <c r="AQ134" s="78"/>
     </row>
     <row r="135" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G135" s="82"/>
-      <c r="H135" s="83"/>
-      <c r="I135" s="84"/>
-      <c r="J135" s="82">
+      <c r="G135" s="108"/>
+      <c r="H135" s="109"/>
+      <c r="I135" s="110"/>
+      <c r="J135" s="108">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K135" s="83"/>
-      <c r="L135" s="84"/>
-      <c r="M135" s="82" t="s">
+      <c r="K135" s="109"/>
+      <c r="L135" s="110"/>
+      <c r="M135" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="N135" s="84"/>
+      <c r="N135" s="110"/>
       <c r="O135" s="63">
         <v>9</v>
       </c>
@@ -31924,9 +33346,9 @@
       </c>
       <c r="AB135" s="64"/>
       <c r="AC135" s="65"/>
-      <c r="AD135" s="82"/>
-      <c r="AE135" s="83"/>
-      <c r="AF135" s="84"/>
+      <c r="AD135" s="108"/>
+      <c r="AE135" s="109"/>
+      <c r="AF135" s="110"/>
       <c r="AG135" s="63" t="s">
         <v>100</v>
       </c>
@@ -31946,19 +33368,19 @@
       <c r="AQ135" s="78"/>
     </row>
     <row r="136" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G136" s="82"/>
-      <c r="H136" s="83"/>
-      <c r="I136" s="84"/>
-      <c r="J136" s="82">
+      <c r="G136" s="108"/>
+      <c r="H136" s="109"/>
+      <c r="I136" s="110"/>
+      <c r="J136" s="108">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K136" s="83"/>
-      <c r="L136" s="84"/>
-      <c r="M136" s="85" t="s">
+      <c r="K136" s="109"/>
+      <c r="L136" s="110"/>
+      <c r="M136" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="N136" s="86"/>
+      <c r="N136" s="114"/>
       <c r="O136" s="53"/>
       <c r="P136" s="54"/>
       <c r="Q136" s="56"/>
@@ -31976,9 +33398,9 @@
       <c r="AA136" s="55"/>
       <c r="AB136" s="55"/>
       <c r="AC136" s="55"/>
-      <c r="AD136" s="82"/>
-      <c r="AE136" s="83"/>
-      <c r="AF136" s="84"/>
+      <c r="AD136" s="108"/>
+      <c r="AE136" s="109"/>
+      <c r="AF136" s="110"/>
       <c r="AG136" s="63" t="s">
         <v>97</v>
       </c>
@@ -31998,19 +33420,19 @@
       <c r="AQ136" s="78"/>
     </row>
     <row r="137" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G137" s="82"/>
-      <c r="H137" s="83"/>
-      <c r="I137" s="84"/>
-      <c r="J137" s="82">
+      <c r="G137" s="108"/>
+      <c r="H137" s="109"/>
+      <c r="I137" s="110"/>
+      <c r="J137" s="108">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K137" s="83"/>
-      <c r="L137" s="84"/>
-      <c r="M137" s="87" t="s">
+      <c r="K137" s="109"/>
+      <c r="L137" s="110"/>
+      <c r="M137" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="N137" s="88"/>
+      <c r="N137" s="112"/>
       <c r="O137" s="53"/>
       <c r="P137" s="54"/>
       <c r="Q137" s="56"/>
@@ -32028,9 +33450,9 @@
       <c r="AA137" s="55"/>
       <c r="AB137" s="55"/>
       <c r="AC137" s="55"/>
-      <c r="AD137" s="82"/>
-      <c r="AE137" s="83"/>
-      <c r="AF137" s="84"/>
+      <c r="AD137" s="108"/>
+      <c r="AE137" s="109"/>
+      <c r="AF137" s="110"/>
       <c r="AG137" s="63" t="s">
         <v>97</v>
       </c>
@@ -32050,19 +33472,19 @@
       <c r="AQ137" s="78"/>
     </row>
     <row r="138" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G138" s="82"/>
-      <c r="H138" s="83"/>
-      <c r="I138" s="84"/>
-      <c r="J138" s="82">
+      <c r="G138" s="108"/>
+      <c r="H138" s="109"/>
+      <c r="I138" s="110"/>
+      <c r="J138" s="108">
         <f t="shared" ref="J138:J151" si="1">J137+1</f>
         <v>9</v>
       </c>
-      <c r="K138" s="83"/>
-      <c r="L138" s="84"/>
-      <c r="M138" s="87" t="s">
+      <c r="K138" s="109"/>
+      <c r="L138" s="110"/>
+      <c r="M138" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="N138" s="88"/>
+      <c r="N138" s="112"/>
       <c r="O138" s="53"/>
       <c r="P138" s="54"/>
       <c r="Q138" s="56"/>
@@ -32080,9 +33502,9 @@
       <c r="AA138" s="55"/>
       <c r="AB138" s="55"/>
       <c r="AC138" s="55"/>
-      <c r="AD138" s="82"/>
-      <c r="AE138" s="83"/>
-      <c r="AF138" s="84"/>
+      <c r="AD138" s="108"/>
+      <c r="AE138" s="109"/>
+      <c r="AF138" s="110"/>
       <c r="AG138" s="63" t="s">
         <v>97</v>
       </c>
@@ -32102,19 +33524,19 @@
       <c r="AQ138" s="78"/>
     </row>
     <row r="139" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G139" s="82"/>
-      <c r="H139" s="83"/>
-      <c r="I139" s="84"/>
-      <c r="J139" s="82">
+      <c r="G139" s="108"/>
+      <c r="H139" s="109"/>
+      <c r="I139" s="110"/>
+      <c r="J139" s="108">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K139" s="83"/>
-      <c r="L139" s="84"/>
-      <c r="M139" s="82" t="s">
+      <c r="K139" s="109"/>
+      <c r="L139" s="110"/>
+      <c r="M139" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="N139" s="84"/>
+      <c r="N139" s="110"/>
       <c r="O139" s="63">
         <v>9</v>
       </c>
@@ -32144,9 +33566,9 @@
       </c>
       <c r="AB139" s="64"/>
       <c r="AC139" s="65"/>
-      <c r="AD139" s="82"/>
-      <c r="AE139" s="83"/>
-      <c r="AF139" s="84"/>
+      <c r="AD139" s="108"/>
+      <c r="AE139" s="109"/>
+      <c r="AF139" s="110"/>
       <c r="AG139" s="63" t="s">
         <v>102</v>
       </c>
@@ -32166,19 +33588,19 @@
       <c r="AQ139" s="78"/>
     </row>
     <row r="140" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G140" s="82"/>
-      <c r="H140" s="83"/>
-      <c r="I140" s="84"/>
-      <c r="J140" s="82">
+      <c r="G140" s="108"/>
+      <c r="H140" s="109"/>
+      <c r="I140" s="110"/>
+      <c r="J140" s="108">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K140" s="83"/>
-      <c r="L140" s="84"/>
-      <c r="M140" s="82" t="s">
+      <c r="K140" s="109"/>
+      <c r="L140" s="110"/>
+      <c r="M140" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="N140" s="84"/>
+      <c r="N140" s="110"/>
       <c r="O140" s="63">
         <v>9</v>
       </c>
@@ -32208,9 +33630,9 @@
       </c>
       <c r="AB140" s="64"/>
       <c r="AC140" s="65"/>
-      <c r="AD140" s="82"/>
-      <c r="AE140" s="83"/>
-      <c r="AF140" s="84"/>
+      <c r="AD140" s="108"/>
+      <c r="AE140" s="109"/>
+      <c r="AF140" s="110"/>
       <c r="AG140" s="63" t="s">
         <v>99</v>
       </c>
@@ -32230,19 +33652,19 @@
       <c r="AQ140" s="78"/>
     </row>
     <row r="141" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G141" s="82"/>
-      <c r="H141" s="83"/>
-      <c r="I141" s="84"/>
-      <c r="J141" s="82">
+      <c r="G141" s="108"/>
+      <c r="H141" s="109"/>
+      <c r="I141" s="110"/>
+      <c r="J141" s="108">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K141" s="83"/>
-      <c r="L141" s="84"/>
-      <c r="M141" s="82" t="s">
+      <c r="K141" s="109"/>
+      <c r="L141" s="110"/>
+      <c r="M141" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="N141" s="84"/>
+      <c r="N141" s="110"/>
       <c r="O141" s="63">
         <v>9</v>
       </c>
@@ -32272,9 +33694,9 @@
       </c>
       <c r="AB141" s="64"/>
       <c r="AC141" s="65"/>
-      <c r="AD141" s="82"/>
-      <c r="AE141" s="83"/>
-      <c r="AF141" s="84"/>
+      <c r="AD141" s="108"/>
+      <c r="AE141" s="109"/>
+      <c r="AF141" s="110"/>
       <c r="AG141" s="63" t="s">
         <v>99</v>
       </c>
@@ -32294,19 +33716,19 @@
       <c r="AQ141" s="78"/>
     </row>
     <row r="142" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G142" s="82"/>
-      <c r="H142" s="83"/>
-      <c r="I142" s="84"/>
-      <c r="J142" s="82">
+      <c r="G142" s="108"/>
+      <c r="H142" s="109"/>
+      <c r="I142" s="110"/>
+      <c r="J142" s="108">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K142" s="83"/>
-      <c r="L142" s="84"/>
-      <c r="M142" s="82" t="s">
+      <c r="K142" s="109"/>
+      <c r="L142" s="110"/>
+      <c r="M142" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="N142" s="84"/>
+      <c r="N142" s="110"/>
       <c r="O142" s="63">
         <v>9</v>
       </c>
@@ -32336,9 +33758,9 @@
       </c>
       <c r="AB142" s="64"/>
       <c r="AC142" s="65"/>
-      <c r="AD142" s="82"/>
-      <c r="AE142" s="83"/>
-      <c r="AF142" s="84"/>
+      <c r="AD142" s="108"/>
+      <c r="AE142" s="109"/>
+      <c r="AF142" s="110"/>
       <c r="AG142" s="63" t="s">
         <v>99</v>
       </c>
@@ -32358,19 +33780,19 @@
       <c r="AQ142" s="78"/>
     </row>
     <row r="143" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G143" s="82"/>
-      <c r="H143" s="83"/>
-      <c r="I143" s="84"/>
-      <c r="J143" s="82">
+      <c r="G143" s="108"/>
+      <c r="H143" s="109"/>
+      <c r="I143" s="110"/>
+      <c r="J143" s="108">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K143" s="83"/>
-      <c r="L143" s="84"/>
-      <c r="M143" s="85" t="s">
+      <c r="K143" s="109"/>
+      <c r="L143" s="110"/>
+      <c r="M143" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="N143" s="86"/>
+      <c r="N143" s="114"/>
       <c r="O143" s="53"/>
       <c r="P143" s="54"/>
       <c r="Q143" s="56"/>
@@ -32388,9 +33810,9 @@
       <c r="AA143" s="55"/>
       <c r="AB143" s="55"/>
       <c r="AC143" s="55"/>
-      <c r="AD143" s="82"/>
-      <c r="AE143" s="83"/>
-      <c r="AF143" s="84"/>
+      <c r="AD143" s="108"/>
+      <c r="AE143" s="109"/>
+      <c r="AF143" s="110"/>
       <c r="AG143" s="63" t="s">
         <v>97</v>
       </c>
@@ -32410,19 +33832,19 @@
       <c r="AQ143" s="78"/>
     </row>
     <row r="144" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G144" s="82"/>
-      <c r="H144" s="83"/>
-      <c r="I144" s="84"/>
-      <c r="J144" s="82">
+      <c r="G144" s="108"/>
+      <c r="H144" s="109"/>
+      <c r="I144" s="110"/>
+      <c r="J144" s="108">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K144" s="83"/>
-      <c r="L144" s="84"/>
-      <c r="M144" s="87" t="s">
+      <c r="K144" s="109"/>
+      <c r="L144" s="110"/>
+      <c r="M144" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="N144" s="88"/>
+      <c r="N144" s="112"/>
       <c r="O144" s="53"/>
       <c r="P144" s="54"/>
       <c r="Q144" s="56"/>
@@ -32440,9 +33862,9 @@
       <c r="AA144" s="55"/>
       <c r="AB144" s="55"/>
       <c r="AC144" s="55"/>
-      <c r="AD144" s="82"/>
-      <c r="AE144" s="83"/>
-      <c r="AF144" s="84"/>
+      <c r="AD144" s="108"/>
+      <c r="AE144" s="109"/>
+      <c r="AF144" s="110"/>
       <c r="AG144" s="63" t="s">
         <v>97</v>
       </c>
@@ -32462,19 +33884,19 @@
       <c r="AQ144" s="78"/>
     </row>
     <row r="145" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G145" s="82"/>
-      <c r="H145" s="83"/>
-      <c r="I145" s="84"/>
-      <c r="J145" s="82">
+      <c r="G145" s="108"/>
+      <c r="H145" s="109"/>
+      <c r="I145" s="110"/>
+      <c r="J145" s="108">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K145" s="83"/>
-      <c r="L145" s="84"/>
-      <c r="M145" s="82" t="s">
+      <c r="K145" s="109"/>
+      <c r="L145" s="110"/>
+      <c r="M145" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="N145" s="84"/>
+      <c r="N145" s="110"/>
       <c r="O145" s="63">
         <v>9</v>
       </c>
@@ -32504,9 +33926,9 @@
       </c>
       <c r="AB145" s="64"/>
       <c r="AC145" s="65"/>
-      <c r="AD145" s="82"/>
-      <c r="AE145" s="83"/>
-      <c r="AF145" s="84"/>
+      <c r="AD145" s="108"/>
+      <c r="AE145" s="109"/>
+      <c r="AF145" s="110"/>
       <c r="AG145" s="63" t="s">
         <v>99</v>
       </c>
@@ -32526,19 +33948,19 @@
       <c r="AQ145" s="78"/>
     </row>
     <row r="146" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G146" s="82"/>
-      <c r="H146" s="83"/>
-      <c r="I146" s="84"/>
-      <c r="J146" s="82">
+      <c r="G146" s="108"/>
+      <c r="H146" s="109"/>
+      <c r="I146" s="110"/>
+      <c r="J146" s="108">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K146" s="83"/>
-      <c r="L146" s="84"/>
-      <c r="M146" s="82" t="s">
+      <c r="K146" s="109"/>
+      <c r="L146" s="110"/>
+      <c r="M146" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="N146" s="84"/>
+      <c r="N146" s="110"/>
       <c r="O146" s="63">
         <v>9</v>
       </c>
@@ -32568,9 +33990,9 @@
       </c>
       <c r="AB146" s="64"/>
       <c r="AC146" s="65"/>
-      <c r="AD146" s="82"/>
-      <c r="AE146" s="83"/>
-      <c r="AF146" s="84"/>
+      <c r="AD146" s="108"/>
+      <c r="AE146" s="109"/>
+      <c r="AF146" s="110"/>
       <c r="AG146" s="63" t="s">
         <v>99</v>
       </c>
@@ -32590,19 +34012,19 @@
       <c r="AQ146" s="78"/>
     </row>
     <row r="147" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G147" s="82"/>
-      <c r="H147" s="83"/>
-      <c r="I147" s="84"/>
-      <c r="J147" s="82">
+      <c r="G147" s="108"/>
+      <c r="H147" s="109"/>
+      <c r="I147" s="110"/>
+      <c r="J147" s="108">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K147" s="83"/>
-      <c r="L147" s="84"/>
-      <c r="M147" s="82" t="s">
+      <c r="K147" s="109"/>
+      <c r="L147" s="110"/>
+      <c r="M147" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="N147" s="84"/>
+      <c r="N147" s="110"/>
       <c r="O147" s="63">
         <v>9</v>
       </c>
@@ -32632,9 +34054,9 @@
       </c>
       <c r="AB147" s="64"/>
       <c r="AC147" s="65"/>
-      <c r="AD147" s="82"/>
-      <c r="AE147" s="83"/>
-      <c r="AF147" s="84"/>
+      <c r="AD147" s="108"/>
+      <c r="AE147" s="109"/>
+      <c r="AF147" s="110"/>
       <c r="AG147" s="63" t="s">
         <v>99</v>
       </c>
@@ -32654,19 +34076,19 @@
       <c r="AQ147" s="78"/>
     </row>
     <row r="148" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G148" s="82"/>
-      <c r="H148" s="83"/>
-      <c r="I148" s="84"/>
-      <c r="J148" s="82">
+      <c r="G148" s="108"/>
+      <c r="H148" s="109"/>
+      <c r="I148" s="110"/>
+      <c r="J148" s="108">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K148" s="83"/>
-      <c r="L148" s="84"/>
-      <c r="M148" s="82" t="s">
+      <c r="K148" s="109"/>
+      <c r="L148" s="110"/>
+      <c r="M148" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="N148" s="84"/>
+      <c r="N148" s="110"/>
       <c r="O148" s="63">
         <v>9</v>
       </c>
@@ -32696,9 +34118,9 @@
       </c>
       <c r="AB148" s="64"/>
       <c r="AC148" s="65"/>
-      <c r="AD148" s="82"/>
-      <c r="AE148" s="83"/>
-      <c r="AF148" s="84"/>
+      <c r="AD148" s="108"/>
+      <c r="AE148" s="109"/>
+      <c r="AF148" s="110"/>
       <c r="AG148" s="63" t="s">
         <v>99</v>
       </c>
@@ -32718,19 +34140,19 @@
       <c r="AQ148" s="78"/>
     </row>
     <row r="149" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G149" s="82"/>
-      <c r="H149" s="83"/>
-      <c r="I149" s="84"/>
-      <c r="J149" s="82">
+      <c r="G149" s="108"/>
+      <c r="H149" s="109"/>
+      <c r="I149" s="110"/>
+      <c r="J149" s="108">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K149" s="83"/>
-      <c r="L149" s="84"/>
-      <c r="M149" s="82" t="s">
+      <c r="K149" s="109"/>
+      <c r="L149" s="110"/>
+      <c r="M149" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="N149" s="84"/>
+      <c r="N149" s="110"/>
       <c r="O149" s="63">
         <v>9</v>
       </c>
@@ -32760,9 +34182,9 @@
       </c>
       <c r="AB149" s="64"/>
       <c r="AC149" s="65"/>
-      <c r="AD149" s="82"/>
-      <c r="AE149" s="83"/>
-      <c r="AF149" s="84"/>
+      <c r="AD149" s="108"/>
+      <c r="AE149" s="109"/>
+      <c r="AF149" s="110"/>
       <c r="AG149" s="63" t="s">
         <v>99</v>
       </c>
@@ -32782,19 +34204,19 @@
       <c r="AQ149" s="78"/>
     </row>
     <row r="150" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G150" s="82"/>
-      <c r="H150" s="83"/>
-      <c r="I150" s="84"/>
-      <c r="J150" s="82">
+      <c r="G150" s="108"/>
+      <c r="H150" s="109"/>
+      <c r="I150" s="110"/>
+      <c r="J150" s="108">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K150" s="83"/>
-      <c r="L150" s="84"/>
-      <c r="M150" s="85" t="s">
+      <c r="K150" s="109"/>
+      <c r="L150" s="110"/>
+      <c r="M150" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="N150" s="86"/>
+      <c r="N150" s="114"/>
       <c r="O150" s="53"/>
       <c r="P150" s="54"/>
       <c r="Q150" s="56"/>
@@ -32812,9 +34234,9 @@
       <c r="AA150" s="55"/>
       <c r="AB150" s="55"/>
       <c r="AC150" s="55"/>
-      <c r="AD150" s="82"/>
-      <c r="AE150" s="83"/>
-      <c r="AF150" s="84"/>
+      <c r="AD150" s="108"/>
+      <c r="AE150" s="109"/>
+      <c r="AF150" s="110"/>
       <c r="AG150" s="63" t="s">
         <v>97</v>
       </c>
@@ -32834,19 +34256,19 @@
       <c r="AQ150" s="78"/>
     </row>
     <row r="151" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G151" s="82"/>
-      <c r="H151" s="83"/>
-      <c r="I151" s="84"/>
-      <c r="J151" s="82">
+      <c r="G151" s="108"/>
+      <c r="H151" s="109"/>
+      <c r="I151" s="110"/>
+      <c r="J151" s="108">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K151" s="83"/>
-      <c r="L151" s="84"/>
-      <c r="M151" s="87" t="s">
+      <c r="K151" s="109"/>
+      <c r="L151" s="110"/>
+      <c r="M151" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="N151" s="88"/>
+      <c r="N151" s="112"/>
       <c r="O151" s="53"/>
       <c r="P151" s="54"/>
       <c r="Q151" s="56"/>
@@ -32864,9 +34286,9 @@
       <c r="AA151" s="55"/>
       <c r="AB151" s="55"/>
       <c r="AC151" s="55"/>
-      <c r="AD151" s="82"/>
-      <c r="AE151" s="83"/>
-      <c r="AF151" s="84"/>
+      <c r="AD151" s="108"/>
+      <c r="AE151" s="109"/>
+      <c r="AF151" s="110"/>
       <c r="AG151" s="63" t="s">
         <v>97</v>
       </c>
@@ -32886,19 +34308,19 @@
       <c r="AQ151" s="78"/>
     </row>
     <row r="152" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G152" s="82"/>
-      <c r="H152" s="83"/>
-      <c r="I152" s="84"/>
-      <c r="J152" s="82">
+      <c r="G152" s="108"/>
+      <c r="H152" s="109"/>
+      <c r="I152" s="110"/>
+      <c r="J152" s="108">
         <f t="shared" ref="J152:J160" si="2">J151+1</f>
         <v>23</v>
       </c>
-      <c r="K152" s="83"/>
-      <c r="L152" s="84"/>
-      <c r="M152" s="82" t="s">
+      <c r="K152" s="109"/>
+      <c r="L152" s="110"/>
+      <c r="M152" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="N152" s="84"/>
+      <c r="N152" s="110"/>
       <c r="O152" s="63">
         <v>9</v>
       </c>
@@ -32928,9 +34350,9 @@
       </c>
       <c r="AB152" s="64"/>
       <c r="AC152" s="65"/>
-      <c r="AD152" s="82"/>
-      <c r="AE152" s="83"/>
-      <c r="AF152" s="84"/>
+      <c r="AD152" s="108"/>
+      <c r="AE152" s="109"/>
+      <c r="AF152" s="110"/>
       <c r="AG152" s="63" t="s">
         <v>99</v>
       </c>
@@ -32950,19 +34372,19 @@
       <c r="AQ152" s="78"/>
     </row>
     <row r="153" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G153" s="82"/>
-      <c r="H153" s="83"/>
-      <c r="I153" s="84"/>
-      <c r="J153" s="82">
+      <c r="G153" s="108"/>
+      <c r="H153" s="109"/>
+      <c r="I153" s="110"/>
+      <c r="J153" s="108">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="K153" s="83"/>
-      <c r="L153" s="84"/>
-      <c r="M153" s="82" t="s">
+      <c r="K153" s="109"/>
+      <c r="L153" s="110"/>
+      <c r="M153" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="N153" s="84"/>
+      <c r="N153" s="110"/>
       <c r="O153" s="63">
         <v>9</v>
       </c>
@@ -32992,9 +34414,9 @@
       </c>
       <c r="AB153" s="64"/>
       <c r="AC153" s="65"/>
-      <c r="AD153" s="82"/>
-      <c r="AE153" s="83"/>
-      <c r="AF153" s="84"/>
+      <c r="AD153" s="108"/>
+      <c r="AE153" s="109"/>
+      <c r="AF153" s="110"/>
       <c r="AG153" s="63" t="s">
         <v>99</v>
       </c>
@@ -33014,19 +34436,19 @@
       <c r="AQ153" s="78"/>
     </row>
     <row r="154" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G154" s="82"/>
-      <c r="H154" s="83"/>
-      <c r="I154" s="84"/>
-      <c r="J154" s="82">
+      <c r="G154" s="108"/>
+      <c r="H154" s="109"/>
+      <c r="I154" s="110"/>
+      <c r="J154" s="108">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K154" s="83"/>
-      <c r="L154" s="84"/>
-      <c r="M154" s="82" t="s">
+      <c r="K154" s="109"/>
+      <c r="L154" s="110"/>
+      <c r="M154" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="N154" s="84"/>
+      <c r="N154" s="110"/>
       <c r="O154" s="63">
         <v>9</v>
       </c>
@@ -33056,9 +34478,9 @@
       </c>
       <c r="AB154" s="64"/>
       <c r="AC154" s="65"/>
-      <c r="AD154" s="82"/>
-      <c r="AE154" s="83"/>
-      <c r="AF154" s="84"/>
+      <c r="AD154" s="108"/>
+      <c r="AE154" s="109"/>
+      <c r="AF154" s="110"/>
       <c r="AG154" s="63" t="s">
         <v>99</v>
       </c>
@@ -33078,19 +34500,19 @@
       <c r="AQ154" s="78"/>
     </row>
     <row r="155" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G155" s="82"/>
-      <c r="H155" s="83"/>
-      <c r="I155" s="84"/>
-      <c r="J155" s="82">
+      <c r="G155" s="108"/>
+      <c r="H155" s="109"/>
+      <c r="I155" s="110"/>
+      <c r="J155" s="108">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="K155" s="83"/>
-      <c r="L155" s="84"/>
-      <c r="M155" s="82" t="s">
+      <c r="K155" s="109"/>
+      <c r="L155" s="110"/>
+      <c r="M155" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="N155" s="84"/>
+      <c r="N155" s="110"/>
       <c r="O155" s="63">
         <v>9</v>
       </c>
@@ -33120,9 +34542,9 @@
       </c>
       <c r="AB155" s="64"/>
       <c r="AC155" s="65"/>
-      <c r="AD155" s="82"/>
-      <c r="AE155" s="83"/>
-      <c r="AF155" s="84"/>
+      <c r="AD155" s="108"/>
+      <c r="AE155" s="109"/>
+      <c r="AF155" s="110"/>
       <c r="AG155" s="63" t="s">
         <v>99</v>
       </c>
@@ -33142,19 +34564,19 @@
       <c r="AQ155" s="78"/>
     </row>
     <row r="156" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G156" s="82"/>
-      <c r="H156" s="83"/>
-      <c r="I156" s="84"/>
-      <c r="J156" s="82">
+      <c r="G156" s="108"/>
+      <c r="H156" s="109"/>
+      <c r="I156" s="110"/>
+      <c r="J156" s="108">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="K156" s="83"/>
-      <c r="L156" s="84"/>
-      <c r="M156" s="82" t="s">
+      <c r="K156" s="109"/>
+      <c r="L156" s="110"/>
+      <c r="M156" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="N156" s="84"/>
+      <c r="N156" s="110"/>
       <c r="O156" s="63">
         <v>9</v>
       </c>
@@ -33184,9 +34606,9 @@
       </c>
       <c r="AB156" s="64"/>
       <c r="AC156" s="65"/>
-      <c r="AD156" s="82"/>
-      <c r="AE156" s="83"/>
-      <c r="AF156" s="84"/>
+      <c r="AD156" s="108"/>
+      <c r="AE156" s="109"/>
+      <c r="AF156" s="110"/>
       <c r="AG156" s="63" t="s">
         <v>99</v>
       </c>
@@ -33206,19 +34628,19 @@
       <c r="AQ156" s="78"/>
     </row>
     <row r="157" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G157" s="82"/>
-      <c r="H157" s="83"/>
-      <c r="I157" s="84"/>
-      <c r="J157" s="82">
+      <c r="G157" s="108"/>
+      <c r="H157" s="109"/>
+      <c r="I157" s="110"/>
+      <c r="J157" s="108">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K157" s="83"/>
-      <c r="L157" s="84"/>
-      <c r="M157" s="85" t="s">
+      <c r="K157" s="109"/>
+      <c r="L157" s="110"/>
+      <c r="M157" s="113" t="s">
         <v>90</v>
       </c>
-      <c r="N157" s="86"/>
+      <c r="N157" s="114"/>
       <c r="O157" s="53"/>
       <c r="P157" s="54"/>
       <c r="Q157" s="56"/>
@@ -33236,9 +34658,9 @@
       <c r="AA157" s="55"/>
       <c r="AB157" s="55"/>
       <c r="AC157" s="55"/>
-      <c r="AD157" s="82"/>
-      <c r="AE157" s="83"/>
-      <c r="AF157" s="84"/>
+      <c r="AD157" s="108"/>
+      <c r="AE157" s="109"/>
+      <c r="AF157" s="110"/>
       <c r="AG157" s="63" t="s">
         <v>97</v>
       </c>
@@ -33258,19 +34680,19 @@
       <c r="AQ157" s="78"/>
     </row>
     <row r="158" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G158" s="82"/>
-      <c r="H158" s="83"/>
-      <c r="I158" s="84"/>
-      <c r="J158" s="82">
+      <c r="G158" s="108"/>
+      <c r="H158" s="109"/>
+      <c r="I158" s="110"/>
+      <c r="J158" s="108">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="K158" s="83"/>
-      <c r="L158" s="84"/>
-      <c r="M158" s="87" t="s">
+      <c r="K158" s="109"/>
+      <c r="L158" s="110"/>
+      <c r="M158" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="N158" s="88"/>
+      <c r="N158" s="112"/>
       <c r="O158" s="53"/>
       <c r="P158" s="54"/>
       <c r="Q158" s="56"/>
@@ -33288,9 +34710,9 @@
       <c r="AA158" s="55"/>
       <c r="AB158" s="55"/>
       <c r="AC158" s="55"/>
-      <c r="AD158" s="82"/>
-      <c r="AE158" s="83"/>
-      <c r="AF158" s="84"/>
+      <c r="AD158" s="108"/>
+      <c r="AE158" s="109"/>
+      <c r="AF158" s="110"/>
       <c r="AG158" s="63" t="s">
         <v>97</v>
       </c>
@@ -33310,19 +34732,19 @@
       <c r="AQ158" s="78"/>
     </row>
     <row r="159" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G159" s="82"/>
-      <c r="H159" s="83"/>
-      <c r="I159" s="84"/>
-      <c r="J159" s="82">
+      <c r="G159" s="108"/>
+      <c r="H159" s="109"/>
+      <c r="I159" s="110"/>
+      <c r="J159" s="108">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K159" s="83"/>
-      <c r="L159" s="84"/>
-      <c r="M159" s="82" t="s">
+      <c r="K159" s="109"/>
+      <c r="L159" s="110"/>
+      <c r="M159" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="N159" s="84"/>
+      <c r="N159" s="110"/>
       <c r="O159" s="63">
         <v>9</v>
       </c>
@@ -33352,9 +34774,9 @@
       </c>
       <c r="AB159" s="64"/>
       <c r="AC159" s="65"/>
-      <c r="AD159" s="82"/>
-      <c r="AE159" s="83"/>
-      <c r="AF159" s="84"/>
+      <c r="AD159" s="108"/>
+      <c r="AE159" s="109"/>
+      <c r="AF159" s="110"/>
       <c r="AG159" s="63" t="s">
         <v>99</v>
       </c>
@@ -33374,19 +34796,19 @@
       <c r="AQ159" s="78"/>
     </row>
     <row r="160" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G160" s="82"/>
-      <c r="H160" s="83"/>
-      <c r="I160" s="84"/>
-      <c r="J160" s="82">
+      <c r="G160" s="108"/>
+      <c r="H160" s="109"/>
+      <c r="I160" s="110"/>
+      <c r="J160" s="108">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K160" s="83"/>
-      <c r="L160" s="84"/>
-      <c r="M160" s="82" t="s">
+      <c r="K160" s="109"/>
+      <c r="L160" s="110"/>
+      <c r="M160" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="N160" s="84"/>
+      <c r="N160" s="110"/>
       <c r="O160" s="63">
         <v>9</v>
       </c>
@@ -33416,9 +34838,9 @@
       </c>
       <c r="AB160" s="64"/>
       <c r="AC160" s="65"/>
-      <c r="AD160" s="82"/>
-      <c r="AE160" s="83"/>
-      <c r="AF160" s="84"/>
+      <c r="AD160" s="108"/>
+      <c r="AE160" s="109"/>
+      <c r="AF160" s="110"/>
       <c r="AG160" s="63" t="s">
         <v>99</v>
       </c>
@@ -33500,18 +34922,18 @@
       <c r="AQ164" s="74"/>
     </row>
     <row r="165" spans="6:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G165" s="82"/>
-      <c r="H165" s="83"/>
-      <c r="I165" s="84"/>
-      <c r="J165" s="82">
+      <c r="G165" s="108"/>
+      <c r="H165" s="109"/>
+      <c r="I165" s="110"/>
+      <c r="J165" s="108">
         <v>1</v>
       </c>
-      <c r="K165" s="83"/>
-      <c r="L165" s="84"/>
-      <c r="M165" s="87" t="s">
+      <c r="K165" s="109"/>
+      <c r="L165" s="110"/>
+      <c r="M165" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="N165" s="88"/>
+      <c r="N165" s="112"/>
       <c r="O165" s="53"/>
       <c r="P165" s="54"/>
       <c r="Q165" s="56"/>
@@ -33529,9 +34951,9 @@
       <c r="AA165" s="55"/>
       <c r="AB165" s="55"/>
       <c r="AC165" s="55"/>
-      <c r="AD165" s="82"/>
-      <c r="AE165" s="83"/>
-      <c r="AF165" s="84"/>
+      <c r="AD165" s="108"/>
+      <c r="AE165" s="109"/>
+      <c r="AF165" s="110"/>
       <c r="AG165" s="63" t="s">
         <v>97</v>
       </c>
@@ -33613,18 +35035,18 @@
       <c r="AQ168" s="74"/>
     </row>
     <row r="169" spans="6:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G169" s="82"/>
-      <c r="H169" s="83"/>
-      <c r="I169" s="84"/>
-      <c r="J169" s="82">
+      <c r="G169" s="108"/>
+      <c r="H169" s="109"/>
+      <c r="I169" s="110"/>
+      <c r="J169" s="108">
         <v>1</v>
       </c>
-      <c r="K169" s="83"/>
-      <c r="L169" s="84"/>
-      <c r="M169" s="87" t="s">
+      <c r="K169" s="109"/>
+      <c r="L169" s="110"/>
+      <c r="M169" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="N169" s="88"/>
+      <c r="N169" s="112"/>
       <c r="O169" s="53"/>
       <c r="P169" s="54"/>
       <c r="Q169" s="56"/>
@@ -33642,9 +35064,9 @@
       <c r="AA169" s="55"/>
       <c r="AB169" s="55"/>
       <c r="AC169" s="55"/>
-      <c r="AD169" s="82"/>
-      <c r="AE169" s="83"/>
-      <c r="AF169" s="84"/>
+      <c r="AD169" s="108"/>
+      <c r="AE169" s="109"/>
+      <c r="AF169" s="110"/>
       <c r="AG169" s="63" t="s">
         <v>99</v>
       </c>
@@ -33726,18 +35148,18 @@
       <c r="AQ172" s="74"/>
     </row>
     <row r="173" spans="6:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G173" s="82"/>
-      <c r="H173" s="83"/>
-      <c r="I173" s="84"/>
-      <c r="J173" s="82">
+      <c r="G173" s="108"/>
+      <c r="H173" s="109"/>
+      <c r="I173" s="110"/>
+      <c r="J173" s="108">
         <v>1</v>
       </c>
-      <c r="K173" s="83"/>
-      <c r="L173" s="84"/>
-      <c r="M173" s="87" t="s">
+      <c r="K173" s="109"/>
+      <c r="L173" s="110"/>
+      <c r="M173" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="N173" s="88"/>
+      <c r="N173" s="112"/>
       <c r="O173" s="63">
         <v>9</v>
       </c>
@@ -33767,9 +35189,9 @@
       </c>
       <c r="AB173" s="64"/>
       <c r="AC173" s="65"/>
-      <c r="AD173" s="82"/>
-      <c r="AE173" s="83"/>
-      <c r="AF173" s="84"/>
+      <c r="AD173" s="108"/>
+      <c r="AE173" s="109"/>
+      <c r="AF173" s="110"/>
       <c r="AG173" s="63" t="s">
         <v>97</v>
       </c>
@@ -33790,80 +35212,46 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="G165:I165"/>
-    <mergeCell ref="J165:L165"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="AD165:AF165"/>
-    <mergeCell ref="G169:I169"/>
-    <mergeCell ref="J169:L169"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="AD169:AF169"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="J173:L173"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="AD173:AF173"/>
-    <mergeCell ref="J133:L133"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="J134:L134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="J135:L135"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="J130:L130"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="J131:L131"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="J132:L132"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="J139:L139"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="J140:L140"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="J141:L141"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="J136:L136"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="J137:L137"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="J138:L138"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="J145:L145"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="J146:L146"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="J147:L147"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="J142:L142"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="J143:L143"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="J144:L144"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="J151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="J152:L152"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="J153:L153"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="J148:L148"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="J149:L149"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="J150:L150"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="J160:L160"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="J156:L156"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="J157:L157"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="J158:L158"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="J154:L154"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="J155:L155"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="J159:L159"/>
-    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="G160:I160"/>
+    <mergeCell ref="G155:I155"/>
+    <mergeCell ref="G156:I156"/>
+    <mergeCell ref="G157:I157"/>
+    <mergeCell ref="G158:I158"/>
+    <mergeCell ref="G159:I159"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="AD159:AF159"/>
+    <mergeCell ref="AD160:AF160"/>
+    <mergeCell ref="AD153:AF153"/>
+    <mergeCell ref="AD154:AF154"/>
+    <mergeCell ref="AD155:AF155"/>
+    <mergeCell ref="AD156:AF156"/>
+    <mergeCell ref="AD157:AF157"/>
+    <mergeCell ref="AD158:AF158"/>
+    <mergeCell ref="AD152:AF152"/>
     <mergeCell ref="AD150:AF150"/>
     <mergeCell ref="AD151:AF151"/>
     <mergeCell ref="AD140:AF140"/>
@@ -33886,46 +35274,80 @@
     <mergeCell ref="AD147:AF147"/>
     <mergeCell ref="AD148:AF148"/>
     <mergeCell ref="AD149:AF149"/>
-    <mergeCell ref="AD159:AF159"/>
-    <mergeCell ref="AD160:AF160"/>
-    <mergeCell ref="AD153:AF153"/>
-    <mergeCell ref="AD154:AF154"/>
-    <mergeCell ref="AD155:AF155"/>
-    <mergeCell ref="AD156:AF156"/>
-    <mergeCell ref="AD157:AF157"/>
-    <mergeCell ref="AD158:AF158"/>
-    <mergeCell ref="AD152:AF152"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="G145:I145"/>
-    <mergeCell ref="G146:I146"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="G160:I160"/>
-    <mergeCell ref="G155:I155"/>
-    <mergeCell ref="G156:I156"/>
-    <mergeCell ref="G157:I157"/>
-    <mergeCell ref="G158:I158"/>
-    <mergeCell ref="G159:I159"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="G154:I154"/>
+    <mergeCell ref="J160:L160"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="J156:L156"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="J157:L157"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="J158:L158"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="J154:L154"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="J155:L155"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="J159:L159"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="J151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="J152:L152"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="J153:L153"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="J148:L148"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="J149:L149"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="J150:L150"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="J145:L145"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="J146:L146"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="J147:L147"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="J142:L142"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="J143:L143"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="J144:L144"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="J139:L139"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="J140:L140"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="J141:L141"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="J136:L136"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="J137:L137"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="J138:L138"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="J133:L133"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="J134:L134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="J135:L135"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="J130:L130"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="J131:L131"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="J132:L132"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="G165:I165"/>
+    <mergeCell ref="J165:L165"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="AD165:AF165"/>
+    <mergeCell ref="G169:I169"/>
+    <mergeCell ref="J169:L169"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="AD169:AF169"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="J173:L173"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="AD173:AF173"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33968,878 +35390,964 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:G106"/>
+  <dimension ref="B1:G132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="11" style="95" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="87" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="93" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="103"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="95"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="104"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="105"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="97"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="104"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="105"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="97"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="104"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="105"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="97"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="104"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="105"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="97"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="104"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="105"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="97"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="104"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="105"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="97"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="104"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="105"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="97"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="104"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="105"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="97"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="104"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="105"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="97"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="104"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="105"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="97"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="104"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="105"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="97"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="104"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="105"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="97"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="104"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="105"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="97"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="104"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="105"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="97"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="104"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="105"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="97"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="104"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="105"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="97"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="104"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="105"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="97"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="104"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="105"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="97"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="104"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="105"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="97"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="104"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="105"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="97"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="104"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="105"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="97"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="104"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="105"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="104"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="105"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="97"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="104"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="105"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="97"/>
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="106"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="110"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="102"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="115"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="107"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="104"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="105"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="97"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="104"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="105"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="97"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="104"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="105"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="104"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="105"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="104"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="105"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="97"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="104"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="105"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="97"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="104"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="105"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="97"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="104"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="105"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="97"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="104"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="105"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="97"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="104"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="105"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="97"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="104"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="105"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="97"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="104"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="105"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="97"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="104"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="105"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="97"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="104"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="105"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="97"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="104"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="105"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="97"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="104"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="105"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="97"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="104"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="105"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="97"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="104"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="105"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="97"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="104"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="105"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="97"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="104"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="105"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="97"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B50" s="104"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="105"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="97"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="104"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="105"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="97"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B52" s="104"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="105"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="97"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B53" s="104"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="105"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="97"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B54" s="104"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="105"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="97"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B55" s="104"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="105"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="97"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B56" s="104"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="105"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="97"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B57" s="104"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="105"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="86"/>
+      <c r="F57" s="86"/>
+      <c r="G57" s="97"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B58" s="104"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="105"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="97"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="104"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="105"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="97"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="104"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="105"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="86"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="97"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="104"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="94"/>
-      <c r="G61" s="105"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="97"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B62" s="104"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="105"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="97"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B63" s="104"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="105"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="86"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="97"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B64" s="104"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="105"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="97"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B65" s="104"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="105"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="97"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B66" s="104"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="105"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="97"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B67" s="104"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="105"/>
-    </row>
-    <row r="68" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="106"/>
-      <c r="C68" s="107"/>
-      <c r="D68" s="108"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="110"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="97"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B68" s="96"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="97"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B69" s="111" t="s">
+      <c r="B69" s="96"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="97"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B70" s="96"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="97"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B71" s="96"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="97"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" s="96"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="97"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" s="96"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="86"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="97"/>
+    </row>
+    <row r="74" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="98"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="101"/>
+      <c r="F74" s="100"/>
+      <c r="G74" s="102"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" s="103" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="112"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="115"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B70" s="104"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="105"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B71" s="104"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="105"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B72" s="104"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="105"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B73" s="104"/>
-      <c r="C73" s="91"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="105"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B74" s="104"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="105"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B75" s="104"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="94"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="105"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="105"/>
+      <c r="E75" s="106"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="107"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B76" s="104"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="94"/>
-      <c r="E76" s="92"/>
-      <c r="F76" s="94"/>
-      <c r="G76" s="105"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="86"/>
+      <c r="F76" s="86"/>
+      <c r="G76" s="97"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B77" s="104"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="94"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="94"/>
-      <c r="G77" s="105"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="86"/>
+      <c r="F77" s="86"/>
+      <c r="G77" s="97"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B78" s="104"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="94"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="94"/>
-      <c r="G78" s="105"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="86"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="97"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B79" s="104"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="105"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="97"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B80" s="104"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="94"/>
-      <c r="E80" s="92"/>
-      <c r="F80" s="94"/>
-      <c r="G80" s="105"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="86"/>
+      <c r="F80" s="86"/>
+      <c r="G80" s="97"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="104"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="105"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="86"/>
+      <c r="F81" s="86"/>
+      <c r="G81" s="97"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B82" s="104"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="94"/>
-      <c r="E82" s="92"/>
-      <c r="F82" s="94"/>
-      <c r="G82" s="105"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="86"/>
+      <c r="F82" s="86"/>
+      <c r="G82" s="97"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B83" s="104"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="105"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="86"/>
+      <c r="F83" s="86"/>
+      <c r="G83" s="97"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B84" s="104"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="94"/>
-      <c r="E84" s="92"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="105"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="86"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="97"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B85" s="104"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="94"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="105"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="86"/>
+      <c r="F85" s="86"/>
+      <c r="G85" s="97"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B86" s="104"/>
-      <c r="C86" s="91"/>
-      <c r="D86" s="94"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="94"/>
-      <c r="G86" s="105"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="86"/>
+      <c r="F86" s="86"/>
+      <c r="G86" s="97"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B87" s="104"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="94"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="94"/>
-      <c r="G87" s="105"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="97"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B88" s="104"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="94"/>
-      <c r="E88" s="92"/>
-      <c r="F88" s="94"/>
-      <c r="G88" s="105"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="86"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="97"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B89" s="104"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="92"/>
-      <c r="F89" s="94"/>
-      <c r="G89" s="105"/>
+      <c r="B89" s="96"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="86"/>
+      <c r="F89" s="86"/>
+      <c r="G89" s="97"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B90" s="104"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="94"/>
-      <c r="E90" s="92"/>
-      <c r="F90" s="94"/>
-      <c r="G90" s="105"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="84"/>
+      <c r="D90" s="86"/>
+      <c r="F90" s="86"/>
+      <c r="G90" s="97"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B91" s="104"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="94"/>
-      <c r="E91" s="92"/>
-      <c r="F91" s="94"/>
-      <c r="G91" s="105"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="84"/>
+      <c r="D91" s="86"/>
+      <c r="F91" s="86"/>
+      <c r="G91" s="97"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B92" s="104"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="94"/>
-      <c r="E92" s="92"/>
-      <c r="F92" s="94"/>
-      <c r="G92" s="105"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="84"/>
+      <c r="D92" s="86"/>
+      <c r="F92" s="86"/>
+      <c r="G92" s="97"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B93" s="104"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="94"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="94"/>
-      <c r="G93" s="105"/>
+      <c r="B93" s="96"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="86"/>
+      <c r="F93" s="86"/>
+      <c r="G93" s="97"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B94" s="104"/>
-      <c r="C94" s="91"/>
-      <c r="D94" s="94"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="94"/>
-      <c r="G94" s="105"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="86"/>
+      <c r="F94" s="86"/>
+      <c r="G94" s="97"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B95" s="104"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="94"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="94"/>
-      <c r="G95" s="105"/>
+      <c r="B95" s="96"/>
+      <c r="C95" s="84"/>
+      <c r="D95" s="86"/>
+      <c r="F95" s="86"/>
+      <c r="G95" s="97"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B96" s="104"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="94"/>
-      <c r="E96" s="92"/>
-      <c r="F96" s="94"/>
-      <c r="G96" s="105"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="86"/>
+      <c r="F96" s="86"/>
+      <c r="G96" s="97"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B97" s="104"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="94"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="94"/>
-      <c r="G97" s="105"/>
+      <c r="B97" s="96"/>
+      <c r="C97" s="84"/>
+      <c r="D97" s="86"/>
+      <c r="F97" s="86"/>
+      <c r="G97" s="97"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B98" s="104"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="94"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="94"/>
-      <c r="G98" s="105"/>
+      <c r="B98" s="96"/>
+      <c r="C98" s="84"/>
+      <c r="D98" s="86"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="97"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B99" s="104"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="94"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="94"/>
-      <c r="G99" s="105"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="84"/>
+      <c r="D99" s="86"/>
+      <c r="F99" s="86"/>
+      <c r="G99" s="97"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B100" s="104"/>
-      <c r="C100" s="91"/>
-      <c r="D100" s="94"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="94"/>
-      <c r="G100" s="105"/>
+      <c r="B100" s="96"/>
+      <c r="C100" s="84"/>
+      <c r="D100" s="86"/>
+      <c r="F100" s="86"/>
+      <c r="G100" s="97"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B101" s="104"/>
-      <c r="C101" s="91"/>
-      <c r="D101" s="94"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="94"/>
-      <c r="G101" s="105"/>
+      <c r="B101" s="96"/>
+      <c r="C101" s="84"/>
+      <c r="D101" s="86"/>
+      <c r="F101" s="86"/>
+      <c r="G101" s="97"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B102" s="104"/>
-      <c r="C102" s="91"/>
-      <c r="D102" s="94"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="94"/>
-      <c r="G102" s="105"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="86"/>
+      <c r="F102" s="86"/>
+      <c r="G102" s="97"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B103" s="104"/>
-      <c r="C103" s="91"/>
-      <c r="D103" s="94"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="94"/>
-      <c r="G103" s="105"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="84"/>
+      <c r="D103" s="86"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="97"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B104" s="104"/>
-      <c r="C104" s="91"/>
-      <c r="D104" s="94"/>
-      <c r="E104" s="92"/>
-      <c r="F104" s="94"/>
-      <c r="G104" s="105"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="84"/>
+      <c r="D104" s="86"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="97"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B105" s="104"/>
-      <c r="C105" s="91"/>
-      <c r="D105" s="94"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="94"/>
-      <c r="G105" s="105"/>
-    </row>
-    <row r="106" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B106" s="106"/>
-      <c r="C106" s="107"/>
-      <c r="D106" s="108"/>
-      <c r="E106" s="109"/>
-      <c r="F106" s="108"/>
-      <c r="G106" s="110"/>
+      <c r="B105" s="96"/>
+      <c r="C105" s="84"/>
+      <c r="D105" s="86"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="97"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B106" s="96"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="86"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="97"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B107" s="96"/>
+      <c r="C107" s="84"/>
+      <c r="D107" s="86"/>
+      <c r="F107" s="86"/>
+      <c r="G107" s="97"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B108" s="96"/>
+      <c r="C108" s="84"/>
+      <c r="D108" s="86"/>
+      <c r="F108" s="86"/>
+      <c r="G108" s="97"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B109" s="96"/>
+      <c r="C109" s="84"/>
+      <c r="D109" s="86"/>
+      <c r="F109" s="86"/>
+      <c r="G109" s="97"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B110" s="96"/>
+      <c r="C110" s="84"/>
+      <c r="D110" s="86"/>
+      <c r="F110" s="86"/>
+      <c r="G110" s="97"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B111" s="96"/>
+      <c r="C111" s="84"/>
+      <c r="D111" s="86"/>
+      <c r="F111" s="86"/>
+      <c r="G111" s="97"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B112" s="96"/>
+      <c r="C112" s="84"/>
+      <c r="D112" s="86"/>
+      <c r="F112" s="86"/>
+      <c r="G112" s="97"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B113" s="96"/>
+      <c r="C113" s="84"/>
+      <c r="D113" s="86"/>
+      <c r="F113" s="86"/>
+      <c r="G113" s="97"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B114" s="96"/>
+      <c r="C114" s="84"/>
+      <c r="D114" s="86"/>
+      <c r="F114" s="86"/>
+      <c r="G114" s="97"/>
+    </row>
+    <row r="115" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B115" s="98"/>
+      <c r="C115" s="99"/>
+      <c r="D115" s="100"/>
+      <c r="E115" s="101"/>
+      <c r="F115" s="100"/>
+      <c r="G115" s="102"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B116" s="103"/>
+      <c r="C116" s="104"/>
+      <c r="D116" s="105"/>
+      <c r="E116" s="106"/>
+      <c r="F116" s="105"/>
+      <c r="G116" s="107"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B117" s="96"/>
+      <c r="C117" s="84"/>
+      <c r="D117" s="86"/>
+      <c r="F117" s="86"/>
+      <c r="G117" s="97"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B118" s="96"/>
+      <c r="C118" s="84"/>
+      <c r="D118" s="86"/>
+      <c r="F118" s="86"/>
+      <c r="G118" s="97"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B119" s="96"/>
+      <c r="C119" s="84"/>
+      <c r="D119" s="86"/>
+      <c r="F119" s="86"/>
+      <c r="G119" s="97"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B120" s="96"/>
+      <c r="C120" s="84"/>
+      <c r="D120" s="86"/>
+      <c r="F120" s="86"/>
+      <c r="G120" s="97"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B121" s="96"/>
+      <c r="C121" s="84"/>
+      <c r="D121" s="86"/>
+      <c r="F121" s="86"/>
+      <c r="G121" s="97"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B122" s="96"/>
+      <c r="C122" s="84"/>
+      <c r="D122" s="86"/>
+      <c r="F122" s="86"/>
+      <c r="G122" s="97"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B123" s="96"/>
+      <c r="C123" s="84"/>
+      <c r="D123" s="86"/>
+      <c r="F123" s="86"/>
+      <c r="G123" s="97"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B124" s="96"/>
+      <c r="C124" s="84"/>
+      <c r="D124" s="86"/>
+      <c r="F124" s="86"/>
+      <c r="G124" s="97"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B125" s="96"/>
+      <c r="C125" s="84"/>
+      <c r="D125" s="86"/>
+      <c r="F125" s="86"/>
+      <c r="G125" s="97"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B126" s="96"/>
+      <c r="C126" s="84"/>
+      <c r="D126" s="86"/>
+      <c r="F126" s="86"/>
+      <c r="G126" s="97"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B127" s="96"/>
+      <c r="C127" s="84"/>
+      <c r="D127" s="86"/>
+      <c r="F127" s="86"/>
+      <c r="G127" s="97"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B128" s="96"/>
+      <c r="C128" s="84"/>
+      <c r="D128" s="86"/>
+      <c r="F128" s="86"/>
+      <c r="G128" s="97"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B129" s="96"/>
+      <c r="C129" s="84"/>
+      <c r="D129" s="86"/>
+      <c r="F129" s="86"/>
+      <c r="G129" s="97"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B130" s="96"/>
+      <c r="C130" s="84"/>
+      <c r="D130" s="86"/>
+      <c r="F130" s="86"/>
+      <c r="G130" s="97"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B131" s="96"/>
+      <c r="C131" s="84"/>
+      <c r="D131" s="86"/>
+      <c r="F131" s="86"/>
+      <c r="G131" s="97"/>
+    </row>
+    <row r="132" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B132" s="98"/>
+      <c r="C132" s="99"/>
+      <c r="D132" s="100"/>
+      <c r="E132" s="101"/>
+      <c r="F132" s="100"/>
+      <c r="G132" s="102"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/docs/画面仕様.xlsx
+++ b/docs/画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app2\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7DF408-3211-4AAE-8B1B-3BFEFDDE18EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF1EDDD-45EA-4BBB-B76B-1A5A88813BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{8A4E33B8-3881-45EF-8AF7-8CE8F2637045}"/>
   </bookViews>
   <sheets>
     <sheet name="遷移図" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="134">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -784,12 +784,48 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>休憩時間</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一旦、仮申請</t>
+    <rPh sb="0" eb="2">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カリシンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,6 +926,13 @@
     <font>
       <sz val="11"/>
       <color theme="6" tint="0.59999389629810485"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1392,7 +1435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1618,9 +1661,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -1726,17 +1766,32 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9396,13 +9451,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
@@ -9476,13 +9531,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
@@ -15185,13 +15240,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>129</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>129</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
@@ -15256,13 +15311,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>135</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>135</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
@@ -15336,13 +15391,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
@@ -15416,13 +15471,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>137</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>137</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
@@ -15496,13 +15551,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>142</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>142</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
@@ -15576,13 +15631,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
@@ -15656,13 +15711,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
@@ -15736,13 +15791,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>150</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>150</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
@@ -15816,13 +15871,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
@@ -15896,13 +15951,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
@@ -15972,67 +16027,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="図 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488046C2-8D95-1546-D721-1B467BE0BBFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2038350" y="3810000"/>
-          <a:ext cx="8820150" cy="9696450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -17770,23 +17764,264 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>78439</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>11204</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>191060</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>287432</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="四角形: 角を丸くする 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4410833-E36D-4C43-B618-8CDF8B9F2C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6958853" y="26692413"/>
+          <a:ext cx="594472" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>179854</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>287431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="四角形: 角を丸くする 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F1E2D4-62ED-4B8C-9A09-F226F74F6CCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7653617" y="36307059"/>
+          <a:ext cx="594472" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>157442</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>287431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="四角形: 角を丸くする 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D296E7C-61F0-401C-A801-0C4679D5E363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7631205" y="37248353"/>
+          <a:ext cx="594472" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="125" name="グループ化 124">
+        <xdr:cNvPr id="149" name="グループ化 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965D1287-BE11-F99D-7A74-7BEF6423FC4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78B6C9D-8E6D-8CAD-E2E8-59E34E669160}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17794,10 +18029,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12460941" y="4123763"/>
-          <a:ext cx="9379324" cy="3160059"/>
-          <a:chOff x="11430000" y="7485528"/>
-          <a:chExt cx="9379324" cy="3160059"/>
+          <a:off x="12281647" y="3866028"/>
+          <a:ext cx="10242178" cy="3160059"/>
+          <a:chOff x="12158382" y="4034116"/>
+          <a:chExt cx="10242178" cy="3160059"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -17813,8 +18048,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11430000" y="7485528"/>
-            <a:ext cx="9379324" cy="3160059"/>
+            <a:off x="12158382" y="4034116"/>
+            <a:ext cx="10242178" cy="3160059"/>
           </a:xfrm>
           <a:prstGeom prst="borderCallout1">
             <a:avLst>
@@ -17851,10 +18086,10 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="123" name="図 122">
+          <xdr:cNvPr id="148" name="図 147">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE1E9DD-8817-976C-0B1A-5D73F0536B15}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A2B47B-8F83-7A23-CCDD-D34655D8DE42}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17863,7 +18098,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -17877,8 +18112,8 @@
         </xdr:blipFill>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="11598089" y="7658099"/>
-            <a:ext cx="9015692" cy="2660277"/>
+            <a:off x="12281648" y="4303058"/>
+            <a:ext cx="9959788" cy="2861983"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -17896,6 +18131,67 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>110043</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>51304</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="図 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA1A8C4-3A93-2B01-97AF-FB4C876A1E08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1992631" y="3832412"/>
+          <a:ext cx="8950791" cy="9222442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21873,12 +22169,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="78" t="s">
         <v>115</v>
       </c>
       <c r="E1" s="12"/>
@@ -29162,8 +29458,8 @@
   </sheetPr>
   <dimension ref="A1:AY173"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BG49" sqref="BG49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BJ15" sqref="BJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -32955,7 +33251,7 @@
       <c r="AX77" s="27"/>
       <c r="AY77" s="28"/>
     </row>
-    <row r="129" spans="7:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="7:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G129" s="66"/>
       <c r="H129" s="67"/>
       <c r="I129" s="68"/>
@@ -32990,41 +33286,46 @@
       <c r="AB129" s="67"/>
       <c r="AC129" s="67"/>
       <c r="AD129" s="66" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="AE129" s="67"/>
       <c r="AF129" s="68"/>
       <c r="AG129" s="66" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AH129" s="67"/>
       <c r="AI129" s="68"/>
       <c r="AJ129" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK129" s="67"/>
+      <c r="AL129" s="68"/>
+      <c r="AM129" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="AK129" s="67"/>
-      <c r="AL129" s="67"/>
-      <c r="AM129" s="72" t="s">
+      <c r="AN129" s="67"/>
+      <c r="AO129" s="67"/>
+      <c r="AP129" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AN129" s="73"/>
-      <c r="AO129" s="73"/>
-      <c r="AP129" s="73"/>
-      <c r="AQ129" s="74"/>
-    </row>
-    <row r="130" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G130" s="108"/>
-      <c r="H130" s="109"/>
-      <c r="I130" s="110"/>
-      <c r="J130" s="108">
+      <c r="AQ129" s="73"/>
+      <c r="AR129" s="73"/>
+      <c r="AS129" s="73"/>
+      <c r="AT129" s="74"/>
+    </row>
+    <row r="130" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G130" s="107"/>
+      <c r="H130" s="108"/>
+      <c r="I130" s="109"/>
+      <c r="J130" s="107">
         <v>1</v>
       </c>
-      <c r="K130" s="109"/>
-      <c r="L130" s="110"/>
-      <c r="M130" s="111" t="s">
+      <c r="K130" s="108"/>
+      <c r="L130" s="109"/>
+      <c r="M130" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="N130" s="112"/>
+      <c r="N130" s="113"/>
       <c r="O130" s="53"/>
       <c r="P130" s="54"/>
       <c r="Q130" s="56"/>
@@ -33042,41 +33343,40 @@
       <c r="AA130" s="55"/>
       <c r="AB130" s="55"/>
       <c r="AC130" s="55"/>
-      <c r="AD130" s="108"/>
-      <c r="AE130" s="109"/>
-      <c r="AF130" s="110"/>
-      <c r="AG130" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH130" s="64"/>
-      <c r="AI130" s="65"/>
-      <c r="AJ130" s="63" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD130" s="114"/>
+      <c r="AE130" s="55"/>
+      <c r="AF130" s="56"/>
+      <c r="AG130" s="107"/>
+      <c r="AH130" s="108"/>
+      <c r="AI130" s="109"/>
+      <c r="AJ130" s="63"/>
       <c r="AK130" s="64"/>
-      <c r="AL130" s="64"/>
-      <c r="AM130" s="75" t="s">
+      <c r="AL130" s="65"/>
+      <c r="AM130" s="63"/>
+      <c r="AN130" s="64"/>
+      <c r="AO130" s="64"/>
+      <c r="AP130" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN130" s="76"/>
-      <c r="AO130" s="76"/>
-      <c r="AP130" s="77"/>
-      <c r="AQ130" s="78"/>
-    </row>
-    <row r="131" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G131" s="108"/>
-      <c r="H131" s="109"/>
-      <c r="I131" s="110"/>
-      <c r="J131" s="108">
+      <c r="AQ130" s="116"/>
+      <c r="AR130" s="116"/>
+      <c r="AS130" s="117"/>
+      <c r="AT130" s="118"/>
+    </row>
+    <row r="131" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G131" s="107"/>
+      <c r="H131" s="108"/>
+      <c r="I131" s="109"/>
+      <c r="J131" s="107">
         <f>J130+1</f>
         <v>2</v>
       </c>
-      <c r="K131" s="109"/>
-      <c r="L131" s="110"/>
-      <c r="M131" s="108" t="s">
+      <c r="K131" s="108"/>
+      <c r="L131" s="109"/>
+      <c r="M131" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="N131" s="110"/>
+      <c r="N131" s="109"/>
       <c r="O131" s="53"/>
       <c r="P131" s="54"/>
       <c r="Q131" s="56"/>
@@ -33098,41 +33398,40 @@
       <c r="AA131" s="55"/>
       <c r="AB131" s="55"/>
       <c r="AC131" s="55"/>
-      <c r="AD131" s="108"/>
-      <c r="AE131" s="109"/>
-      <c r="AF131" s="110"/>
-      <c r="AG131" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH131" s="64"/>
-      <c r="AI131" s="65"/>
-      <c r="AJ131" s="63" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD131" s="114"/>
+      <c r="AE131" s="55"/>
+      <c r="AF131" s="56"/>
+      <c r="AG131" s="107"/>
+      <c r="AH131" s="108"/>
+      <c r="AI131" s="109"/>
+      <c r="AJ131" s="63"/>
       <c r="AK131" s="64"/>
       <c r="AL131" s="65"/>
-      <c r="AM131" s="75" t="s">
+      <c r="AM131" s="63"/>
+      <c r="AN131" s="64"/>
+      <c r="AO131" s="65"/>
+      <c r="AP131" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN131" s="76"/>
-      <c r="AO131" s="76"/>
-      <c r="AP131" s="77"/>
-      <c r="AQ131" s="78"/>
-    </row>
-    <row r="132" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G132" s="108"/>
-      <c r="H132" s="109"/>
-      <c r="I132" s="110"/>
-      <c r="J132" s="108">
+      <c r="AQ131" s="116"/>
+      <c r="AR131" s="116"/>
+      <c r="AS131" s="117"/>
+      <c r="AT131" s="118"/>
+    </row>
+    <row r="132" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G132" s="107"/>
+      <c r="H132" s="108"/>
+      <c r="I132" s="109"/>
+      <c r="J132" s="107">
         <f>J131+1</f>
         <v>3</v>
       </c>
-      <c r="K132" s="109"/>
-      <c r="L132" s="110"/>
-      <c r="M132" s="108" t="s">
+      <c r="K132" s="108"/>
+      <c r="L132" s="109"/>
+      <c r="M132" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="N132" s="110"/>
+      <c r="N132" s="109"/>
       <c r="O132" s="59"/>
       <c r="P132" s="60"/>
       <c r="Q132" s="61"/>
@@ -33154,41 +33453,44 @@
       <c r="AA132" s="55"/>
       <c r="AB132" s="55"/>
       <c r="AC132" s="55"/>
-      <c r="AD132" s="108"/>
-      <c r="AE132" s="109"/>
-      <c r="AF132" s="110"/>
-      <c r="AG132" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH132" s="64"/>
-      <c r="AI132" s="65"/>
+      <c r="AD132" s="114"/>
+      <c r="AE132" s="55"/>
+      <c r="AF132" s="56"/>
+      <c r="AG132" s="107"/>
+      <c r="AH132" s="108"/>
+      <c r="AI132" s="109"/>
       <c r="AJ132" s="63" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="AK132" s="64"/>
       <c r="AL132" s="65"/>
-      <c r="AM132" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN132" s="76"/>
-      <c r="AO132" s="76"/>
-      <c r="AP132" s="77"/>
-      <c r="AQ132" s="78"/>
-    </row>
-    <row r="133" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G133" s="108"/>
-      <c r="H133" s="109"/>
-      <c r="I133" s="110"/>
-      <c r="J133" s="108">
+      <c r="AM132" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN132" s="64"/>
+      <c r="AO132" s="65"/>
+      <c r="AP132" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ132" s="116"/>
+      <c r="AR132" s="116"/>
+      <c r="AS132" s="117"/>
+      <c r="AT132" s="118"/>
+    </row>
+    <row r="133" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G133" s="107"/>
+      <c r="H133" s="108"/>
+      <c r="I133" s="109"/>
+      <c r="J133" s="107">
         <f t="shared" ref="J133:J137" si="0">J132+1</f>
         <v>4</v>
       </c>
-      <c r="K133" s="109"/>
-      <c r="L133" s="110"/>
-      <c r="M133" s="108" t="s">
+      <c r="K133" s="108"/>
+      <c r="L133" s="109"/>
+      <c r="M133" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="N133" s="110"/>
+      <c r="N133" s="109"/>
       <c r="O133" s="63">
         <v>9</v>
       </c>
@@ -33217,42 +33519,47 @@
         <v>105</v>
       </c>
       <c r="AB133" s="64"/>
-      <c r="AC133" s="65"/>
-      <c r="AD133" s="108"/>
-      <c r="AE133" s="109"/>
-      <c r="AF133" s="110"/>
-      <c r="AG133" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH133" s="64"/>
-      <c r="AI133" s="65"/>
+      <c r="AC133" s="64"/>
+      <c r="AD133" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE133" s="64"/>
+      <c r="AF133" s="65"/>
+      <c r="AG133" s="107"/>
+      <c r="AH133" s="108"/>
+      <c r="AI133" s="109"/>
       <c r="AJ133" s="63" t="s">
         <v>97</v>
       </c>
       <c r="AK133" s="64"/>
       <c r="AL133" s="65"/>
-      <c r="AM133" s="75" t="s">
+      <c r="AM133" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN133" s="64"/>
+      <c r="AO133" s="65"/>
+      <c r="AP133" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN133" s="76"/>
-      <c r="AO133" s="76"/>
-      <c r="AP133" s="77"/>
-      <c r="AQ133" s="78"/>
-    </row>
-    <row r="134" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G134" s="108"/>
-      <c r="H134" s="109"/>
-      <c r="I134" s="110"/>
-      <c r="J134" s="108">
+      <c r="AQ133" s="116"/>
+      <c r="AR133" s="116"/>
+      <c r="AS133" s="117"/>
+      <c r="AT133" s="118"/>
+    </row>
+    <row r="134" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G134" s="107"/>
+      <c r="H134" s="108"/>
+      <c r="I134" s="109"/>
+      <c r="J134" s="107">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K134" s="109"/>
-      <c r="L134" s="110"/>
-      <c r="M134" s="108" t="s">
+      <c r="K134" s="108"/>
+      <c r="L134" s="109"/>
+      <c r="M134" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="N134" s="110"/>
+      <c r="N134" s="109"/>
       <c r="O134" s="63">
         <v>9</v>
       </c>
@@ -33281,42 +33588,47 @@
         <v>105</v>
       </c>
       <c r="AB134" s="64"/>
-      <c r="AC134" s="65"/>
-      <c r="AD134" s="108"/>
-      <c r="AE134" s="109"/>
-      <c r="AF134" s="110"/>
-      <c r="AG134" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH134" s="64"/>
-      <c r="AI134" s="65"/>
+      <c r="AC134" s="64"/>
+      <c r="AD134" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE134" s="64"/>
+      <c r="AF134" s="65"/>
+      <c r="AG134" s="107"/>
+      <c r="AH134" s="108"/>
+      <c r="AI134" s="109"/>
       <c r="AJ134" s="63" t="s">
         <v>97</v>
       </c>
       <c r="AK134" s="64"/>
       <c r="AL134" s="65"/>
-      <c r="AM134" s="75" t="s">
+      <c r="AM134" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN134" s="64"/>
+      <c r="AO134" s="65"/>
+      <c r="AP134" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN134" s="76"/>
-      <c r="AO134" s="76"/>
-      <c r="AP134" s="77"/>
-      <c r="AQ134" s="78"/>
-    </row>
-    <row r="135" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G135" s="108"/>
-      <c r="H135" s="109"/>
-      <c r="I135" s="110"/>
-      <c r="J135" s="108">
+      <c r="AQ134" s="116"/>
+      <c r="AR134" s="116"/>
+      <c r="AS134" s="117"/>
+      <c r="AT134" s="118"/>
+    </row>
+    <row r="135" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G135" s="107"/>
+      <c r="H135" s="108"/>
+      <c r="I135" s="109"/>
+      <c r="J135" s="107">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K135" s="109"/>
-      <c r="L135" s="110"/>
-      <c r="M135" s="108" t="s">
+      <c r="K135" s="108"/>
+      <c r="L135" s="109"/>
+      <c r="M135" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="N135" s="110"/>
+      <c r="N135" s="109"/>
       <c r="O135" s="63">
         <v>9</v>
       </c>
@@ -33345,42 +33657,47 @@
         <v>30</v>
       </c>
       <c r="AB135" s="64"/>
-      <c r="AC135" s="65"/>
-      <c r="AD135" s="108"/>
-      <c r="AE135" s="109"/>
-      <c r="AF135" s="110"/>
-      <c r="AG135" s="63" t="s">
+      <c r="AC135" s="64"/>
+      <c r="AD135" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE135" s="64"/>
+      <c r="AF135" s="65"/>
+      <c r="AG135" s="107"/>
+      <c r="AH135" s="108"/>
+      <c r="AI135" s="109"/>
+      <c r="AJ135" s="63" t="s">
         <v>100</v>
-      </c>
-      <c r="AH135" s="64"/>
-      <c r="AI135" s="65"/>
-      <c r="AJ135" s="63" t="s">
-        <v>98</v>
       </c>
       <c r="AK135" s="64"/>
       <c r="AL135" s="65"/>
-      <c r="AM135" s="75" t="s">
+      <c r="AM135" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN135" s="64"/>
+      <c r="AO135" s="65"/>
+      <c r="AP135" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN135" s="76"/>
-      <c r="AO135" s="76"/>
-      <c r="AP135" s="77"/>
-      <c r="AQ135" s="78"/>
-    </row>
-    <row r="136" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G136" s="108"/>
-      <c r="H136" s="109"/>
-      <c r="I136" s="110"/>
-      <c r="J136" s="108">
+      <c r="AQ135" s="116"/>
+      <c r="AR135" s="116"/>
+      <c r="AS135" s="117"/>
+      <c r="AT135" s="118"/>
+    </row>
+    <row r="136" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G136" s="107"/>
+      <c r="H136" s="108"/>
+      <c r="I136" s="109"/>
+      <c r="J136" s="107">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K136" s="109"/>
-      <c r="L136" s="110"/>
-      <c r="M136" s="113" t="s">
+      <c r="K136" s="108"/>
+      <c r="L136" s="109"/>
+      <c r="M136" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="N136" s="114"/>
+      <c r="N136" s="111"/>
       <c r="O136" s="53"/>
       <c r="P136" s="54"/>
       <c r="Q136" s="56"/>
@@ -33398,41 +33715,40 @@
       <c r="AA136" s="55"/>
       <c r="AB136" s="55"/>
       <c r="AC136" s="55"/>
-      <c r="AD136" s="108"/>
-      <c r="AE136" s="109"/>
-      <c r="AF136" s="110"/>
-      <c r="AG136" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH136" s="64"/>
-      <c r="AI136" s="65"/>
-      <c r="AJ136" s="63" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD136" s="114"/>
+      <c r="AE136" s="55"/>
+      <c r="AF136" s="56"/>
+      <c r="AG136" s="107"/>
+      <c r="AH136" s="108"/>
+      <c r="AI136" s="109"/>
+      <c r="AJ136" s="63"/>
       <c r="AK136" s="64"/>
       <c r="AL136" s="65"/>
-      <c r="AM136" s="75" t="s">
+      <c r="AM136" s="63"/>
+      <c r="AN136" s="64"/>
+      <c r="AO136" s="65"/>
+      <c r="AP136" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN136" s="76"/>
-      <c r="AO136" s="76"/>
-      <c r="AP136" s="77"/>
-      <c r="AQ136" s="78"/>
-    </row>
-    <row r="137" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G137" s="108"/>
-      <c r="H137" s="109"/>
-      <c r="I137" s="110"/>
-      <c r="J137" s="108">
+      <c r="AQ136" s="116"/>
+      <c r="AR136" s="116"/>
+      <c r="AS136" s="117"/>
+      <c r="AT136" s="118"/>
+    </row>
+    <row r="137" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G137" s="107"/>
+      <c r="H137" s="108"/>
+      <c r="I137" s="109"/>
+      <c r="J137" s="107">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K137" s="109"/>
-      <c r="L137" s="110"/>
-      <c r="M137" s="111" t="s">
+      <c r="K137" s="108"/>
+      <c r="L137" s="109"/>
+      <c r="M137" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="N137" s="112"/>
+      <c r="N137" s="113"/>
       <c r="O137" s="53"/>
       <c r="P137" s="54"/>
       <c r="Q137" s="56"/>
@@ -33450,41 +33766,40 @@
       <c r="AA137" s="55"/>
       <c r="AB137" s="55"/>
       <c r="AC137" s="55"/>
-      <c r="AD137" s="108"/>
-      <c r="AE137" s="109"/>
-      <c r="AF137" s="110"/>
-      <c r="AG137" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH137" s="64"/>
-      <c r="AI137" s="65"/>
-      <c r="AJ137" s="63" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD137" s="114"/>
+      <c r="AE137" s="55"/>
+      <c r="AF137" s="56"/>
+      <c r="AG137" s="107"/>
+      <c r="AH137" s="108"/>
+      <c r="AI137" s="109"/>
+      <c r="AJ137" s="63"/>
       <c r="AK137" s="64"/>
       <c r="AL137" s="65"/>
-      <c r="AM137" s="75" t="s">
+      <c r="AM137" s="63"/>
+      <c r="AN137" s="64"/>
+      <c r="AO137" s="65"/>
+      <c r="AP137" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN137" s="76"/>
-      <c r="AO137" s="76"/>
-      <c r="AP137" s="77"/>
-      <c r="AQ137" s="78"/>
-    </row>
-    <row r="138" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G138" s="108"/>
-      <c r="H138" s="109"/>
-      <c r="I138" s="110"/>
-      <c r="J138" s="108">
+      <c r="AQ137" s="116"/>
+      <c r="AR137" s="116"/>
+      <c r="AS137" s="117"/>
+      <c r="AT137" s="118"/>
+    </row>
+    <row r="138" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G138" s="107"/>
+      <c r="H138" s="108"/>
+      <c r="I138" s="109"/>
+      <c r="J138" s="107">
         <f t="shared" ref="J138:J151" si="1">J137+1</f>
         <v>9</v>
       </c>
-      <c r="K138" s="109"/>
-      <c r="L138" s="110"/>
-      <c r="M138" s="111" t="s">
+      <c r="K138" s="108"/>
+      <c r="L138" s="109"/>
+      <c r="M138" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="N138" s="112"/>
+      <c r="N138" s="113"/>
       <c r="O138" s="53"/>
       <c r="P138" s="54"/>
       <c r="Q138" s="56"/>
@@ -33502,41 +33817,40 @@
       <c r="AA138" s="55"/>
       <c r="AB138" s="55"/>
       <c r="AC138" s="55"/>
-      <c r="AD138" s="108"/>
-      <c r="AE138" s="109"/>
-      <c r="AF138" s="110"/>
-      <c r="AG138" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH138" s="64"/>
-      <c r="AI138" s="65"/>
-      <c r="AJ138" s="63" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD138" s="114"/>
+      <c r="AE138" s="55"/>
+      <c r="AF138" s="56"/>
+      <c r="AG138" s="107"/>
+      <c r="AH138" s="108"/>
+      <c r="AI138" s="109"/>
+      <c r="AJ138" s="63"/>
       <c r="AK138" s="64"/>
       <c r="AL138" s="65"/>
-      <c r="AM138" s="75" t="s">
+      <c r="AM138" s="63"/>
+      <c r="AN138" s="64"/>
+      <c r="AO138" s="65"/>
+      <c r="AP138" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN138" s="76"/>
-      <c r="AO138" s="76"/>
-      <c r="AP138" s="77"/>
-      <c r="AQ138" s="78"/>
-    </row>
-    <row r="139" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G139" s="108"/>
-      <c r="H139" s="109"/>
-      <c r="I139" s="110"/>
-      <c r="J139" s="108">
+      <c r="AQ138" s="116"/>
+      <c r="AR138" s="116"/>
+      <c r="AS138" s="117"/>
+      <c r="AT138" s="118"/>
+    </row>
+    <row r="139" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G139" s="107"/>
+      <c r="H139" s="108"/>
+      <c r="I139" s="109"/>
+      <c r="J139" s="107">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K139" s="109"/>
-      <c r="L139" s="110"/>
-      <c r="M139" s="108" t="s">
+      <c r="K139" s="108"/>
+      <c r="L139" s="109"/>
+      <c r="M139" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="N139" s="110"/>
+      <c r="N139" s="109"/>
       <c r="O139" s="63">
         <v>9</v>
       </c>
@@ -33565,42 +33879,47 @@
         <v>104</v>
       </c>
       <c r="AB139" s="64"/>
-      <c r="AC139" s="65"/>
-      <c r="AD139" s="108"/>
-      <c r="AE139" s="109"/>
-      <c r="AF139" s="110"/>
-      <c r="AG139" s="63" t="s">
+      <c r="AC139" s="64"/>
+      <c r="AD139" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE139" s="64"/>
+      <c r="AF139" s="65"/>
+      <c r="AG139" s="107"/>
+      <c r="AH139" s="108"/>
+      <c r="AI139" s="109"/>
+      <c r="AJ139" s="63" t="s">
         <v>102</v>
-      </c>
-      <c r="AH139" s="64"/>
-      <c r="AI139" s="65"/>
-      <c r="AJ139" s="63" t="s">
-        <v>101</v>
       </c>
       <c r="AK139" s="64"/>
       <c r="AL139" s="65"/>
-      <c r="AM139" s="75" t="s">
+      <c r="AM139" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN139" s="64"/>
+      <c r="AO139" s="65"/>
+      <c r="AP139" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN139" s="76"/>
-      <c r="AO139" s="76"/>
-      <c r="AP139" s="77"/>
-      <c r="AQ139" s="78"/>
-    </row>
-    <row r="140" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G140" s="108"/>
-      <c r="H140" s="109"/>
-      <c r="I140" s="110"/>
-      <c r="J140" s="108">
+      <c r="AQ139" s="116"/>
+      <c r="AR139" s="116"/>
+      <c r="AS139" s="117"/>
+      <c r="AT139" s="118"/>
+    </row>
+    <row r="140" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G140" s="107"/>
+      <c r="H140" s="108"/>
+      <c r="I140" s="109"/>
+      <c r="J140" s="107">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K140" s="109"/>
-      <c r="L140" s="110"/>
-      <c r="M140" s="108" t="s">
+      <c r="K140" s="108"/>
+      <c r="L140" s="109"/>
+      <c r="M140" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="N140" s="110"/>
+      <c r="N140" s="109"/>
       <c r="O140" s="63">
         <v>9</v>
       </c>
@@ -33629,42 +33948,47 @@
         <v>104</v>
       </c>
       <c r="AB140" s="64"/>
-      <c r="AC140" s="65"/>
-      <c r="AD140" s="108"/>
-      <c r="AE140" s="109"/>
-      <c r="AF140" s="110"/>
-      <c r="AG140" s="63" t="s">
+      <c r="AC140" s="64"/>
+      <c r="AD140" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE140" s="64"/>
+      <c r="AF140" s="65"/>
+      <c r="AG140" s="107"/>
+      <c r="AH140" s="108"/>
+      <c r="AI140" s="109"/>
+      <c r="AJ140" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH140" s="64"/>
-      <c r="AI140" s="65"/>
-      <c r="AJ140" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK140" s="64"/>
       <c r="AL140" s="65"/>
-      <c r="AM140" s="75" t="s">
+      <c r="AM140" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN140" s="64"/>
+      <c r="AO140" s="65"/>
+      <c r="AP140" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN140" s="76"/>
-      <c r="AO140" s="76"/>
-      <c r="AP140" s="77"/>
-      <c r="AQ140" s="78"/>
-    </row>
-    <row r="141" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G141" s="108"/>
-      <c r="H141" s="109"/>
-      <c r="I141" s="110"/>
-      <c r="J141" s="108">
+      <c r="AQ140" s="116"/>
+      <c r="AR140" s="116"/>
+      <c r="AS140" s="117"/>
+      <c r="AT140" s="118"/>
+    </row>
+    <row r="141" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G141" s="107"/>
+      <c r="H141" s="108"/>
+      <c r="I141" s="109"/>
+      <c r="J141" s="107">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K141" s="109"/>
-      <c r="L141" s="110"/>
-      <c r="M141" s="108" t="s">
+      <c r="K141" s="108"/>
+      <c r="L141" s="109"/>
+      <c r="M141" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="N141" s="110"/>
+      <c r="N141" s="109"/>
       <c r="O141" s="63">
         <v>9</v>
       </c>
@@ -33693,42 +34017,47 @@
         <v>104</v>
       </c>
       <c r="AB141" s="64"/>
-      <c r="AC141" s="65"/>
-      <c r="AD141" s="108"/>
-      <c r="AE141" s="109"/>
-      <c r="AF141" s="110"/>
-      <c r="AG141" s="63" t="s">
+      <c r="AC141" s="64"/>
+      <c r="AD141" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE141" s="64"/>
+      <c r="AF141" s="65"/>
+      <c r="AG141" s="107"/>
+      <c r="AH141" s="108"/>
+      <c r="AI141" s="109"/>
+      <c r="AJ141" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH141" s="64"/>
-      <c r="AI141" s="65"/>
-      <c r="AJ141" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK141" s="64"/>
       <c r="AL141" s="65"/>
-      <c r="AM141" s="75" t="s">
+      <c r="AM141" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN141" s="64"/>
+      <c r="AO141" s="65"/>
+      <c r="AP141" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN141" s="76"/>
-      <c r="AO141" s="76"/>
-      <c r="AP141" s="77"/>
-      <c r="AQ141" s="78"/>
-    </row>
-    <row r="142" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G142" s="108"/>
-      <c r="H142" s="109"/>
-      <c r="I142" s="110"/>
-      <c r="J142" s="108">
+      <c r="AQ141" s="116"/>
+      <c r="AR141" s="116"/>
+      <c r="AS141" s="117"/>
+      <c r="AT141" s="118"/>
+    </row>
+    <row r="142" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G142" s="107"/>
+      <c r="H142" s="108"/>
+      <c r="I142" s="109"/>
+      <c r="J142" s="107">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K142" s="109"/>
-      <c r="L142" s="110"/>
-      <c r="M142" s="108" t="s">
+      <c r="K142" s="108"/>
+      <c r="L142" s="109"/>
+      <c r="M142" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="N142" s="110"/>
+      <c r="N142" s="109"/>
       <c r="O142" s="63">
         <v>9</v>
       </c>
@@ -33757,42 +34086,47 @@
         <v>104</v>
       </c>
       <c r="AB142" s="64"/>
-      <c r="AC142" s="65"/>
-      <c r="AD142" s="108"/>
-      <c r="AE142" s="109"/>
-      <c r="AF142" s="110"/>
-      <c r="AG142" s="63" t="s">
+      <c r="AC142" s="64"/>
+      <c r="AD142" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE142" s="64"/>
+      <c r="AF142" s="65"/>
+      <c r="AG142" s="107"/>
+      <c r="AH142" s="108"/>
+      <c r="AI142" s="109"/>
+      <c r="AJ142" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH142" s="64"/>
-      <c r="AI142" s="65"/>
-      <c r="AJ142" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK142" s="64"/>
       <c r="AL142" s="65"/>
-      <c r="AM142" s="75" t="s">
+      <c r="AM142" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN142" s="64"/>
+      <c r="AO142" s="65"/>
+      <c r="AP142" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN142" s="76"/>
-      <c r="AO142" s="76"/>
-      <c r="AP142" s="77"/>
-      <c r="AQ142" s="78"/>
-    </row>
-    <row r="143" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G143" s="108"/>
-      <c r="H143" s="109"/>
-      <c r="I143" s="110"/>
-      <c r="J143" s="108">
+      <c r="AQ142" s="116"/>
+      <c r="AR142" s="116"/>
+      <c r="AS142" s="117"/>
+      <c r="AT142" s="118"/>
+    </row>
+    <row r="143" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G143" s="107"/>
+      <c r="H143" s="108"/>
+      <c r="I143" s="109"/>
+      <c r="J143" s="107">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K143" s="109"/>
-      <c r="L143" s="110"/>
-      <c r="M143" s="113" t="s">
+      <c r="K143" s="108"/>
+      <c r="L143" s="109"/>
+      <c r="M143" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="N143" s="114"/>
+      <c r="N143" s="111"/>
       <c r="O143" s="53"/>
       <c r="P143" s="54"/>
       <c r="Q143" s="56"/>
@@ -33810,41 +34144,40 @@
       <c r="AA143" s="55"/>
       <c r="AB143" s="55"/>
       <c r="AC143" s="55"/>
-      <c r="AD143" s="108"/>
-      <c r="AE143" s="109"/>
-      <c r="AF143" s="110"/>
-      <c r="AG143" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH143" s="64"/>
-      <c r="AI143" s="65"/>
-      <c r="AJ143" s="63" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD143" s="114"/>
+      <c r="AE143" s="55"/>
+      <c r="AF143" s="56"/>
+      <c r="AG143" s="107"/>
+      <c r="AH143" s="108"/>
+      <c r="AI143" s="109"/>
+      <c r="AJ143" s="63"/>
       <c r="AK143" s="64"/>
       <c r="AL143" s="65"/>
-      <c r="AM143" s="75" t="s">
+      <c r="AM143" s="63"/>
+      <c r="AN143" s="64"/>
+      <c r="AO143" s="65"/>
+      <c r="AP143" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN143" s="76"/>
-      <c r="AO143" s="76"/>
-      <c r="AP143" s="77"/>
-      <c r="AQ143" s="78"/>
-    </row>
-    <row r="144" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G144" s="108"/>
-      <c r="H144" s="109"/>
-      <c r="I144" s="110"/>
-      <c r="J144" s="108">
+      <c r="AQ143" s="116"/>
+      <c r="AR143" s="116"/>
+      <c r="AS143" s="117"/>
+      <c r="AT143" s="118"/>
+    </row>
+    <row r="144" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G144" s="107"/>
+      <c r="H144" s="108"/>
+      <c r="I144" s="109"/>
+      <c r="J144" s="107">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K144" s="109"/>
-      <c r="L144" s="110"/>
-      <c r="M144" s="111" t="s">
+      <c r="K144" s="108"/>
+      <c r="L144" s="109"/>
+      <c r="M144" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="N144" s="112"/>
+      <c r="N144" s="113"/>
       <c r="O144" s="53"/>
       <c r="P144" s="54"/>
       <c r="Q144" s="56"/>
@@ -33862,41 +34195,40 @@
       <c r="AA144" s="55"/>
       <c r="AB144" s="55"/>
       <c r="AC144" s="55"/>
-      <c r="AD144" s="108"/>
-      <c r="AE144" s="109"/>
-      <c r="AF144" s="110"/>
-      <c r="AG144" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH144" s="64"/>
-      <c r="AI144" s="65"/>
-      <c r="AJ144" s="63" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD144" s="114"/>
+      <c r="AE144" s="55"/>
+      <c r="AF144" s="56"/>
+      <c r="AG144" s="107"/>
+      <c r="AH144" s="108"/>
+      <c r="AI144" s="109"/>
+      <c r="AJ144" s="63"/>
       <c r="AK144" s="64"/>
       <c r="AL144" s="65"/>
-      <c r="AM144" s="75" t="s">
+      <c r="AM144" s="63"/>
+      <c r="AN144" s="64"/>
+      <c r="AO144" s="65"/>
+      <c r="AP144" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN144" s="76"/>
-      <c r="AO144" s="76"/>
-      <c r="AP144" s="77"/>
-      <c r="AQ144" s="78"/>
-    </row>
-    <row r="145" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G145" s="108"/>
-      <c r="H145" s="109"/>
-      <c r="I145" s="110"/>
-      <c r="J145" s="108">
+      <c r="AQ144" s="116"/>
+      <c r="AR144" s="116"/>
+      <c r="AS144" s="117"/>
+      <c r="AT144" s="118"/>
+    </row>
+    <row r="145" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G145" s="107"/>
+      <c r="H145" s="108"/>
+      <c r="I145" s="109"/>
+      <c r="J145" s="107">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K145" s="109"/>
-      <c r="L145" s="110"/>
-      <c r="M145" s="108" t="s">
+      <c r="K145" s="108"/>
+      <c r="L145" s="109"/>
+      <c r="M145" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="N145" s="110"/>
+      <c r="N145" s="109"/>
       <c r="O145" s="63">
         <v>9</v>
       </c>
@@ -33925,42 +34257,47 @@
         <v>104</v>
       </c>
       <c r="AB145" s="64"/>
-      <c r="AC145" s="65"/>
-      <c r="AD145" s="108"/>
-      <c r="AE145" s="109"/>
-      <c r="AF145" s="110"/>
-      <c r="AG145" s="63" t="s">
+      <c r="AC145" s="64"/>
+      <c r="AD145" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE145" s="64"/>
+      <c r="AF145" s="65"/>
+      <c r="AG145" s="107"/>
+      <c r="AH145" s="108"/>
+      <c r="AI145" s="109"/>
+      <c r="AJ145" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH145" s="64"/>
-      <c r="AI145" s="65"/>
-      <c r="AJ145" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK145" s="64"/>
       <c r="AL145" s="65"/>
-      <c r="AM145" s="75" t="s">
+      <c r="AM145" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN145" s="64"/>
+      <c r="AO145" s="65"/>
+      <c r="AP145" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN145" s="76"/>
-      <c r="AO145" s="76"/>
-      <c r="AP145" s="77"/>
-      <c r="AQ145" s="78"/>
-    </row>
-    <row r="146" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G146" s="108"/>
-      <c r="H146" s="109"/>
-      <c r="I146" s="110"/>
-      <c r="J146" s="108">
+      <c r="AQ145" s="116"/>
+      <c r="AR145" s="116"/>
+      <c r="AS145" s="117"/>
+      <c r="AT145" s="118"/>
+    </row>
+    <row r="146" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G146" s="107"/>
+      <c r="H146" s="108"/>
+      <c r="I146" s="109"/>
+      <c r="J146" s="107">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K146" s="109"/>
-      <c r="L146" s="110"/>
-      <c r="M146" s="108" t="s">
+      <c r="K146" s="108"/>
+      <c r="L146" s="109"/>
+      <c r="M146" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="N146" s="110"/>
+      <c r="N146" s="109"/>
       <c r="O146" s="63">
         <v>9</v>
       </c>
@@ -33989,42 +34326,47 @@
         <v>104</v>
       </c>
       <c r="AB146" s="64"/>
-      <c r="AC146" s="65"/>
-      <c r="AD146" s="108"/>
-      <c r="AE146" s="109"/>
-      <c r="AF146" s="110"/>
-      <c r="AG146" s="63" t="s">
+      <c r="AC146" s="64"/>
+      <c r="AD146" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE146" s="64"/>
+      <c r="AF146" s="65"/>
+      <c r="AG146" s="107"/>
+      <c r="AH146" s="108"/>
+      <c r="AI146" s="109"/>
+      <c r="AJ146" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH146" s="64"/>
-      <c r="AI146" s="65"/>
-      <c r="AJ146" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK146" s="64"/>
       <c r="AL146" s="65"/>
-      <c r="AM146" s="75" t="s">
+      <c r="AM146" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN146" s="64"/>
+      <c r="AO146" s="65"/>
+      <c r="AP146" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN146" s="76"/>
-      <c r="AO146" s="76"/>
-      <c r="AP146" s="77"/>
-      <c r="AQ146" s="78"/>
-    </row>
-    <row r="147" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G147" s="108"/>
-      <c r="H147" s="109"/>
-      <c r="I147" s="110"/>
-      <c r="J147" s="108">
+      <c r="AQ146" s="116"/>
+      <c r="AR146" s="116"/>
+      <c r="AS146" s="117"/>
+      <c r="AT146" s="118"/>
+    </row>
+    <row r="147" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G147" s="107"/>
+      <c r="H147" s="108"/>
+      <c r="I147" s="109"/>
+      <c r="J147" s="107">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K147" s="109"/>
-      <c r="L147" s="110"/>
-      <c r="M147" s="108" t="s">
+      <c r="K147" s="108"/>
+      <c r="L147" s="109"/>
+      <c r="M147" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="N147" s="110"/>
+      <c r="N147" s="109"/>
       <c r="O147" s="63">
         <v>9</v>
       </c>
@@ -34053,42 +34395,47 @@
         <v>104</v>
       </c>
       <c r="AB147" s="64"/>
-      <c r="AC147" s="65"/>
-      <c r="AD147" s="108"/>
-      <c r="AE147" s="109"/>
-      <c r="AF147" s="110"/>
-      <c r="AG147" s="63" t="s">
+      <c r="AC147" s="64"/>
+      <c r="AD147" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE147" s="64"/>
+      <c r="AF147" s="65"/>
+      <c r="AG147" s="107"/>
+      <c r="AH147" s="108"/>
+      <c r="AI147" s="109"/>
+      <c r="AJ147" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH147" s="64"/>
-      <c r="AI147" s="65"/>
-      <c r="AJ147" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK147" s="64"/>
       <c r="AL147" s="65"/>
-      <c r="AM147" s="75" t="s">
+      <c r="AM147" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN147" s="64"/>
+      <c r="AO147" s="65"/>
+      <c r="AP147" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN147" s="76"/>
-      <c r="AO147" s="76"/>
-      <c r="AP147" s="77"/>
-      <c r="AQ147" s="78"/>
-    </row>
-    <row r="148" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G148" s="108"/>
-      <c r="H148" s="109"/>
-      <c r="I148" s="110"/>
-      <c r="J148" s="108">
+      <c r="AQ147" s="116"/>
+      <c r="AR147" s="116"/>
+      <c r="AS147" s="117"/>
+      <c r="AT147" s="118"/>
+    </row>
+    <row r="148" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G148" s="107"/>
+      <c r="H148" s="108"/>
+      <c r="I148" s="109"/>
+      <c r="J148" s="107">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K148" s="109"/>
-      <c r="L148" s="110"/>
-      <c r="M148" s="108" t="s">
+      <c r="K148" s="108"/>
+      <c r="L148" s="109"/>
+      <c r="M148" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="N148" s="110"/>
+      <c r="N148" s="109"/>
       <c r="O148" s="63">
         <v>9</v>
       </c>
@@ -34117,42 +34464,47 @@
         <v>104</v>
       </c>
       <c r="AB148" s="64"/>
-      <c r="AC148" s="65"/>
-      <c r="AD148" s="108"/>
-      <c r="AE148" s="109"/>
-      <c r="AF148" s="110"/>
-      <c r="AG148" s="63" t="s">
+      <c r="AC148" s="64"/>
+      <c r="AD148" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE148" s="64"/>
+      <c r="AF148" s="65"/>
+      <c r="AG148" s="107"/>
+      <c r="AH148" s="108"/>
+      <c r="AI148" s="109"/>
+      <c r="AJ148" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH148" s="64"/>
-      <c r="AI148" s="65"/>
-      <c r="AJ148" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK148" s="64"/>
       <c r="AL148" s="65"/>
-      <c r="AM148" s="75" t="s">
+      <c r="AM148" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN148" s="64"/>
+      <c r="AO148" s="65"/>
+      <c r="AP148" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN148" s="76"/>
-      <c r="AO148" s="76"/>
-      <c r="AP148" s="77"/>
-      <c r="AQ148" s="78"/>
-    </row>
-    <row r="149" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G149" s="108"/>
-      <c r="H149" s="109"/>
-      <c r="I149" s="110"/>
-      <c r="J149" s="108">
+      <c r="AQ148" s="116"/>
+      <c r="AR148" s="116"/>
+      <c r="AS148" s="117"/>
+      <c r="AT148" s="118"/>
+    </row>
+    <row r="149" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G149" s="107"/>
+      <c r="H149" s="108"/>
+      <c r="I149" s="109"/>
+      <c r="J149" s="107">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K149" s="109"/>
-      <c r="L149" s="110"/>
-      <c r="M149" s="108" t="s">
+      <c r="K149" s="108"/>
+      <c r="L149" s="109"/>
+      <c r="M149" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="N149" s="110"/>
+      <c r="N149" s="109"/>
       <c r="O149" s="63">
         <v>9</v>
       </c>
@@ -34181,42 +34533,47 @@
         <v>104</v>
       </c>
       <c r="AB149" s="64"/>
-      <c r="AC149" s="65"/>
-      <c r="AD149" s="108"/>
-      <c r="AE149" s="109"/>
-      <c r="AF149" s="110"/>
-      <c r="AG149" s="63" t="s">
+      <c r="AC149" s="64"/>
+      <c r="AD149" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE149" s="64"/>
+      <c r="AF149" s="65"/>
+      <c r="AG149" s="107"/>
+      <c r="AH149" s="108"/>
+      <c r="AI149" s="109"/>
+      <c r="AJ149" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH149" s="64"/>
-      <c r="AI149" s="65"/>
-      <c r="AJ149" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK149" s="64"/>
       <c r="AL149" s="65"/>
-      <c r="AM149" s="75" t="s">
+      <c r="AM149" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN149" s="64"/>
+      <c r="AO149" s="65"/>
+      <c r="AP149" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN149" s="76"/>
-      <c r="AO149" s="76"/>
-      <c r="AP149" s="77"/>
-      <c r="AQ149" s="78"/>
-    </row>
-    <row r="150" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G150" s="108"/>
-      <c r="H150" s="109"/>
-      <c r="I150" s="110"/>
-      <c r="J150" s="108">
+      <c r="AQ149" s="116"/>
+      <c r="AR149" s="116"/>
+      <c r="AS149" s="117"/>
+      <c r="AT149" s="118"/>
+    </row>
+    <row r="150" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G150" s="107"/>
+      <c r="H150" s="108"/>
+      <c r="I150" s="109"/>
+      <c r="J150" s="107">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K150" s="109"/>
-      <c r="L150" s="110"/>
-      <c r="M150" s="113" t="s">
+      <c r="K150" s="108"/>
+      <c r="L150" s="109"/>
+      <c r="M150" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="N150" s="114"/>
+      <c r="N150" s="111"/>
       <c r="O150" s="53"/>
       <c r="P150" s="54"/>
       <c r="Q150" s="56"/>
@@ -34234,41 +34591,40 @@
       <c r="AA150" s="55"/>
       <c r="AB150" s="55"/>
       <c r="AC150" s="55"/>
-      <c r="AD150" s="108"/>
-      <c r="AE150" s="109"/>
-      <c r="AF150" s="110"/>
-      <c r="AG150" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH150" s="64"/>
-      <c r="AI150" s="65"/>
-      <c r="AJ150" s="63" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD150" s="114"/>
+      <c r="AE150" s="55"/>
+      <c r="AF150" s="56"/>
+      <c r="AG150" s="107"/>
+      <c r="AH150" s="108"/>
+      <c r="AI150" s="109"/>
+      <c r="AJ150" s="63"/>
       <c r="AK150" s="64"/>
       <c r="AL150" s="65"/>
-      <c r="AM150" s="75" t="s">
+      <c r="AM150" s="63"/>
+      <c r="AN150" s="64"/>
+      <c r="AO150" s="65"/>
+      <c r="AP150" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN150" s="76"/>
-      <c r="AO150" s="76"/>
-      <c r="AP150" s="77"/>
-      <c r="AQ150" s="78"/>
-    </row>
-    <row r="151" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G151" s="108"/>
-      <c r="H151" s="109"/>
-      <c r="I151" s="110"/>
-      <c r="J151" s="108">
+      <c r="AQ150" s="116"/>
+      <c r="AR150" s="116"/>
+      <c r="AS150" s="117"/>
+      <c r="AT150" s="118"/>
+    </row>
+    <row r="151" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G151" s="107"/>
+      <c r="H151" s="108"/>
+      <c r="I151" s="109"/>
+      <c r="J151" s="107">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K151" s="109"/>
-      <c r="L151" s="110"/>
-      <c r="M151" s="111" t="s">
+      <c r="K151" s="108"/>
+      <c r="L151" s="109"/>
+      <c r="M151" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="N151" s="112"/>
+      <c r="N151" s="113"/>
       <c r="O151" s="53"/>
       <c r="P151" s="54"/>
       <c r="Q151" s="56"/>
@@ -34286,41 +34642,40 @@
       <c r="AA151" s="55"/>
       <c r="AB151" s="55"/>
       <c r="AC151" s="55"/>
-      <c r="AD151" s="108"/>
-      <c r="AE151" s="109"/>
-      <c r="AF151" s="110"/>
-      <c r="AG151" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH151" s="64"/>
-      <c r="AI151" s="65"/>
-      <c r="AJ151" s="63" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD151" s="114"/>
+      <c r="AE151" s="55"/>
+      <c r="AF151" s="56"/>
+      <c r="AG151" s="107"/>
+      <c r="AH151" s="108"/>
+      <c r="AI151" s="109"/>
+      <c r="AJ151" s="63"/>
       <c r="AK151" s="64"/>
       <c r="AL151" s="65"/>
-      <c r="AM151" s="75" t="s">
+      <c r="AM151" s="63"/>
+      <c r="AN151" s="64"/>
+      <c r="AO151" s="65"/>
+      <c r="AP151" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN151" s="76"/>
-      <c r="AO151" s="76"/>
-      <c r="AP151" s="77"/>
-      <c r="AQ151" s="78"/>
-    </row>
-    <row r="152" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G152" s="108"/>
-      <c r="H152" s="109"/>
-      <c r="I152" s="110"/>
-      <c r="J152" s="108">
+      <c r="AQ151" s="116"/>
+      <c r="AR151" s="116"/>
+      <c r="AS151" s="117"/>
+      <c r="AT151" s="118"/>
+    </row>
+    <row r="152" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G152" s="107"/>
+      <c r="H152" s="108"/>
+      <c r="I152" s="109"/>
+      <c r="J152" s="107">
         <f t="shared" ref="J152:J160" si="2">J151+1</f>
         <v>23</v>
       </c>
-      <c r="K152" s="109"/>
-      <c r="L152" s="110"/>
-      <c r="M152" s="108" t="s">
+      <c r="K152" s="108"/>
+      <c r="L152" s="109"/>
+      <c r="M152" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="N152" s="110"/>
+      <c r="N152" s="109"/>
       <c r="O152" s="63">
         <v>9</v>
       </c>
@@ -34349,42 +34704,47 @@
         <v>104</v>
       </c>
       <c r="AB152" s="64"/>
-      <c r="AC152" s="65"/>
-      <c r="AD152" s="108"/>
-      <c r="AE152" s="109"/>
-      <c r="AF152" s="110"/>
-      <c r="AG152" s="63" t="s">
+      <c r="AC152" s="64"/>
+      <c r="AD152" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE152" s="64"/>
+      <c r="AF152" s="65"/>
+      <c r="AG152" s="107"/>
+      <c r="AH152" s="108"/>
+      <c r="AI152" s="109"/>
+      <c r="AJ152" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH152" s="64"/>
-      <c r="AI152" s="65"/>
-      <c r="AJ152" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK152" s="64"/>
       <c r="AL152" s="65"/>
-      <c r="AM152" s="75" t="s">
+      <c r="AM152" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN152" s="64"/>
+      <c r="AO152" s="65"/>
+      <c r="AP152" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN152" s="76"/>
-      <c r="AO152" s="76"/>
-      <c r="AP152" s="77"/>
-      <c r="AQ152" s="78"/>
-    </row>
-    <row r="153" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G153" s="108"/>
-      <c r="H153" s="109"/>
-      <c r="I153" s="110"/>
-      <c r="J153" s="108">
+      <c r="AQ152" s="116"/>
+      <c r="AR152" s="116"/>
+      <c r="AS152" s="117"/>
+      <c r="AT152" s="118"/>
+    </row>
+    <row r="153" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G153" s="107"/>
+      <c r="H153" s="108"/>
+      <c r="I153" s="109"/>
+      <c r="J153" s="107">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="K153" s="109"/>
-      <c r="L153" s="110"/>
-      <c r="M153" s="108" t="s">
+      <c r="K153" s="108"/>
+      <c r="L153" s="109"/>
+      <c r="M153" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="N153" s="110"/>
+      <c r="N153" s="109"/>
       <c r="O153" s="63">
         <v>9</v>
       </c>
@@ -34413,42 +34773,47 @@
         <v>104</v>
       </c>
       <c r="AB153" s="64"/>
-      <c r="AC153" s="65"/>
-      <c r="AD153" s="108"/>
-      <c r="AE153" s="109"/>
-      <c r="AF153" s="110"/>
-      <c r="AG153" s="63" t="s">
+      <c r="AC153" s="64"/>
+      <c r="AD153" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE153" s="64"/>
+      <c r="AF153" s="65"/>
+      <c r="AG153" s="107"/>
+      <c r="AH153" s="108"/>
+      <c r="AI153" s="109"/>
+      <c r="AJ153" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH153" s="64"/>
-      <c r="AI153" s="65"/>
-      <c r="AJ153" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK153" s="64"/>
       <c r="AL153" s="65"/>
-      <c r="AM153" s="75" t="s">
+      <c r="AM153" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN153" s="64"/>
+      <c r="AO153" s="65"/>
+      <c r="AP153" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN153" s="76"/>
-      <c r="AO153" s="76"/>
-      <c r="AP153" s="77"/>
-      <c r="AQ153" s="78"/>
-    </row>
-    <row r="154" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G154" s="108"/>
-      <c r="H154" s="109"/>
-      <c r="I154" s="110"/>
-      <c r="J154" s="108">
+      <c r="AQ153" s="116"/>
+      <c r="AR153" s="116"/>
+      <c r="AS153" s="117"/>
+      <c r="AT153" s="118"/>
+    </row>
+    <row r="154" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G154" s="107"/>
+      <c r="H154" s="108"/>
+      <c r="I154" s="109"/>
+      <c r="J154" s="107">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K154" s="109"/>
-      <c r="L154" s="110"/>
-      <c r="M154" s="108" t="s">
+      <c r="K154" s="108"/>
+      <c r="L154" s="109"/>
+      <c r="M154" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="N154" s="110"/>
+      <c r="N154" s="109"/>
       <c r="O154" s="63">
         <v>9</v>
       </c>
@@ -34477,42 +34842,47 @@
         <v>104</v>
       </c>
       <c r="AB154" s="64"/>
-      <c r="AC154" s="65"/>
-      <c r="AD154" s="108"/>
-      <c r="AE154" s="109"/>
-      <c r="AF154" s="110"/>
-      <c r="AG154" s="63" t="s">
+      <c r="AC154" s="64"/>
+      <c r="AD154" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE154" s="64"/>
+      <c r="AF154" s="65"/>
+      <c r="AG154" s="107"/>
+      <c r="AH154" s="108"/>
+      <c r="AI154" s="109"/>
+      <c r="AJ154" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH154" s="64"/>
-      <c r="AI154" s="65"/>
-      <c r="AJ154" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK154" s="64"/>
       <c r="AL154" s="65"/>
-      <c r="AM154" s="75" t="s">
+      <c r="AM154" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN154" s="64"/>
+      <c r="AO154" s="65"/>
+      <c r="AP154" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN154" s="76"/>
-      <c r="AO154" s="76"/>
-      <c r="AP154" s="77"/>
-      <c r="AQ154" s="78"/>
-    </row>
-    <row r="155" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G155" s="108"/>
-      <c r="H155" s="109"/>
-      <c r="I155" s="110"/>
-      <c r="J155" s="108">
+      <c r="AQ154" s="116"/>
+      <c r="AR154" s="116"/>
+      <c r="AS154" s="117"/>
+      <c r="AT154" s="118"/>
+    </row>
+    <row r="155" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G155" s="107"/>
+      <c r="H155" s="108"/>
+      <c r="I155" s="109"/>
+      <c r="J155" s="107">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="K155" s="109"/>
-      <c r="L155" s="110"/>
-      <c r="M155" s="108" t="s">
+      <c r="K155" s="108"/>
+      <c r="L155" s="109"/>
+      <c r="M155" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="N155" s="110"/>
+      <c r="N155" s="109"/>
       <c r="O155" s="63">
         <v>9</v>
       </c>
@@ -34541,42 +34911,47 @@
         <v>104</v>
       </c>
       <c r="AB155" s="64"/>
-      <c r="AC155" s="65"/>
-      <c r="AD155" s="108"/>
-      <c r="AE155" s="109"/>
-      <c r="AF155" s="110"/>
-      <c r="AG155" s="63" t="s">
+      <c r="AC155" s="64"/>
+      <c r="AD155" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE155" s="64"/>
+      <c r="AF155" s="65"/>
+      <c r="AG155" s="107"/>
+      <c r="AH155" s="108"/>
+      <c r="AI155" s="109"/>
+      <c r="AJ155" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH155" s="64"/>
-      <c r="AI155" s="65"/>
-      <c r="AJ155" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK155" s="64"/>
       <c r="AL155" s="65"/>
-      <c r="AM155" s="75" t="s">
+      <c r="AM155" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN155" s="64"/>
+      <c r="AO155" s="65"/>
+      <c r="AP155" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN155" s="76"/>
-      <c r="AO155" s="76"/>
-      <c r="AP155" s="77"/>
-      <c r="AQ155" s="78"/>
-    </row>
-    <row r="156" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G156" s="108"/>
-      <c r="H156" s="109"/>
-      <c r="I156" s="110"/>
-      <c r="J156" s="108">
+      <c r="AQ155" s="116"/>
+      <c r="AR155" s="116"/>
+      <c r="AS155" s="117"/>
+      <c r="AT155" s="118"/>
+    </row>
+    <row r="156" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G156" s="107"/>
+      <c r="H156" s="108"/>
+      <c r="I156" s="109"/>
+      <c r="J156" s="107">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="K156" s="109"/>
-      <c r="L156" s="110"/>
-      <c r="M156" s="108" t="s">
+      <c r="K156" s="108"/>
+      <c r="L156" s="109"/>
+      <c r="M156" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="N156" s="110"/>
+      <c r="N156" s="109"/>
       <c r="O156" s="63">
         <v>9</v>
       </c>
@@ -34605,42 +34980,47 @@
         <v>104</v>
       </c>
       <c r="AB156" s="64"/>
-      <c r="AC156" s="65"/>
-      <c r="AD156" s="108"/>
-      <c r="AE156" s="109"/>
-      <c r="AF156" s="110"/>
-      <c r="AG156" s="63" t="s">
+      <c r="AC156" s="64"/>
+      <c r="AD156" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE156" s="64"/>
+      <c r="AF156" s="65"/>
+      <c r="AG156" s="107"/>
+      <c r="AH156" s="108"/>
+      <c r="AI156" s="109"/>
+      <c r="AJ156" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH156" s="64"/>
-      <c r="AI156" s="65"/>
-      <c r="AJ156" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK156" s="64"/>
       <c r="AL156" s="65"/>
-      <c r="AM156" s="75" t="s">
+      <c r="AM156" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN156" s="64"/>
+      <c r="AO156" s="65"/>
+      <c r="AP156" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN156" s="76"/>
-      <c r="AO156" s="76"/>
-      <c r="AP156" s="77"/>
-      <c r="AQ156" s="78"/>
-    </row>
-    <row r="157" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G157" s="108"/>
-      <c r="H157" s="109"/>
-      <c r="I157" s="110"/>
-      <c r="J157" s="108">
+      <c r="AQ156" s="116"/>
+      <c r="AR156" s="116"/>
+      <c r="AS156" s="117"/>
+      <c r="AT156" s="118"/>
+    </row>
+    <row r="157" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G157" s="107"/>
+      <c r="H157" s="108"/>
+      <c r="I157" s="109"/>
+      <c r="J157" s="107">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K157" s="109"/>
-      <c r="L157" s="110"/>
-      <c r="M157" s="113" t="s">
+      <c r="K157" s="108"/>
+      <c r="L157" s="109"/>
+      <c r="M157" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="N157" s="114"/>
+      <c r="N157" s="111"/>
       <c r="O157" s="53"/>
       <c r="P157" s="54"/>
       <c r="Q157" s="56"/>
@@ -34658,41 +35038,40 @@
       <c r="AA157" s="55"/>
       <c r="AB157" s="55"/>
       <c r="AC157" s="55"/>
-      <c r="AD157" s="108"/>
-      <c r="AE157" s="109"/>
-      <c r="AF157" s="110"/>
-      <c r="AG157" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH157" s="64"/>
-      <c r="AI157" s="65"/>
-      <c r="AJ157" s="63" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD157" s="114"/>
+      <c r="AE157" s="55"/>
+      <c r="AF157" s="56"/>
+      <c r="AG157" s="107"/>
+      <c r="AH157" s="108"/>
+      <c r="AI157" s="109"/>
+      <c r="AJ157" s="63"/>
       <c r="AK157" s="64"/>
       <c r="AL157" s="65"/>
-      <c r="AM157" s="75" t="s">
+      <c r="AM157" s="63"/>
+      <c r="AN157" s="64"/>
+      <c r="AO157" s="65"/>
+      <c r="AP157" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN157" s="76"/>
-      <c r="AO157" s="76"/>
-      <c r="AP157" s="77"/>
-      <c r="AQ157" s="78"/>
-    </row>
-    <row r="158" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G158" s="108"/>
-      <c r="H158" s="109"/>
-      <c r="I158" s="110"/>
-      <c r="J158" s="108">
+      <c r="AQ157" s="116"/>
+      <c r="AR157" s="116"/>
+      <c r="AS157" s="117"/>
+      <c r="AT157" s="118"/>
+    </row>
+    <row r="158" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G158" s="107"/>
+      <c r="H158" s="108"/>
+      <c r="I158" s="109"/>
+      <c r="J158" s="107">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="K158" s="109"/>
-      <c r="L158" s="110"/>
-      <c r="M158" s="111" t="s">
+      <c r="K158" s="108"/>
+      <c r="L158" s="109"/>
+      <c r="M158" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="N158" s="112"/>
+      <c r="N158" s="113"/>
       <c r="O158" s="53"/>
       <c r="P158" s="54"/>
       <c r="Q158" s="56"/>
@@ -34710,41 +35089,40 @@
       <c r="AA158" s="55"/>
       <c r="AB158" s="55"/>
       <c r="AC158" s="55"/>
-      <c r="AD158" s="108"/>
-      <c r="AE158" s="109"/>
-      <c r="AF158" s="110"/>
-      <c r="AG158" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH158" s="64"/>
-      <c r="AI158" s="65"/>
-      <c r="AJ158" s="63" t="s">
-        <v>97</v>
-      </c>
+      <c r="AD158" s="114"/>
+      <c r="AE158" s="55"/>
+      <c r="AF158" s="56"/>
+      <c r="AG158" s="107"/>
+      <c r="AH158" s="108"/>
+      <c r="AI158" s="109"/>
+      <c r="AJ158" s="63"/>
       <c r="AK158" s="64"/>
       <c r="AL158" s="65"/>
-      <c r="AM158" s="75" t="s">
+      <c r="AM158" s="63"/>
+      <c r="AN158" s="64"/>
+      <c r="AO158" s="65"/>
+      <c r="AP158" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN158" s="76"/>
-      <c r="AO158" s="76"/>
-      <c r="AP158" s="77"/>
-      <c r="AQ158" s="78"/>
-    </row>
-    <row r="159" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G159" s="108"/>
-      <c r="H159" s="109"/>
-      <c r="I159" s="110"/>
-      <c r="J159" s="108">
+      <c r="AQ158" s="116"/>
+      <c r="AR158" s="116"/>
+      <c r="AS158" s="117"/>
+      <c r="AT158" s="118"/>
+    </row>
+    <row r="159" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G159" s="107"/>
+      <c r="H159" s="108"/>
+      <c r="I159" s="109"/>
+      <c r="J159" s="107">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K159" s="109"/>
-      <c r="L159" s="110"/>
-      <c r="M159" s="108" t="s">
+      <c r="K159" s="108"/>
+      <c r="L159" s="109"/>
+      <c r="M159" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="N159" s="110"/>
+      <c r="N159" s="109"/>
       <c r="O159" s="63">
         <v>9</v>
       </c>
@@ -34773,42 +35151,47 @@
         <v>104</v>
       </c>
       <c r="AB159" s="64"/>
-      <c r="AC159" s="65"/>
-      <c r="AD159" s="108"/>
-      <c r="AE159" s="109"/>
-      <c r="AF159" s="110"/>
-      <c r="AG159" s="63" t="s">
+      <c r="AC159" s="64"/>
+      <c r="AD159" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE159" s="64"/>
+      <c r="AF159" s="65"/>
+      <c r="AG159" s="107"/>
+      <c r="AH159" s="108"/>
+      <c r="AI159" s="109"/>
+      <c r="AJ159" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH159" s="64"/>
-      <c r="AI159" s="65"/>
-      <c r="AJ159" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK159" s="64"/>
       <c r="AL159" s="65"/>
-      <c r="AM159" s="75" t="s">
+      <c r="AM159" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN159" s="64"/>
+      <c r="AO159" s="65"/>
+      <c r="AP159" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN159" s="76"/>
-      <c r="AO159" s="76"/>
-      <c r="AP159" s="77"/>
-      <c r="AQ159" s="78"/>
-    </row>
-    <row r="160" spans="7:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G160" s="108"/>
-      <c r="H160" s="109"/>
-      <c r="I160" s="110"/>
-      <c r="J160" s="108">
+      <c r="AQ159" s="116"/>
+      <c r="AR159" s="116"/>
+      <c r="AS159" s="117"/>
+      <c r="AT159" s="118"/>
+    </row>
+    <row r="160" spans="7:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G160" s="107"/>
+      <c r="H160" s="108"/>
+      <c r="I160" s="109"/>
+      <c r="J160" s="107">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="K160" s="109"/>
-      <c r="L160" s="110"/>
-      <c r="M160" s="108" t="s">
+      <c r="K160" s="108"/>
+      <c r="L160" s="109"/>
+      <c r="M160" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="N160" s="110"/>
+      <c r="N160" s="109"/>
       <c r="O160" s="63">
         <v>9</v>
       </c>
@@ -34837,34 +35220,39 @@
         <v>104</v>
       </c>
       <c r="AB160" s="64"/>
-      <c r="AC160" s="65"/>
-      <c r="AD160" s="108"/>
-      <c r="AE160" s="109"/>
-      <c r="AF160" s="110"/>
-      <c r="AG160" s="63" t="s">
+      <c r="AC160" s="64"/>
+      <c r="AD160" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE160" s="64"/>
+      <c r="AF160" s="65"/>
+      <c r="AG160" s="107"/>
+      <c r="AH160" s="108"/>
+      <c r="AI160" s="109"/>
+      <c r="AJ160" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="AH160" s="64"/>
-      <c r="AI160" s="65"/>
-      <c r="AJ160" s="63" t="s">
-        <v>97</v>
       </c>
       <c r="AK160" s="64"/>
       <c r="AL160" s="65"/>
-      <c r="AM160" s="75" t="s">
+      <c r="AM160" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN160" s="64"/>
+      <c r="AO160" s="65"/>
+      <c r="AP160" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN160" s="76"/>
-      <c r="AO160" s="76"/>
-      <c r="AP160" s="77"/>
-      <c r="AQ160" s="78"/>
-    </row>
-    <row r="163" spans="6:43" x14ac:dyDescent="0.4">
-      <c r="F163" s="81" t="s">
+      <c r="AQ160" s="116"/>
+      <c r="AR160" s="116"/>
+      <c r="AS160" s="117"/>
+      <c r="AT160" s="118"/>
+    </row>
+    <row r="163" spans="6:46" x14ac:dyDescent="0.4">
+      <c r="F163" s="80" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="164" spans="6:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="6:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G164" s="66"/>
       <c r="H164" s="67"/>
       <c r="I164" s="68"/>
@@ -34904,36 +35292,41 @@
       <c r="AE164" s="67"/>
       <c r="AF164" s="68"/>
       <c r="AG164" s="66" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="AH164" s="67"/>
       <c r="AI164" s="68"/>
       <c r="AJ164" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK164" s="67"/>
+      <c r="AL164" s="68"/>
+      <c r="AM164" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="AK164" s="67"/>
-      <c r="AL164" s="67"/>
-      <c r="AM164" s="72" t="s">
+      <c r="AN164" s="67"/>
+      <c r="AO164" s="67"/>
+      <c r="AP164" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AN164" s="73"/>
-      <c r="AO164" s="73"/>
-      <c r="AP164" s="73"/>
-      <c r="AQ164" s="74"/>
-    </row>
-    <row r="165" spans="6:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G165" s="108"/>
-      <c r="H165" s="109"/>
-      <c r="I165" s="110"/>
-      <c r="J165" s="108">
+      <c r="AQ164" s="73"/>
+      <c r="AR164" s="73"/>
+      <c r="AS164" s="73"/>
+      <c r="AT164" s="74"/>
+    </row>
+    <row r="165" spans="6:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G165" s="107"/>
+      <c r="H165" s="108"/>
+      <c r="I165" s="109"/>
+      <c r="J165" s="107">
         <v>1</v>
       </c>
-      <c r="K165" s="109"/>
-      <c r="L165" s="110"/>
-      <c r="M165" s="111" t="s">
+      <c r="K165" s="108"/>
+      <c r="L165" s="109"/>
+      <c r="M165" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="N165" s="112"/>
+      <c r="N165" s="113"/>
       <c r="O165" s="53"/>
       <c r="P165" s="54"/>
       <c r="Q165" s="56"/>
@@ -34951,33 +35344,36 @@
       <c r="AA165" s="55"/>
       <c r="AB165" s="55"/>
       <c r="AC165" s="55"/>
-      <c r="AD165" s="108"/>
-      <c r="AE165" s="109"/>
-      <c r="AF165" s="110"/>
-      <c r="AG165" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH165" s="64"/>
-      <c r="AI165" s="65"/>
+      <c r="AD165" s="107"/>
+      <c r="AE165" s="108"/>
+      <c r="AF165" s="109"/>
+      <c r="AG165" s="114"/>
+      <c r="AH165" s="55"/>
+      <c r="AI165" s="56"/>
       <c r="AJ165" s="63" t="s">
         <v>97</v>
       </c>
       <c r="AK165" s="64"/>
-      <c r="AL165" s="64"/>
-      <c r="AM165" s="75" t="s">
+      <c r="AL165" s="65"/>
+      <c r="AM165" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN165" s="64"/>
+      <c r="AO165" s="64"/>
+      <c r="AP165" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN165" s="76"/>
-      <c r="AO165" s="76"/>
-      <c r="AP165" s="77"/>
-      <c r="AQ165" s="78"/>
-    </row>
-    <row r="167" spans="6:43" x14ac:dyDescent="0.4">
-      <c r="F167" s="81" t="s">
+      <c r="AQ165" s="75"/>
+      <c r="AR165" s="75"/>
+      <c r="AS165" s="76"/>
+      <c r="AT165" s="77"/>
+    </row>
+    <row r="167" spans="6:46" x14ac:dyDescent="0.4">
+      <c r="F167" s="80" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="168" spans="6:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="6:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G168" s="66"/>
       <c r="H168" s="67"/>
       <c r="I168" s="68"/>
@@ -35017,36 +35413,41 @@
       <c r="AE168" s="67"/>
       <c r="AF168" s="68"/>
       <c r="AG168" s="66" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="AH168" s="67"/>
       <c r="AI168" s="68"/>
       <c r="AJ168" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK168" s="67"/>
+      <c r="AL168" s="68"/>
+      <c r="AM168" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="AK168" s="67"/>
-      <c r="AL168" s="67"/>
-      <c r="AM168" s="72" t="s">
+      <c r="AN168" s="67"/>
+      <c r="AO168" s="67"/>
+      <c r="AP168" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AN168" s="73"/>
-      <c r="AO168" s="73"/>
-      <c r="AP168" s="73"/>
-      <c r="AQ168" s="74"/>
-    </row>
-    <row r="169" spans="6:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G169" s="108"/>
-      <c r="H169" s="109"/>
-      <c r="I169" s="110"/>
-      <c r="J169" s="108">
+      <c r="AQ168" s="73"/>
+      <c r="AR168" s="73"/>
+      <c r="AS168" s="73"/>
+      <c r="AT168" s="74"/>
+    </row>
+    <row r="169" spans="6:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G169" s="107"/>
+      <c r="H169" s="108"/>
+      <c r="I169" s="109"/>
+      <c r="J169" s="107">
         <v>1</v>
       </c>
-      <c r="K169" s="109"/>
-      <c r="L169" s="110"/>
-      <c r="M169" s="111" t="s">
+      <c r="K169" s="108"/>
+      <c r="L169" s="109"/>
+      <c r="M169" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="N169" s="112"/>
+      <c r="N169" s="113"/>
       <c r="O169" s="53"/>
       <c r="P169" s="54"/>
       <c r="Q169" s="56"/>
@@ -35064,33 +35465,36 @@
       <c r="AA169" s="55"/>
       <c r="AB169" s="55"/>
       <c r="AC169" s="55"/>
-      <c r="AD169" s="108"/>
-      <c r="AE169" s="109"/>
-      <c r="AF169" s="110"/>
-      <c r="AG169" s="63" t="s">
+      <c r="AD169" s="107"/>
+      <c r="AE169" s="108"/>
+      <c r="AF169" s="109"/>
+      <c r="AG169" s="114"/>
+      <c r="AH169" s="55"/>
+      <c r="AI169" s="56"/>
+      <c r="AJ169" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="AH169" s="64"/>
-      <c r="AI169" s="65"/>
-      <c r="AJ169" s="63" t="s">
+      <c r="AK169" s="64"/>
+      <c r="AL169" s="65"/>
+      <c r="AM169" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="AK169" s="64"/>
-      <c r="AL169" s="64"/>
-      <c r="AM169" s="75" t="s">
+      <c r="AN169" s="64"/>
+      <c r="AO169" s="64"/>
+      <c r="AP169" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN169" s="76"/>
-      <c r="AO169" s="76"/>
-      <c r="AP169" s="77"/>
-      <c r="AQ169" s="78"/>
-    </row>
-    <row r="171" spans="6:43" x14ac:dyDescent="0.4">
-      <c r="F171" s="81" t="s">
+      <c r="AQ169" s="75"/>
+      <c r="AR169" s="75"/>
+      <c r="AS169" s="76"/>
+      <c r="AT169" s="77"/>
+    </row>
+    <row r="171" spans="6:46" x14ac:dyDescent="0.4">
+      <c r="F171" s="80" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="172" spans="6:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="6:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G172" s="66"/>
       <c r="H172" s="67"/>
       <c r="I172" s="68"/>
@@ -35130,36 +35534,41 @@
       <c r="AE172" s="67"/>
       <c r="AF172" s="68"/>
       <c r="AG172" s="66" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="AH172" s="67"/>
       <c r="AI172" s="68"/>
       <c r="AJ172" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK172" s="67"/>
+      <c r="AL172" s="68"/>
+      <c r="AM172" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="AK172" s="67"/>
-      <c r="AL172" s="67"/>
-      <c r="AM172" s="72" t="s">
+      <c r="AN172" s="67"/>
+      <c r="AO172" s="67"/>
+      <c r="AP172" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AN172" s="73"/>
-      <c r="AO172" s="73"/>
-      <c r="AP172" s="73"/>
-      <c r="AQ172" s="74"/>
-    </row>
-    <row r="173" spans="6:43" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G173" s="108"/>
-      <c r="H173" s="109"/>
-      <c r="I173" s="110"/>
-      <c r="J173" s="108">
+      <c r="AQ172" s="73"/>
+      <c r="AR172" s="73"/>
+      <c r="AS172" s="73"/>
+      <c r="AT172" s="74"/>
+    </row>
+    <row r="173" spans="6:46" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G173" s="107"/>
+      <c r="H173" s="108"/>
+      <c r="I173" s="109"/>
+      <c r="J173" s="107">
         <v>1</v>
       </c>
-      <c r="K173" s="109"/>
-      <c r="L173" s="110"/>
-      <c r="M173" s="111" t="s">
+      <c r="K173" s="108"/>
+      <c r="L173" s="109"/>
+      <c r="M173" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="N173" s="112"/>
+      <c r="N173" s="113"/>
       <c r="O173" s="63">
         <v>9</v>
       </c>
@@ -35189,11 +35598,11 @@
       </c>
       <c r="AB173" s="64"/>
       <c r="AC173" s="65"/>
-      <c r="AD173" s="108"/>
-      <c r="AE173" s="109"/>
-      <c r="AF173" s="110"/>
+      <c r="AD173" s="107"/>
+      <c r="AE173" s="108"/>
+      <c r="AF173" s="109"/>
       <c r="AG173" s="63" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="AH173" s="64"/>
       <c r="AI173" s="65"/>
@@ -35201,79 +35610,82 @@
         <v>97</v>
       </c>
       <c r="AK173" s="64"/>
-      <c r="AL173" s="64"/>
-      <c r="AM173" s="75" t="s">
+      <c r="AL173" s="65"/>
+      <c r="AM173" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN173" s="64"/>
+      <c r="AO173" s="64"/>
+      <c r="AP173" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN173" s="76"/>
-      <c r="AO173" s="76"/>
-      <c r="AP173" s="77"/>
-      <c r="AQ173" s="78"/>
+      <c r="AQ173" s="75"/>
+      <c r="AR173" s="75"/>
+      <c r="AS173" s="76"/>
+      <c r="AT173" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="G160:I160"/>
-    <mergeCell ref="G155:I155"/>
-    <mergeCell ref="G156:I156"/>
-    <mergeCell ref="G157:I157"/>
-    <mergeCell ref="G158:I158"/>
-    <mergeCell ref="G159:I159"/>
-    <mergeCell ref="G150:I150"/>
-    <mergeCell ref="G151:I151"/>
-    <mergeCell ref="G152:I152"/>
-    <mergeCell ref="G153:I153"/>
-    <mergeCell ref="G154:I154"/>
-    <mergeCell ref="G145:I145"/>
-    <mergeCell ref="G146:I146"/>
-    <mergeCell ref="G147:I147"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="G149:I149"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="AD159:AF159"/>
-    <mergeCell ref="AD160:AF160"/>
-    <mergeCell ref="AD153:AF153"/>
-    <mergeCell ref="AD154:AF154"/>
-    <mergeCell ref="AD155:AF155"/>
-    <mergeCell ref="AD156:AF156"/>
-    <mergeCell ref="AD157:AF157"/>
-    <mergeCell ref="AD158:AF158"/>
-    <mergeCell ref="AD152:AF152"/>
-    <mergeCell ref="AD150:AF150"/>
-    <mergeCell ref="AD151:AF151"/>
-    <mergeCell ref="AD140:AF140"/>
-    <mergeCell ref="AD130:AF130"/>
-    <mergeCell ref="AD131:AF131"/>
-    <mergeCell ref="AD132:AF132"/>
-    <mergeCell ref="AD133:AF133"/>
-    <mergeCell ref="AD134:AF134"/>
-    <mergeCell ref="AD135:AF135"/>
-    <mergeCell ref="AD136:AF136"/>
-    <mergeCell ref="AD137:AF137"/>
-    <mergeCell ref="AD138:AF138"/>
-    <mergeCell ref="AD139:AF139"/>
-    <mergeCell ref="AD141:AF141"/>
-    <mergeCell ref="AD142:AF142"/>
-    <mergeCell ref="AD143:AF143"/>
-    <mergeCell ref="AD144:AF144"/>
-    <mergeCell ref="AD145:AF145"/>
-    <mergeCell ref="AD146:AF146"/>
-    <mergeCell ref="AD147:AF147"/>
-    <mergeCell ref="AD148:AF148"/>
-    <mergeCell ref="AD149:AF149"/>
+    <mergeCell ref="G165:I165"/>
+    <mergeCell ref="J165:L165"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="AD165:AF165"/>
+    <mergeCell ref="G169:I169"/>
+    <mergeCell ref="J169:L169"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="AD169:AF169"/>
+    <mergeCell ref="G173:I173"/>
+    <mergeCell ref="J173:L173"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="AD173:AF173"/>
+    <mergeCell ref="J133:L133"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="J134:L134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="J135:L135"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="J130:L130"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="J131:L131"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="J132:L132"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="J139:L139"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="J140:L140"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="J141:L141"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="J136:L136"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="J137:L137"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="J138:L138"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="J145:L145"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="J146:L146"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="J147:L147"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="J142:L142"/>
+    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="J143:L143"/>
+    <mergeCell ref="M143:N143"/>
+    <mergeCell ref="J144:L144"/>
+    <mergeCell ref="M144:N144"/>
+    <mergeCell ref="J151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="J152:L152"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="J153:L153"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="J148:L148"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="J149:L149"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="J150:L150"/>
+    <mergeCell ref="M150:N150"/>
     <mergeCell ref="J160:L160"/>
     <mergeCell ref="M160:N160"/>
     <mergeCell ref="J156:L156"/>
@@ -35288,66 +35700,68 @@
     <mergeCell ref="M155:N155"/>
     <mergeCell ref="J159:L159"/>
     <mergeCell ref="M159:N159"/>
-    <mergeCell ref="J151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="J152:L152"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="J153:L153"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="J148:L148"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="J149:L149"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="J150:L150"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="J145:L145"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="J146:L146"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="J147:L147"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="J142:L142"/>
-    <mergeCell ref="M142:N142"/>
-    <mergeCell ref="J143:L143"/>
-    <mergeCell ref="M143:N143"/>
-    <mergeCell ref="J144:L144"/>
-    <mergeCell ref="M144:N144"/>
-    <mergeCell ref="J139:L139"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="J140:L140"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="J141:L141"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="J136:L136"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="J137:L137"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="J138:L138"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="J133:L133"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="J134:L134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="J135:L135"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="J130:L130"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="J131:L131"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="J132:L132"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="G165:I165"/>
-    <mergeCell ref="J165:L165"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="AD165:AF165"/>
-    <mergeCell ref="G169:I169"/>
-    <mergeCell ref="J169:L169"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="AD169:AF169"/>
-    <mergeCell ref="G173:I173"/>
-    <mergeCell ref="J173:L173"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="AD173:AF173"/>
+    <mergeCell ref="AG150:AI150"/>
+    <mergeCell ref="AG151:AI151"/>
+    <mergeCell ref="AG140:AI140"/>
+    <mergeCell ref="AG130:AI130"/>
+    <mergeCell ref="AG131:AI131"/>
+    <mergeCell ref="AG132:AI132"/>
+    <mergeCell ref="AG133:AI133"/>
+    <mergeCell ref="AG134:AI134"/>
+    <mergeCell ref="AG135:AI135"/>
+    <mergeCell ref="AG136:AI136"/>
+    <mergeCell ref="AG137:AI137"/>
+    <mergeCell ref="AG138:AI138"/>
+    <mergeCell ref="AG139:AI139"/>
+    <mergeCell ref="AG141:AI141"/>
+    <mergeCell ref="AG142:AI142"/>
+    <mergeCell ref="AG143:AI143"/>
+    <mergeCell ref="AG144:AI144"/>
+    <mergeCell ref="AG145:AI145"/>
+    <mergeCell ref="AG146:AI146"/>
+    <mergeCell ref="AG147:AI147"/>
+    <mergeCell ref="AG148:AI148"/>
+    <mergeCell ref="AG149:AI149"/>
+    <mergeCell ref="AG159:AI159"/>
+    <mergeCell ref="AG160:AI160"/>
+    <mergeCell ref="AG153:AI153"/>
+    <mergeCell ref="AG154:AI154"/>
+    <mergeCell ref="AG155:AI155"/>
+    <mergeCell ref="AG156:AI156"/>
+    <mergeCell ref="AG157:AI157"/>
+    <mergeCell ref="AG158:AI158"/>
+    <mergeCell ref="AG152:AI152"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="G145:I145"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="G147:I147"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="G149:I149"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="G160:I160"/>
+    <mergeCell ref="G155:I155"/>
+    <mergeCell ref="G156:I156"/>
+    <mergeCell ref="G157:I157"/>
+    <mergeCell ref="G158:I158"/>
+    <mergeCell ref="G159:I159"/>
+    <mergeCell ref="G150:I150"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="G153:I153"/>
+    <mergeCell ref="G154:I154"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35392,7 +35806,7 @@
   </sheetPr>
   <dimension ref="B1:G132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
@@ -35400,954 +35814,954 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="11" style="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="86" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="92" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="95"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="94"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="96"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="97"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="96"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="96"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="96"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="96"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="97"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="96"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="97"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="96"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="96"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="97"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="96"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="96"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="97"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="96"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="96"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="97"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="96"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="96"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="97"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="96"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="96"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="97"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="96"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="96"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="97"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="96"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="96"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="97"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="96"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="96"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="97"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="96"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="96"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="97"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="96"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="96"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="97"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="96"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="96"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="97"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="96"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="96"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="97"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="96"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="96"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="97"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="96"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="96"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="97"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="96"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="96"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="97"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="96"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="96"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="97"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="96"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="96"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="97"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="96"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="96"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="97"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="96"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="96"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="97"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="96"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="96"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="97"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="96"/>
     </row>
     <row r="28" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="98"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="102"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="101"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="107"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="106"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="96"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="97"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="96"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="96"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="97"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="96"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="96"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="97"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="96"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="96"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="97"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="96"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="96"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="97"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="96"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="96"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="97"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="96"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="96"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="97"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="96"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="96"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="97"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="96"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="96"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="97"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="96"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="96"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="97"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="96"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="96"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="97"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="96"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="96"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="97"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="96"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="96"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="97"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="96"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="96"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="97"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="96"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="96"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="97"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="96"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="96"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="97"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="96"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="96"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="97"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="96"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="96"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="97"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="96"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="96"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="97"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="96"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="96"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="97"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="96"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B50" s="96"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="97"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="96"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="96"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="97"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="96"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B52" s="96"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="97"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="96"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B53" s="96"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="97"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="96"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B54" s="96"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="97"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="96"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B55" s="96"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="97"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="96"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B56" s="96"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="97"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="96"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B57" s="96"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="97"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="96"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B58" s="96"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="97"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="96"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="96"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="97"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="96"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="96"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="86"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="97"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="96"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B61" s="96"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="97"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="96"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B62" s="96"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="97"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="96"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B63" s="96"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="86"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="97"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="96"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B64" s="96"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="97"/>
+      <c r="B64" s="95"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="96"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B65" s="96"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="97"/>
+      <c r="B65" s="95"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="96"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B66" s="96"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="97"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="96"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B67" s="96"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="97"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="96"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B68" s="96"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="86"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="97"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="96"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B69" s="96"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="86"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="97"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="96"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B70" s="96"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="86"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="97"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="96"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B71" s="96"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="97"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="96"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B72" s="96"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="86"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="97"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="96"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B73" s="96"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="86"/>
-      <c r="F73" s="86"/>
-      <c r="G73" s="97"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="96"/>
     </row>
     <row r="74" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="98"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="100"/>
-      <c r="G74" s="102"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="101"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B75" s="103" t="s">
+      <c r="B75" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="104"/>
-      <c r="D75" s="105"/>
-      <c r="E75" s="106"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="107"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="104"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="104"/>
+      <c r="G75" s="106"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B76" s="96"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="86"/>
-      <c r="F76" s="86"/>
-      <c r="G76" s="97"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="85"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="96"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B77" s="96"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="86"/>
-      <c r="F77" s="86"/>
-      <c r="G77" s="97"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="96"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B78" s="96"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="86"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="97"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="96"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B79" s="96"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="97"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="96"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B80" s="96"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="86"/>
-      <c r="F80" s="86"/>
-      <c r="G80" s="97"/>
+      <c r="B80" s="95"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="96"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B81" s="96"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="86"/>
-      <c r="F81" s="86"/>
-      <c r="G81" s="97"/>
+      <c r="B81" s="95"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="96"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B82" s="96"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="86"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="97"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="96"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B83" s="96"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="86"/>
-      <c r="F83" s="86"/>
-      <c r="G83" s="97"/>
+      <c r="B83" s="95"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="96"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B84" s="96"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="86"/>
-      <c r="F84" s="86"/>
-      <c r="G84" s="97"/>
+      <c r="B84" s="95"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="96"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B85" s="96"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="86"/>
-      <c r="F85" s="86"/>
-      <c r="G85" s="97"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="85"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="96"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B86" s="96"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="86"/>
-      <c r="F86" s="86"/>
-      <c r="G86" s="97"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="96"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B87" s="96"/>
-      <c r="C87" s="84"/>
-      <c r="D87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="97"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="96"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B88" s="96"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="86"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="97"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="96"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B89" s="96"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="86"/>
-      <c r="F89" s="86"/>
-      <c r="G89" s="97"/>
+      <c r="B89" s="95"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="96"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B90" s="96"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="86"/>
-      <c r="F90" s="86"/>
-      <c r="G90" s="97"/>
+      <c r="B90" s="95"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="96"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B91" s="96"/>
-      <c r="C91" s="84"/>
-      <c r="D91" s="86"/>
-      <c r="F91" s="86"/>
-      <c r="G91" s="97"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="96"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B92" s="96"/>
-      <c r="C92" s="84"/>
-      <c r="D92" s="86"/>
-      <c r="F92" s="86"/>
-      <c r="G92" s="97"/>
+      <c r="B92" s="95"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="96"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B93" s="96"/>
-      <c r="C93" s="84"/>
-      <c r="D93" s="86"/>
-      <c r="F93" s="86"/>
-      <c r="G93" s="97"/>
+      <c r="B93" s="95"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="96"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B94" s="96"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="86"/>
-      <c r="F94" s="86"/>
-      <c r="G94" s="97"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="96"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B95" s="96"/>
-      <c r="C95" s="84"/>
-      <c r="D95" s="86"/>
-      <c r="F95" s="86"/>
-      <c r="G95" s="97"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="85"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="96"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B96" s="96"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="86"/>
-      <c r="F96" s="86"/>
-      <c r="G96" s="97"/>
+      <c r="B96" s="95"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="85"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="96"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B97" s="96"/>
-      <c r="C97" s="84"/>
-      <c r="D97" s="86"/>
-      <c r="F97" s="86"/>
-      <c r="G97" s="97"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="85"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="96"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B98" s="96"/>
-      <c r="C98" s="84"/>
-      <c r="D98" s="86"/>
-      <c r="F98" s="86"/>
-      <c r="G98" s="97"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="85"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="96"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B99" s="96"/>
-      <c r="C99" s="84"/>
-      <c r="D99" s="86"/>
-      <c r="F99" s="86"/>
-      <c r="G99" s="97"/>
+      <c r="B99" s="95"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="96"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B100" s="96"/>
-      <c r="C100" s="84"/>
-      <c r="D100" s="86"/>
-      <c r="F100" s="86"/>
-      <c r="G100" s="97"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="96"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B101" s="96"/>
-      <c r="C101" s="84"/>
-      <c r="D101" s="86"/>
-      <c r="F101" s="86"/>
-      <c r="G101" s="97"/>
+      <c r="B101" s="95"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="85"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="96"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B102" s="96"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="86"/>
-      <c r="F102" s="86"/>
-      <c r="G102" s="97"/>
+      <c r="B102" s="95"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="85"/>
+      <c r="F102" s="85"/>
+      <c r="G102" s="96"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B103" s="96"/>
-      <c r="C103" s="84"/>
-      <c r="D103" s="86"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="97"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="96"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B104" s="96"/>
-      <c r="C104" s="84"/>
-      <c r="D104" s="86"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="97"/>
+      <c r="B104" s="95"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="96"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B105" s="96"/>
-      <c r="C105" s="84"/>
-      <c r="D105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="97"/>
+      <c r="B105" s="95"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="96"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B106" s="96"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="86"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="97"/>
+      <c r="B106" s="95"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="85"/>
+      <c r="F106" s="85"/>
+      <c r="G106" s="96"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B107" s="96"/>
-      <c r="C107" s="84"/>
-      <c r="D107" s="86"/>
-      <c r="F107" s="86"/>
-      <c r="G107" s="97"/>
+      <c r="B107" s="95"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="85"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="96"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B108" s="96"/>
-      <c r="C108" s="84"/>
-      <c r="D108" s="86"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="97"/>
+      <c r="B108" s="95"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="96"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B109" s="96"/>
-      <c r="C109" s="84"/>
-      <c r="D109" s="86"/>
-      <c r="F109" s="86"/>
-      <c r="G109" s="97"/>
+      <c r="B109" s="95"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="85"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="96"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B110" s="96"/>
-      <c r="C110" s="84"/>
-      <c r="D110" s="86"/>
-      <c r="F110" s="86"/>
-      <c r="G110" s="97"/>
+      <c r="B110" s="95"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="85"/>
+      <c r="F110" s="85"/>
+      <c r="G110" s="96"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B111" s="96"/>
-      <c r="C111" s="84"/>
-      <c r="D111" s="86"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="97"/>
+      <c r="B111" s="95"/>
+      <c r="C111" s="83"/>
+      <c r="D111" s="85"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="96"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B112" s="96"/>
-      <c r="C112" s="84"/>
-      <c r="D112" s="86"/>
-      <c r="F112" s="86"/>
-      <c r="G112" s="97"/>
+      <c r="B112" s="95"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="85"/>
+      <c r="F112" s="85"/>
+      <c r="G112" s="96"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B113" s="96"/>
-      <c r="C113" s="84"/>
-      <c r="D113" s="86"/>
-      <c r="F113" s="86"/>
-      <c r="G113" s="97"/>
+      <c r="B113" s="95"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="85"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="96"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B114" s="96"/>
-      <c r="C114" s="84"/>
-      <c r="D114" s="86"/>
-      <c r="F114" s="86"/>
-      <c r="G114" s="97"/>
+      <c r="B114" s="95"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="85"/>
+      <c r="F114" s="85"/>
+      <c r="G114" s="96"/>
     </row>
     <row r="115" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B115" s="98"/>
-      <c r="C115" s="99"/>
-      <c r="D115" s="100"/>
-      <c r="E115" s="101"/>
-      <c r="F115" s="100"/>
-      <c r="G115" s="102"/>
+      <c r="B115" s="97"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="99"/>
+      <c r="E115" s="100"/>
+      <c r="F115" s="99"/>
+      <c r="G115" s="101"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B116" s="103"/>
-      <c r="C116" s="104"/>
-      <c r="D116" s="105"/>
-      <c r="E116" s="106"/>
-      <c r="F116" s="105"/>
-      <c r="G116" s="107"/>
+      <c r="B116" s="102"/>
+      <c r="C116" s="103"/>
+      <c r="D116" s="104"/>
+      <c r="E116" s="105"/>
+      <c r="F116" s="104"/>
+      <c r="G116" s="106"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B117" s="96"/>
-      <c r="C117" s="84"/>
-      <c r="D117" s="86"/>
-      <c r="F117" s="86"/>
-      <c r="G117" s="97"/>
+      <c r="B117" s="95"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="96"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B118" s="96"/>
-      <c r="C118" s="84"/>
-      <c r="D118" s="86"/>
-      <c r="F118" s="86"/>
-      <c r="G118" s="97"/>
+      <c r="B118" s="95"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="96"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B119" s="96"/>
-      <c r="C119" s="84"/>
-      <c r="D119" s="86"/>
-      <c r="F119" s="86"/>
-      <c r="G119" s="97"/>
+      <c r="B119" s="95"/>
+      <c r="C119" s="83"/>
+      <c r="D119" s="85"/>
+      <c r="F119" s="85"/>
+      <c r="G119" s="96"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B120" s="96"/>
-      <c r="C120" s="84"/>
-      <c r="D120" s="86"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="97"/>
+      <c r="B120" s="95"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="85"/>
+      <c r="F120" s="85"/>
+      <c r="G120" s="96"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B121" s="96"/>
-      <c r="C121" s="84"/>
-      <c r="D121" s="86"/>
-      <c r="F121" s="86"/>
-      <c r="G121" s="97"/>
+      <c r="B121" s="95"/>
+      <c r="C121" s="83"/>
+      <c r="D121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="96"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B122" s="96"/>
-      <c r="C122" s="84"/>
-      <c r="D122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="97"/>
+      <c r="B122" s="95"/>
+      <c r="C122" s="83"/>
+      <c r="D122" s="85"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="96"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B123" s="96"/>
-      <c r="C123" s="84"/>
-      <c r="D123" s="86"/>
-      <c r="F123" s="86"/>
-      <c r="G123" s="97"/>
+      <c r="B123" s="95"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="96"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B124" s="96"/>
-      <c r="C124" s="84"/>
-      <c r="D124" s="86"/>
-      <c r="F124" s="86"/>
-      <c r="G124" s="97"/>
+      <c r="B124" s="95"/>
+      <c r="C124" s="83"/>
+      <c r="D124" s="85"/>
+      <c r="F124" s="85"/>
+      <c r="G124" s="96"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B125" s="96"/>
-      <c r="C125" s="84"/>
-      <c r="D125" s="86"/>
-      <c r="F125" s="86"/>
-      <c r="G125" s="97"/>
+      <c r="B125" s="95"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="96"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B126" s="96"/>
-      <c r="C126" s="84"/>
-      <c r="D126" s="86"/>
-      <c r="F126" s="86"/>
-      <c r="G126" s="97"/>
+      <c r="B126" s="95"/>
+      <c r="C126" s="83"/>
+      <c r="D126" s="85"/>
+      <c r="F126" s="85"/>
+      <c r="G126" s="96"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B127" s="96"/>
-      <c r="C127" s="84"/>
-      <c r="D127" s="86"/>
-      <c r="F127" s="86"/>
-      <c r="G127" s="97"/>
+      <c r="B127" s="95"/>
+      <c r="C127" s="83"/>
+      <c r="D127" s="85"/>
+      <c r="F127" s="85"/>
+      <c r="G127" s="96"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B128" s="96"/>
-      <c r="C128" s="84"/>
-      <c r="D128" s="86"/>
-      <c r="F128" s="86"/>
-      <c r="G128" s="97"/>
+      <c r="B128" s="95"/>
+      <c r="C128" s="83"/>
+      <c r="D128" s="85"/>
+      <c r="F128" s="85"/>
+      <c r="G128" s="96"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B129" s="96"/>
-      <c r="C129" s="84"/>
-      <c r="D129" s="86"/>
-      <c r="F129" s="86"/>
-      <c r="G129" s="97"/>
+      <c r="B129" s="95"/>
+      <c r="C129" s="83"/>
+      <c r="D129" s="85"/>
+      <c r="F129" s="85"/>
+      <c r="G129" s="96"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B130" s="96"/>
-      <c r="C130" s="84"/>
-      <c r="D130" s="86"/>
-      <c r="F130" s="86"/>
-      <c r="G130" s="97"/>
+      <c r="B130" s="95"/>
+      <c r="C130" s="83"/>
+      <c r="D130" s="85"/>
+      <c r="F130" s="85"/>
+      <c r="G130" s="96"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B131" s="96"/>
-      <c r="C131" s="84"/>
-      <c r="D131" s="86"/>
-      <c r="F131" s="86"/>
-      <c r="G131" s="97"/>
+      <c r="B131" s="95"/>
+      <c r="C131" s="83"/>
+      <c r="D131" s="85"/>
+      <c r="F131" s="85"/>
+      <c r="G131" s="96"/>
     </row>
     <row r="132" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B132" s="98"/>
-      <c r="C132" s="99"/>
-      <c r="D132" s="100"/>
-      <c r="E132" s="101"/>
-      <c r="F132" s="100"/>
-      <c r="G132" s="102"/>
+      <c r="B132" s="97"/>
+      <c r="C132" s="98"/>
+      <c r="D132" s="99"/>
+      <c r="E132" s="100"/>
+      <c r="F132" s="99"/>
+      <c r="G132" s="101"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
